--- a/juxtabowlbase.xlsx
+++ b/juxtabowlbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\Juxtaquiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A1684F3-DEF1-41C1-BE00-F796AC5A63D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93E57C-905B-4225-BC19-35FF44FE18A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11124" yWindow="0" windowWidth="11916" windowHeight="12960" xr2:uid="{806B2C5A-3F6D-4660-96D7-433745423FFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{806B2C5A-3F6D-4660-96D7-433745423FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="2924">
   <si>
     <t>Category</t>
   </si>
@@ -32323,6 +32323,3433 @@
   </si>
   <si>
     <t>MText</t>
+  </si>
+  <si>
+    <t>Answer the following about the literary career of gay English author J. R. Ackerley, for 10 points each.
+[10h] Ackerley wrote a 1968 memoir titled for one of these people “and Myself.” One of these people is the first title figure of the best-known memoir by Edmund Gosse (“goss”).</t>
+  </si>
+  <si>
+    <t>[10e] Ackerley wrote the travel book Hindoo Holiday after he was secured a passage to India by this other gay author. This was fitting, since this novelist wrote A Passage to India.</t>
+  </si>
+  <si>
+    <t>[10m] Ackerley’s best-known memoir details the bowel movements and sexual proclivities of Tulip, one of these characters. In a novel by Jerome K. Jerome, three men are accompanied down the Thames by a subtitular character of this type.</t>
+  </si>
+  <si>
+    <t>Answer the following about the literary career of gay English author J. R. Ackerley, for 10 points each.
+[10h] Ackerley wrote a 1968 memoir titled for one of these people “and Myself.” One of these people is the first title figure of the best-known memoir by Edmund Gosse (“goss”).
+ANSWER: fathers [or dads; accept My Father and Myself or Father and Son; prompt on parents]
+[10e] Ackerley wrote the travel book Hindoo Holiday after he was secured a passage to India by this other gay author. This was fitting, since this novelist wrote A Passage to India.
+ANSWER: E. M. Forster [or Edward Morgan Forster]
+[10m] Ackerley’s best-known memoir details the bowel movements and sexual proclivities of Tulip, one of these characters. In a novel by Jerome K. Jerome, three men are accompanied down the Thames by a subtitular character of this type.
+ANSWER: dogs</t>
+  </si>
+  <si>
+    <t>A character in this novel unknowingly models for the likeness of an android under the guise of sitting for a portrait. For 10 points each:
+[10m] Name this novel whose title character serves as an Artificial Friend to the sickly child Rosie and sabotages a construction machine.</t>
+  </si>
+  <si>
+    <t>[10e] Klara and the Sun is by this Japanese-British author, whose other science fiction and fantasy novels include The Buried Giant and Never Let Me Go.</t>
+  </si>
+  <si>
+    <t>[10h] The plot of Klara and the Sun is paralleled by this author’s 1944 novel Sirius, in which a hyper-intelligent dog becomes the companion of the girl Plaxy. This British sci-fi novelist explored evolution over long time scales in Starmaker and Last and First Men.</t>
+  </si>
+  <si>
+    <t>A character in this novel unknowingly models for the likeness of an android under the guise of sitting for a portrait. For 10 points each:
+[10m] Name this novel whose title character serves as an Artificial Friend to the sickly child Rosie and sabotages a construction machine.
+ANSWER: Klara and the Sun
+[10e] Klara and the Sun is by this Japanese-British author, whose other science fiction and fantasy novels include The Buried Giant and Never Let Me Go.
+ANSWER: Kazuo Ishiguro
+[10h] The plot of Klara and the Sun is paralleled by this author’s 1944 novel Sirius, in which a hyper-intelligent dog becomes the companion of the girl Plaxy. This British sci-fi novelist explored evolution over long time scales in Starmaker and Last and First Men.
+ANSWER: Olaf Stapledon</t>
+  </si>
+  <si>
+    <t>The title character of this novel contracts a skin disease called “dragonhide” before being swallowed by the earth and waking up in a kind of hospital that uses incurable patients for power and food. For 10 points each:
+[10h] Name this novel in which another character, Duncan Thaw, calmly anticipates an apocalyptic ending while sitting in a hilltop cemetery after meeting his creator, Alasdair Gray.</t>
+  </si>
+  <si>
+    <t>[10m] Lanark is largely set in Unthank, a dystopian version of this city devoid of daylight. This city is the setting of Douglas Stuart’s Shuggie Bain and James Kelman’s How Late It Was, How Late.</t>
+  </si>
+  <si>
+    <t>[10e] Gray wrote Lanark a decade before Poor Things, a send-up of this Mary Shelley novel about a scientist who reanimates dead matter.</t>
+  </si>
+  <si>
+    <t>The title character of this novel contracts a skin disease called “dragonhide” before being swallowed by the earth and waking up in a kind of hospital that uses incurable patients for power and food. For 10 points each:
+[10h] Name this novel in which another character, Duncan Thaw, calmly anticipates an apocalyptic ending while sitting in a hilltop cemetery after meeting his creator, Alasdair Gray.
+ANSWER: Lanark [or Lanark: A Life in Four Books]
+[10m] Lanark is largely set in Unthank, a dystopian version of this city devoid of daylight. This city is the setting of Douglas Stuart’s Shuggie Bain and James Kelman’s How Late It Was, How Late.
+ANSWER: Glasgow
+[10e] Gray wrote Lanark a decade before Poor Things, a send-up of this Mary Shelley novel about a scientist who reanimates dead matter.
+ANSWER: Frankenstein</t>
+  </si>
+  <si>
+    <t>Though predecessors in other languages included La secchia rapita (“la SECK-yah ra-PEE-ta”) by Alessandro Tassoni, the first work of this type in English is usually said to be Samuel Butler’s Hudibras. For 10 points each:
+[10m] Name this type of long poem that satirizes a trivial subject using elevated diction and epithets. English examples of poems in this two-word style include John Gay’s Trivia and The Dunciad.</t>
+  </si>
+  <si>
+    <t>[10e] This mock-epic opens by describing a “dire offence [which] from am’rous causes springs.” Sylphs led by Ariel fail to prevent the removal of Belinda’s hair in this poem by Alexander Pope.</t>
+  </si>
+  <si>
+    <t>[10h] This mock-epic by a different author begins with the title character, “pond’ring which of all his sons was fit / To reign, and wage immortal war with wit,” soon settling on a man who is “mature in dullness” and “stands confirm’d in full stupidity.”</t>
+  </si>
+  <si>
+    <t>Though predecessors in other languages included La secchia rapita (“la SECK-yah ra-PEE-ta”) by Alessandro Tassoni, the first work of this type in English is usually said to be Samuel Butler’s Hudibras. For 10 points each:
+[10m] Name this type of long poem that satirizes a trivial subject using elevated diction and epithets. English examples of poems in this two-word style include John Gay’s Trivia and The Dunciad.
+ANSWER: mock-epic [or mock-heroic; accept heroi-comic]
+[10e] This mock-epic opens by describing a “dire offence [which] from am’rous causes springs.” Sylphs led by Ariel fail to prevent the removal of Belinda’s hair in this poem by Alexander Pope.
+ANSWER: The Rape of the Lock
+[10h] This mock-epic by a different author begins with the title character, “pond’ring which of all his sons was fit / To reign, and wage immortal war with wit,” soon settling on a man who is “mature in dullness” and “stands confirm’d in full stupidity.”
+ANSWER: Mac Flecknoe</t>
+  </si>
+  <si>
+    <t>A book by Brad Leithauser imagines the Funesians, an Andean race with perfect recall of this property even over hundreds of lines of a poem. For 10 points each:
+[10e] Name this property of line endings in heroic couplets. Capital letters are used to mark the “end” form of this sound property of verse.</t>
+  </si>
+  <si>
+    <t>[10h] Leithauser’s book Rhyme’s Rooms wryly notes that a Funesian would dispute that this poem is unrhymed, since its first line-ending word, “fruit,” rhymes with “pursuit” 170 lines later. This poem’s preface calls rhyme an “invention of a barbarous age.”</t>
+  </si>
+  <si>
+    <t>[10m] Leithauser argues that had Milton died after only completing 100 lines of Paradise Lost, scholars could still predict where he would replace its iambs with these feet. In this metrical foot, an accented syllable is followed by an unaccented one.</t>
+  </si>
+  <si>
+    <t>A book by Brad Leithauser imagines the Funesians, an Andean race with perfect recall of this property even over hundreds of lines of a poem. For 10 points each:
+[10e] Name this property of line endings in heroic couplets. Capital letters are used to mark the “end” form of this sound property of verse.
+ANSWER: rhyme [or word forms like rhyming; accept end rhymes; accept Rhyme’s Rooms]
+[10h] Leithauser’s book Rhyme’s Rooms wryly notes that a Funesian would dispute that this poem is unrhymed, since its first line-ending word, “fruit,” rhymes with “pursuit” 170 lines later. This poem’s preface calls rhyme an “invention of a barbarous age.”
+ANSWER: Paradise Lost (by John Milton)
+[10m] Leithauser argues that had Milton died after only completing 100 lines of Paradise Lost, scholars could still predict where he would replace its iambs with these feet. In this metrical foot, an accented syllable is followed by an unaccented one.
+ANSWER: trochee</t>
+  </si>
+  <si>
+    <t>While trying to make a dramatic entrance at an artists’ colony by climbing through the window, this author first saw his future wife by candlelight, prompting his essay “On Falling in Love.” For 10 points each:
+[10h] Name this author whose relationship with his older, gun-toting American wife Fanny Van de Grift Osbourne is examined in Camille Peri’s book A Wilder Shore. This author wrote “Virginibus Puerisque” and three other essays on marriage.</t>
+  </si>
+  <si>
+    <t>[10e] Stevenson burned the first draft of this novella and started over after receiving negative feedback from Fanny. In this novella, an elixir transforms a London physician into a monstrous killer.</t>
+  </si>
+  <si>
+    <t>[10m] Peri’s book documents the 1888 breakdown of Stevenson’s friendship with this one-legged author, who inspired Long John Silver. This poet wrote “I am the captain of my soul” in “Invictus.”</t>
+  </si>
+  <si>
+    <t>While trying to make a dramatic entrance at an artists’ colony by climbing through the window, this author first saw his future wife by candlelight, prompting his essay “On Falling in Love.” For 10 points each:
+[10h] Name this author whose relationship with his older, gun-toting American wife Fanny Van de Grift Osbourne is examined in Camille Peri’s book A Wilder Shore. This author wrote “Virginibus Puerisque” and three other essays on marriage.
+ANSWER: Robert Louis Stevenson
+[10e] Stevenson burned the first draft of this novella and started over after receiving negative feedback from Fanny. In this novella, an elixir transforms a London physician into a monstrous killer.
+ANSWER: Dr. Jekyll and Mr. Hyde [or Strange Case of Dr. Jekyll and Mr. Hyde; accept Jekyll and Hyde]
+[10m] Peri’s book documents the 1888 breakdown of Stevenson’s friendship with this one-legged author, who inspired Long John Silver. This poet wrote “I am the captain of my soul” in “Invictus.”
+ANSWER: William Ernest Henley</t>
+  </si>
+  <si>
+    <t>The autobiographical poem cycle Singing School details both this poet’s upbringing amidst sectarian tensions and his literary influences. For 10 points each:
+[10e] Name this Irish Poet who translated Beowulf and reflected on his childhood in poems like “Digging” and “The Death of a Naturalist.”</t>
+  </si>
+  <si>
+    <t>[10h] Singing School opens by quoting this author’s observation that “we have lived / In important places.” This Irish contemporary of Heaney wrote the poems “On Raglan Road” and “The Great Hunger,” as well as the novel Tarry Flynn.</t>
+  </si>
+  <si>
+    <t>[10m] Singing School later quotes this author’s resolution to “tell everything, even of how the laundry basket squeaked.” A story by this non-Irish author ends with Laura stammering “Isn’t life?” after she delivers a basket of leftover food.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The autobiographical poem cycle Singing School details both this poet’s upbringing amidst sectarian tensions and his literary influences. For 10 points each:
+[10e] Name this Irish Poet who translated Beowulf and reflected on his childhood in poems like “Digging” and “The Death of a Naturalist.”
+ANSWER: Seamus Heaney (“SHAY-muss HEE-nee”) [or Seamus Justin Heaney]
+[10h] Singing School opens by quoting this author’s observation that “we have lived / In important places.” This Irish contemporary of Heaney wrote the poems “On Raglan Road” and “The Great Hunger,” as well as the novel Tarry Flynn.
+ANSWER: Patrick Kavanagh (“KAV-uh-nuh”)
+[10m] Singing School later quotes this author’s resolution to “tell everything, even of how the laundry basket squeaked.” A story by this non-Irish author ends with Laura stammering “Isn’t life?” after she delivers a basket of leftover food.
+ANSWER: Katherine Mansfield </t>
+  </si>
+  <si>
+    <t>A novel by Eugene Burdick and William Lederer titled in reference to this older novel follows the engineer Homer Atkins and has come to name a type of obnoxious and ignorant foreign visitor. For 10 points each:
+[10h] Name this novel in which the narrator is left by his mistress Phuong for a man he suspects is working for the CIA, the idealist Alden Pyle.</t>
+  </si>
+  <si>
+    <t>[10e] This novelist set The Quiet American in Vietnam. This British author’s other novels set abroad include Our Man in Havana and The Power and The Glory.</t>
+  </si>
+  <si>
+    <t>[10m] The narrator of The Quiet American, Thomas Fowler, holds this profession. William Boot travels to the fictional East African country of Ishmaelia as a member of this profession in a novel by Evelyn Waugh.</t>
+  </si>
+  <si>
+    <t>A novel by Eugene Burdick and William Lederer titled in reference to this older novel follows the engineer Homer Atkins and has come to name a type of obnoxious and ignorant foreign visitor. For 10 points each:
+[10h] Name this novel in which the narrator is left by his mistress Phuong for a man he suspects is working for the CIA, the idealist Alden Pyle.
+ANSWER: The Quiet American (The Burdick and Lederer novel is The Ugly American.)
+[10e] This novelist set The Quiet American in Vietnam. This British author’s other novels set abroad include Our Man in Havana and The Power and The Glory.
+ANSWER: Graham Greene [or Henry Graham Greene]
+[10m] The narrator of The Quiet American, Thomas Fowler, holds this profession. William Boot travels to the fictional East African country of Ishmaelia as a member of this profession in a novel by Evelyn Waugh.
+ANSWER: journalist</t>
+  </si>
+  <si>
+    <t>An Elizabethan-era tradition of dramatic performances at these places produced the first English tragedy, the Seneca-imitating play Gorboduc. For 10 points each:
+[10m] Name these venues where comedies like Gammer Gurton’s Needle were staged before James Burbage built the first English playhouse. Robert Greene and Thomas Lodge belonged to a group of playwrights known as these places’ “wits.”</t>
+  </si>
+  <si>
+    <t>[10e] This University Wit found greater success on the professional London stage with his so-called “mighty line” of blank verse, which this author employed in plays like Tamburlaine and Doctor Faustus.</t>
+  </si>
+  <si>
+    <t>[10h] The most enduring University comedy was this circa 1553 play by Nicholas Udall, in which Dame Christian Custance is pestered by the boastful title character while betrothed to the straightlaced Gavin Goodluck.</t>
+  </si>
+  <si>
+    <t>An Elizabethan-era tradition of dramatic performances at these places produced the first English tragedy, the Seneca-imitating play Gorboduc. For 10 points each:
+[10m] Name these venues where comedies like Gammer Gurton’s Needle were staged before James Burbage built the first English playhouse. Robert Greene and Thomas Lodge belonged to a group of playwrights known as these places’ “wits.”
+ANSWER: universities [or colleges; accept University Wits; prompt on schools or educational institutions]
+[10e] This University Wit found greater success on the professional London stage with his so-called “mighty line” of blank verse, which this author employed in plays like Tamburlaine and Doctor Faustus.
+ANSWER: Christopher Marlowe [or Kit Marlowe]
+[10h] The most enduring University comedy was this circa 1553 play by Nicholas Udall, in which Dame Christian Custance is pestered by the boastful title character while betrothed to the straightlaced Gavin Goodluck.
+ANSWER: Ralph Roister Doister</t>
+  </si>
+  <si>
+    <t>While acting in this play, Ralph Richardson asked the audience, “is there a doctor in the house?”, and when a doctor raised his hand, Richardson said “terrible play, isn’t it doctor?” and resumed acting. For 10 points each:
+[10h] Name this play that premiered in 1966 after its author’s murder by his lover Kenneth Halliwell. At the end of this play, a sergeant wearing a dress descends from a skylight and asks for a politician’s “missing parts.”</t>
+  </si>
+  <si>
+    <t>[10e] Peter Hall directed Ralph Richardson and John Gielgud (“GHEEL-good”) in this author’s play No Man’s Land. This playwright wrote The Birthday Party and The Dumb Waiter.</t>
+  </si>
+  <si>
+    <t>[10m] Gielgud and Richardson also starred together in David Storey’s play Home, which is set in this sort of place. The frame stories of Peter Weiss’s Marat/Sade and Friedrich Dürrenmatt’s The Physicists occur in these places.</t>
+  </si>
+  <si>
+    <t>While acting in this play, Ralph Richardson asked the audience, “is there a doctor in the house?”, and when a doctor raised his hand, Richardson said “terrible play, isn’t it doctor?” and resumed acting. For 10 points each:
+[10h] Name this play that premiered in 1966 after its author’s murder by his lover Kenneth Halliwell. At the end of this play, a sergeant wearing a dress descends from a skylight and asks for a politician’s “missing parts.”
+ANSWER: What the Butler Saw (by Joe Orton)
+[10e] Peter Hall directed Ralph Richardson and John Gielgud (“GHEEL-good”) in this author’s play No Man’s Land. This playwright wrote The Birthday Party and The Dumb Waiter.
+ANSWER: Harold Pinter
+[10m] Gielgud and Richardson also starred together in David Storey’s play Home, which is set in this sort of place. The frame stories of Peter Weiss’s Marat/Sade and Friedrich Dürrenmatt’s The Physicists occur in these places.
+ANSWER: mental asylums</t>
+  </si>
+  <si>
+    <t>A novel’s final stream-of-consciousness passage frequently intersperses this word with images of a “mountain flower” from Gibraltar and a man whose “heart was going like mad.” For 10 points each:
+[10m] Name this final word in James Joyce’s Ulysses. In that novel, Molly Bloom ends her monologue by saying “I said” and “I will” with this word before, between, and after those phrases.</t>
+  </si>
+  <si>
+    <t>[10h] In the “Scylla and Charybdis” episode of Ulysses, Stephen says “yes, [this word],” calling it the “Word known to all men.” The Parodist voice from the “Cyclops” episode mockingly uses this word four times in a five-word sentence whose third word is “to.”</t>
+  </si>
+  <si>
+    <t>[10e] This final novel by Joyce frequently repeats words and coined new ones, like “quark.” This challenging novel is titled for an Irish folk song about a service for a dead hard-drinking man.</t>
+  </si>
+  <si>
+    <t>A novel’s final stream-of-consciousness passage frequently intersperses this word with images of a “mountain flower” from Gibraltar and a man whose “heart was going like mad.” For 10 points each:
+[10m] Name this final word in James Joyce’s Ulysses. In that novel, Molly Bloom ends her monologue by saying “I said” and “I will” with this word before, between, and after those phrases.
+ANSWER: yes [accept “yes I said yes I will yes”]
+[10h] In the “Scylla and Charybdis” episode of Ulysses, Stephen says “yes, [this word],” calling it the “Word known to all men.” The Parodist voice from the “Cyclops” episode mockingly uses this word four times in a five-word sentence whose third word is “to.”
+ANSWER: love [or loves; accept “Love loves to love love.”]
+[10e] This final novel by Joyce frequently repeats words and coined new ones, like “quark.” This challenging novel is titled for an Irish folk song about a service for a dead hard-drinking man.
+ANSWER: Finnegans Wake</t>
+  </si>
+  <si>
+    <t>Answer the following about French written works with falsified attributions, for 10 points each.
+[10m] Prosper Mérimée had to tell this author that the “Illyric poetry” book La Guzla was a hoax after this poet began to translate it. Mérimée translated a story by this author in which Hermann learns a gambling secret from a dead countess.</t>
+  </si>
+  <si>
+    <t>[10h] A fictional German archaeologist “unearthed” this collection, which attempted to lend credence to its supposed Greek origins via sections titled for Pamphylia and Mytilene. Pierre Louÿs (“loo-EESE”) wrote this collection of lesbian poetry.</t>
+  </si>
+  <si>
+    <t>[10e] In the 1860s, Denis Vrain-Lucas forged over 20,000 documents before being caught trying to dupe the French Academy of Sciences into thinking that gravity was first discovered by this author of Pensées (“pawn-SAY”).</t>
+  </si>
+  <si>
+    <t>Answer the following about French written works with falsified attributions, for 10 points each.
+[10m] Prosper Mérimée had to tell this author that the “Illyric poetry” book La Guzla was a hoax after this poet began to translate it. Mérimée translated a story by this author in which Hermann learns a gambling secret from a dead countess.
+ANSWER: Aleksandr Pushkin [or Alexander Sergeyevich Pushkin] (The story is “The Queen of Spades.”)
+[10h] A fictional German archaeologist “unearthed” this collection, which attempted to lend credence to its supposed Greek origins via sections titled for Pamphylia and Mytilene. Pierre Louÿs (“loo-EESE”) wrote this collection of lesbian poetry.
+ANSWER: The Songs of Bilitis [or Les Chansons de Bilitis]
+[10e] In the 1860s, Denis Vrain-Lucas forged over 20,000 documents before being caught trying to dupe the French Academy of Sciences into thinking that gravity was first discovered by this author of Pensées (“pawn-SAY”).
+ANSWER: Blaise Pascal</t>
+  </si>
+  <si>
+    <t>This poet’s experiments with opium during a passage through the Suez Canal inspired his gloomy poem “Opiário.” For 10 points each:
+[10h] Name this literary alter ego with a fictional biography as a polemic Glasgow-educated sailor and devotee of Walt Whitman. Poems credited to this author include “Ode of Triumph” and “The Tobacco Shop.”</t>
+  </si>
+  <si>
+    <t>[10e] Álvaro de Campos was one of the “heteronyms” used by Fernando Pessoa, a poet from this country. Pessoa’s heteronym Ricardo Reis was fictionalized in a novel by another author from this country, José Saramago.</t>
+  </si>
+  <si>
+    <t>[10m] Pessoa published the Álvaro de Campos poem “Opiário” in a modernist journal named for this figure. Another poet wrote 55 poems dedicated to this figure during a “creative storm” at the Château de Muzot (“moo-ZO”).</t>
+  </si>
+  <si>
+    <t>This poet’s experiments with opium during a passage through the Suez Canal inspired his gloomy poem “Opiário.” For 10 points each:
+[10h] Name this literary alter ego with a fictional biography as a polemic Glasgow-educated sailor and devotee of Walt Whitman. Poems credited to this author include “Ode of Triumph” and “The Tobacco Shop.”
+ANSWER: Álvaro de Campos [prompt on Fernando Pessoa]
+[10e] Álvaro de Campos was one of the “heteronyms” used by Fernando Pessoa, a poet from this country. Pessoa’s heteronym Ricardo Reis was fictionalized in a novel by another author from this country, José Saramago.
+ANSWER: Portugal [or Portuguese Republic; or República Portuguesa]
+[10m] Pessoa published the Álvaro de Campos poem “Opiário” in a modernist journal named for this figure. Another poet wrote 55 poems dedicated to this figure during a “creative storm” at the Château de Muzot (“moo-ZO”).
+ANSWER: Orpheus</t>
+  </si>
+  <si>
+    <t>Weathered photographs of a floor plan and a commemorative stamp bookend a celebrated nine-page sentence in this novel that describes the horrors of the Theresienstadt (“tuh-RAY-zin-shtott”) concentration camp. For 10 points each:
+[10m] Name this W. G. Sebald novel about an architectural historian and kindertransport refugee who travels to Prague in order to discover the fates of his birth parents.</t>
+  </si>
+  <si>
+    <t>[10h] James Wood’s introduction to Austerlitz compares the novel’s style of nested dialogue to that of this author. In a novel by this author, Roithamer builds his sister a house he calls the “Cone” in a forest.</t>
+  </si>
+  <si>
+    <t>[10e] The first photographs within Austerlitz juxtapose a close-up of owl eyes with the eyes of this philosopher. In Bernhard’s novel Correction, Roithamer’s life parallels that of this author of the Tractatus Logico-Philosophicus.</t>
+  </si>
+  <si>
+    <t>Weathered photographs of a floor plan and a commemorative stamp bookend a celebrated nine-page sentence in this novel that describes the horrors of the Theresienstadt (“tuh-RAY-zin-shtott”) concentration camp. For 10 points each:
+[10m] Name this W. G. Sebald novel about an architectural historian and kindertransport refugee who travels to Prague in order to discover the fates of his birth parents.
+ANSWER: Austerlitz
+[10h] James Wood’s introduction to Austerlitz compares the novel’s style of nested dialogue to that of this author. In a novel by this author, Roithamer builds his sister a house he calls the “Cone” in a forest.
+ANSWER: Thomas Bernhard [or Nicolaas Thomas Bernhard] (The novel is Correction.)
+[10e] The first photographs within Austerlitz juxtapose a close-up of owl eyes with the eyes of this philosopher. In Bernhard’s novel Correction, Roithamer’s life parallels that of this author of the Tractatus Logico-Philosophicus.
+ANSWER: Ludwig Wittgenstein</t>
+  </si>
+  <si>
+    <t>The majority of this novel consists of the recollections of the narrator while waiting inside a periscope in the Musée des Arts et Métiers (“moo-ZAY day ZAR ay mate-YAY”), which also contains this novel’s title object. For 10 points each:
+[10m] Name this novel in which three men use the computer Abulafia to invent an intricate conspiracy theory called The Plan.</t>
+  </si>
+  <si>
+    <t>[10e] The protagonists of Umberto Eco’s novel Foucault’s Pendulum discover a plot for world domination by this medieval order of Catholic knights, who are the guardians of the Holy Grail in The Da Vinci Code.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[10h] The Templar plot revolves around controlling these currents of energy, which flow to an “Omphalos” at the center of the earth. Thomas Pynchon’s </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mason &amp; Dixon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> describes these forces as a secret communication system through a Hollow Earth.</t>
+    </r>
+  </si>
+  <si>
+    <t>The majority of this novel consists of the recollections of the narrator while waiting inside a periscope in the Musée des Arts et Métiers (“moo-ZAY day ZAR ay mate-YAY”), which also contains this novel’s title object. For 10 points each:
+[10m] Name this novel in which three men use the computer Abulafia to invent an intricate conspiracy theory called The Plan.
+ANSWER: Foucault’s Pendulum [or Il pendolo di Foucault]
+[10e] The protagonists of Umberto Eco’s novel Foucault’s Pendulum discover a plot for world domination by this medieval order of Catholic knights, who are the guardians of the Holy Grail in The Da Vinci Code.
+ANSWER: Knights Templar [or the Templars]
+[10h] The Templar plot revolves around controlling these currents of energy, which flow to an “Omphalos” at the center of the earth. Thomas Pynchon’s Mason &amp; Dixon describes these forces as a secret communication system through a Hollow Earth.
+ANSWER: telluric currents</t>
+  </si>
+  <si>
+    <t>After an exhumation of a mass grave, the apparent remains of this author were claimed and taken home by a friend who decided the largest skull must be his. For 10 points each:
+[10m] Name this author whose lost skull is the focus of a poem at the end of the Wilhelm Meister novel series. This author included The Piccolomini in a trilogy of plays about a 17th-century military leader.</t>
+  </si>
+  <si>
+    <t>[10e] The title character of Johann Wolfgang von Goethe’s Wilhelm Meister novels portrays this Shakespeare character, who rhapsodizes on the skull of his former jester Yorick.</t>
+  </si>
+  <si>
+    <t>[10h] After growing bored of Hamlet, Wilhelm’s theater troupe puts on this Gotthold Ephraim Lessing play, a retelling of the myth of Virginia in which the title character is stabbed by her father Odoardo.</t>
+  </si>
+  <si>
+    <t>After an exhumation of a mass grave, the apparent remains of this author were claimed and taken home by a friend who decided the largest skull must be his. For 10 points each:
+[10m] Name this author whose lost skull is the focus of a poem at the end of the Wilhelm Meister novel series. This author included The Piccolomini in a trilogy of plays about a 17th-century military leader.
+ANSWER: Friedrich Schiller [or Johann Christoph Friedrich von Schiller] (The trilogy is Wallenstein. The friend in the lead-in is Goethe.)
+[10e] The title character of Johann Wolfgang von Goethe’s Wilhelm Meister novels portrays this Shakespeare character, who rhapsodizes on the skull of his former jester Yorick.
+ANSWER: Hamlet
+[10h] After growing bored of Hamlet, Wilhelm’s theater troupe puts on this Gotthold Ephraim Lessing play, a retelling of the myth of Virginia in which the title character is stabbed by her father Odoardo.
+ANSWER: Emilia Galotti</t>
+  </si>
+  <si>
+    <t>After leaving one of these places, the protagonist of the unfinished novel Everything Flows visits his scientist cousin, whom he depicts as “Judas I” in an embedded play. For 10 points each:
+[10m] The life of poet Oskar Pastior inspired the depiction of teenager Leo Auberg’s time in what sort of place in Herta Müller’s novel The Hunger Angel?</t>
+  </si>
+  <si>
+    <t>[10h] This Soviet author of Everything Flows drew on his time as a war correspondent to fictionalize the Eastern Front of World War II in the War and Peace-esque doorstopper Life and Fate.</t>
+  </si>
+  <si>
+    <t>[10e] The protagonist of Everything Flows has this first name. A gulag provides the setting for an Aleksandr Solzhenitsyn novel that follows “One Day in the Life of” a man with this first name.</t>
+  </si>
+  <si>
+    <t>After leaving one of these places, the protagonist of the unfinished novel Everything Flows visits his scientist cousin, whom he depicts as “Judas I” in an embedded play. For 10 points each:
+[10m] The life of poet Oskar Pastior inspired the depiction of teenager Leo Auberg’s time in what sort of place in Herta Müller’s novel The Hunger Angel?
+ANSWER: gulags [or work camps; or labor camps; or prison camps; or internment camps; accept Soviet or Russian concentration camps or concentration camps in the USSR; prompt on camps or concentration camps by asking “in what country?”; reject “death camps” or “extermination camps”]
+[10h] This Soviet author of Everything Flows drew on his time as a war correspondent to fictionalize the Eastern Front of World War II in the War and Peace-esque doorstopper Life and Fate.
+ANSWER: Vasily Grossman [or Vasily Semyonovich Grossman]
+[10e] The protagonist of Everything Flows has this first name. A gulag provides the setting for an Aleksandr Solzhenitsyn novel that follows “One Day in the Life of” a man with this first name.
+ANSWER: Ivan</t>
+  </si>
+  <si>
+    <t>The Sherlock Holmes story “The Red-Headed League” ends with Holmes quoting a letter from this author to George Sand that claims, “the man is nothing – the work is everything.” For 10 points each:
+[10e] Name this author who corresponded extensively with Sand in his later years. A review by Sand praises this author’s novel Salammbo and chastises the critics of his first novel, Madame Bovary.</t>
+  </si>
+  <si>
+    <t>[10h] Echoing Flaubert’s gender-bending remark “Madame Bovary, c’est moi” (“say mwah”), Sand wrote to him, “it seemed to me that I was” this literary hero. In a novella published alongside the novel Atala, this character lives with the Natchez people.</t>
+  </si>
+  <si>
+    <t>[10m] Flaubert wrote this story from his Three Tales in honor of Sand’s sincere sensibilities. In this story, the kind servant woman Felicité (“fuh-lee-see-TAY”) sees a heavenly vision of her stuffed parrot Loulou as she dies.</t>
+  </si>
+  <si>
+    <t>The Sherlock Holmes story “The Red-Headed League” ends with Holmes quoting a letter from this author to George Sand that claims, “the man is nothing – the work is everything.” For 10 points each:
+[10e] Name this author who corresponded extensively with Sand in his later years. A review by Sand praises this author’s novel Salammbo and chastises the critics of his first novel, Madame Bovary.
+ANSWER: Gustave Flaubert (“flo-BAIR”)
+[10h] Echoing Flaubert’s gender-bending remark “Madame Bovary, c’est moi” (“say mwah”), Sand wrote to him, “it seemed to me that I was” this literary hero. In a novella published alongside the novel Atala, this character lives with the Natchez people.
+ANSWER: René (“ruh-NAY”) (He is the title character of René by François-René de Chateaubriand.)
+[10m] Flaubert wrote this story from his Three Tales in honor of Sand’s sincere sensibilities. In this story, the kind servant woman Felicité (“fuh-lee-see-TAY”) sees a heavenly vision of her stuffed parrot Loulou as she dies.
+ANSWER: “A Simple Heart”</t>
+  </si>
+  <si>
+    <t>Georges Ribemont-Dessaignes’s (“ree-buh-MON deh-SEN-yuh’s”) play Blow Your Noses was performed at a show titled for a “Bearded” one of these objects. For 10 points each:
+[10h] Name these objects, one of which is the last word in the English-language title of a play whose characters are named for body parts like Mouth, Ear, and Eyebrow.</t>
+  </si>
+  <si>
+    <t>[10e] Tristan Tzara performed his play The Gas Heart at the Bearded Heart show, which aimed to highlight this avant-garde art movement whose name supposedly derives from the French word for “hobby horse.”</t>
+  </si>
+  <si>
+    <t>[10m] The role of Eyebrow in The Gas Heart was originated by Philippe Soupault (“soo-POH”), who wrote The Magnetic Fields with André Breton using this technique. Breton defined Surrealism as a “pure psychic” form of this technique.</t>
+  </si>
+  <si>
+    <t>Georges Ribemont-Dessaignes’s (“ree-buh-MON deh-SEN-yuh’s”) play Blow Your Noses was performed at a show titled for a “Bearded” one of these objects. For 10 points each:
+[10h] Name these objects, one of which is the last word in the English-language title of a play whose characters are named for body parts like Mouth, Ear, and Eyebrow.
+ANSWER: hearts [or cœur; accept The Gas Heart or The Gas-Operated Heart or Le Cœur à gaz; accept Bearded Heart or Le Cœur à barbe]
+[10e] Tristan Tzara performed his play The Gas Heart at the Bearded Heart show, which aimed to highlight this avant-garde art movement whose name supposedly derives from the French word for “hobby horse.”
+ANSWER: Dada [or word forms like Dadaism or Dadaist]
+[10m] The role of Eyebrow in The Gas Heart was originated by Philippe Soupault (“soo-POH”), who wrote The Magnetic Fields with André Breton using this technique. Breton defined Surrealism as a “pure psychic” form of this technique.
+ANSWER: automatic writing</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway’s novel mocking Sherwood Anderson takes its title from a novel by this author in which Sanin recollects his love for the Italian sweetmaker Gemma Roselli. For 10 points each:
+[10m] Name this author of the autobiographical novel Torrents of Spring. This author fictionalized his affair with his father’s mistress in the novella First Love.</t>
+  </si>
+  <si>
+    <t>[10h] Torrents of Spring begins as Sanin comes across one of these objects, prompting his memories of Gemma. In Crime and Punishment, Raskolnikov receives one of these objects from Sonya before going to confess his murders.</t>
+  </si>
+  <si>
+    <t>[10e] Turgenev’s affair with the Spanish-French opera singer Pauline Viardot inspired his interest in this character, whom he compared to Hamlet in a famous essay. This chivalry-obsessed knight titles a Miguel de Cervantes novel.</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway’s novel mocking Sherwood Anderson takes its title from a novel by this author in which Sanin recollects his love for the Italian sweetmaker Gemma Roselli. For 10 points each:
+[10m] Name this author of the autobiographical novel Torrents of Spring. This author fictionalized his affair with his father’s mistress in the novella First Love.
+ANSWER: Ivan Turgenev [or Ivan Sergeyevich Turgenev]
+[10h] Torrents of Spring begins as Sanin comes across one of these objects, prompting his memories of Gemma. In Crime and Punishment, Raskolnikov receives one of these objects from Sonya before going to confess his murders.
+ANSWER: crosses [or crucifixes; accept cross necklaces; prompt on necklaces or chains]
+[10e] Turgenev’s affair with the Spanish-French opera singer Pauline Viardot inspired his interest in this character, whom he compared to Hamlet in a famous essay. This chivalry-obsessed knight titles a Miguel de Cervantes novel.
+ANSWER: Don Quixote</t>
+  </si>
+  <si>
+    <t>Answer the following about pronouncing the opening line of Homer’s Iliad, for 10 points each.
+[10m] The eta should be stressed in this opening word of the Iliad, an abstract noun. You may give the Greek word or any of its common English translations.</t>
+  </si>
+  <si>
+    <t>[10e] The opening line attributes the mēnin, or wrath, to this Greek hero who is the protagonist of the Iliad.</t>
+  </si>
+  <si>
+    <t>[10h] Because the Iliad is in dactylic hexameter, its lines end with a spondee, which has this syllabic configuration.</t>
+  </si>
+  <si>
+    <t>Answer the following about pronouncing the opening line of Homer’s Iliad, for 10 points each.
+[10m] The eta should be stressed in this opening word of the Iliad, an abstract noun. You may give the Greek word or any of its common English translations.
+ANSWER: mēnin [accept rage, anger, wrath, or synonyms]
+[10e] The opening line attributes the mēnin, or wrath, to this Greek hero who is the protagonist of the Iliad.
+ANSWER: Achilles [or Achilleus; or Akhilaos]
+[10h] Because the Iliad is in dactylic hexameter, its lines end with a spondee, which has this syllabic configuration.
+ANSWER: two stressed syllables</t>
+  </si>
+  <si>
+    <t>A poetry collection titled for this character describes “the wine through our eyes we drink” and inspired a piece that pioneered the Sprechstimme (“SHPRECK-shtim-uh”) technique. For 10 points each:
+[10e] Name this “sad clown” character from the commedia dell’arte tradition. Arnold Schoenberg adapted an Albert Giraud (“zhee-ROH”) cycle titled for this character “moonstruck,” or “lunaire.”</t>
+  </si>
+  <si>
+    <t>[10h] This novel’s narrator quotes the line “the wine through our eyes we drink” and provides an image of the score from Pierrot Lunaire while describing Ungargassenland. The narrator of this novel by Ingeborg Bachmann disappears into a crack in the wall.</t>
+  </si>
+  <si>
+    <t>[10m] Theodor Adorno’s explanations of Schoenberg’s twelve-tone technique aided in the conception of this novel, which caused a feud between Schoenberg and its author. This novel follows the composer Adrian Leverkühn.</t>
+  </si>
+  <si>
+    <t>A poetry collection titled for this character describes “the wine through our eyes we drink” and inspired a piece that pioneered the Sprechstimme (“SHPRECK-shtim-uh”) technique. For 10 points each:
+[10e] Name this “sad clown” character from the commedia dell’arte tradition. Arnold Schoenberg adapted an Albert Giraud (“zhee-ROH”) cycle titled for this character “moonstruck,” or “lunaire.”
+ANSWER: Pierrot (“p’yeh-ROH”) [accept Pierrot lunaire]
+[10h] This novel’s narrator quotes the line “the wine through our eyes we drink” and provides an image of the score from Pierrot Lunaire while describing Ungargassenland. The narrator of this novel by Ingeborg Bachmann disappears into a crack in the wall.
+ANSWER: Malina
+[10m] Theodor Adorno’s explanations of Schoenberg’s twelve-tone technique aided in the conception of this novel, which caused a feud between Schoenberg and its author. This novel follows the composer Adrian Leverkühn.
+ANSWER: Doktor Faustus</t>
+  </si>
+  <si>
+    <t>Mikhail Bakhtin introduced “monologic” and “dialogic” subdivisions of this form, distinguishing stylistic agreement between authors and narrators within works in this form. For 10 points each:
+[10h] Name this Russian literary form first codified by Boris Eikhenbaum. This form is characterized by stories with narration and dialect reminiscent of oral literature and folk tales.</t>
+  </si>
+  <si>
+    <t>[10e] Eikhenbaum first coined the concept of skaz in an essay about this Nikolai Gogol story, in which Akaky Akakievich loses the title garment.</t>
+  </si>
+  <si>
+    <t>[10m] Walter Benjamin’s essay “The Storyteller” praises the skaz stories of this author, such as “The Tale of Cross-eyed Lefty from Tula and the Steel Flea.” A novella by this author analogizes Katerina Ismailova to a Shakespeare villainess.</t>
+  </si>
+  <si>
+    <t>Mikhail Bakhtin introduced “monologic” and “dialogic” subdivisions of this form, distinguishing stylistic agreement between authors and narrators within works in this form. For 10 points each:
+[10h] Name this Russian literary form first codified by Boris Eikhenbaum. This form is characterized by stories with narration and dialect reminiscent of oral literature and folk tales.
+ANSWER: skaz
+[10e] Eikhenbaum first coined the concept of skaz in an essay about this Nikolai Gogol story, in which Akaky Akakievich loses the title garment.
+ANSWER: “The Overcoat” [or “The Cloak” or “Shinyel”; accept “How Gogol’s Overcoat Was Made”]
+[10m] Walter Benjamin’s essay “The Storyteller” praises the skaz stories of this author, such as “The Tale of Cross-eyed Lefty from Tula and the Steel Flea.” A novella by this author analogizes Katerina Ismailova to a Shakespeare villainess.
+ANSWER: Nikolai Leskov</t>
+  </si>
+  <si>
+    <t>Shaun compares life in one of these places to Las Meninas in a Samantha Harvey novel set in one of these places that won the 2024 Booker Prize. For 10 points each:
+[10m] Name this sort of place where the psychologist Kris Kelvin is visited by a copy of his dead wife sent by a sentient ocean. That novel set in this sort of place is Solaris by Stanisław Lem (“stah-NEE-swoff lem”).</t>
+  </si>
+  <si>
+    <t>[10e] Lem also explored alien contact in a novel titled The Man from [this planet]. This planet is the setting of a Ray Bradbury novel titled for its “Chronicles.”</t>
+  </si>
+  <si>
+    <t>[10h] Lem wrote more lighthearted stories of space travel in his series The Star Diaries, which features the adventures of this recurring Lem character, who also appears in the novel The Futurological Congress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaun compares life in one of these places to Las Meninas in a Samantha Harvey novel set in one of these places that won the 2024 Booker Prize. For 10 points each:
+[10m] Name this sort of place where the psychologist Kris Kelvin is visited by a copy of his dead wife sent by a sentient ocean. That novel set in this sort of place is Solaris by Stanisław Lem (“stah-NEE-swoff lem”).
+ANSWER: space stations [or research stations in space; accept spaceships; accept International Space Station or ISS; accept Solaris Station; prompt on research stations or research facilities]
+[10e] Lem also explored alien contact in a novel titled The Man from [this planet]. This planet is the setting of a Ray Bradbury novel titled for its “Chronicles.”
+ANSWER: Mars [accept The Man from Mars or The Martian Chronicles]
+[10h] Lem wrote more lighthearted stories of space travel in his series The Star Diaries, which features the adventures of this recurring Lem character, who also appears in the novel The Futurological Congress.
+ANSWER: Ijon Tichy </t>
+  </si>
+  <si>
+    <t>The treatise The Art of Ingenuity defined a poetic ideal from this country as “an act of the understanding that expresses the correspondence between objects,” contrasting with a rival’s “cultivated Lutheranism.” For 10 points each:
+[10m] Name this country where two opposing poetic styles developed in the 17th century. A poet from this country who used one of those styles attacked a rival who used the other by comparing his large nose to a swordfish.</t>
+  </si>
+  <si>
+    <t>[10e] Francisco de Quevedo displayed the epigrammatic conceptismo style in an essay collection titled for these things. Segismundo takes the Polish throne in Pedro Calderón de la Barca’s play titled Life is [one of these things].</t>
+  </si>
+  <si>
+    <t>[10h] Quevedo and this author of The Art of Ingenuity championed conceptismo. This Jesuit priest wrote The Art of Worldly Wisdom and the novel El Criticón.</t>
+  </si>
+  <si>
+    <t>The treatise The Art of Ingenuity defined a poetic ideal from this country as “an act of the understanding that expresses the correspondence between objects,” contrasting with a rival’s “cultivated Lutheranism.” For 10 points each:
+[10m] Name this country where two opposing poetic styles developed in the 17th century. A poet from this country who used one of those styles attacked a rival who used the other by comparing his large nose to a swordfish.
+ANSWER: Spain [or España]
+[10e] Francisco de Quevedo displayed the epigrammatic conceptismo style in an essay collection titled for these things. Segismundo takes the Polish throne in Pedro Calderón de la Barca’s play titled Life is [one of these things].
+ANSWER: dreams [or sueños; accept Life is a Dream or La vida es sueño; accept visions]
+[10h] Quevedo and this author of The Art of Ingenuity championed conceptismo. This Jesuit priest wrote The Art of Worldly Wisdom and the novel El Criticón.
+ANSWER: Baltasar Gracián</t>
+  </si>
+  <si>
+    <t>In Joris-Karl Huysmans’s (“WEESE-mons’s”) novel À rebours (“ah ruh-BOOR”), the protagonist Des Esseintes (“day zay-SANT”) considers this author to be “one of the most terrible pedants ever produced by antiquity.” For 10 points each:
+[10e] Des Esseintes describes the protagonist as a “weak-willed, irresolute person who walks with wooden gestures” in what author’s Aeneid?</t>
+  </si>
+  <si>
+    <t>[10m] Des Esseintes was willing to excuse Virgil’s “impudent borrowings” from Homer, Lucretius, Ennius, and this author. Virgil’s Eclogues were modeled on the bucolic Idylls of this poet, who is mentioned in the first of the Sonnets from the Portuguese.</t>
+  </si>
+  <si>
+    <t>[10h] Des Esseintes could not excuse Virgil’s “plain theft” of Pisander, as revealed by this author. This 5th-century author wrote the lore book Saturnalia and a commentary on Cicero’s Dream of Scipio.</t>
+  </si>
+  <si>
+    <t>In Joris-Karl Huysmans’s (“WEESE-mons’s”) novel À rebours (“ah ruh-BOOR”), the protagonist Des Esseintes (“day zay-SANT”) considers this author to be “one of the most terrible pedants ever produced by antiquity.” For 10 points each:
+[10e] Des Esseintes describes the protagonist as a “weak-willed, irresolute person who walks with wooden gestures” in what author’s Aeneid?
+ANSWER: Virgil [or Publius Vergilius Maro]
+[10m] Des Esseintes was willing to excuse Virgil’s “impudent borrowings” from Homer, Lucretius, Ennius, and this author. Virgil’s Eclogues were modeled on the bucolic Idylls of this poet, who is mentioned in the first of the Sonnets from the Portuguese.
+ANSWER: Theocritus
+[10h] Des Esseintes could not excuse Virgil’s “plain theft” of Pisander, as revealed by this author. This 5th-century author wrote the lore book Saturnalia and a commentary on Cicero’s Dream of Scipio.
+ANSWER: Macrobius</t>
+  </si>
+  <si>
+    <t>Plays in this form produced conflict via the “quiproquo,” in which two characters would misinterpret the same situation in opposing ways. For 10 points each:
+[10h] Name this formulaic 19th-century dramatic genre developed by Eugène Scribe (“oo-zhen skreeb”) and popularized by Victorien Sardou.</t>
+  </si>
+  <si>
+    <t>[10e] George Bernard Shaw criticized the well-made play in an essay titled for the “quintessence” of this author, which laments that his play A Doll’s House may be acted as a “melodrama or farcical comedy.”</t>
+  </si>
+  <si>
+    <t>[10m] An author with this surname adapted his didactic novel The Lady of the Camellias as a well-made play. Another author with this surname drew on his African ancestry in the novel Georges.</t>
+  </si>
+  <si>
+    <t>Plays in this form produced conflict via the “quiproquo,” in which two characters would misinterpret the same situation in opposing ways. For 10 points each:
+[10h] Name this formulaic 19th-century dramatic genre developed by Eugène Scribe (“oo-zhen skreeb”) and popularized by Victorien Sardou.
+ANSWER: well-made play [or pièce bien faite]
+[10e] George Bernard Shaw criticized the well-made play in an essay titled for the “quintessence” of this author, which laments that his play A Doll’s House may be acted as a “melodrama or farcical comedy.”
+ANSWER: Henrik Ibsen [or Henrik Johan Ibsen; accept “The Quintessence of Ibsenism”]
+[10m] An author with this surname adapted his didactic novel The Lady of the Camellias as a well-made play. Another author with this surname drew on his African ancestry in the novel Georges.
+ANSWER: Dumas</t>
+  </si>
+  <si>
+    <t>Taiye Selasi popularized this term in the essay “Bye-Bye Babar,” which describes figures from her home continent identifiable from their “London fashion, New York Jargon, and academic successes.” For 10 points each:
+[10h] Name this term that Achille Mbembe (“ah-SHEEL em-BEM-bay”) applied to highly mobile writers like Chimamanda Ngozi Adichie (“ah-DEECH-yay”). This portmanteau term blends two elements: a prefix from a “pessimism” theorized by Frank B. Wilderson and the [emphasize] second part of an ideology promoted in a 2006 book by Kwame Anthony Appiah (“APP-ee-uh”).</t>
+  </si>
+  <si>
+    <t>[10m] We Need New Names, a novel from this country, is often called Afropolitan. The authors Dambudzo Marechera and Tsitsi Dangarembga were born in this country.</t>
+  </si>
+  <si>
+    <t>[10e] An essay by M. Rocío Cobo-Piñero classifies Noo Saro-Wiwa’s Looking for Transwonderland as an Afropolitan work in this genre. The writings of Ibn Battuta and Marco Polo are often read as pre-modern works in this genre.</t>
+  </si>
+  <si>
+    <t>Taiye Selasi popularized this term in the essay “Bye-Bye Babar,” which describes figures from her home continent identifiable from their “London fashion, New York Jargon, and academic successes.” For 10 points each:
+[10h] Name this term that Achille Mbembe (“ah-SHEEL em-BEM-bay”) applied to highly mobile writers like Chimamanda Ngozi Adichie (“ah-DEECH-yay”). This portmanteau term blends two elements: a prefix from a “pessimism” theorized by Frank B. Wilderson and the [emphasize] second part of an ideology promoted in a 2006 book by Kwame Anthony Appiah (“APP-ee-uh”).
+ANSWER: Afropolitan [or Afropolitanism]
+[10m] We Need New Names, a novel from this country, is often called Afropolitan. The authors Dambudzo Marechera and Tsitsi Dangarembga were born in this country.
+ANSWER: Zimbabwe [or Republic of Zimbabwe] (We Need New Names is by NoViolet Bulawayo.)
+[10e] An essay by M. Rocío Cobo-Piñero classifies Noo Saro-Wiwa’s Looking for Transwonderland as an Afropolitan work in this genre. The writings of Ibn Battuta and Marco Polo are often read as pre-modern works in this genre.
+ANSWER: travel writing</t>
+  </si>
+  <si>
+    <t>Likely the earliest literary discussion of suicidal ideation is “The Debate Between a Man and his Soul,” which is a text in this language’s didactic sebayt literature. For 10 points each:
+[10e] Name this ancient language used to write “Instructions of Amenemhat” and a “Book of the Dead” that discusses the ba of the soul.</t>
+  </si>
+  <si>
+    <t>[10m] A work of didactic Egyptian literature, in which the scribe Kheti explains each profession’s faults before concluding that the scribe is best, is usually known in English as “[this genre] of the Trades.” Menippus of Gadara names a Greek style of this genre.</t>
+  </si>
+  <si>
+    <t>[10h] In another Egyptian story, a giant serpent offers advice to a man who has just undergone one of these events. The title characters are separated from their companions by one of these events near Pelusium in the ancient romance Leucippe and Clitophon.</t>
+  </si>
+  <si>
+    <t>Likely the earliest literary discussion of suicidal ideation is “The Debate Between a Man and his Soul,” which is a text in this language’s didactic sebayt literature. For 10 points each:
+[10e] Name this ancient language used to write “Instructions of Amenemhat” and a “Book of the Dead” that discusses the ba of the soul.
+ANSWER: Ancient Egyptian [or Middle Egyptian]
+[10m] A work of didactic Egyptian literature, in which the scribe Kheti explains each profession’s faults before concluding that the scribe is best, is usually known in English as “[this genre] of the Trades.” Menippus of Gadara names a Greek style of this genre.
+ANSWER: satires [accept “Satire of the Trades” or Menippean satire]
+[10h] In another Egyptian story, a giant serpent offers advice to a man who has just undergone one of these events. The title characters are separated from their companions by one of these events near Pelusium in the ancient romance Leucippe and Clitophon.
+ANSWER: shipwrecks</t>
+  </si>
+  <si>
+    <t>“Heydar Babaya Salam” is a modern poem in this language, which was the main language used by the Sufi poet Nasimi and the first to be used by lute-playing bards called ashiks. For 10 points each:
+[10h] What language’s poetry was pioneered by a ruler who named his progeny after Shahnameh characters? That ruler used the pen name “Khaṭā’ī” to write the Dahnama in a predecessor to this modern Turkic language.</t>
+  </si>
+  <si>
+    <t>[10m] This author’s parents took him to Azerbaijan to cure his childhood maladies, inspiring him to transcribe the folk tale “Ashik Kerib.” Princess Mary appears in a novel by this Russian author of “Death of a Poet.”</t>
+  </si>
+  <si>
+    <t>[10e] This leader supported the recognition of Nizami as Azerbaijan’s national poet. A namesake epigram by Osip Mandelstam criticizes this Soviet leader, who used the pen name Soselo to write Georgian poetry.</t>
+  </si>
+  <si>
+    <t>“Heydar Babaya Salam” is a modern poem in this language, which was the main language used by the Sufi poet Nasimi and the first to be used by lute-playing bards called ashiks. For 10 points each:
+[10h] What language’s poetry was pioneered by a ruler who named his progeny after Shahnameh characters? That ruler used the pen name “Khaṭā’ī” to write the Dahnama in a predecessor to this modern Turkic language.
+ANSWER: Azerbaijani [or Azeri; or Azeri Turkic or Azeri Turkish; accept Northern Azerbaijani, Southern Azerbaijani, or Iranian Azerbaijani; accept Turki or Torki; reject “Farsi” or “Persian”; reject “Turkish”] (“Heydar Babaya Salam” is by Mohammad Hossein Shahriar. The ruler is Ismā‘īl I, the first Safavid shah.)
+[10m] This author’s parents took him to Azerbaijan to cure his childhood maladies, inspiring him to transcribe the folk tale “Ashik Kerib.” Princess Mary appears in a novel by this Russian author of “Death of a Poet.”
+ANSWER: Mikhail Lermontov [or Mikhail Yuryevich Lermontov] (The novel is A Hero of Our Time.)
+[10e] This leader supported the recognition of Nizami as Azerbaijan’s national poet. A namesake epigram by Osip Mandelstam criticizes this Soviet leader, who used the pen name Soselo to write Georgian poetry.
+ANSWER: Joseph Stalin</t>
+  </si>
+  <si>
+    <t>In a 1983 story set in this city, a muezzin’s call to prayer interrupts a woman’s intercourse with her husband, who then suddenly dies of a heart attack. For 10 points each:
+[10e] Name this city where Alifa Rifaat set the story “Distant View of a Minaret.” Jackie Kennedy edited the English translation of Palace Walk, a novel in a 1950s trilogy set in this capital city by Naguib Mahfouz.</t>
+  </si>
+  <si>
+    <t>[10m] Rifaat’s story “My World of the Unknown” depicts a woman’s affair with a female one of these characters. In another story, one of these characters goes to a pool with talking fish after learning that Solomon has been dead for centuries.</t>
+  </si>
+  <si>
+    <t>[10h] This Egyptian physician-turned-author wrote the anti-FGM tract Women and Sex and fictionalized her own imprisonment in the 1975 novel Woman at Point Zero.</t>
+  </si>
+  <si>
+    <t>In a 1983 story set in this city, a muezzin’s call to prayer interrupts a woman’s intercourse with her husband, who then suddenly dies of a heart attack. For 10 points each:
+[10e] Name this city where Alifa Rifaat set the story “Distant View of a Minaret.” Jackie Kennedy edited the English translation of Palace Walk, a novel in a 1950s trilogy set in this capital city by Naguib Mahfouz.
+ANSWER: Cairo
+[10m] Rifaat’s story “My World of the Unknown” depicts a woman’s affair with a female one of these characters. In another story, one of these characters goes to a pool with talking fish after learning that Solomon has been dead for centuries.
+ANSWER: djinn [or genies; or jinni] (The story is the second story in One Thousand and One Nights.)
+[10h] This Egyptian physician-turned-author wrote the anti-FGM tract Women and Sex and fictionalized her own imprisonment in the 1975 novel Woman at Point Zero.
+ANSWER: Nawal El Saadawi</t>
+  </si>
+  <si>
+    <t>The Nātyaśāstra (“NAHT-yuh-SHAH-struh”) explains how prahasana examples of this art form impart “good counsel” to people from all walks of life by allowing rasa (“RUH-suh”) to be cultivated by the bhāva (“BAH-vuh”), or mood, of its participants. For 10 points each:
+[10m] Name this art form of a work known in English as The Hermit and the Harlot. The Nātyaśāstra reports how works in this form were viewed in square, rectangular, or triangular venues.</t>
+  </si>
+  <si>
+    <t>[10e] The Hermit and the Harlot and other early Sanskrit dramas in this broad genre included a stock character called the vidūshaka (“vih-DOO-shuck-uh”). In Greek drama, this genre was represented by the muse Thalia.</t>
+  </si>
+  <si>
+    <t>[10h] A series of comedic misunderstandings pervade this ten-act Sanskrit play by Shudraka (“SHOO-druh-kuh”). In this play, the courtesan Vasantasenā (“vuh-sun-tuh-SAY-nah”) uses an object belonging to her impoverished lover to store her jewels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nātyaśāstra (“NAHT-yuh-SHAH-struh”) explains how prahasana examples of this art form impart “good counsel” to people from all walks of life by allowing rasa (“RUH-suh”) to be cultivated by the bhāva (“BAH-vuh”), or mood, of its participants. For 10 points each:
+[10m] Name this art form of a work known in English as The Hermit and the Harlot. The Nātyaśāstra reports how works in this form were viewed in square, rectangular, or triangular venues.
+ANSWER: drama [or theater; accept plays; accept acting; accept dance] (The Hermit and the Harlot is a common translation of Bhagavadajjukam.)
+[10e] The Hermit and the Harlot and other early Sanskrit dramas in this broad genre included a stock character called the vidūshaka (“vih-DOO-shuck-uh”). In Greek drama, this genre was represented by the muse Thalia.
+ANSWER: comedy [or farce]
+[10h] A series of comedic misunderstandings pervade this ten-act Sanskrit play by Shudraka (“SHOO-druh-kuh”). In this play, the courtesan Vasantasenā (“vuh-sun-tuh-SAY-nah”) uses an object belonging to her impoverished lover to store her jewels.
+ANSWER: The Little Clay Cart </t>
+  </si>
+  <si>
+    <t>A statue of this character is unveiled at the garden party of Belle Radclyffe twenty years after he leads a trek through the wilderness. For 10 points each:
+[10m] Name this fictional German explorer based on the naturalist Ludwig Leichhardt. This character proposes to Laura Trevelyan in a novel by the author of Riders in the Chariot and The Vivisector.</t>
+  </si>
+  <si>
+    <t>[10e] Voss was written by Patrick White, one of this country’s most acclaimed fiction writers along with Gerald Murnane, Peter Carey, and Thomas Keneally.</t>
+  </si>
+  <si>
+    <t>[10h] This Australian-born author’s scientist characters include the astronomer Ted Tice from her novel The Transit of Venus. This author won the Miles Franklin Award and the National Book Award for The Great Fire, published after a decades-long creative silence.</t>
+  </si>
+  <si>
+    <t>A statue of this character is unveiled at the garden party of Belle Radclyffe twenty years after he leads a trek through the wilderness. For 10 points each:
+[10m] Name this fictional German explorer based on the naturalist Ludwig Leichhardt. This character proposes to Laura Trevelyan in a novel by the author of Riders in the Chariot and The Vivisector.
+ANSWER: Johann Ulrich Voss [or Johann Ulrich Voss]
+[10e] Voss was written by Patrick White, one of this country’s most acclaimed fiction writers along with Gerald Murnane, Peter Carey, and Thomas Keneally.
+ANSWER: Australia [or Commonwealth of Australia]
+[10h] This Australian-born author’s scientist characters include the astronomer Ted Tice from her novel The Transit of Venus. This author won the Miles Franklin Award and the National Book Award for The Great Fire, published after a decades-long creative silence.
+ANSWER: Shirley Hazzard</t>
+  </si>
+  <si>
+    <t>A writer in this language was blacklisted in her home country after publishing a novel that retold a student uprising from seven perspectives. For 10 points each:
+[10m] Name this language used to write the novels Human Acts and We Do Not Part. In an International Booker Prize-winning novel in this language, a video artist seeks to capture his sister-in-law’s “Mongolian mark.”</t>
+  </si>
+  <si>
+    <t>[10e] The 2017 ousting of Park Geun-hye (“gun-HEH”) ended the Korean government’s blacklisting of authors like Han Kang, who in 2024 followed Annie Ernaux in being a female winner of this literary award.</t>
+  </si>
+  <si>
+    <t>[10h] The sci-fi novel Counterweight, written by an anonymous Korean author who uses this author’s first name as a pseudonym, was translated into English in 2023. This author’s best-known novel depicts the obsessive lesbian relationship between Nora Flood and Robin Vote.</t>
+  </si>
+  <si>
+    <t>A writer in this language was blacklisted in her home country after publishing a novel that retold a student uprising from seven perspectives. For 10 points each:
+[10m] Name this language used to write the novels Human Acts and We Do Not Part. In an International Booker Prize-winning novel in this language, a video artist seeks to capture his sister-in-law’s “Mongolian mark.”
+ANSWER: Korean [or Hanguk-eo] (The novel is The Vegetarian.)
+[10e] The 2017 ousting of Park Geun-hye (“gun-HEH”) ended the Korean government’s blacklisting of authors like Han Kang, who in 2024 followed Annie Ernaux in being a female winner of this literary award.
+ANSWER: Nobel Prize in Literature
+[10h] The sci-fi novel Counterweight, written by an anonymous Korean author who uses this author’s first name as a pseudonym, was translated into English in 2023. This author’s best-known novel depicts the obsessive lesbian relationship between Nora Flood and Robin Vote.
+ANSWER: Djuna Barnes</t>
+  </si>
+  <si>
+    <t>Answer the following about the poet and playwright Xavier Villaurrutia (“vee-ya-oo-ROO-tee-ah”), for 10 points each.
+[10e] This feeling is called “a secret, a torment, a doubt, a questioning” in Villaurrutia’s poem “Nuestro [this feeling].” Twenty poems about this feeling precede a “Song of Despair” in a Pablo Neruda collection.</t>
+  </si>
+  <si>
+    <t>[10h] This student of Villaurrutia wrote the essay “Hieroglyphs of Desire” about his work. This author’s poem Blanco, written in Delhi, was intended to be published as a scroll of differently-colored sections split between the page’s left and right sides.</t>
+  </si>
+  <si>
+    <t>[10m] Villaurrutia’s major poetry collection is titled Nostalgia for this noun. The line “From the icy niche where men placed you” opens the first of a series of sonnets titled for this noun and dedicated to Romelio Ureta.</t>
+  </si>
+  <si>
+    <t>Answer the following about the poet and playwright Xavier Villaurrutia (“vee-ya-oo-ROO-tee-ah”), for 10 points each.
+[10e] This feeling is called “a secret, a torment, a doubt, a questioning” in Villaurrutia’s poem “Nuestro [this feeling].” Twenty poems about this feeling precede a “Song of Despair” in a Pablo Neruda collection.
+ANSWER: love [or amor; accept “Nuestro amor” or “Our Love”; accept Twenty Love Poems and a Song of Despair or Veinte poemas de amor y una canción desesperada]
+[10h] This student of Villaurrutia wrote the essay “Hieroglyphs of Desire” about his work. This author’s poem Blanco, written in Delhi, was intended to be published as a scroll of differently-colored sections split between the page’s left and right sides.
+ANSWER: Octavio Paz
+[10m] Villaurrutia’s major poetry collection is titled Nostalgia for this noun. The line “From the icy niche where men placed you” opens the first of a series of sonnets titled for this noun and dedicated to Romelio Ureta.
+ANSWER: death</t>
+  </si>
+  <si>
+    <t>The novella Arrowroot is often published in a dual edition with a so-called Secret History that delves into this character’s sadomasochistic relationship with his foe’s wife. For 10 points each:
+[10h] Name this title character of a nearly thousand-page-long, 1935 novel by Eiji Yoshikawa that climaxes with a battle in which he wields a weapon carved from a boat’s oar.</t>
+  </si>
+  <si>
+    <t>[10e] This novelist wrote that “Secret History” of Musashi. Edward Seidensticker translated two of this novelist’s titles that are idioms about “water pepper-eating bugs” and “falling snow,” Some Prefer Nettles and The Makioka Sisters.</t>
+  </si>
+  <si>
+    <t>[10m] Perhaps the best-known fictional treatment of feudal Japanese history in the West is this 1975 James Clavell novel about John Blackthorne.</t>
+  </si>
+  <si>
+    <t>The novella Arrowroot is often published in a dual edition with a so-called Secret History that delves into this character’s sadomasochistic relationship with his foe’s wife. For 10 points each:
+[10h] Name this title character of a nearly thousand-page-long, 1935 novel by Eiji Yoshikawa that climaxes with a battle in which he wields a weapon carved from a boat’s oar.
+ANSWER: Miyamoto Musashi [or Miyamoto Musashi; or Musashi Miyamoto; or Musashi; accept The Secret History of the Lord of Musashi]
+[10e] This novelist wrote that “Secret History” of Musashi. Edward Seidensticker translated two of this novelist’s titles that are idioms about “water pepper-eating bugs” and “falling snow,” Some Prefer Nettles and The Makioka Sisters.
+ANSWER: Jun’ichiro Tanizaki [or Tanizaki Jun’ichiro]
+[10m] Perhaps the best-known fictional treatment of feudal Japanese history in the West is this 1975 James Clavell novel about John Blackthorne.
+ANSWER: Shōgun</t>
+  </si>
+  <si>
+    <t>Answer the following about the appearance of guavas in literature, for 10 points each.
+[10e] The first sentence of Esmeralda Santiago’s memoir of growing up on this island mentions “guavas at the Shop &amp; Save.” Spanish-speaking authors from this American island territory include Giannina Braschi and José Rivera.</t>
+  </si>
+  <si>
+    <t>[10h] In this novel, Yolanda pretends not to speak Spanish after getting a flat tire in a guava field. This novel uses reverse chronology to detail the lives of four sisters in America after they flee the Trujillo (“troo-HEE-yo”) regime.</t>
+  </si>
+  <si>
+    <t>[10m] This author wrote about Sampath, who lives in a guava tree after getting fired from the post office, in her novel Hullabaloo in the Guava Orchard. This author also wrote The Inheritance of Loss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer the following about the appearance of guavas in literature, for 10 points each.
+[10e] The first sentence of Esmeralda Santiago’s memoir of growing up on this island mentions “guavas at the Shop &amp; Save.” Spanish-speaking authors from this American island territory include Giannina Braschi and José Rivera.
+ANSWER: Puerto Rico [or Commonwealth of Puerto Rico] (Santiago’s memoir is When I Was Puerto Rican.)
+[10h] In this novel, Yolanda pretends not to speak Spanish after getting a flat tire in a guava field. This novel uses reverse chronology to detail the lives of four sisters in America after they flee the Trujillo (“troo-HEE-yo”) regime.
+ANSWER: How the García Girls Lost Their Accents (by Julia Alvarez)
+[10m] This author wrote about Sampath, who lives in a guava tree after getting fired from the post office, in her novel Hullabaloo in the Guava Orchard. This author also wrote The Inheritance of Loss.
+ANSWER: Kiran Desai </t>
+  </si>
+  <si>
+    <t>The cast sings “Awake, you who are asleep! / We are winnowing right from wrong!” in this language at the end of Hassan Sheikh Mumin’s play Leopard Among the Women. For 10 points each:
+[10h] Name this language whose long oral tradition influenced the 1905 poem “Afbakayle.” An exiled author who grew up speaking this language wrote the novels Maps and From a Crooked Rib.</t>
+  </si>
+  <si>
+    <t>[10m] Coercion into performing this action is central to Nuruddin Farah’s novel From a Crooked Rib and Faarax M. J. Cawl’s Somali novel Ignorance Is the Enemy of Love. A Kikuyu-language play is titled in English for doing this “When I Want.”</t>
+  </si>
+  <si>
+    <t>[10e] Farah also wrote a trilogy about an “African” leader of this type. One of these people known as The Ruler assumes control of the setting of Ngũgĩ’s Wizard of the Crow, part of a genre more common in Latin American fiction.</t>
+  </si>
+  <si>
+    <t>The cast sings “Awake, you who are asleep! / We are winnowing right from wrong!” in this language at the end of Hassan Sheikh Mumin’s play Leopard Among the Women. For 10 points each:
+[10h] Name this language whose long oral tradition influenced the 1905 poem “Afbakayle.” An exiled author who grew up speaking this language wrote the novels Maps and From a Crooked Rib.
+ANSWER: Somali [or Soomaali; or Af Soomaali]
+[10m] Coercion into performing this action is central to Nuruddin Farah’s novel From a Crooked Rib and Faarax M. J. Cawl’s Somali novel Ignorance Is the Enemy of Love. A Kikuyu-language play is titled in English for doing this “When I Want.”
+ANSWER: arranged marriage [or marrying or having a wedding or matrimony; accept I Will Marry When I Want] (I Will Marry When I Want is by Ngũgĩ wa Thiong’o and Ngũgĩ wa Mirii.)
+[10e] Farah also wrote a trilogy about an “African” leader of this type. One of these people known as The Ruler assumes control of the setting of Ngũgĩ’s Wizard of the Crow, part of a genre more common in Latin American fiction.
+ANSWER: dictators</t>
+  </si>
+  <si>
+    <t>An author from this region wrote a picaresque novel in which the protagonist desperately searches for a cure for his butt pain called Kisses in the Nederends. For 10 points each:
+[10h] Name this transnational region whose most acclaimed author, Albert Wendt, wrote The Leaves of the Banyan Tree and Black Rainbow.</t>
+  </si>
+  <si>
+    <t>[10m] A University Press based in this country has published Pacific literature like Victoria Nalani Kneubuhl’s (“NEW-bull’s”) Island Plays and the poems of Wayne Kaumualii Westlake. Asian-Pacific writers Cathy Song and Hanya Yanagihara were born in this country.</t>
+  </si>
+  <si>
+    <t>[10e] The University of Hawaii’s Talanoa literature series has also published fiction by Witi Ihimaera (“WIT-ee ee-hee-MY-ruh”) and Patricia Grace, two members of this Indigenous ethnic group of New Zealand.</t>
+  </si>
+  <si>
+    <t>An author from this region wrote a picaresque novel in which the protagonist desperately searches for a cure for his butt pain called Kisses in the Nederends. For 10 points each:
+[10h] Name this transnational region whose most acclaimed author, Albert Wendt, wrote The Leaves of the Banyan Tree and Black Rainbow.
+ANSWER: South Pacific Islands [accept Polynesia; accept Samoa; accept Tonga; prompt on Oceania] (Kisses in the Nederends is by Tongan author Epeli Hau’ofa. Albert Wendt is from Samoa.)
+[10m] A University Press based in this country has published Pacific literature like Victoria Nalani Kneubuhl’s (“NEW-bull’s”) Island Plays and the poems of Wayne Kaumualii Westlake. Asian-Pacific writers Cathy Song and Hanya Yanagihara were born in this country.
+ANSWER: United States [or United States of America; or USA; accept America]
+[10e] The University of Hawaii’s Talanoa literature series has also published fiction by Witi Ihimaera (“WIT-ee ee-hee-MY-ruh”) and Patricia Grace, two members of this Indigenous ethnic group of New Zealand.
+ANSWER: Māori</t>
+  </si>
+  <si>
+    <t>At a cabin, a woman in this one-page story kisses the bloodied face of her knife-wielding lover before they depart on opposite-facing paths. For 10 points each:
+[10h] Name this metafictional short story. In this story, a man sitting in a green velvet armchair reads about two lovers’ plan to murder a man who is reading a novel while sitting in a green velvet armchair.</t>
+  </si>
+  <si>
+    <t>[10e] “The Continuity of Parks” is a short story by this Argentine author who also wrote the optionally nonlinear novel Hopscotch.</t>
+  </si>
+  <si>
+    <t>[10m] Hopscotch is primarily set in this city, where Horacio Oliveira searches for his lover La Maga. The narrator of another Cortázar story is entranced by the “golden eyes” of the titular axolotl in a botanical garden in this city.</t>
+  </si>
+  <si>
+    <t>At a cabin, a woman in this one-page story kisses the bloodied face of her knife-wielding lover before they depart on opposite-facing paths. For 10 points each:
+[10h] Name this metafictional short story. In this story, a man sitting in a green velvet armchair reads about two lovers’ plan to murder a man who is reading a novel while sitting in a green velvet armchair.
+ANSWER: “The Continuity of Parks” [or “Continuidad de los parques”]
+[10e] “The Continuity of Parks” is a short story by this Argentine author who also wrote the optionally nonlinear novel Hopscotch.
+ANSWER: Julio Cortázar
+[10m] Hopscotch is primarily set in this city, where Horacio Oliveira searches for his lover La Maga. The narrator of another Cortázar story is entranced by the “golden eyes” of the titular axolotl in a botanical garden in this city.
+ANSWER: Paris</t>
+  </si>
+  <si>
+    <t>In this story, the phrase “Red… Red…” describes the stupefaction of a group of four “idiots” by the title object. For 10 points each:
+[10h] Name this story in which Mazzini and Berta’s youngest child is killed by her mentally impaired brothers.</t>
+  </si>
+  <si>
+    <t>[10m] The author of “The Decapitated Chicken,” Horacio Quiroga (“oh-RAH-see-yo kee-RO-ga”), was born in this country. This country’s author Eduardo Galeano wrote The Memory of Fire trilogy and The Open Veins of Latin America.</t>
+  </si>
+  <si>
+    <t>[10e] A section of Galeano’s Memory of Fire records a “song of the shield” written by a person from this empire. This empire’s Indigenous poets included Nezahualcoyotl and the Nahuatl-speaking authors of Texcoco School codices.</t>
+  </si>
+  <si>
+    <t>In this story, the phrase “Red… Red…” describes the stupefaction of a group of four “idiots” by the title object. For 10 points each:
+[10h] Name this story in which Mazzini and Berta’s youngest child is killed by her mentally impaired brothers.
+ANSWER: “The Decapitated Chicken” [or “La gallina degollada”]
+[10m] The author of “The Decapitated Chicken,” Horacio Quiroga (“oh-RAH-see-yo kee-RO-ga”), was born in this country. This country’s author Eduardo Galeano wrote The Memory of Fire trilogy and The Open Veins of Latin America.
+ANSWER: Uruguay [or Oriental Republic of Uruguay; or República Oriental del Uruguay]
+[10e] A section of Galeano’s Memory of Fire records a “song of the shield” written by a person from this empire. This empire’s Indigenous poets included Nezahualcoyotl and the Nahuatl-speaking authors of Texcoco School codices.
+ANSWER: Aztec Empire</t>
+  </si>
+  <si>
+    <t>At 600 pages in Gladys Yang’s translation, this novel is the shortest of the six novels canonized for Western audiences by H. T. Hsia (“shah”). For 10 points each:
+[10h] Name this novel by Wu Jingzi that mocks single-minded takers of the Civil Service Exam.</t>
+  </si>
+  <si>
+    <t>[10m] Though written in a later dynasty, The Scholars is set during this Chinese dynasty. Journey to the West and Romance of the Three Kingdoms were written during the rule of this dynasty.</t>
+  </si>
+  <si>
+    <t>[10e] In The Scholars, this novel’s opening is parodied when Wang Mien watches stars of the “Scholars” constellation fall to earth. This Ming Dynasty novel follows a group of 108 bandits called the Stars of Destiny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 600 pages in Gladys Yang’s translation, this novel is the shortest of the six novels canonized for Western audiences by H. T. Hsia (“shah”). For 10 points each:
+[10h] Name this novel by Wu Jingzi that mocks single-minded takers of the Civil Service Exam.
+ANSWER: The Scholars [or Rúlín Wàishǐ; accept Unofficial History of the Forest of Scholars]
+[10m] Though written in a later dynasty, The Scholars is set during this Chinese dynasty. Journey to the West and Romance of the Three Kingdoms were written during the rule of this dynasty.
+ANSWER: Ming Dynasty [or Dà Míng]
+[10e] In The Scholars, this novel’s opening is parodied when Wang Mien watches stars of the “Scholars” constellation fall to earth. This Ming Dynasty novel follows a group of 108 bandits called the Stars of Destiny.
+ANSWER: Water Margin </t>
+  </si>
+  <si>
+    <t>Among the first collections of poetry in this language are John Solilo’s Izala and S. E. K. Mqhayi’s (“um-KAH-yee’s”) Imihobe nemibongo. For 10 points each:
+[10e] Name this Bantu Nguni language of South Africa related to Swazi, Ndebele (“in-DEB-eh-leh”), and Zulu. This language’s oral poets of the izibongo tradition make use of click consonants represented by the letters C, X, and Q.</t>
+  </si>
+  <si>
+    <t>[10h] Scholarship on Xhosa izibongo poetry uses this English term to describe its genre. Yoruban oríkì and Shona nhétémbo belong to this broad African tradition that involves using lists of compound epithets to highlight a person, animal, or object.</t>
+  </si>
+  <si>
+    <t>[10m] An izibongo praise poem about this person describes how he “raged among the large kraals.” This person is the subject of an oral epic translated by Mazisi Kunene and a novel by Thomas Mofolo.</t>
+  </si>
+  <si>
+    <t>Among the first collections of poetry in this language are John Solilo’s Izala and S. E. K. Mqhayi’s (“um-KAH-yee’s”) Imihobe nemibongo. For 10 points each:
+[10e] Name this Bantu Nguni language of South Africa related to Swazi, Ndebele (“in-DEB-eh-leh”), and Zulu. This language’s oral poets of the izibongo tradition make use of click consonants represented by the letters C, X, and Q.
+ANSWER: Xhosa (“KAW-suh”) [or isiXhosa]
+[10h] Scholarship on Xhosa izibongo poetry uses this English term to describe its genre. Yoruban oríkì and Shona nhétémbo belong to this broad African tradition that involves using lists of compound epithets to highlight a person, animal, or object.
+ANSWER: praise poetry [accept praise singing]
+[10m] An izibongo praise poem about this person describes how he “raged among the large kraals.” This person is the subject of an oral epic translated by Mazisi Kunene and a novel by Thomas Mofolo.
+ANSWER: Shaka</t>
+  </si>
+  <si>
+    <t>According to Pausanias, this city’s first king was a river god who mediated a land dispute between Hera and Poseidon with his brothers Cephisus and Asterion. For 10 points each:
+[10h] Name this city founded by the culture-hero Phoroneus, who was said to have discovered fire. Pliny the Elder claims that another king of this city introduced wells to Greece after sailing on the first ship from Egypt.</t>
+  </si>
+  <si>
+    <t>[10e] Zeus visited the Argive princess Danaë in the form of golden rain, leading to this hero’s birth. This hero used his shield as a mirror to avoid petrification while fighting a gorgon.</t>
+  </si>
+  <si>
+    <t>[10m] In the longest aristeia of the Iliad, this king of Argos wounds Aeneus and Aphrodite. In book X (“ten”), this king teams up with Odysseus to steal the Palladium during a night raid.</t>
+  </si>
+  <si>
+    <t>According to Pausanias, this city’s first king was a river god who mediated a land dispute between Hera and Poseidon with his brothers Cephisus and Asterion. For 10 points each:
+[10h] Name this city founded by the culture-hero Phoroneus, who was said to have discovered fire. Pliny the Elder claims that another king of this city introduced wells to Greece after sailing on the first ship from Egypt.
+ANSWER: Argos (The two kings are Inachus and Danaus.)
+[10e] Zeus visited the Argive princess Danaë in the form of golden rain, leading to this hero’s birth. This hero used his shield as a mirror to avoid petrification while fighting a gorgon.
+ANSWER: Perseus
+[10m] In the longest aristeia of the Iliad, this king of Argos wounds Aeneus and Aphrodite. In book X (“ten”), this king teams up with Odysseus to steal the Palladium during a night raid.
+ANSWER: Diomedes</t>
+  </si>
+  <si>
+    <t>In a story from the Lambeth manuscript, a warrior uses his shield to trick one of these animals into fighting its own reflection. For 10 points each:
+[10e] Name this sort of animal that terrorized the Isle of Anglesey until King Arthur killed it. Black-furred varieties of these animals are a sign of good luck in Welsh culture, and are often depicted accompanying witches.</t>
+  </si>
+  <si>
+    <t>[10m] In the Welsh poem Pa Gur, this Knight of the Round Table fights the monstrous Cath Palug instead of King Arthur. This foster brother of King Arthur and son of Sir Ector served as the king’s seneschal (“SEN-uh-shul”), or stewart.</t>
+  </si>
+  <si>
+    <t>[10h] A major source for the “Poetry of the Princes” was this text, according to which the sow Henwen birthed Cath Palug after being chased out of Cornwall. This text contains many stories from the Mabinogion, like a similar text named for Rhydderch.</t>
+  </si>
+  <si>
+    <t>In a story from the Lambeth manuscript, a warrior uses his shield to trick one of these animals into fighting its own reflection. For 10 points each:
+[10e] Name this sort of animal that terrorized the Isle of Anglesey until King Arthur killed it. Black-furred varieties of these animals are a sign of good luck in Welsh culture, and are often depicted accompanying witches.
+ANSWER: cats [accept Cath Palug]
+[10m] In the Welsh poem Pa Gur, this Knight of the Round Table fights the monstrous Cath Palug instead of King Arthur. This foster brother of King Arthur and son of Sir Ector served as the king’s seneschal (“SEN-uh-shul”), or stewart.
+ANSWER: Sir Kay [or Cai; or Cei; or Kex; or Keu]
+[10h] A major source for the “Poetry of the Princes” was this text, according to which the sow Henwen birthed Cath Palug after being chased out of Cornwall. This text contains many stories from the Mabinogion, like a similar text named for Rhydderch.
+ANSWER: Red Book of Hergest</t>
+  </si>
+  <si>
+    <t>A collection of jars found at Deir el-Medina depict a deity of this domain clutching snakes in each hand; that deity of this domain was also depicted as a lion standing on its hind quarters. For 10 points each:
+[10h] Name this domain embodied by a god depicted above Horus on the Metternich Stela. A deity of this domain is shown protecting Sobek in the Book of the Faiyum, and is often given the epithet “Mistress of the Horizon.”</t>
+  </si>
+  <si>
+    <t>[10m] The childbirth god Bes is often depicted alongside this childbirth goddess who has a crocodile tail, sagging breasts, and the head of a hippopotamus.</t>
+  </si>
+  <si>
+    <t>[10e] In another myth, the goddess Nut is only able to give birth after this ibis-headed god of knowledge and wisdom gambles with the moon for five extra days of the year.</t>
+  </si>
+  <si>
+    <t>A collection of jars found at Deir el-Medina depict a deity of this domain clutching snakes in each hand; that deity of this domain was also depicted as a lion standing on its hind quarters. For 10 points each:
+[10h] Name this domain embodied by a god depicted above Horus on the Metternich Stela. A deity of this domain is shown protecting Sobek in the Book of the Faiyum, and is often given the epithet “Mistress of the Horizon.”
+ANSWER: childbirth [or midwifery or obstetrics; or word forms; accept motherhood or maternity or fertility or pregnancy]
+[10m] The childbirth god Bes is often depicted alongside this childbirth goddess who has a crocodile tail, sagging breasts, and the head of a hippopotamus.
+ANSWER: Taweret [or Tawaret; or Taueret; or Taurt; or Tuat; or Tuart; or Twert; or Thoeris; or Taouris; or Toeris]
+[10e] In another myth, the goddess Nut is only able to give birth after this ibis-headed god of knowledge and wisdom gambles with the moon for five extra days of the year.
+ANSWER: Thoth</t>
+  </si>
+  <si>
+    <t>After this being was slain by the demoness Jahi, a tree sprouted from their corpse, leading to the birth of the first man Mashya and the first woman Mashyana. For 10 points each:
+[10h] Name this first human being from Avestan mythology. One epic begins by describing this figure’s rule during a time when humans still lived in caves and wore leopard skins.</t>
+  </si>
+  <si>
+    <t>[10e] Upon Gayomart’s death after ruling for 30 years, their grandson Hushang founded this modern-day country’s Pishdadian Dynasty. The story of Gayomart opens this country’s national epic, the Shahnameh.</t>
+  </si>
+  <si>
+    <t>[10m] Gayomart’s son Siamak is killed while leading an army against the forces of this figure. In a story from the Shahnameh, kisses from this figure cause snakes to grow from the shoulders of the evil king Zahhak.</t>
+  </si>
+  <si>
+    <t>After this being was slain by the demoness Jahi, a tree sprouted from their corpse, leading to the birth of the first man Mashya and the first woman Mashyana. For 10 points each:
+[10h] Name this first human being from Avestan mythology. One epic begins by describing this figure’s rule during a time when humans still lived in caves and wore leopard skins.
+ANSWER: Gayomart [or Kayomart; or Keyumars; or Kiomars]
+[10e] Upon Gayomart’s death after ruling for 30 years, their grandson Hushang founded this modern-day country’s Pishdadian Dynasty. The story of Gayomart opens this country’s national epic, the Shahnameh.
+ANSWER: Iran [or Islamic Republic of Iran; or Jomhuri-ye Eslami-ye Iran; prompt on Persia]
+[10m] Gayomart’s son Siamak is killed while leading an army against the forces of this figure. In a story from the Shahnameh, kisses from this figure cause snakes to grow from the shoulders of the evil king Zahhak.
+ANSWER: Ahriman</t>
+  </si>
+  <si>
+    <t>This character marries Brugmo, a neighboring chieftain’s daughter, after winning a horse race at the age of twelve. For 10 points each:
+[10h] Name this king of Ling who titles a million-verse epic originally from Tibet. In that epic, this king fights enemies such as his uncle Krothung and the neighboring Kingdom of Hor.</t>
+  </si>
+  <si>
+    <t>[10m] In some versions of the Epic of Gesar, he is nursed by one of these animals. In Balinese myth, the demon queen Rangda fights the heroic king Barong, who is most often depicted as one of these animals.</t>
+  </si>
+  <si>
+    <t>[10e] Scholars interpret Gesar as a manifestation of the bodhisattva Avalokiteshvara, who blessed one of these animals to marry the ogress Sinmo and become the progenitor of the Tibetans. The Buddha drops a mountain on top of a “king” of these animals, Sun Wukong.</t>
+  </si>
+  <si>
+    <t>This character marries Brugmo, a neighboring chieftain’s daughter, after winning a horse race at the age of twelve. For 10 points each:
+[10h] Name this king of Ling who titles a million-verse epic originally from Tibet. In that epic, this king fights enemies such as his uncle Krothung and the neighboring Kingdom of Hor.
+ANSWER: Gesar (“GAY-sar”) [or Kesar; or Geser; or King Gesar]
+[10m] In some versions of the Epic of Gesar, he is nursed by one of these animals. In Balinese myth, the demon queen Rangda fights the heroic king Barong, who is most often depicted as one of these animals.
+ANSWER: lions [or lionesses; prompt on cats]
+[10e] Scholars interpret Gesar as a manifestation of the bodhisattva Avalokiteshvara, who blessed one of these animals to marry the ogress Sinmo and become the progenitor of the Tibetans. The Buddha drops a mountain on top of a “king” of these animals, Sun Wukong.
+ANSWER: monkeys</t>
+  </si>
+  <si>
+    <t>To get around a promise to not warn an “exceedingly-wise” man about this event, a god instead issued the warning to the reed wall of his hut. For 10 points each:
+[10e] Name this event that flattened the earth and turned humans into clay. In his namesake epic, Gilgamesh asks for the secret to immortality from a man who survived this event named Utnapishtim, which inspired a story in Genesis.</t>
+  </si>
+  <si>
+    <t>[10h] The flood myth in the Epic of Gilgamesh is likely derived from the story of this earlier epic’s title character. This epic begins with minor gods rebelling because they are tired of digging ditches, so they kill Geshtu and use his blood to create humanity.</t>
+  </si>
+  <si>
+    <t>[10m] This god warned Atra-Hasis about the flood, and suggested killing Geshtu to create humanity. This water god, who was worshipped in the Abzu temple, is the consort of Ninhursag.</t>
+  </si>
+  <si>
+    <t>To get around a promise to not warn an “exceedingly-wise” man about this event, a god instead issued the warning to the reed wall of his hut. For 10 points each:
+[10e] Name this event that flattened the earth and turned humans into clay. In his namesake epic, Gilgamesh asks for the secret to immortality from a man who survived this event named Utnapishtim, which inspired a story in Genesis.
+ANSWER: Great Flood [or deluge]
+[10h] The flood myth in the Epic of Gilgamesh is likely derived from the story of this earlier epic’s title character. This epic begins with minor gods rebelling because they are tired of digging ditches, so they kill Geshtu and use his blood to create humanity.
+ANSWER: Atra-Hasis
+[10m] This god warned Atra-Hasis about the flood, and suggested killing Geshtu to create humanity. This water god, who was worshipped in the Abzu temple, is the consort of Ninhursag.
+ANSWER: Enki</t>
+  </si>
+  <si>
+    <t>Bonus
+Various Greek goddesses have been given the epithet Brimo when referring to their “angry” or “terrifying” aspects. For 10 points each:
+[10e] Goddesses whose vengeful aspects are referred to as Brimo are often linked to this place, which includes the Fields of Elysium and Tartarus.</t>
+  </si>
+  <si>
+    <t>[10m] This goddess was given the epithet Brimo in her temple at Pherae in Thessaly. Lycophron’s Alexandra uses the name Brimo when describing queen Hecuba’s transformation into this goddess’s symbol of a black dog.</t>
+  </si>
+  <si>
+    <t>[10h] Hippolytus states that during this event, a priest announced that a goddess called Brimo gave birth to a son named Brimos. “Unrepeatables” of this event include “Things Done,” “Things Shown,” and “Things Said.”</t>
+  </si>
+  <si>
+    <t>Various Greek goddesses have been given the epithet Brimo when referring to their “angry” or “terrifying” aspects. For 10 points each:
+[10e] Goddesses whose vengeful aspects are referred to as Brimo are often linked to this place, which includes the Fields of Elysium and Tartarus.
+ANSWER: Greek underworld [accept hell or Hades or land of the dead]
+[10m] This goddess was given the epithet Brimo in her temple at Pherae in Thessaly. Lycophron’s Alexandra uses the name Brimo when describing queen Hecuba’s transformation into this goddess’s symbol of a black dog.
+ANSWER: Hecate [or Hekate; prompt on Trivia]
+[10h] Hippolytus states that during this event, a priest announced that a goddess called Brimo gave birth to a son named Brimos. “Unrepeatables” of this event include “Things Done,” “Things Shown,” and “Things Said.”
+ANSWER: Eleusinian Mysteries</t>
+  </si>
+  <si>
+    <t>Some traditions identify this god as the eleventh of the rudras, a set of avatars of Shiva. For 10 points each:
+[10e] Name this god also considered to be a spiritual child of the wind god Vāyu. This vānara god, who is considered the highest devotee of Rāma, is usually depicted as a monkey.
+ANSWER: Hanuman</t>
+  </si>
+  <si>
+    <t>[10m] Some tales state Shiva took the form of the eight-legged Sharabha to fight this avatar of Vishnu. This half-man, half-animal avatar of Vishnu disemboweled the asura Hiranyakashipu (“hee-run-yuh-KUH-shee-poo”), the father of his devotee Prahlada (“pruh-LAH-duh”).</t>
+  </si>
+  <si>
+    <t>[10h] In the Mahabharata, Shiva gives Arjuna the Pashupatastra (“PAH-shoo-puh-TAH-struh”) after duelling him in the guise of a performer of this activity. In another episode, Jara (“JUH-ruh”) performs this activity using a piece of metal he found inside a fish.</t>
+  </si>
+  <si>
+    <t>Some traditions identify this god as the eleventh of the rudras, a set of avatars of Shiva. For 10 points each:
+[10e] Name this god also considered to be a spiritual child of the wind god Vāyu. This vānara god, who is considered the highest devotee of Rāma, is usually depicted as a monkey.
+ANSWER: Hanuman [or Hanumān; or Māruti; or Anjaneya; or Hanumanth; or Bajrangbali]
+[10m] Some tales state Shiva took the form of the eight-legged Sharabha to fight this avatar of Vishnu. This half-man, half-animal avatar of Vishnu disemboweled the asura Hiranyakashipu (“hee-run-yuh-KUH-shee-poo”), the father of his devotee Prahlada (“pruh-LAH-duh”).
+ANSWER: Narasimha (“nuh-ruh-SIM-huh”) [or Nrusimha; or Narsingh]
+[10h] In the Mahabharata, Shiva gives Arjuna the Pashupatastra (“PAH-shoo-puh-TAH-struh”) after duelling him in the guise of a performer of this activity. In another episode, Jara (“JUH-ruh”) performs this activity using a piece of metal he found inside a fish.
+ANSWER: hunting</t>
+  </si>
+  <si>
+    <t>Loki lies to one of these beings that his companion’s ferocious appetite and burning eyes are due to not having eaten or slept in eight days. For 10 points each:
+[10m] The ancestor of what beings is said to have been born from the venom of the Elivagar River and drank the milk of Auðumbla (“ow-THOOM-bla”)? One of these beings claims that an object he hid “eight leagues beneath the earth” will only be returned if Freya is brought to marry him.</t>
+  </si>
+  <si>
+    <t>[10e] The theft of this weapon by the jotunn Thrym requires Thor to cross-dress as Freya. Thor kills Thrym after this short hammer is returned to him.</t>
+  </si>
+  <si>
+    <t>[10h] Thrym lends his name to a location once occupied by these two jotunn in Jotunheim. After one of these two figures is set on fire outside of Asgard for an attempted kidnapping, the other is allowed to choose a husband from among the gods, but only by looking at their feet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loki lies to one of these beings that his companion’s ferocious appetite and burning eyes are due to not having eaten or slept in eight days. For 10 points each:
+[10m] The ancestor of what beings is said to have been born from the venom of the Elivagar River and drank the milk of Auðumbla (“ow-THOOM-bla”)? One of these beings claims that an object he hid “eight leagues beneath the earth” will only be returned if Freya is brought to marry him.
+ANSWER: jotunn (“YO-tun”) [or jotnar or frost giants]
+[10e] The theft of this weapon by the jotunn Thrym requires Thor to cross-dress as Freya. Thor kills Thrym after this short hammer is returned to him.
+ANSWER: Mjölnir
+[10h] Thrym lends his name to a location once occupied by these two jotunn in Jotunheim. After one of these two figures is set on fire outside of Asgard for an attempted kidnapping, the other is allowed to choose a husband from among the gods, but only by looking at their feet.
+ANSWER: Thiazi AND Skadi </t>
+  </si>
+  <si>
+    <t>Fall damage did indeed exist in Greco-Roman myth. For 10 points each:
+[10e] Ate (“AY-tee”) fell to Phrygia after her father Zeus threw her down from this home of the gods. Hephaestus fell to Lemnos after Hera threw him down from this mountain.</t>
+  </si>
+  <si>
+    <t>[10m] While chasing a mouse, a son of Minos named Glaucus fell into a jar of this substance and died. In the Aeneid, the Cumaean Sibyl drugs Cerberus with a morsel of this substance and medicinal crops.</t>
+  </si>
+  <si>
+    <t>[10h] This youngest member of Odysseus’s crew fell to his death off Circe’s roof due to a hangover. This man was the first ghost Odysseus saw in the Underworld and begged to have a proper funeral.</t>
+  </si>
+  <si>
+    <t>Fall damage did indeed exist in Greco-Roman myth. For 10 points each:
+[10e] Ate (“AY-tee”) fell to Phrygia after her father Zeus threw her down from this home of the gods. Hephaestus fell to Lemnos after Hera threw him down from this mountain.
+ANSWER: Mount Olympus [or Ólympos]
+[10m] While chasing a mouse, a son of Minos named Glaucus fell into a jar of this substance and died. In the Aeneid, the Cumaean Sibyl drugs Cerberus with a morsel of this substance and medicinal crops.
+ANSWER: honey [or méli]
+[10h] This youngest member of Odysseus’s crew fell to his death off Circe’s roof due to a hangover. This man was the first ghost Odysseus saw in the Underworld and begged to have a proper funeral.
+ANSWER: Elpenor</t>
+  </si>
+  <si>
+    <t>This hero cures the pus-filled sores of the maiden Kahindo, who falls in love with him and tells him how to avoid getting trapped in the underworld. For 10 points each:
+[10h] Name this hero of the Nyanga people who chases his evil father into the underworld, where this hero uses his conga scepter to grow a banana forest in a single day and beat up the death god Muisa.</t>
+  </si>
+  <si>
+    <t>[10e] The Ashanti hero Kwase Benefo is assisted by the psychopomp Amokye in travelling on one of these natural features. In Greek mythology, Charon ferries souls across one of these natural features.</t>
+  </si>
+  <si>
+    <t>[10m] In the mythology of these people, the hero Uncama accidentally enters the underworld while chasing a porcupine that ate his millet garden. Unkulunkulu is the chief god of these people, who believe death came from a lizard who outran a chameleon.</t>
+  </si>
+  <si>
+    <t>During a race, one of these two characters slips in the blood of a sacrificed bull and trips another runner to allow the other to win. For 10 points each:
+[10h] Name these two lovers who are killed while leading a night raid in Book IX of the Aeneid.</t>
+  </si>
+  <si>
+    <t>[10e] Euryalus attracts the attention of Turnus’s men during the raid after looting one of these objects. Hades was the original owner of one of these objects that granted invisibility and was given to Perseus.</t>
+  </si>
+  <si>
+    <t>[10m] During the raid, Nisus beheads a leader with this name. A man with this name lost an augury contest when he counted six fewer birds than his opponent.</t>
+  </si>
+  <si>
+    <t>During a race, one of these two characters slips in the blood of a sacrificed bull and trips another runner to allow the other to win. For 10 points each:
+[10h] Name these two lovers who are killed while leading a night raid in Book IX of the Aeneid.
+ANSWER: Nisus AND Euryalus (“yur-RYE-uh-luss”)
+[10e] Euryalus attracts the attention of Turnus’s men during the raid after looting one of these objects. Hades was the original owner of one of these objects that granted invisibility and was given to Perseus.
+ANSWER: helmets [or helms; accept caps or hats]
+[10m] During the raid, Nisus beheads a leader with this name. A man with this name lost an augury contest when he counted six fewer birds than his opponent.
+ANSWER: Remus</t>
+  </si>
+  <si>
+    <t>This hero cures the pus-filled sores of the maiden Kahindo, who falls in love with him and tells him how to avoid getting trapped in the underworld. For 10 points each:
+[10h] Name this hero of the Nyanga people who chases his evil father into the underworld, where this hero uses his conga scepter to grow a banana forest in a single day and beat up the death god Muisa.
+ANSWER: Mwindo
+[10e] The Ashanti hero Kwase Benefo is assisted by the psychopomp Amokye in travelling on one of these natural features. In Greek mythology, Charon ferries souls across one of these natural features.
+ANSWER: rivers
+[10m] In the mythology of these people, the hero Uncama accidentally enters the underworld while chasing a porcupine that ate his millet garden. Unkulunkulu is the chief god of these people, who believe death came from a lizard who outran a chameleon.
+ANSWER: Zulu</t>
+  </si>
+  <si>
+    <t>In a myth of the Chukchi people, a spirit in the form of this animal created the Kamchatka Peninsula by dropping one of its feathers. For 10 points each:
+[10e] Name this type of bird said to portend the downfall of England if removed from the Tower of London. Huginn and Muninn are two of these birds that give information to Odin.</t>
+  </si>
+  <si>
+    <t>[10m] Before one of these events, a goddess appeared to Donn Cuailnge (“COOL-nyuh”) in the form of a raven. Before one of these events, a pregnant woman who is forced to run a race against horses curses nearby men to suffer labor pains during their time of greatest need.</t>
+  </si>
+  <si>
+    <t>[10h] In the Mabinogion, a group of ravens and soldiers take turns attacking each other while Owain and King Arthur play this game. In another myth, Midir wins an embrace and a kiss from Étaín after repeatedly losing to Eochaid (“ECK-id”) in this chess-like game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a myth of the Chukchi people, a spirit in the form of this animal created the Kamchatka Peninsula by dropping one of its feathers. For 10 points each:
+[10e] Name this type of bird said to portend the downfall of England if removed from the Tower of London. Huginn and Muninn are two of these birds that give information to Odin.
+ANSWER: ravens [or crows or corvids]
+[10m] Before one of these events, a goddess appeared to Donn Cuailnge (“COOL-nyuh”) in the form of a raven. Before one of these events, a pregnant woman who is forced to run a race against horses curses nearby men to suffer labor pains during their time of greatest need.
+ANSWER: cattle raids [accept Cattle Raid of Cooley or Táin Bó Cúailnge; accept answers of stealing or theft of cows or cattle; prompt on raids or theft or stealing by asking “of what?”; prompt on invasions by asking “for what purpose?”]
+[10h] In the Mabinogion, a group of ravens and soldiers take turns attacking each other while Owain and King Arthur play this game. In another myth, Midir wins an embrace and a kiss from Étaín after repeatedly losing to Eochaid (“ECK-id”) in this chess-like game.
+ANSWER: fidchell </t>
+  </si>
+  <si>
+    <t>Answer the following about mythological interpretations of auroras, for 10 points each.
+[10m] In Inuit mythology, the Northern Lights are believed to be children playing ball with the skull of a walrus, an animal created when this sea goddess’s fingers were cut off by her father Anguta.</t>
+  </si>
+  <si>
+    <t>[10e] The Gunai people of this country believe the Southern Lights to be fire from the spirit world. Nabunum the eel made the frog Tiddalik laugh, releasing all the world’s water, in the mythology of this country’s Aboriginal peoples.</t>
+  </si>
+  <si>
+    <t>[10h] In Chinese mythology, this figure was conceived either by an aurora or lightning from the Big Dipper. In the Records of the Grand Historian, this figure teamed up with the emperor Yuwang to win the battle of Zhuolu.</t>
+  </si>
+  <si>
+    <t>Answer the following about mythological interpretations of auroras, for 10 points each.
+[10m] In Inuit mythology, the Northern Lights are believed to be children playing ball with the skull of a walrus, an animal created when this sea goddess’s fingers were cut off by her father Anguta.
+ANSWER: Sedna [or Sanna]
+[10e] The Gunai people of this country believe the Southern Lights to be fire from the spirit world. Nabunum the eel made the frog Tiddalik laugh, releasing all the world’s water, in the mythology of this country’s Aboriginal peoples.
+ANSWER: Australia [or Commonwealth of Australia]
+[10h] In Chinese mythology, this figure was conceived either by an aurora or lightning from the Big Dipper. In the Records of the Grand Historian, this figure teamed up with the emperor Yuwang to win the battle of Zhuolu.
+ANSWER: Yellow Emperor</t>
+  </si>
+  <si>
+    <t>Note to moderator: Read the answerline carefully. The earliest appearance of a motif about this task comes from Saxo Grammaticus, who writes that Harald Bluetooth ordered Palnatoki to do it while drunk. For 10 points each:
+[10m] Name this task performed in another tale on the order of the bailiff Gessler, by a man who refused to bow to a hat placed on a pole. A description is acceptable.</t>
+  </si>
+  <si>
+    <t>[10e] The most famous instance of the apple-shot motif comes from the story of this Swiss folk hero who titles a Rossini opera.</t>
+  </si>
+  <si>
+    <t>[10h] In another myth, this character must shoot an apple off his son’s head at the instigation of king Nidud. This skald writes runes in his blood on a horn, thereby destroying it and thwarting a poisoning attempt, in a text titled for him that may share authorship with the Heimskringla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The earliest appearance of a motif about this task comes from Saxo Grammaticus, who writes that Harald Bluetooth ordered Palnatoki to do it while drunk. For 10 points each:
+[10m] Name this task performed in another tale on the order of the bailiff Gessler, by a man who refused to bow to a hat placed on a pole. A description is acceptable.
+ANSWER: shooting an apple off the head of one’s child [prompt on archery or shooting by asking “what is the target?”; prompt on shooting an apple or apple-shot or Apfelschuss by asking “off of what?”; prompt on shooting at one’s child or shooting at the head of one’s child]
+[10e] The most famous instance of the apple-shot motif comes from the story of this Swiss folk hero who titles a Rossini opera.
+ANSWER: William Tell [or Guillaume Tell]
+[10h] In another myth, this character must shoot an apple off his son’s head at the instigation of king Nidud. This skald writes runes in his blood on a horn, thereby destroying it and thwarting a poisoning attempt, in a text titled for him that may share authorship with the Heimskringla.
+ANSWER: Egil </t>
+  </si>
+  <si>
+    <t>After a group of alcohol deities passed out from partying, this figure crushed them by destroying their hut, turning them into the Pleiades. For 10 points each:
+[10h] Name this figure who faked his death by allowing ants to carry clippings of hair and nails out of a hole. After the death of the Four Hundred Boys, this crab-loving demon is tricked into having a mountain dropped on him.</t>
+  </si>
+  <si>
+    <t>[10e] These figures killed Zipacna to avenge the death of the Four Hundred Boys. These two figures avenge the death of their father and uncle by defeating the Lords of Xibalba at the Mayan ball game in the Popol Vuh.</t>
+  </si>
+  <si>
+    <t>[10m] This father of Zipacna and Cabrakan pretends to be the sun and moon in one myth. This “self-magnifying” bird demon had his jeweled teeth replaced with corn after one of the Hero Twins shot them with a blowgun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a group of alcohol deities passed out from partying, this figure crushed them by destroying their hut, turning them into the Pleiades. For 10 points each:
+[10h] Name this figure who faked his death by allowing ants to carry clippings of hair and nails out of a hole. After the death of the Four Hundred Boys, this crab-loving demon is tricked into having a mountain dropped on him.
+ANSWER: Zipacna
+[10e] These figures killed Zipacna to avenge the death of the Four Hundred Boys. These two figures avenge the death of their father and uncle by defeating the Lords of Xibalba at the Mayan ball game in the Popol Vuh.
+ANSWER: Maya Hero Twins [or Hunahpu AND Xbalanque]
+[10m] This father of Zipacna and Cabrakan pretends to be the sun and moon in one myth. This “self-magnifying” bird demon had his jeweled teeth replaced with corn after one of the Hero Twins shot them with a blowgun.
+ANSWER: Seven Macaw </t>
+  </si>
+  <si>
+    <t>In 2011, one of these facilities in Oregon ran into issues when the local climate’s effect on cold aisle containment caused a literal cloud to form inside the building and begin raining. For 10 points each:
+[10m] Name these facilities that often receive tax breaks in remote towns but may stretch local grids. A “colocation” or “colo” (“CO-lo”) is one of these facilities that rents out space, in contrast to “enterprise” ones.</t>
+  </si>
+  <si>
+    <t>[10e] The densest data center hub in the world is in this state’s Data Center Alley around Ashburn, which is part of this state’s Dulles Technology Corridor west of Arlington and Alexandria.</t>
+  </si>
+  <si>
+    <t>[10h] Everest Pipkin’s essay on the invisibility of data centers calls them examples of these anonymous spaces. Marc Augé’s (“oh-ZHAY’s”) book on the “anthropology of supermodernity” coined this term for spaces like hotels and airports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2011, one of these facilities in Oregon ran into issues when the local climate’s effect on cold aisle containment caused a literal cloud to form inside the building and begin raining. For 10 points each:
+[10m] Name these facilities that often receive tax breaks in remote towns but may stretch local grids. A “colocation” or “colo” (“CO-lo”) is one of these facilities that rents out space, in contrast to “enterprise” ones.
+ANSWER: data centers [accept web farms or cloud computing centers or computing clusters or server arrays or server parks or similar answers; prompt on servers or warehouses; reject “supercomputers”]
+[10e] The densest data center hub in the world is in this state’s Data Center Alley around Ashburn, which is part of this state’s Dulles Technology Corridor west of Arlington and Alexandria.
+ANSWER: Virginia [or VA]
+[10h] Everest Pipkin’s essay on the invisibility of data centers calls them examples of these anonymous spaces. Marc Augé’s (“oh-ZHAY’s”) book on the “anthropology of supermodernity” coined this term for spaces like hotels and airports.
+ANSWER: non-places </t>
+  </si>
+  <si>
+    <t>In 2023, the UK’s transport secretary Mark Harper amplified conspiracy theories that a design named for this number is a plot to dictate people’s behaviors. For 10 points each:
+[10m] Give this number that names a city design concept begun by Carlos Moreno and embraced by Anne Hidalgo. That design named for this number aims to make daily needs reachable by cycling, walking, or public transit.</t>
+  </si>
+  <si>
+    <t>[10e] Hidalgo adopted the 15-minute city concept while campaigning for re-election as mayor of this capital city that hosted the 2024 Summer Olympics.</t>
+  </si>
+  <si>
+    <t>[10h] This city has officially adopted the “20-minute neighborhood.” The Hoddle Grid created this city’s pedestrian laneways, while its shopping arcades were built after a mining boom ushered in this city’s 1880s “Marvellous” era.</t>
+  </si>
+  <si>
+    <t>In 2023, the UK’s transport secretary Mark Harper amplified conspiracy theories that a design named for this number is a plot to dictate people’s behaviors. For 10 points each:
+[10m] Give this number that names a city design concept begun by Carlos Moreno and embraced by Anne Hidalgo. That design named for this number aims to make daily needs reachable by cycling, walking, or public transit.
+ANSWER: fifteen minutes [or quart d’heure; accept 15-minute city]
+[10e] Hidalgo adopted the 15-minute city concept while campaigning for re-election as mayor of this capital city that hosted the 2024 Summer Olympics.
+ANSWER: Paris
+[10h] This city has officially adopted the “20-minute neighborhood.” The Hoddle Grid created this city’s pedestrian laneways, while its shopping arcades were built after a mining boom ushered in this city’s 1880s “Marvellous” era.
+ANSWER: Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>This author popularized the pejorative term “nutritionism” for the view in dietary science that a food’s nutrient composition is all that matters. For 10 points each:
+[10m] Name this journalist and popular science writer who consumed various psychedelics for his book How to Change Your Mind. This author hunted, gathered, and grew an entire meal for his book The Omnivore’s Dilemma.</t>
+  </si>
+  <si>
+    <t>[10h] Pollan’s books In Defense of Food and Food Rules both present a pithy seven-word summary of his dietary advice, which begins “Eat food. Not too much.” and ends with these two words.</t>
+  </si>
+  <si>
+    <t>[10e] Jonathan Safran Foer critiqued Pollan’s view that veganism violates a type of culinary “fellowship” named for these objects. Chez Panisse (“shay pa-NEESE”) launched a locavore movement named for bringing food from “farm-to” these objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This author popularized the pejorative term “nutritionism” for the view in dietary science that a food’s nutrient composition is all that matters. For 10 points each:
+[10m] Name this journalist and popular science writer who consumed various psychedelics for his book How to Change Your Mind. This author hunted, gathered, and grew an entire meal for his book The Omnivore’s Dilemma.
+ANSWER: Michael Pollan (“PAW-lun”) [or Michael Kevin Pollan]
+[10h] Pollan’s books In Defense of Food and Food Rules both present a pithy seven-word summary of his dietary advice, which begins “Eat food. Not too much.” and ends with these two words.
+ANSWER: “mostly plants” [accept “Eat food. Not too much. Mostly plants.”]
+[10e] Jonathan Safran Foer critiqued Pollan’s view that veganism violates a type of culinary “fellowship” named for these objects. Chez Panisse (“shay pa-NEESE”) launched a locavore movement named for bringing food from “farm-to” these objects.
+ANSWER: tables </t>
+  </si>
+  <si>
+    <t>Answer the following about the history of foundling hospitals in Europe, for 10 points each.
+[10e] In 1783, this kingdom’s queen Maria I proclaimed that all of its towns must have a foundling hospital. This kingdom established the Casa Pia to educate children in the aftermath of a 1755 earthquake in its capital.</t>
+  </si>
+  <si>
+    <t>[10m] This composer trained an all-female orchestra of foundlings at the Ospedale della Pietà in Venice, where he may have premiered his D major Gloria.</t>
+  </si>
+  <si>
+    <t>[10h] In Italy’s Campania region, hospitals traditionally gave foundlings this Italian surname because of the condition they had after being abandoned in “foundling wheels.” Today, this is the commonest surname in Naples.</t>
+  </si>
+  <si>
+    <t>Answer the following about the history of foundling hospitals in Europe, for 10 points each.
+[10e] In 1783, this kingdom’s queen Maria I proclaimed that all of its towns must have a foundling hospital. This kingdom established the Casa Pia to educate children in the aftermath of a 1755 earthquake in its capital.
+ANSWER: Portugal [or Kingdom of Portugal; or Reino de Portugal]
+[10m] This composer trained an all-female orchestra of foundlings at the Ospedale della Pietà in Venice, where he may have premiered his D major Gloria.
+ANSWER: Antonio Vivaldi
+[10h] In Italy’s Campania region, hospitals traditionally gave foundlings this Italian surname because of the condition they had after being abandoned in “foundling wheels.” Today, this is the commonest surname in Naples.
+ANSWER: Esposito</t>
+  </si>
+  <si>
+    <t>A book by George Dickie calls the 1700s the “century of” this concept and discusses Alexander Gerard’s “Essay on” it and Archibald Alison’s associationism in his “Essays on the Nature and Principle of” it. For 10 points each:
+[10h] Name this concept that can have either “variety” or “unanimity” among people, according to an essay titled for this concept from a thinker’s Four Dissertations, which uses an example about John Ogilby and John Milton.</t>
+  </si>
+  <si>
+    <t>[10e] This philosopher acknowledged subjectivity in his essay “Of the Standard of Taste.” This Scot wrote A Treatise of Human Nature and posed the problem of induction.</t>
+  </si>
+  <si>
+    <t>[10m] Hume’s aesthetics drew on the Earl of Shaftesbury and Francis Hutcheson’s theory named for this ethical concept. Adam Smith’s book titled for this two-word concept considers the “sympathy” of the “impartial spectator.”</t>
+  </si>
+  <si>
+    <t>A book by George Dickie calls the 1700s the “century of” this concept and discusses Alexander Gerard’s “Essay on” it and Archibald Alison’s associationism in his “Essays on the Nature and Principle of” it. For 10 points each:
+[10h] Name this concept that can have either “variety” or “unanimity” among people, according to an essay titled for this concept from a thinker’s Four Dissertations, which uses an example about John Ogilby and John Milton.
+ANSWER: aesthetic taste [accept “Of the Standard of Taste”]
+[10e] This philosopher acknowledged subjectivity in his essay “Of the Standard of Taste.” This Scot wrote A Treatise of Human Nature and posed the problem of induction.
+ANSWER: David Hume [or David Home]
+[10m] Hume’s aesthetics drew on the Earl of Shaftesbury and Francis Hutcheson’s theory named for this ethical concept. Adam Smith’s book titled for this two-word concept considers the “sympathy” of the “impartial spectator.”
+ANSWER: moral sense</t>
+  </si>
+  <si>
+    <t>Michael Devitt introduced the idea that these events are affected by subsequent interactions, which he called “multiple groundings.” For 10 points each:
+[10h] Give this term for the moment of “dubbing” that sets off a “causal chain.” Saul Kripke used this term in Naming and Necessity for the event when a name is first assigned to something and becomes a rigid designator.</t>
+  </si>
+  <si>
+    <t>[10m] Kripke’s account opposed a prior theory that treats the meaning of a name as equivalent to the set of these phrases. The essay “On Denoting” distinguishes between “definite” and “indefinite” examples of these phrases.</t>
+  </si>
+  <si>
+    <t>[10e] This Cambridge philosopher laid the groundwork for his descriptivist theory of names in “On Denoting.” He also co-wrote Principia Mathematica with Alfred North Whitehead.</t>
+  </si>
+  <si>
+    <t>Michael Devitt introduced the idea that these events are affected by subsequent interactions, which he called “multiple groundings.” For 10 points each:
+[10h] Give this term for the moment of “dubbing” that sets off a “causal chain.” Saul Kripke used this term in Naming and Necessity for the event when a name is first assigned to something and becomes a rigid designator.
+ANSWER: baptism [or initial baptism; accept baptismal ceremony; accept word forms like baptizing]
+[10m] Kripke’s account opposed a prior theory that treats the meaning of a name as equivalent to the set of these phrases. The essay “On Denoting” distinguishes between “definite” and “indefinite” examples of these phrases.
+ANSWER: descriptions [accept descriptivism or word forms like describing]
+[10e] This Cambridge philosopher laid the groundwork for his descriptivist theory of names in “On Denoting.” He also co-wrote Principia Mathematica with Alfred North Whitehead.
+ANSWER: Bertrand Russell</t>
+  </si>
+  <si>
+    <t>In an essay that discusses a cult of “action for action’s sake,” the author recalls receiving a childhood award for a speech about this person before being disappointed by this person’s own speech. For 10 points each:
+[10h] Name this person opposed by a compatriot who wrote The Essence of Aesthetic. “Fundamental Ideas,” the first section of an essay by this person, was ghostwritten by the theorizer of “actual idealism.”</t>
+  </si>
+  <si>
+    <t>[10e] Umberto Eco criticized Mussolini’s supporters in an essay titled for an “Ur” form of this political ideology, whose name Mussolini coined in reference to a Roman symbol of an axe in a bundle of sticks.</t>
+  </si>
+  <si>
+    <t>[10m] Mussolini persecuted the author of this text that includes the essay “Americanism and Fordism.” This text proposes that the ruling class undertakes a “passive revolution” for its preservation and wields cultural hegemony.</t>
+  </si>
+  <si>
+    <t>In an essay that discusses a cult of “action for action’s sake,” the author recalls receiving a childhood award for a speech about this person before being disappointed by this person’s own speech. For 10 points each:
+[10h] Name this person opposed by a compatriot who wrote The Essence of Aesthetic. “Fundamental Ideas,” the first section of an essay by this person, was ghostwritten by the theorizer of “actual idealism.”
+ANSWER: Benito Mussolini (The two philosophers mentioned are Benedetto Croce and Giovanni Gentile.)
+[10e] Umberto Eco criticized Mussolini’s supporters in an essay titled for an “Ur” form of this political ideology, whose name Mussolini coined in reference to a Roman symbol of an axe in a bundle of sticks.
+ANSWER: fascism [or fascismo; accept fascist; accept “Ur-Fascism”]
+[10m] Mussolini persecuted the author of this text that includes the essay “Americanism and Fordism.” This text proposes that the ruling class undertakes a “passive revolution” for its preservation and wields cultural hegemony.
+ANSWER: Prison Notebooks</t>
+  </si>
+  <si>
+    <t>The Renaissance philosopher Francesco Patrizi emphasized the importance of virtue in an Aristotelian treatise titled for a “happy” one of these places. For 10 points each:
+[10m] What sort of place partly titles a 1405 book inspired by Boccaccio’s On Famous Women? That book about an allegorical one of these places responds to the misogyny of Jean de Meun’s (“mun’s”) Roman de la Rose.</t>
+  </si>
+  <si>
+    <t>[10h] A Grandmaster of the Knights Hospitaller and a Genoese sea captain discuss the ideal egalitarian society in The City of the Sun, a work by this Italian philosopher of the late Renaissance.</t>
+  </si>
+  <si>
+    <t>[10e] The most enduring Renaissance work on the ideal city is likely this book by Thomas More, in which 54 cities on an island form the title perfect commonwealth.</t>
+  </si>
+  <si>
+    <t>The Renaissance philosopher Francesco Patrizi emphasized the importance of virtue in an Aristotelian treatise titled for a “happy” one of these places. For 10 points each:
+[10m] What sort of place partly titles a 1405 book inspired by Boccaccio’s On Famous Women? That book about an allegorical one of these places responds to the misogyny of Jean de Meun’s (“mun’s”) Roman de la Rose.
+ANSWER: cities [or city; accept city-state; accept La città felice; accept City of Ladies or Cité des Dames]
+[10h] A Grandmaster of the Knights Hospitaller and a Genoese sea captain discuss the ideal egalitarian society in The City of the Sun, a work by this Italian philosopher of the late Renaissance.
+ANSWER: Tommaso Campanella [or Giovanni Domenico Campanella]
+[10e] The most enduring Renaissance work on the ideal city is likely this book by Thomas More, in which 54 cities on an island form the title perfect commonwealth.
+ANSWER: Utopia</t>
+  </si>
+  <si>
+    <t>A reform movement in a branch of this school that promoted “practical learning” over rigid social structures was called Silhak. For 10 points each:
+[10e] Name this school of thought whose Korean offshoot included the philosophers Toegye (“TWEG-yeh”) and Yulgok. The teachings of this school’s founder are collected in the Analects.</t>
+  </si>
+  <si>
+    <t>[10h] The Four-Seven debate in Korean Confucianism concerned whether the Seven Emotions were as vital as these four entities. Mencius used this term for the human tendencies toward righteousness, justice, propriety, and wisdom.</t>
+  </si>
+  <si>
+    <t>[10m] The crux of the Four-Seven debate concerned whether this “governing order” was interdependent with qi. In Confucianism, this Chinese word means the virtue of “ritual propriety” and is often grouped with ren and yi.</t>
+  </si>
+  <si>
+    <t>A reform movement in a branch of this school that promoted “practical learning” over rigid social structures was called Silhak. For 10 points each:
+[10e] Name this school of thought whose Korean offshoot included the philosophers Toegye (“TWEG-yeh”) and Yulgok. The teachings of this school’s founder are collected in the Analects.
+ANSWER: Confucianism [or Rújiā; or Ruism; accept Korean Confucianism or Neo-Confucianism]
+[10h] The Four-Seven debate in Korean Confucianism concerned whether the Seven Emotions were as vital as these four entities. Mencius used this term for the human tendencies toward righteousness, justice, propriety, and wisdom.
+ANSWER: sprouts [or seeds; or shoots; or siduan; prompt on principles or beginnings]
+[10m] The crux of the Four-Seven debate concerned whether this “governing order” was interdependent with qi. In Confucianism, this Chinese word means the virtue of “ritual propriety” and is often grouped with ren and yi.
+ANSWER: li</t>
+  </si>
+  <si>
+    <t>A posthumous 2013 book that collects John Haugeland’s writings on Martin Heidegger has a title that references both Dasein (“DAH-zyne”) and this process. For 10 points each:
+[10h] Heidegger’s notion by which the meaning of things “opens up” in their context is typically translated as a “world” form of what process? Nikolas Kompridis drew on Heidegger to theorize this process’s “reflective” form.</t>
+  </si>
+  <si>
+    <t>[10e] The claim that “every disclosure of being as the transcendens is transcendental knowledge” appears in this 1927 book considered Heidegger’s magnum opus.</t>
+  </si>
+  <si>
+    <t>[10m] This philosopher attacked Heidegger’s “world disclosure” as devaluing reason in The Philosophical Discourses of Modernity. This member of the Frankfurt School theorized communicative rationality with Karl-Otto Apel.</t>
+  </si>
+  <si>
+    <t>A posthumous 2013 book that collects John Haugeland’s writings on Martin Heidegger has a title that references both Dasein (“DAH-zyne”) and this process. For 10 points each:
+[10h] Heidegger’s notion by which the meaning of things “opens up” in their context is typically translated as a “world” form of what process? Nikolas Kompridis drew on Heidegger to theorize this process’s “reflective” form.
+ANSWER: disclosure [accept word forms like disclosedness; accept Erschlossenheit; accept Dasein Disclosed]
+[10e] The claim that “every disclosure of being as the transcendens is transcendental knowledge” appears in this 1927 book considered Heidegger’s magnum opus.
+ANSWER: Being and Time [or Sein und Zeit]
+[10m] This philosopher attacked Heidegger’s “world disclosure” as devaluing reason in The Philosophical Discourses of Modernity. This member of the Frankfurt School theorized communicative rationality with Karl-Otto Apel.
+ANSWER: Jürgen Habermas</t>
+  </si>
+  <si>
+    <t>Answer the following about lamps in Ancient Greek philosophy, for 10 points each.
+[10m] This philosopher likened the eye to a lamp lit by Aphrodite in his emission theory of vision. This philosopher introduced the four classical elements and claimed that they are mediated via the opposing forces of Love and Strife.</t>
+  </si>
+  <si>
+    <t>[10h] In this text, a philosopher chooses calm over anger when his iron lamp is stolen. This conversational text discusses a form of volition called “prohairesis” and was the primary source for a shorter “Handbook,” or “Manual.”</t>
+  </si>
+  <si>
+    <t>[10e] James F. Thomson’s lamp puzzle, in which a lamp is flicked on and off at intervals of shrinking duration, was inspired by this philosopher’s many paradoxes of motion, including one about Achilles and a tortoise.</t>
+  </si>
+  <si>
+    <t>Answer the following about lamps in Ancient Greek philosophy, for 10 points each.
+[10m] This philosopher likened the eye to a lamp lit by Aphrodite in his emission theory of vision. This philosopher introduced the four classical elements and claimed that they are mediated via the opposing forces of Love and Strife.
+ANSWER: Empedocles of Acragas
+[10h] In this text, a philosopher chooses calm over anger when his iron lamp is stolen. This conversational text discusses a form of volition called “prohairesis” and was the primary source for a shorter “Handbook,” or “Manual.”
+ANSWER: Discourses of Epictetus [or Diatribai] (The “Handbook” is the Enchiridion, also compiled by Arrian.)
+[10e] James F. Thomson’s lamp puzzle, in which a lamp is flicked on and off at intervals of shrinking duration, was inspired by this philosopher’s many paradoxes of motion, including one about Achilles and a tortoise.
+ANSWER: Zeno of Elea</t>
+  </si>
+  <si>
+    <t>Paul Lorenzen introduced an approach to formal semantics named for these events that assesses the truth of a sentence in first-order logic via a tuple and two people typically named Eloise and Abelard. For 10 points each:
+[10m] Name these events that another philosopher cited as sharing “family resemblances.” That philosopher coined a type of these events exemplified by one involving a builder, an assistant, and words like “slab.”</t>
+  </si>
+  <si>
+    <t>[10h] A logician from this country pioneered game-theoretic semantics and developed epistemic logic in the book Knowledge and Belief. The inventor of deontic logic, G. H. von Wright, was from this country.</t>
+  </si>
+  <si>
+    <t>[10e] In a semantic game, the roles of the Verifier and Falsifier essentially swap if a formula has this operation, which for a proposition P is often written “tilde P” or “exclamation point P.” This operation flips truth values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Lorenzen introduced an approach to formal semantics named for these events that assesses the truth of a sentence in first-order logic via a tuple and two people typically named Eloise and Abelard. For 10 points each:
+[10m] Name these events that another philosopher cited as sharing “family resemblances.” That philosopher coined a type of these events exemplified by one involving a builder, an assistant, and words like “slab.”
+ANSWER: games [accept language-games or Sprachspiel] (The latter philosopher is Ludwig Wittgenstein.)
+[10h] A logician from this country pioneered game-theoretic semantics and developed epistemic logic in the book Knowledge and Belief. The inventor of deontic logic, G. H. von Wright, was from this country.
+ANSWER: Finland [or Suomi; or Republic of Finland; or Suomen tasavalta; or Republiken Finland] (The first logician is Jaakko Hintikka.)
+[10e] In a semantic game, the roles of the Verifier and Falsifier essentially swap if a formula has this operation, which for a proposition P is often written “tilde P” or “exclamation point P.” This operation flips truth values.
+ANSWER: negation </t>
+  </si>
+  <si>
+    <t>In Consciousness Explained, Daniel Dennett uses this author to name a theory of memory illusion by which a false memory overwrites a correct perception, in contrast to Stalinesque theory. For 10 points each:
+[10e] Name this novelist whose impact on the political philosophy lexicon includes coining the terms doublethink, Newspeak, and Big Brother.</t>
+  </si>
+  <si>
+    <t>[10m] Orwell is called “the last intellectual in Europe” and said to depict “institutional cruelty” in this neo-pragmatist philosopher’s book Contingency, Irony, and Solidarity.</t>
+  </si>
+  <si>
+    <t>[10h] This philosopher rejected Rorty’s reading of Orwell for focusing on cruelty over the subversion of beliefs. That critique appears in an “Essay in Genealogy” by this philosopher titled Truth and Truthfulness.</t>
+  </si>
+  <si>
+    <t>In Consciousness Explained, Daniel Dennett uses this author to name a theory of memory illusion by which a false memory overwrites a correct perception, in contrast to Stalinesque theory. For 10 points each:
+[10e] Name this novelist whose impact on the political philosophy lexicon includes coining the terms doublethink, Newspeak, and Big Brother.
+ANSWER: George Orwell [or Eric Arthur Blair]
+[10m] Orwell is called “the last intellectual in Europe” and said to depict “institutional cruelty” in this neo-pragmatist philosopher’s book Contingency, Irony, and Solidarity.
+ANSWER: Richard Rorty [or Richard McKay Rorty]
+[10h] This philosopher rejected Rorty’s reading of Orwell for focusing on cruelty over the subversion of beliefs. That critique appears in an “Essay in Genealogy” by this philosopher titled Truth and Truthfulness.
+ANSWER: Bernard Williams</t>
+  </si>
+  <si>
+    <t>An essay on “Existence and” this field argues that this field’s purpose is to “conquer a remoteness” to allow for the creation of meaning. For 10 points each:
+[10m] Name this field that is applied to phenomenology in Time and Narrative by Paul Ricœur (“ree-CURR”). Many thinkers in this field conceptualize it as an interplay between the whole and its parts in a namesake “circle.”</t>
+  </si>
+  <si>
+    <t>[10h] Ricoeur coined a hermeneutical school named for this concept that aims to find hidden meanings within texts. Ricoeur named Freud, Marx, and Nietzsche as the “masters” of this concept for their views on false consciousness.</t>
+  </si>
+  <si>
+    <t>[10e] Rita Felski built on the school of suspicion to theorize a “critique” denoted by this prefix. Thomas Pynchon belongs to a movement containing this prefix that Frederic Jameson called the “cultural logic of late capitalism.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An essay on “Existence and” this field argues that this field’s purpose is to “conquer a remoteness” to allow for the creation of meaning. For 10 points each:
+[10m] Name this field that is applied to phenomenology in Time and Narrative by Paul Ricœur (“ree-CURR”). Many thinkers in this field conceptualize it as an interplay between the whole and its parts in a namesake “circle.”
+ANSWER: hermeneutics [accept “Existence and Hermeneutics”; prompt on interpretation]
+[10h] Ricoeur coined a hermeneutical school named for this concept that aims to find hidden meanings within texts. Ricoeur named Freud, Marx, and Nietzsche as the “masters” of this concept for their views on false consciousness.
+ANSWER: suspicion [or soupçon]
+[10e] Rita Felski built on the school of suspicion to theorize a “critique” denoted by this prefix. Thomas Pynchon belongs to a movement containing this prefix that Frederic Jameson called the “cultural logic of late capitalism.”
+ANSWER: post </t>
+  </si>
+  <si>
+    <t>Melissa Butler argued that this philosopher was a proto-feminist by citing a letter to Mary Clarke in which he claimed to find “no difference of sex in [the] mind.” For 10 points each:
+[10m] Name this philosopher whose letters to Clarke and her husband grew into a book urging harsh conditions for children, titled Some Thoughts Concerning Education.</t>
+  </si>
+  <si>
+    <t>[10e] Locke patronized Catharine Trotter Cockburn and praised her influential “Defence” of his “Essay Concerning” this two-word subject. It also partly titles an “Enquiry” by David Hume.</t>
+  </si>
+  <si>
+    <t>[10h] Jonathan Edwards mocked Locke as the “governor of the seraglio at Oates” after his correspondence with this philosopher led him to move in with her family. This author of A Discourse Concerning the Love of God was the daughter of a philosopher who theorized the world’s “plastic nature.”</t>
+  </si>
+  <si>
+    <t>Melissa Butler argued that this philosopher was a proto-feminist by citing a letter to Mary Clarke in which he claimed to find “no difference of sex in [the] mind.” For 10 points each:
+[10m] Name this philosopher whose letters to Clarke and her husband grew into a book urging harsh conditions for children, titled Some Thoughts Concerning Education.
+ANSWER: John Locke
+[10e] Locke patronized Catharine Trotter Cockburn and praised her influential “Defence” of his “Essay Concerning” this two-word subject. It also partly titles an “Enquiry” by David Hume.
+ANSWER: human understanding [accept An Essay Concerning Human Understanding or An Enquiry Concerning Human Understanding]
+[10h] Jonathan Edwards mocked Locke as the “governor of the seraglio at Oates” after his correspondence with this philosopher led him to move in with her family. This author of A Discourse Concerning the Love of God was the daughter of a philosopher who theorized the world’s “plastic nature.”
+ANSWER: Damaris Masham</t>
+  </si>
+  <si>
+    <t>This politician cited the writings of Anton Wilhelm Amo, who was from the same ethnic group, to argue that idealism is “enmeshed in contradictions” and suffers from a “God-complex.” For 10 points each:
+[10h] Name this politician and thinker who developed, and sometimes names, a scientific socialist philosophy called Consciencism (“conscience-ism”).</t>
+  </si>
+  <si>
+    <t>[10m] Nkrumah described Consciencism as a “Philosophy and Ideology for” this process, whose “conceptual” form was coined by Kwasi Wiredu. An essay titled for this process advocates the Kikuyu language and calls English a “cultural bomb.”</t>
+  </si>
+  <si>
+    <t>[10e] Nkrumah described Consciencism as drawing on African roots of targeting this broad status, which he contrasted with oligarchy. Advocates of this status debate whether it should be “of outcome” or “of opportunity.”</t>
+  </si>
+  <si>
+    <t>This politician cited the writings of Anton Wilhelm Amo, who was from the same ethnic group, to argue that idealism is “enmeshed in contradictions” and suffers from a “God-complex.” For 10 points each:
+[10h] Name this politician and thinker who developed, and sometimes names, a scientific socialist philosophy called Consciencism (“conscience-ism”).
+ANSWER: Kwame Nkrumah (“en-KROO-mah”) [or Francis Kwame Nkrumah; accept Nkrumaism]
+[10m] Nkrumah described Consciencism as a “Philosophy and Ideology for” this process, whose “conceptual” form was coined by Kwasi Wiredu. An essay titled for this process advocates the Kikuyu language and calls English a “cultural bomb.”
+ANSWER: decolonization [or word forms like decolonizing; accept Decolonising the Mind (by Ngũgĩ wa Thiong’o)]
+[10e] Nkrumah described Consciencism as drawing on African roots of targeting this broad status, which he contrasted with oligarchy. Advocates of this status debate whether it should be “of outcome” or “of opportunity.”
+ANSWER: equality [accept egalitarianism]</t>
+  </si>
+  <si>
+    <t>A set of mystical texts called the Chaldean Oracles influenced the metaphysics of thinkers in this tradition, such as Proclus and Iamblichus. For 10 points each:
+[10e] Plotinus belonged to what philosophical tradition that interpreted, and was named for, the author of the dialogues Crito and Euthyphro?</t>
+  </si>
+  <si>
+    <t>[10m] This Neoplatonic philosopher from Tyre produced the first known exegesis of the Chaldean Oracles and also wrote Philosophy from Oracles. This author of the Isagoge edited and published the Enneads of his teacher Plotinus.</t>
+  </si>
+  <si>
+    <t>[10h] The Chaldean Oracles are usually credited to a writer named Julian whose epithet references this practice. Iamblichus and Porphyry feuded over this branch of magic, which is contrasted with the practical thaumaturgy.</t>
+  </si>
+  <si>
+    <t>A set of mystical texts called the Chaldean Oracles influenced the metaphysics of thinkers in this tradition, such as Proclus and Iamblichus. For 10 points each:
+[10e] Plotinus belonged to what philosophical tradition that interpreted, and was named for, the author of the dialogues Crito and Euthyphro?
+ANSWER: Neoplatonism [accept word forms like Neoplatonic; prompt on Platonism]
+[10m] This Neoplatonic philosopher from Tyre produced the first known exegesis of the Chaldean Oracles and also wrote Philosophy from Oracles. This author of the Isagoge edited and published the Enneads of his teacher Plotinus.
+ANSWER: Porphyry of Tyre [or Porphyrios]
+[10h] The Chaldean Oracles are usually credited to a writer named Julian whose epithet references this practice. Iamblichus and Porphyry feuded over this branch of magic, which is contrasted with the practical thaumaturgy.
+ANSWER: theurgy</t>
+  </si>
+  <si>
+    <t>Answer the following about examples in the philosophy of language that involve the planet Venus, for 10 points each.
+[10m] The description of Venus as both the “morning star” and the “evening star” is a classic example from this Gottlob Frege (“FRAY-guh”) paper. Its two title concepts respectively denote what a name expresses and what object it indicates.</t>
+  </si>
+  <si>
+    <t>[10e] Hilary Putnam wrote that the claim “Venus has carbon dioxide in its atmosphere” should be able to have this property regardless of one’s theory. Two terms must both have this Boolean value for their logical conjunction, or AND, to have it.</t>
+  </si>
+  <si>
+    <t>[10h] Scott’s claim about Venus being an “inferior planet” recurs throughout a Donald Davidson paper titled “On Saying [this word].” David Kaplan prefixed this word with the letter “d” to form a reference-fixing operator.</t>
+  </si>
+  <si>
+    <t>Answer the following about examples in the philosophy of language that involve the planet Venus, for 10 points each.
+[10m] The description of Venus as both the “morning star” and the “evening star” is a classic example from this Gottlob Frege (“FRAY-guh”) paper. Its two title concepts respectively denote what a name expresses and what object it indicates.
+ANSWER: “On Sense and Reference” [or “On Sense and Nominatum”; or “On Sense and Denotation”; or “Über Sinn und Bedeutung”]
+[10e] Hilary Putnam wrote that the claim “Venus has carbon dioxide in its atmosphere” should be able to have this property regardless of one’s theory. Two terms must both have this Boolean value for their logical conjunction, or AND, to have it.
+ANSWER: true [or word forms like truth]
+[10h] Scott’s claim about Venus being an “inferior planet” recurs throughout a Donald Davidson paper titled “On Saying [this word].” David Kaplan prefixed this word with the letter “d” to form a reference-fixing operator.
+ANSWER: that</t>
+  </si>
+  <si>
+    <t>Nancy Cartwright, who originated the “dappled world” view of science, is one of many members of the “Stanford School” who support an “entity” form of this position. For 10 points each:
+[10m] Mathematical Platonism is a form of what position? Adherents of this view in the philosophy of science believe that our scientific theories are approximately true and describe a universe that actually exists.</t>
+  </si>
+  <si>
+    <t>[10h] These things follow the word “no” in the realist argument that our theories would likely be far worse if they were not roughly true. Richard Swinburne’s book on “The Concept of” these things argues in favor of them.</t>
+  </si>
+  <si>
+    <t>[10e] The anti-realist “pessimistic induction,” which notes that past theories have been supplanted and so we should expect the same of our own, is often discussed using this philosopher’s book The Structure of Scientific Revolutions.</t>
+  </si>
+  <si>
+    <t>Nancy Cartwright, who originated the “dappled world” view of science, is one of many members of the “Stanford School” who support an “entity” form of this position. For 10 points each:
+[10m] Mathematical Platonism is a form of what position? Adherents of this view in the philosophy of science believe that our scientific theories are approximately true and describe a universe that actually exists.
+ANSWER: scientific realism [or word forms like realist; accept mathematical realism or entity realism]
+[10h] These things follow the word “no” in the realist argument that our theories would likely be far worse if they were not roughly true. Richard Swinburne’s book on “The Concept of” these things argues in favor of them.
+ANSWER: miracles [accept no miracles argument]
+[10e] The anti-realist “pessimistic induction,” which notes that past theories have been supplanted and so we should expect the same of our own, is often discussed using this philosopher’s book The Structure of Scientific Revolutions.
+ANSWER: Thomas Kuhn</t>
+  </si>
+  <si>
+    <t>G. E. Schulze’s skepticism about the existence of this concept in his Aenesidemus (“eh-ness-ih-DEE-muss”) partly inspired Johann Fichte to abandon this concept in his Wissenschaftslehre (“VISS-in-shafts-LAY-ruh”). For 10 points each:
+[10m] Give the English or German term for this concept that is often linked with the noumenon. The transcendental idealism presented in Critique of Pure Reason distinguishes this unknowable concept from its appearances.</t>
+  </si>
+  <si>
+    <t>[10e] This German philosopher expounded his view of the thing-in-itself in his Critique of Pure Reason.</t>
+  </si>
+  <si>
+    <t>[10h] In her first book, Rae Langton referred to Kant’s view that we cannot know the thing-in-itself as a “Kantian” form of this trait. The “epistemic” form of this trait refers to the view that one’s knowledge is always incomplete.</t>
+  </si>
+  <si>
+    <t>G. E. Schulze’s skepticism about the existence of this concept in his Aenesidemus (“eh-ness-ih-DEE-muss”) partly inspired Johann Fichte to abandon this concept in his Wissenschaftslehre (“VISS-in-shafts-LAY-ruh”). For 10 points each:
+[10m] Give the English or German term for this concept that is often linked with the noumenon. The transcendental idealism presented in Critique of Pure Reason distinguishes this unknowable concept from its appearances.
+ANSWER: thing-in-itself [or Ding an sich; or things-in-themselves; prompt on things]
+[10e] This German philosopher expounded his view of the thing-in-itself in his Critique of Pure Reason.
+ANSWER: Immanuel Kant
+[10h] In her first book, Rae Langton referred to Kant’s view that we cannot know the thing-in-itself as a “Kantian” form of this trait. The “epistemic” form of this trait refers to the view that one’s knowledge is always incomplete.
+ANSWER: humility</t>
+  </si>
+  <si>
+    <t>An NBA player earned this nickname from commentator Rick Mahorn after hitting two game-winners within two weeks in the 2002–03 season. For 10 points each:
+[10h] Give this nickname shared by two NBA players, reflecting their clutch plays. A role player with this nickname has won the most titles of all non-Boston players and hit a winner in game 4 of a controversial 2002 series against the Kings.</t>
+  </si>
+  <si>
+    <t>[10m] “Mr. Big Shot” was the nickname of this player, who was the Finals MVP during the Pistons’ 2004 championship run. This player currently coaches the Portland Trail Blazers.</t>
+  </si>
+  <si>
+    <t>[10e] Robert Horry, or “Big Shot Rob,” was the bigger Big Shot against Billups’s Pistons during the 2005 Finals, where he played on this team alongside Tony Parker and Tim Duncan. Victor Wembanyama plays for this team.</t>
+  </si>
+  <si>
+    <t>An NBA player earned this nickname from commentator Rick Mahorn after hitting two game-winners within two weeks in the 2002–03 season. For 10 points each:
+[10h] Give this nickname shared by two NBA players, reflecting their clutch plays. A role player with this nickname has won the most titles of all non-Boston players and hit a winner in game 4 of a controversial 2002 series against the Kings.
+ANSWER: Big Shot [accept Mr. Big Shot or Big Shot Rob or Big Shot Bob]
+[10m] “Mr. Big Shot” was the nickname of this player, who was the Finals MVP during the Pistons’ 2004 championship run. This player currently coaches the Portland Trail Blazers.
+ANSWER: Chauncey Billups [or Chauncey Ray Billups]
+[10e] Robert Horry, or “Big Shot Rob,” was the bigger Big Shot against Billups’s Pistons during the 2005 Finals, where he played on this team alongside Tony Parker and Tim Duncan. Victor Wembanyama plays for this team.
+ANSWER: San Antonio Spurs [or San Antonio Spurs]</t>
+  </si>
+  <si>
+    <t>Answer the following about TV characters who demonstrate a comical ignorance regarding the prices of basic grocery items, for 10 points each.
+[10m] Lucille, a member of this family, asks her son Michael “what could it cost? Ten dollars?” when discussing the price of bananas, despite the fact that this family owns a banana stand.</t>
+  </si>
+  <si>
+    <t>[10e] On this show, Jack Donaghy estimates that a typical family pays “90 dollars a gallon” for milk. Tina Fey played sketch comedy writer Liz Lemon on this sitcom titled for NBC’s headquarters.</t>
+  </si>
+  <si>
+    <t>[10h] On another show, one of these two characters fails to answer the other’s question about the cost of milk, since only “kittens and perverts” drink milk. One of these two characters accidentally texts a picture of his genitals to the other and has a panic attack while giving the other’s eulogy. Name both.</t>
+  </si>
+  <si>
+    <t>Answer the following about TV characters who demonstrate a comical ignorance regarding the prices of basic grocery items, for 10 points each.
+[10m] Lucille, a member of this family, asks her son Michael “what could it cost? Ten dollars?” when discussing the price of bananas, despite the fact that this family owns a banana stand.
+ANSWER: Bluth family [or the Bluths; accept Lucille Bluth or Michael Bluth] (They are the protagonists of Arrested Development.)
+[10e] On this show, Jack Donaghy estimates that a typical family pays “90 dollars a gallon” for milk. Tina Fey played sketch comedy writer Liz Lemon on this sitcom titled for NBC’s headquarters.
+ANSWER: 30 Rock
+[10h] On another show, one of these two characters fails to answer the other’s question about the cost of milk, since only “kittens and perverts” drink milk. One of these two characters accidentally texts a picture of his genitals to the other and has a panic attack while giving the other’s eulogy. Name both.
+ANSWER: Roman Roy AND Logan Roy</t>
+  </si>
+  <si>
+    <t>This actress is likened to “red bodega roses” and called the “queen of South Queens” in a song titled for her, which precedes an interlude to end St. Vincent’s album Daddy’s Home. For 10 points each:
+[10h] Name this Warhol superstar. This trans actress titles a song in which the singer claims that “I’ve come to hate my body / and all that it requires” and plans to “watch the blue birds fly.” Her first or last name is acceptable.</t>
+  </si>
+  <si>
+    <t>[10e] “Candy Says” is by this 1960s band, whose singer Lou Reed also sang about her on “Walk on the Wild Side.” A banana adorns Andy Warhol’s cover art for this band’s debut album, which is titled for them “and Nico.”</t>
+  </si>
+  <si>
+    <t>[10m] Despite rumors, Ray Davies insisted that this song was not about a date with Candy Darling. This song set at a “club down in old Soho” describes someone who “squeezed me tight” and “nearly broke my spine.”</t>
+  </si>
+  <si>
+    <t>This actress is likened to “red bodega roses” and called the “queen of South Queens” in a song titled for her, which precedes an interlude to end St. Vincent’s album Daddy’s Home. For 10 points each:
+[10h] Name this Warhol superstar. This trans actress titles a song in which the singer claims that “I’ve come to hate my body / and all that it requires” and plans to “watch the blue birds fly.” Her first or last name is acceptable.
+ANSWER: Candy Darling [or Candy Darling; accept “Candy Says”]
+[10e] “Candy Says” is by this 1960s band, whose singer Lou Reed also sang about her on “Walk on the Wild Side.” A banana adorns Andy Warhol’s cover art for this band’s debut album, which is titled for them “and Nico.”
+ANSWER: The Velvet Underground [prompt on The Velvets]
+[10m] Despite rumors, Ray Davies insisted that this song was not about a date with Candy Darling. This song set at a “club down in old Soho” describes someone who “squeezed me tight” and “nearly broke my spine.”
+ANSWER: “Lola” (by The Kinks)</t>
+  </si>
+  <si>
+    <t>In a movie by this director, Nani is murdered and reincarnated as a housefly, which doesn’t stop him from protecting his neighbour Bindu. For 10 points each:
+[10h] Name this director of Eega. In a movie by this director shot in two languages, soldiers form a ball with their shields after being launched over a city’s walls with a catapult.</t>
+  </si>
+  <si>
+    <t>[10m] Rajamouli received international recognition for this Telugu-language movie. This 2022 movie imagines the real-life revolutionaries Alluri Sitarama Raju and Komaram Bheem teaming up to save a girl from Bheem’s village.</t>
+  </si>
+  <si>
+    <t>[10e] RRR’s musical number “Naatu Naatu” is the second song in an Indian language to win an Oscar for Best Original Song. The first was A. R. Rahman’s song “Jai Ho” from this 2008 film about a game show contestant.</t>
+  </si>
+  <si>
+    <t>In a movie by this director, Nani is murdered and reincarnated as a housefly, which doesn’t stop him from protecting his neighbour Bindu. For 10 points each:
+[10h] Name this director of Eega. In a movie by this director shot in two languages, soldiers form a ball with their shields after being launched over a city’s walls with a catapult.
+ANSWER: S. S. Rajamouli (“RAH-juh-mao-lee”) [or Koduri Srisaila Sri Rajamouli] (The latter movie is Baahubali.)
+[10m] Rajamouli received international recognition for this Telugu-language movie. This 2022 movie imagines the real-life revolutionaries Alluri Sitarama Raju and Komaram Bheem teaming up to save a girl from Bheem’s village.
+ANSWER: RRR [or Roudram Ranam Rudhiram]
+[10e] RRR’s musical number “Naatu Naatu” is the second song in an Indian language to win an Oscar for Best Original Song. The first was A. R. Rahman’s song “Jai Ho” from this 2008 film about a game show contestant.
+ANSWER: Slumdog Millionaire</t>
+  </si>
+  <si>
+    <t>This scholar wrote the Refutations of the Heretics and the Jahmiyya, criticizing the Jahmiyya’s belief that God cannot be described by attributes. For 10 points each:
+[10h] Name this religious scholar, a leader of the Ahl al-Hadith movement. Ibn Taymiyya adhered to an early school named for this scholar that rejects taqlid.</t>
+  </si>
+  <si>
+    <t>[10e] Most adherents of the Hanbali school are from Qatar and this country. The Wahhabism movement emerged in this country home to Medina.</t>
+  </si>
+  <si>
+    <t>[10m] Movements adhering to the Hanbali school, such as Wahhabism and Salafism, reject taqlid in favor of this practice. Orientalist scholars claimed that the “gates” of this practice of independent interpretation had “closed.”</t>
+  </si>
+  <si>
+    <t>This scholar wrote the Refutations of the Heretics and the Jahmiyya, criticizing the Jahmiyya’s belief that God cannot be described by attributes. For 10 points each:
+[10h] Name this religious scholar, a leader of the Ahl al-Hadith movement. Ibn Taymiyya adhered to an early school named for this scholar that rejects taqlid.
+ANSWER: Ahmad ibn Hanbal [accept Hanbali school or Hanbalism]
+[10e] Most adherents of the Hanbali school are from Qatar and this country. The Wahhabism movement emerged in this country home to Medina.
+ANSWER: Saudi Arabia [or Kingdom of Saudi Arabia; or KSA]
+[10m] Movements adhering to the Hanbali school, such as Wahhabism and Salafism, reject taqlid in favor of this practice. Orientalist scholars claimed that the “gates” of this practice of independent interpretation had “closed.”
+ANSWER: ijtihad</t>
+  </si>
+  <si>
+    <t>In its opening, the author of this epistle mentions Timothy as “our brother” and refers to himself as “a prisoner of Jesus Christ.” For 10 points each:
+[10h] Name this short “prison epistle,” which instructs the title person to forgive a slave, for he is “no longer a slave but more than a slave, a beloved brother.”</t>
+  </si>
+  <si>
+    <t>[10e] During his first Roman imprisonment, this man wrote the “prison epistles,” part of thirteen epistles attributed to him in the New Testament.</t>
+  </si>
+  <si>
+    <t>[10m] A “prison epistle” dedicated to this city describes wearing shoes prepared with the “gospel of peace” in an extended analogy about the “Armor of God.” In a Christian legend, seven men from this city escape the Decian persecution by sleeping in a cave.</t>
+  </si>
+  <si>
+    <t>In its opening, the author of this epistle mentions Timothy as “our brother” and refers to himself as “a prisoner of Jesus Christ.” For 10 points each:
+[10h] Name this short “prison epistle,” which instructs the title person to forgive a slave, for he is “no longer a slave but more than a slave, a beloved brother.”
+ANSWER: Epistle to Philemon
+[10e] During his first Roman imprisonment, this man wrote the “prison epistles,” part of thirteen epistles attributed to him in the New Testament.
+ANSWER: Paul the Apostle [or Saint Paul; or Saul of Tarsus; accept Pauline epistles or epistles of Paul]
+[10m] A “prison epistle” dedicated to this city describes wearing shoes prepared with the “gospel of peace” in an extended analogy about the “Armor of God.” In a Christian legend, seven men from this city escape the Decian persecution by sleeping in a cave.
+ANSWER: Ephesus</t>
+  </si>
+  <si>
+    <t>Many individual symbols in this religion are depicted in a circle in the milokan representation of certain images. For 10 points each:
+[10m] Name this religion whose practitioners create those images, commonly using cornmeal, to depict important religious symbols such as a cross or a walking cane.</t>
+  </si>
+  <si>
+    <t>[10h] Similar to Vodou vèvè (“veh-VEH”), practitioners of this religion create diagrams called firmas that connect mpungu spirits to the material world. This Kongo-inspired religion teaches that spirits inhabit vessels called nganga.</t>
+  </si>
+  <si>
+    <t>[10e] Practitioners of a religion from this country, Abakuá, draw diagrams called anaforuanas based on Nsibidi symbols. Palo developed in this country, as did the Yoruba-Catholic syncretic religion Santería.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many individual symbols in this religion are depicted in a circle in the milokan representation of certain images. For 10 points each:
+[10m] Name this religion whose practitioners create those images, commonly using cornmeal, to depict important religious symbols such as a cross or a walking cane.
+ANSWER: Haitian Vodou [or Voodoo] (Those images are vèvè.)
+[10h] Similar to Vodou vèvè (“veh-VEH”), practitioners of this religion create diagrams called firmas that connect mpungu spirits to the material world. This Kongo-inspired religion teaches that spirits inhabit vessels called nganga.
+ANSWER: Palo [or Palo Mayombe; prompt on Reglas de Congo]
+[10e] Practitioners of a religion from this country, Abakuá, draw diagrams called anaforuanas based on Nsibidi symbols. Palo developed in this country, as did the Yoruba-Catholic syncretic religion Santería.
+ANSWER: Cuba </t>
+  </si>
+  <si>
+    <t>Religious leaders in this location inherit a pair of brass knives, a brass bell, and brass cups and disks representing a set of mythical triplets. For 10 points each:
+[10h] Name this geographic location where those religious leaders, known as shimbang, memorize and recite narratives of gods known as bon-puri.</t>
+  </si>
+  <si>
+    <t>[10e] Those Jejudo practices belong to a broad religious tradition of Korea centered on mu, who are often compared to these people. This generic term is used for religious figures who enter trances to contact the spirit world.</t>
+  </si>
+  <si>
+    <t>[10m] Jejudo tradition venerates Munshin as the primary god of this domain, which musok traditions believe is protected by Gashin deities. Before the New Year, honey is often smeared on the lips of an effigy of a different god of this domain.</t>
+  </si>
+  <si>
+    <t>Religious leaders in this location inherit a pair of brass knives, a brass bell, and brass cups and disks representing a set of mythical triplets. For 10 points each:
+[10h] Name this geographic location where those religious leaders, known as shimbang, memorize and recite narratives of gods known as bon-puri.
+ANSWER: Jeju Island [or Jejudo; prompt on Korea or Korean Peninsula]
+[10e] Those Jejudo practices belong to a broad religious tradition of Korea centered on mu, who are often compared to these people. This generic term is used for religious figures who enter trances to contact the spirit world.
+ANSWER: shamans [accept shamanism; accept mediums; prompt on psychics or seers]
+[10m] Jejudo tradition venerates Munshin as the primary god of this domain, which musok traditions believe is protected by Gashin deities. Before the New Year, honey is often smeared on the lips of an effigy of a different god of this domain.
+ANSWER: household</t>
+  </si>
+  <si>
+    <t>This tradition likens God’s divine influence to beams of light in its use of the term Ohr. For 10 points each:
+[10e] Name this mystical Jewish tradition followed by Isaac Luria whose foundational text is the Zohar.</t>
+  </si>
+  <si>
+    <t>[10m] In Kabbalistic tradition, these things are emanations of the Ohr Ein Sof (“or ane SOHF”) that are revealed in the world. These things are the nodes on Kabbalah’s tree of life diagram.</t>
+  </si>
+  <si>
+    <t>[10h] The order in which the sefirot were created is known as the path of this object in Kabbalah. It’s not a bucket, but the Third Secret of Fátima describes seeing an angel holding this object and yelling the word “penance!”</t>
+  </si>
+  <si>
+    <t>This tradition likens God’s divine influence to beams of light in its use of the term Ohr. For 10 points each:
+[10e] Name this mystical Jewish tradition followed by Isaac Luria whose foundational text is the Zohar.
+ANSWER: Kabbalah
+[10m] In Kabbalistic tradition, these things are emanations of the Ohr Ein Sof (“or ane SOHF”) that are revealed in the world. These things are the nodes on Kabbalah’s tree of life diagram.
+ANSWER: sefirot [or sephiroth]
+[10h] The order in which the sefirot were created is known as the path of this object in Kabbalah. It’s not a bucket, but the Third Secret of Fátima describes seeing an angel holding this object and yelling the word “penance!”
+ANSWER: flaming sword</t>
+  </si>
+  <si>
+    <t>Four phrases from the Sutra of Perfect Enlightenment are included in a collection of 100 of these texts, the Book of Equanimity. For 10 points each:
+[10e] Name these texts collected in The Gateless Gate. “What is the sound of one hand clapping?” is an example of these short dialogues popular in Zen Buddhism.</t>
+  </si>
+  <si>
+    <t>[10m] A koan from the Book of Equanimity simply consists of a quote from this text about being “despised” by “the people of this world.” This text consists of a dialogue between Buddha and his disciple Subhūti about how reality is illusory.</t>
+  </si>
+  <si>
+    <t>[10h] In another koan from the Book of Equanimity, Sozan compares this concept to “a well looking at a donkey.” Sodh Candasaro founded a Thai tradition named for this concept, which is grouped with two other aspects of being that are named for sambhoga and nirmana.</t>
+  </si>
+  <si>
+    <t>Four phrases from the Sutra of Perfect Enlightenment are included in a collection of 100 of these texts, the Book of Equanimity. For 10 points each:
+[10e] Name these texts collected in The Gateless Gate. “What is the sound of one hand clapping?” is an example of these short dialogues popular in Zen Buddhism.
+ANSWER: koans [or gong’an; or hwadu; prompt on lessons or parables]
+[10m] A koan from the Book of Equanimity simply consists of a quote from this text about being “despised” by “the people of this world.” This text consists of a dialogue between Buddha and his disciple Subhūti about how reality is illusory.
+ANSWER: Diamond Sutra [or Vajra Sutra; or Vajracchedika Sutra; or Vajra Cutter Sutra]
+[10h] In another koan from the Book of Equanimity, Sozan compares this concept to “a well looking at a donkey.” Sodh Candasaro founded a Thai tradition named for this concept, which is grouped with two other aspects of being that are named for sambhoga and nirmana.
+ANSWER: dharmakaya</t>
+  </si>
+  <si>
+    <t>A niche in mosques called a mihrab indicates the qibla, or the direction of an object in this city. For 10 points each:
+[10e] Name this city where the Kaaba is located.</t>
+  </si>
+  <si>
+    <t>[10m] While mosques typically have one mihrab, a mosque in this city contains four mihrabs lining the sanctuary. Before Judgment Day, Muslims believe Isa will descend in this city, where a mosque allegedly enshrines the head of John the Baptist.</t>
+  </si>
+  <si>
+    <t>[10h] Mu’awiya I built one of these structures near the “Mihrab of the Companions” in the Great Mosque of Damascus. These enclosures were built in mosques for Muslim rulers to protect them from assassinations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A niche in mosques called a mihrab indicates the qibla, or the direction of an object in this city. For 10 points each:
+[10e] Name this city where the Kaaba is located.
+ANSWER: Mecca [or Makkah]
+[10m] While mosques typically have one mihrab, a mosque in this city contains four mihrabs lining the sanctuary. Before Judgment Day, Muslims believe Isa will descend in this city, where a mosque allegedly enshrines the head of John the Baptist.
+ANSWER: Damascus [or Dimashq; accept Great Mosque of Damascus]
+[10h] Mu’awiya I built one of these structures near the “Mihrab of the Companions” in the Great Mosque of Damascus. These enclosures were built in mosques for Muslim rulers to protect them from assassinations.
+ANSWER: maqsurah </t>
+  </si>
+  <si>
+    <t>Due to its similarity to the word for “rainbow,” some Jewish children play with bows and arrows on a minor holiday known as the “Lag” (“log”), or 33rd day, of this period. For 10 points each:
+[10m] What seven-week period is named for the “counting of” a unit of volume often used to measure wheat?</t>
+  </si>
+  <si>
+    <t>[10e] The omer offering occurs on the second day of this holiday, when the Counting of the Omer begins. Stories from the Book of Exodus are read from the Haggadah at the beginning of this holiday.</t>
+  </si>
+  <si>
+    <t>[10h] Pilgrims often travel to the tomb of this figure to light bonfires on Lag BaOmer (“log buh-OH-mair”), the 33rd day of the Counting of the Omer. Three-year-old Hasidic Jews are encouraged to receive their upsherin (“up-SHAIR-in”), or first haircut, at this figure’s tomb on Mount Meron.</t>
+  </si>
+  <si>
+    <t>Due to its similarity to the word for “rainbow,” some Jewish children play with bows and arrows on a minor holiday known as the “Lag” (“log”), or 33rd day, of this period. For 10 points each:
+[10m] What seven-week period is named for the “counting of” a unit of volume often used to measure wheat?
+ANSWER: omer (“OH-mair”) [or Counting of the Omer; or Sefirat HaOmer; accept Lag BaOmer or Lag B’Omer]
+[10e] The omer offering occurs on the second day of this holiday, when the Counting of the Omer begins. Stories from the Book of Exodus are read from the Haggadah at the beginning of this holiday.
+ANSWER: Passover [or Pesach; accept Passover Seder]
+[10h] Pilgrims often travel to the tomb of this figure to light bonfires on Lag BaOmer (“log buh-OH-mair”), the 33rd day of the Counting of the Omer. Three-year-old Hasidic Jews are encouraged to receive their upsherin (“up-SHAIR-in”), or first haircut, at this figure’s tomb on Mount Meron.
+ANSWER: Shimon bar Yochai</t>
+  </si>
+  <si>
+    <t>One of these objects belonging to the Seven Sacred Rites called a chanupa was gifted to the Lakota people by White Buffalo Calf Woman. For 10 points each:
+[10e] Name these objects that some Native American nations used to signify the reaching of peace.</t>
+  </si>
+  <si>
+    <t>[10m] The chanupa is smoked inside one of these structures during another of the Seven Sacred Rites, the inipi ceremony. The door of these structures is opened four times, which purifies the individual inside.</t>
+  </si>
+  <si>
+    <t>[10h] Participants in this one of the Seven Sacred Rites are only allowed to smoke the chanupa, instead of food or water. This rite, which often occurs after the inipi, involves isolating oneself for four days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of these objects belonging to the Seven Sacred Rites called a chanupa was gifted to the Lakota people by White Buffalo Calf Woman. For 10 points each:
+[10e] Name these objects that some Native American nations used to signify the reaching of peace.
+ANSWER: pipes [or ceremonial pipes; or calumets]
+[10m] The chanupa is smoked inside one of these structures during another of the Seven Sacred Rites, the inipi ceremony. The door of these structures is opened four times, which purifies the individual inside.
+ANSWER: sweat lodges [prompt on lodges]
+[10h] Participants in this one of the Seven Sacred Rites are only allowed to smoke the chanupa, instead of food or water. This rite, which often occurs after the inipi, involves isolating oneself for four days.
+ANSWER: hanbleceya </t>
+  </si>
+  <si>
+    <t>Asma Barlas claimed that patriarchal interpretations of this text were not supported by the text itself in a book titled for “Believing Women” in this text. For 10 points each:
+[10e] Amina Wadud wrote a “rereading” of what sacred text in Islam “from a Woman’s Perspective”?</t>
+  </si>
+  <si>
+    <t>[10m] In Expectations from the Muslim Woman, Ali Shariati argues that this woman from the Qur’an stands as a role model for Muslim women. Shariati also wrote a feminist biography of this mother of Husayn.</t>
+  </si>
+  <si>
+    <t>[10h] In Women and Gender in Islam, Leila Ahmed argued that Western views of Islamic society created a new “discourse of [this object].” Fatema Mernissi advocated an intersectional analysis of Muslim feminism in the book Beyond [this object].</t>
+  </si>
+  <si>
+    <t>Asma Barlas claimed that patriarchal interpretations of this text were not supported by the text itself in a book titled for “Believing Women” in this text. For 10 points each:
+[10e] Amina Wadud wrote a “rereading” of what sacred text in Islam “from a Woman’s Perspective”?
+ANSWER: Qur’an [or Koran; accept Qur’an and Woman]
+[10m] In Expectations from the Muslim Woman, Ali Shariati argues that this woman from the Qur’an stands as a role model for Muslim women. Shariati also wrote a feminist biography of this mother of Husayn.
+ANSWER: Fatima [or Fatima bint Muhammad; or Fatima al-Zahra]
+[10h] In Women and Gender in Islam, Leila Ahmed argued that Western views of Islamic society created a new “discourse of [this object].” Fatema Mernissi advocated an intersectional analysis of Muslim feminism in the book Beyond [this object].
+ANSWER: veils</t>
+  </si>
+  <si>
+    <t>A saint of this name was legendarily inspired to compose the song “Sukhakarta Dukhaharta” after visiting the Sri Mayureshwar Mandir (“muh-yoo-RAYSH-wur MUN-dir”), which is the first stop in the Ashtavinayaka (“ush-tuh-vin-EYE-uh-kuh”) pilgrimage. For 10 points each:
+[10h] Give this name also adopted by the author of In Quest of God, the saint Vittal Rao (“VIT-tull RAO”), and the author of a book on spirituality, Be Here Now.</t>
+  </si>
+  <si>
+    <t>[10e] “Sukhakarta Dukhaharta” is performed during a festival celebrating this god, who is often offered modak as a sweet. This elephant-headed Hindu god is the son of Shiva and Parvati.</t>
+  </si>
+  <si>
+    <t>[10m] “Sukhakarta Dukhaharta” is sung during one of these rituals performed during pujas. These rituals often include singing bhajans while a plate containing a flame is waved in a circle in front of an idol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A saint of this name was legendarily inspired to compose the song “Sukhakarta Dukhaharta” after visiting the Sri Mayureshwar Mandir (“muh-yoo-RAYSH-wur MUN-dir”), which is the first stop in the Ashtavinayaka (“ush-tuh-vin-EYE-uh-kuh”) pilgrimage. For 10 points each:
+[10h] Give this name also adopted by the author of In Quest of God, the saint Vittal Rao (“VIT-tull RAO”), and the author of a book on spirituality, Be Here Now.
+ANSWER: Ramdas (“RAHM-doss”) [accept Baba Ram Dass; accept Swami Ramdas; accept Samarth Ramdas]
+[10e] “Sukhakarta Dukhaharta” is performed during a festival celebrating this god, who is often offered modak as a sweet. This elephant-headed Hindu god is the son of Shiva and Parvati.
+ANSWER: Ganesha [or Ganapati; or Vinayaka; or Lambodara; or Pillaiyara]
+[10m] “Sukhakarta Dukhaharta” is sung during one of these rituals performed during pujas. These rituals often include singing bhajans while a plate containing a flame is waved in a circle in front of an idol.
+ANSWER: arti </t>
+  </si>
+  <si>
+    <t>E. P. Sanders disagreed with a view during this movement that Paul’s criticism of the “works of the Law” meant that salvation was achieved through faith alone. For 10 points each:
+[10e] Name this event that is traditionally considered to have begun with the posting of the Ninety-five Theses.</t>
+  </si>
+  <si>
+    <t>[10h] Sanders associated himself with this general movement by claiming Paul advocated “covenantal nomism.” N. T. Wright was a scholar of this biblical studies movement that re-evaluated Paul’s writings.</t>
+  </si>
+  <si>
+    <t>[10m] Sanders argued that this figure should be understood through the lens of Jewish restoration eschatology. Wright supported Albert Schweitzer’s “consistent eschatology” view that he outlined in The Quest of [this specific figure].</t>
+  </si>
+  <si>
+    <t>E. P. Sanders disagreed with a view during this movement that Paul’s criticism of the “works of the Law” meant that salvation was achieved through faith alone. For 10 points each:
+[10e] Name this event that is traditionally considered to have begun with the posting of the Ninety-five Theses.
+ANSWER: Reformation [or Protestant Reformation; or European Reformation]
+[10h] Sanders associated himself with this general movement by claiming Paul advocated “covenantal nomism.” N. T. Wright was a scholar of this biblical studies movement that re-evaluated Paul’s writings.
+ANSWER: New Perspective [accept New Perspective on Paul]
+[10m] Sanders argued that this figure should be understood through the lens of Jewish restoration eschatology. Wright supported Albert Schweitzer’s “consistent eschatology” view that he outlined in The Quest of [this specific figure].
+ANSWER: historical Jesus</t>
+  </si>
+  <si>
+    <t>The poet Issachar Bates wrote hymns for this group like “Ode to Contentment” and “Rights of Conscience,” the latter of which pays tribute to George Washington. For 10 points each:
+[10e] Name this group whose “Mother Hymn” commemorates its founder, Mother Ann Lee. The writer of the song “Simple Gifts,” Joseph Brackett, belonged to this religious group named for their movement during worship.</t>
+  </si>
+  <si>
+    <t>[10h] Isaac Newton Youngs collected Shaker music into A Short Abridgment of the Rules of Music while working in a town named after this country. The first Shakers settled in a society named “Mount [this country].”</t>
+  </si>
+  <si>
+    <t>[10m] Bates contributed to the first collection of Shaker hymns, a set of “praises” named for this amount of time. A belief named for this amount of time holds that Christ will reign over Earth for the namesake amount of years prior to the Last Judgment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The poet Issachar Bates wrote hymns for this group like “Ode to Contentment” and “Rights of Conscience,” the latter of which pays tribute to George Washington. For 10 points each:
+[10e] Name this group whose “Mother Hymn” commemorates its founder, Mother Ann Lee. The writer of the song “Simple Gifts,” Joseph Brackett, belonged to this religious group named for their movement during worship.
+ANSWER: Shakers [or United Society of Believers in Christ’s Second Appearing]
+[10h] Isaac Newton Youngs collected Shaker music into A Short Abridgment of the Rules of Music while working in a town named after this country. The first Shakers settled in a society named “Mount [this country].”
+ANSWER: Lebanon [accept Mount Lebanon; accept New Lebanon]
+[10m] Bates contributed to the first collection of Shaker hymns, a set of “praises” named for this amount of time. A belief named for this amount of time holds that Christ will reign over Earth for the namesake amount of years prior to the Last Judgment.
+ANSWER: millennial </t>
+  </si>
+  <si>
+    <t>These objects are placed around villages in order to prevent evil spirits in the practice of kanjo. For 10 points each:
+[10h] Name these long rice straw ropes often decorated with shide (“SHEE-day”) paper streamers that designate a sacred place in Shinto.</t>
+  </si>
+  <si>
+    <t>[10e] Due to their spiritual significance, shimenawa are often hung from these gates found at the entrance of Shinto shrines.</t>
+  </si>
+  <si>
+    <t>[10m] When these objects are decorated with shimenawa, they are known as kura, or “storehouses,” for kami. Places named for containing these general objects may be “raked” to produce patterns resembling ripples.</t>
+  </si>
+  <si>
+    <t>These objects are placed around villages in order to prevent evil spirits in the practice of kanjo. For 10 points each:
+[10h] Name these long rice straw ropes often decorated with shide (“SHEE-day”) paper streamers that designate a sacred place in Shinto.
+ANSWER: shimenawa [prompt on ropes]
+[10e] Due to their spiritual significance, shimenawa are often hung from these gates found at the entrance of Shinto shrines.
+ANSWER: torii
+[10m] When these objects are decorated with shimenawa, they are known as kura, or “storehouses,” for kami. Places named for containing these general objects may be “raked” to produce patterns resembling ripples.
+ANSWER: rocks</t>
+  </si>
+  <si>
+    <t>A figure named for this concept lives in the thirteenth “aeon,” according to a text named for this concept narrated by Jesus. For 10 points each:
+[10m] What concept names a genre of ancient literature that includes the Book of Job?</t>
+  </si>
+  <si>
+    <t>[10e] Sophia is represented as a divine feminine figure in many of these traditions. Many of these traditions, named for their emphasis on spiritual knowledge, believe in a malevolent “demiurge.”</t>
+  </si>
+  <si>
+    <t>[10h] In Gnosticism, Sophia is the creator of the first of these figures, Yaldabaoth. The Nag Hammadi library contains a Gnostic text about the Hypostasis of these figures, five of whom rule the “Kingdom of Darkness” in Manichaeism.</t>
+  </si>
+  <si>
+    <t>A figure named for this concept lives in the thirteenth “aeon,” according to a text named for this concept narrated by Jesus. For 10 points each:
+[10m] What concept names a genre of ancient literature that includes the Book of Job?
+ANSWER: wisdom [or sophia; accept wisdom literature; or hokhmah; or khokhmah; accept Pistis Sophia; reject “knowledge”]
+[10e] Sophia is represented as a divine feminine figure in many of these traditions. Many of these traditions, named for their emphasis on spiritual knowledge, believe in a malevolent “demiurge.”
+ANSWER: Gnosticism [or Gnostic traditions]
+[10h] In Gnosticism, Sophia is the creator of the first of these figures, Yaldabaoth. The Nag Hammadi library contains a Gnostic text about the Hypostasis of these figures, five of whom rule the “Kingdom of Darkness” in Manichaeism.
+ANSWER: archons</t>
+  </si>
+  <si>
+    <t>Bonus
+Patanjali (“puh-TUN-juh-lee”) wrote a collection of sutras on this practice that established its “eight limbs,” including the yamas (“YUM-uhs”) and the niyamas (“NEE-yum-uhs”). For 10 points each:
+[10e] Name this general Indian spiritual practice of controlling the mind and body. Western adaptations of this practice’s “hatha” (“HUH-tuh”) form involve poses that stretch the body.</t>
+  </si>
+  <si>
+    <t>[10h] The fourth of Patanjali’s eight limbs of yoga is named for focusing on this concept. The ritual by which mūrtis (“MOOR-thees”) are consecrated is named for their imbuing with this concept, which is the Sanskrit term for life energy.</t>
+  </si>
+  <si>
+    <t>[10m] This figure identified yoga with the state of meditative consciousness known as samādhi in his bhāshya, or commentary, on the Yoga Sūtras. This figure legendarily narrated a work to Ganesha, who transcribed it with one of his tusks.</t>
+  </si>
+  <si>
+    <t>Patanjali (“puh-TUN-juh-lee”) wrote a collection of sutras on this practice that established its “eight limbs,” including the yamas (“YUM-uhs”) and the niyamas (“NEE-yum-uhs”). For 10 points each:
+[10e] Name this general Indian spiritual practice of controlling the mind and body. Western adaptations of this practice’s “hatha” (“HUH-tuh”) form involve poses that stretch the body.
+ANSWER: yoga [accept hatha yoga; accept Ashtānga yoga; accept Yoga Sūtras]
+[10h] The fourth of Patanjali’s eight limbs of yoga is named for focusing on this concept. The ritual by which mūrtis (“MOOR-thees”) are consecrated is named for their imbuing with this concept, which is the Sanskrit term for life energy.
+ANSWER: prāna [accept prānāyāma; accept prāna pratishtha; prompt on breath]
+[10m] This figure identified yoga with the state of meditative consciousness known as samādhi in his bhāshya, or commentary, on the Yoga Sūtras. This figure legendarily narrated a work to Ganesha, who transcribed it with one of his tusks.
+ANSWER: Vyāsa</t>
+  </si>
+  <si>
+    <t>In one technique, the pIII (“P-three”) protein of one of these organisms allows it to attach to the F pilus of a pathogen. For 10 points each:
+[10m] Name these organisms used in a namesake “assisted continuous evolution” technique. Libraries from these organisms undergo multiple rounds of affinity selection followed by amplification in a namesake “display.”</t>
+  </si>
+  <si>
+    <t>[10e] The M13 phage used in phage-assisted continuous evolution replicates by infecting this pathogen. Hershey and Chase used a T2 phage to infect this rod-shaped Gram-negative bacteria that can cause food poisoning.</t>
+  </si>
+  <si>
+    <t>[10h] The M13 phage is also used in Kunkel’s method of performing this technique using mutated E. coli strains. Either this technique or error-prone PCR is used to generate libraries in alanine scanning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In one technique, the pIII (“P-three”) protein of one of these organisms allows it to attach to the F pilus of a pathogen. For 10 points each:
+[10m] Name these organisms used in a namesake “assisted continuous evolution” technique. Libraries from these organisms undergo multiple rounds of affinity selection followed by amplification in a namesake “display.”
+ANSWER: bacteriophages [accept phage display or phage-assisted continuous evolution; accept lambda phage or M13 phage; prompt on viruses]
+[10e] The M13 phage used in phage-assisted continuous evolution replicates by infecting this pathogen. Hershey and Chase used a T2 phage to infect this rod-shaped Gram-negative bacteria that can cause food poisoning.
+ANSWER: E. coli [or Escherichia coli]
+[10h] The M13 phage is also used in Kunkel’s method of performing this technique using mutated E. coli strains. Either this technique or error-prone PCR is used to generate libraries in alanine scanning.
+ANSWER: site-directed mutagenesis </t>
+  </si>
+  <si>
+    <t>MacroH2A has been shown to preferentially associate with these structures, supporting the idea that they have a high nucleosome density. For 10 points each:
+[10m] Name these structures formed via the recruitment of polycomb-group proteins by the non-coding RNA Xist (“exist”), during a process called lyonization.</t>
+  </si>
+  <si>
+    <t>[10h] Reactivating Barr bodies is a potential therapy for a variety of X-linked disorders, including this disorder whose patients often present with microcephaly and small hands and feet. Until the discovery of a mutation in the MECP2 gene, this disorder was included in the DSM alongside autism.</t>
+  </si>
+  <si>
+    <t>[10e] MECP2 binds to this substance after it has been methylated. This substance, which comes in “eu” and “hetero” forms, consists of DNA wrapped around histones and is often likened to “beads on a string.”</t>
+  </si>
+  <si>
+    <t>MacroH2A has been shown to preferentially associate with these structures, supporting the idea that they have a high nucleosome density. For 10 points each:
+[10m] Name these structures formed via the recruitment of polycomb-group proteins by the non-coding RNA Xist (“exist”), during a process called lyonization.
+ANSWER: Barr bodies [or X-chromatin; accept inactivated X chromosomes; prompt on X chromosomes]
+[10h] Reactivating Barr bodies is a potential therapy for a variety of X-linked disorders, including this disorder whose patients often present with microcephaly and small hands and feet. Until the discovery of a mutation in the MECP2 gene, this disorder was included in the DSM alongside autism.
+ANSWER: Rett syndrome
+[10e] MECP2 binds to this substance after it has been methylated. This substance, which comes in “eu” and “hetero” forms, consists of DNA wrapped around histones and is often likened to “beads on a string.”
+ANSWER: chromatin</t>
+  </si>
+  <si>
+    <t>Since lower values of this quantity corresponded with higher metabolic rates, Max Rubner proposed the “heartbeat hypothesis” that lower values of it lead to a lower lifespan. For 10 points each:
+[10m] Name this quantity studied in allometry. Metabolic rate scales to the three-fourths power of this quantity according to Kleiber’s law.</t>
+  </si>
+  <si>
+    <t>[10e] These animals have the highest metabolic rate among vertebrates. As a result, species in this smallest family of birds need special mechanisms to regulate body heat while hovering in place.</t>
+  </si>
+  <si>
+    <t>[10h] Many cold-blooded, ectothermic organisms exhibit this type of thermoregulation, where internal temperature varies wildly based on the ambient temperature. Sloths and naked mole rats exhibit this type of thermoregulation, which is the opposite of homeothermic regulation.</t>
+  </si>
+  <si>
+    <t>Since lower values of this quantity corresponded with higher metabolic rates, Max Rubner proposed the “heartbeat hypothesis” that lower values of it lead to a lower lifespan. For 10 points each:
+[10m] Name this quantity studied in allometry. Metabolic rate scales to the three-fourths power of this quantity according to Kleiber’s law.
+ANSWER: body size [or body mass or body volume]
+[10e] These animals have the highest metabolic rate among vertebrates. As a result, species in this smallest family of birds need special mechanisms to regulate body heat while hovering in place.
+ANSWER: hummingbirds [or Trochilidae; prompt on Apodiformes]
+[10h] Many cold-blooded, ectothermic organisms exhibit this type of thermoregulation, where internal temperature varies wildly based on the ambient temperature. Sloths and naked mole rats exhibit this type of thermoregulation, which is the opposite of homeothermic regulation.
+ANSWER: poikilothermic regulation</t>
+  </si>
+  <si>
+    <t>Congenital defects of this disorder include joint contractures that cause a clenched fist with overlapping fingers. For 10 points each:
+[10h] Name this genetic disorder that causes various malformations including heart defects and rocker-bottom feet, and is the second most common trisomy disorder after Down syndrome.</t>
+  </si>
+  <si>
+    <t>[10e] Trisomy disorders like Edwards syndrome are scanned for during pregnancy using this technique. Echocardiography is a type of this technique, which uses high-frequency acoustic waves to look at the uterus.</t>
+  </si>
+  <si>
+    <t>[10m] Edwards syndrome may cause a Dandy–Walker malformation, in which a portion of this structure called the vermis is absent. This structure is displaced down through the foramen magnum in a Chiari (“kee-AH-ree”) malformation, and receives information via mossy and climbing fibers.</t>
+  </si>
+  <si>
+    <t>Congenital defects of this disorder include joint contractures that cause a clenched fist with overlapping fingers. For 10 points each:
+[10h] Name this genetic disorder that causes various malformations including heart defects and rocker-bottom feet, and is the second most common trisomy disorder after Down syndrome.
+ANSWER: Edwards syndrome [or trisomy 18]
+[10e] Trisomy disorders like Edwards syndrome are scanned for during pregnancy using this technique. Echocardiography is a type of this technique, which uses high-frequency acoustic waves to look at the uterus.
+ANSWER: prenatal ultrasound [or ultrasonography; accept ultrasonogram]
+[10m] Edwards syndrome may cause a Dandy–Walker malformation, in which a portion of this structure called the vermis is absent. This structure is displaced down through the foramen magnum in a Chiari (“kee-AH-ree”) malformation, and receives information via mossy and climbing fibers.
+ANSWER: cerebellum</t>
+  </si>
+  <si>
+    <t>When monitoring the pH of this organ, a Demeester score of 14.72 or higher indicates acid reflux disease, which may cause a premalignant condition in it named for surgeon Norman Barrett. For 10 points each:
+[10e] Name this organ that can be damaged by upward movement of stomach acid while passing food from the pharynx to the stomach.</t>
+  </si>
+  <si>
+    <t>[10m] Proton pump inhibitors are often used to treat acid reflux, and have largely replaced medications targeting this compound’s H2 receptors. Enterochromaffin-like cells release this compound to stimulate stomach acid production.</t>
+  </si>
+  <si>
+    <t>[10h] PPIs can also be used to treat this condition in which tumors that secrete gastrin cause excess stomach acid to be produced from parietal cells, creating peptic ulcers.</t>
+  </si>
+  <si>
+    <t>To begin one process, one of these proteins is phosphorylated by GCN2, HRI, and protein kinase R. For 10 points each:
+[10h] What proteins include the only protein that has the nonstandard amino acid hypusine, and another labelled “4A” that is the original DEAD-box helicase? PERK phosphorylates the alpha subunit of one of these proteins to halt the cell cycle and activate the unfolded protein response.</t>
+  </si>
+  <si>
+    <t>[10e] eIF2 is part of a complex that binds to the 40S subunit to begin translation in these structures, which synthesize proteins from mRNA transcripts.</t>
+  </si>
+  <si>
+    <t>[10m] The initiator tRNA and eIF2 form a tertiary complex with this molecule at the start of translation. Hydrolysis of this molecule at the head of tubulin heterodimers leads to a “catastrophe” that causes dynamic instability.</t>
+  </si>
+  <si>
+    <t>To begin one process, one of these proteins is phosphorylated by GCN2, HRI, and protein kinase R. For 10 points each:
+[10h] What proteins include the only protein that has the nonstandard amino acid hypusine, and another labelled “4A” that is the original DEAD-box helicase? PERK phosphorylates the alpha subunit of one of these proteins to halt the cell cycle and activate the unfolded protein response.
+ANSWER: eukaryotic initiation factors [or eIFs; accept eIF2 or eIF4A or eIF5A or eukaryotic initiation factor 2 or eukaryotic initiation factor 5A or eukaryotic initiation factor 4A]
+[10e] eIF2 is part of a complex that binds to the 40S subunit to begin translation in these structures, which synthesize proteins from mRNA transcripts.
+ANSWER: ribosomes
+[10m] The initiator tRNA and eIF2 form a tertiary complex with this molecule at the start of translation. Hydrolysis of this molecule at the head of tubulin heterodimers leads to a “catastrophe” that causes dynamic instability.
+ANSWER: GTP</t>
+  </si>
+  <si>
+    <t>When monitoring the pH of this organ, a Demeester score of 14.72 or higher indicates acid reflux disease, which may cause a premalignant condition in it named for surgeon Norman Barrett. For 10 points each:
+[10e] Name this organ that can be damaged by upward movement of stomach acid while passing food from the pharynx to the stomach.
+ANSWER: esophagus
+[10m] Proton pump inhibitors are often used to treat acid reflux, and have largely replaced medications targeting this compound’s H2 receptors. Enterochromaffin-like cells release this compound to stimulate stomach acid production.
+ANSWER: histamine
+[10h] PPIs can also be used to treat this condition in which tumors that secrete gastrin cause excess stomach acid to be produced from parietal cells, creating peptic ulcers.
+ANSWER: Zollinger–Ellison syndrome [or Z-E syndrome]</t>
+  </si>
+  <si>
+    <t>A 1955 study of this process by Townes and Holtfreter demonstrated that it can happen spontaneously to minimize free energy in the differential adhesion hypothesis. For 10 points each:
+[10m] Name this process controlled in one organism by dpp and inhibited by Sog. During this process, the marginal zone undergoes convergent extension and involutes the blastoral lip.</t>
+  </si>
+  <si>
+    <t>[10e] Dpp and Sog control dorsal-axis formation in this model insect popularized by Thomas Hunt Morgan.</t>
+  </si>
+  <si>
+    <t>[10h] Anterior–posterior axis patterning in Drosophila is determined by maternal effect genes like this protein that patterns the head and thorax with Hunchback. The first discovered morphogen was this protein, which when mutated causes a lethal phenotype in which the insect develops a longer abdomen instead of its head.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 1955 study of this process by Townes and Holtfreter demonstrated that it can happen spontaneously to minimize free energy in the differential adhesion hypothesis. For 10 points each:
+[10m] Name this process controlled in one organism by dpp and inhibited by Sog. During this process, the marginal zone undergoes convergent extension and involutes the blastoral lip.
+ANSWER: gastrulation [accept short gastrulation; prompt on morphogenesis or embryogenesis or embryonic development]
+[10e] Dpp and Sog control dorsal-axis formation in this model insect popularized by Thomas Hunt Morgan.
+ANSWER: fruit fly [or Drosophila melanogaster or D. melanogaster]
+[10h] Anterior–posterior axis patterning in Drosophila is determined by maternal effect genes like this protein that patterns the head and thorax with Hunchback. The first discovered morphogen was this protein, which when mutated causes a lethal phenotype in which the insect develops a longer abdomen instead of its head.
+ANSWER: Bicoid </t>
+  </si>
+  <si>
+    <t>After performing this type of study, the Sum of Single Effects model, or SuSie, is used to generate probabilistic “credible sets” in a process called fine-mapping. For 10 points each:
+[10h] Name this type of study often performed using the PLINK package. Data from these studies are used to calculate polygenic risk scores.</t>
+  </si>
+  <si>
+    <t>[10m] Fine-mapping can be used to determine causal variants from microarrays containing many of these things. Each dot on a Manhattan plot corresponds to one of these things, which are point mutations that occur in at least 1 percent of the population.</t>
+  </si>
+  <si>
+    <t>[10e] Tools like PLINK contain methods for pruning this phenomenon’s namesake “disequilibrium” to eliminate non-unique SNPs. In this phenomenon, two genes that are close together on a chromosome are inherited together.</t>
+  </si>
+  <si>
+    <t>After performing this type of study, the Sum of Single Effects model, or SuSie, is used to generate probabilistic “credible sets” in a process called fine-mapping. For 10 points each:
+[10h] Name this type of study often performed using the PLINK package. Data from these studies are used to calculate polygenic risk scores.
+ANSWER: GWAS (“G-woss”) [or genome-wide-association studies or GWA studies]
+[10m] Fine-mapping can be used to determine causal variants from microarrays containing many of these things. Each dot on a Manhattan plot corresponds to one of these things, which are point mutations that occur in at least 1 percent of the population.
+ANSWER: SNPs (“snips”) [or single nucleotide polymorphisms]
+[10e] Tools like PLINK contain methods for pruning this phenomenon’s namesake “disequilibrium” to eliminate non-unique SNPs. In this phenomenon, two genes that are close together on a chromosome are inherited together.
+ANSWER: genetic linkage</t>
+  </si>
+  <si>
+    <t>A 2024 Nature paper by Schartl et al. attributes the large genomes of these fish to suppression of transposons. For 10 points each:
+[10h] Name this class of fish whose “South American” and “Marbled” species have the largest known animal genomes. These fish are the closest living relative of tetrapods, with whom they form the Rhipidistia clade, the sister group to the Coelacanths (“SEE-luh-canths”).</t>
+  </si>
+  <si>
+    <t>[10e] Lungfish represent an important evolutionary milestone since they have both lungs and these structures, but only the Australian lungfish actually breathes from these organs that uptake oxygen from water.</t>
+  </si>
+  <si>
+    <t>[10m] Some lungfish perform this behavior by burrowing themselves in mud. Animals enter this type of dormancy, which unlike hibernation happens in the summer, to avoid damage from high temperature or desiccation.</t>
+  </si>
+  <si>
+    <t>A 2024 Nature paper by Schartl et al. attributes the large genomes of these fish to suppression of transposons. For 10 points each:
+[10h] Name this class of fish whose “South American” and “Marbled” species have the largest known animal genomes. These fish are the closest living relative of tetrapods, with whom they form the Rhipidistia clade, the sister group to the Coelacanths (“SEE-luh-canths”).
+ANSWER: lungfish [or Dipnoi; accept salamanderfish or barramunda; prompt on Sarcopterygii or lobe-finned fishes or Osteichthyes or bony fishes] (The genomes of the South American lungfish and Marbled lungfish have 91 and 132 billion base pairs respectively, compared to the human genome’s 3.5 billion base pairs.)
+[10e] Lungfish represent an important evolutionary milestone since they have both lungs and these structures, but only the Australian lungfish actually breathes from these organs that uptake oxygen from water.
+ANSWER: gills
+[10m] Some lungfish perform this behavior by burrowing themselves in mud. Animals enter this type of dormancy, which unlike hibernation happens in the summer, to avoid damage from high temperature or desiccation.
+ANSWER: aestivation [or estivation]</t>
+  </si>
+  <si>
+    <t>This test requires constructing a contingency table whose values are the number of synonymous versus nonsynonymous substitutions and polymorphisms in the gene of interest. For 10 points each:
+[10h] Name this doubly-eponymous statistical test used to distinguish between positive and negative forms of natural selection by comparing variation within a species and between species.</t>
+  </si>
+  <si>
+    <t>[10m] Departure from the null hypothesis of the McDonald–Kreitman test is quantified by an index named for this adjective. A theory of molecular evolution described by this adjective was developed by Motoo (“mo-TOH”) Kimura.</t>
+  </si>
+  <si>
+    <t>[10e] McDonald and Kreitman developed their namesake test while studying the gene that codes for alcohol dehydrogenase, which oxidizes this two-carbon alcohol produced during fermentation into acetaldehyde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test requires constructing a contingency table whose values are the number of synonymous versus nonsynonymous substitutions and polymorphisms in the gene of interest. For 10 points each:
+[10h] Name this doubly-eponymous statistical test used to distinguish between positive and negative forms of natural selection by comparing variation within a species and between species.
+ANSWER: McDonald–Kreitman test [prompt on MKT]
+[10m] Departure from the null hypothesis of the McDonald–Kreitman test is quantified by an index named for this adjective. A theory of molecular evolution described by this adjective was developed by Motoo (“mo-TOH”) Kimura.
+ANSWER: neutral [accept neutrality index; accept neutral theory of molecular evolution]
+[10e] McDonald and Kreitman developed their namesake test while studying the gene that codes for alcohol dehydrogenase, which oxidizes this two-carbon alcohol produced during fermentation into acetaldehyde.
+ANSWER: ethanol </t>
+  </si>
+  <si>
+    <t>Answer the following about discoveries in ecology achieved by studying butterflies, for 10 points each.
+[10e] Until recently, monarch butterflies were thought to be the insect to undergo the longest type of this process. During this process, an organism travels across long distances, usually on a seasonal basis.</t>
+  </si>
+  <si>
+    <t>[10m] This type of mimicry was first observed in the butterfly genus Heliconius. This type of mimicry relies on all involved species exhibiting aposematism and being unpalatable.</t>
+  </si>
+  <si>
+    <t>[10h] A study of the Glanville fritillary butterfly in Finland’s Åland Islands is the largest ever to examine these entities, which are approximated using the source-sink model. Richard Levins coined the term for these entities, which are patches of habitat linked by migration or dispersal of individuals.</t>
+  </si>
+  <si>
+    <t>Answer the following about discoveries in ecology achieved by studying butterflies, for 10 points each.
+[10e] Until recently, monarch butterflies were thought to be the insect to undergo the longest type of this process. During this process, an organism travels across long distances, usually on a seasonal basis.
+ANSWER: migration [or word forms; prompt on movement or navigation] (The insect with the longest migration is now thought to be the dragonfly species Pantala flavescens.)
+[10m] This type of mimicry was first observed in the butterfly genus Heliconius. This type of mimicry relies on all involved species exhibiting aposematism and being unpalatable.
+ANSWER: Müllerian mimicry
+[10h] A study of the Glanville fritillary butterfly in Finland’s Åland Islands is the largest ever to examine these entities, which are approximated using the source-sink model. Richard Levins coined the term for these entities, which are patches of habitat linked by migration or dispersal of individuals.
+ANSWER: metapopulations</t>
+  </si>
+  <si>
+    <t>This genus contains a bacterium sometimes spread by armadillos, which can invade Schwann cells and lead to severe nerve damage. For 10 points each:
+[10m] Name this genus of bacteria. A species of bacteria in this genus attacks macrophages after entering the lungs, forming granulomas and causing infected patients to cough up blood.</t>
+  </si>
+  <si>
+    <t>[10e] Mycobacteria such as those that cause tuberculosis are often identified by an “acid-fast” form of this technique. This technique applies dyes to specimens to make them more visible under a microscope.</t>
+  </si>
+  <si>
+    <t>[10h] The presence of phenol in this dye allows it to penetrate the lipid-rich walls of Mycobacteria, making it the primary stain used in the acid-fast stain. This dye is also sometimes used instead of safranin as a counterstain in Gram staining.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This genus contains a bacterium sometimes spread by armadillos, which can invade Schwann cells and lead to severe nerve damage. For 10 points each:
+[10m] Name this genus of bacteria. A species of bacteria in this genus attacks macrophages after entering the lungs, forming granulomas and causing infected patients to cough up blood.
+ANSWER: Mycobacterium [or Mycobacteria; accept Mycobacterium leprae; accept Mycobacterium tuberculosis]
+[10e] Mycobacteria such as those that cause tuberculosis are often identified by an “acid-fast” form of this technique. This technique applies dyes to specimens to make them more visible under a microscope.
+ANSWER: staining [or word forms; accept acid-fast staining or Ziehl–Neelsen staining]
+[10h] The presence of phenol in this dye allows it to penetrate the lipid-rich walls of Mycobacteria, making it the primary stain used in the acid-fast stain. This dye is also sometimes used instead of safranin as a counterstain in Gram staining.
+ANSWER: carbol fuchsin </t>
+  </si>
+  <si>
+    <t>In a namesake hypothesis, Heiko Braak described how this disease begins in the brain’s olfactory nucleus. For 10 points each:
+[10e] Name this neurodegenerative condition characterized by a shuffling gait, rigidity, and tremors.</t>
+  </si>
+  <si>
+    <t>[10h] Braak suggested that one cause of Parkinson’s is the aggregation of this protein within Lewy bodies, inhibiting the release of dopamine. High accumulation of this protein may also cause multiple system atrophy.</t>
+  </si>
+  <si>
+    <t>[10m] Parkinson’s can be detected using a type of MRI imaging named for this substance. Dopaminergic neuron loss during Parkinson’s occurs in an area of the brain containing a high level of this substance called the substantia nigra.</t>
+  </si>
+  <si>
+    <t>In a namesake hypothesis, Heiko Braak described how this disease begins in the brain’s olfactory nucleus. For 10 points each:
+[10e] Name this neurodegenerative condition characterized by a shuffling gait, rigidity, and tremors.
+ANSWER: Parkinson’s disease [or PD]
+[10h] Braak suggested that one cause of Parkinson’s is the aggregation of this protein within Lewy bodies, inhibiting the release of dopamine. High accumulation of this protein may also cause multiple system atrophy.
+ANSWER: alpha-synuclein [or SCNA; prompt on synuclein]
+[10m] Parkinson’s can be detected using a type of MRI imaging named for this substance. Dopaminergic neuron loss during Parkinson’s occurs in an area of the brain containing a high level of this substance called the substantia nigra.
+ANSWER: melanin</t>
+  </si>
+  <si>
+    <t>Two answers required. A baby’s lungs are considered mature if the ratio between these two molecules is more than 2-to-1. For 10 points each:
+[10h] Name these two compounds. One of these compounds is found in the lipid that surrounds nerve cell axons, and the other is a type of amphiphilic yellow-brown fatty substance found in animal tissue.</t>
+  </si>
+  <si>
+    <t>[10e] The lecithin-sphingomyelin ratio is tested using this substance. This liquid fills the “sac” around a fetus.</t>
+  </si>
+  <si>
+    <t>[10m] The centesis of amniotic fluid to test genetic material is usually safer than a “chorionic sampling” procedure named for these structures. These structures can atrophy from inflammation due to conditions like celiac disease.</t>
+  </si>
+  <si>
+    <t>Two answers required. A baby’s lungs are considered mature if the ratio between these two molecules is more than 2-to-1. For 10 points each:
+[10h] Name these two compounds. One of these compounds is found in the lipid that surrounds nerve cell axons, and the other is a type of amphiphilic yellow-brown fatty substance found in animal tissue.
+ANSWER: sphingomyelin AND lecithin (“LESS-uh-thin”) [accept lecithin–sphingomyelin ratio; prompt on L/S ratio; prompt on partial answers; reject “myelin”]
+[10e] The lecithin-sphingomyelin ratio is tested using this substance. This liquid fills the “sac” around a fetus.
+ANSWER: amniotic fluid [accept amniotic sac]
+[10m] The centesis of amniotic fluid to test genetic material is usually safer than a “chorionic sampling” procedure named for these structures. These structures can atrophy from inflammation due to conditions like celiac disease.
+ANSWER: villi</t>
+  </si>
+  <si>
+    <t>During skin infections, langerhans cells can take up antigens to present to these lymphocytes. For 10 points each:
+[10e] Name this type of immune cell that comes in “cytotoxic” and “helper” varieties, and develops in the thymus.</t>
+  </si>
+  <si>
+    <t>[10h] Langerhans cells travel to lymph nodes to interact with T cells described by this word, which have differentiated and undergone central selection, but have not been exposed to their corresponding antigen.</t>
+  </si>
+  <si>
+    <t>[10m] Langerhans cells are thought to be a specialized type of these antigen-presenting cells that act as messengers between the innate and adaptive immune systems. These cells come in “conventional” and “plasmacytoid” types, and are named for resembling the branched projections of neurons.</t>
+  </si>
+  <si>
+    <t>During skin infections, langerhans cells can take up antigens to present to these lymphocytes. For 10 points each:
+[10e] Name this type of immune cell that comes in “cytotoxic” and “helper” varieties, and develops in the thymus.
+ANSWER: T cells [accept cytotoxic T cells or helper T cells]
+[10h] Langerhans cells travel to lymph nodes to interact with T cells described by this word, which have differentiated and undergone central selection, but have not been exposed to their corresponding antigen.
+ANSWER: naive [accept naive T-cell or Th0]
+[10m] Langerhans cells are thought to be a specialized type of these antigen-presenting cells that act as messengers between the innate and adaptive immune systems. These cells come in “conventional” and “plasmacytoid” types, and are named for resembling the branched projections of neurons.
+ANSWER: dendritic cells</t>
+  </si>
+  <si>
+    <t>The Freundlich equation models this process until a saturation pressure is reached, after which it fails to be accurate. For 10 points each:
+[10m] Name this process modelled by the Langmuir (“LANG-myoor”) isotherm. MOFs (“moffs”) with high rates of this process are used in carbon capture mechanisms.</t>
+  </si>
+  <si>
+    <t>[10e] The statistical mechanical derivation for the Langmuir model assumes that adsorbates behave as these substances, which are described by the equation “PV equals nRT.”</t>
+  </si>
+  <si>
+    <t>[10h] These structures form when atoms adsorb onto the surface of a single crystal. These structures, which can be classified as “commensurate” or “incommensurate,” are described by Wood’s notation.</t>
+  </si>
+  <si>
+    <t>The Freundlich equation models this process until a saturation pressure is reached, after which it fails to be accurate. For 10 points each:
+[10m] Name this process modelled by the Langmuir (“LANG-myoor”) isotherm. MOFs (“moffs”) with high rates of this process are used in carbon capture mechanisms.
+ANSWER: adsorption [accept word forms like adsorb; reject “absorption”]
+[10e] The statistical mechanical derivation for the Langmuir model assumes that adsorbates behave as these substances, which are described by the equation “PV equals nRT.”
+ANSWER: ideal gases [or perfect gases]
+[10h] These structures form when atoms adsorb onto the surface of a single crystal. These structures, which can be classified as “commensurate” or “incommensurate,” are described by Wood’s notation.
+ANSWER: overlayers</t>
+  </si>
+  <si>
+    <t>This compound is formed from aspartate in the Hell–Volhard–Zelinsky halogenation or by the combination of acetaldehyde, ammonia, and cyanide. For 10 points each:
+[10m] Name this amino acid with a methyl side chain.</t>
+  </si>
+  <si>
+    <t>[10e] The biosynthesis of alanine can proceed via the reversible reductive amination of this compound by ALT. This three-carbon compound is the product of the dephosphorylation of PEP at the end of glycolysis.</t>
+  </si>
+  <si>
+    <t>[10h] The reaction of this alanine isomer and pyruvate produces malonate-semialdehyde and its standard isomer. Histidine and this alanine isomer are combined to synthesize carnosine.</t>
+  </si>
+  <si>
+    <t>This compound is formed from aspartate in the Hell–Volhard–Zelinsky halogenation or by the combination of acetaldehyde, ammonia, and cyanide. For 10 points each:
+[10m] Name this amino acid with a methyl side chain.
+ANSWER: alanine [or Ala; or A]
+[10e] The biosynthesis of alanine can proceed via the reversible reductive amination of this compound by ALT. This three-carbon compound is the product of the dephosphorylation of PEP at the end of glycolysis.
+ANSWER: pyruvate
+[10h] The reaction of this alanine isomer and pyruvate produces malonate-semialdehyde and its standard isomer. Histidine and this alanine isomer are combined to synthesize carnosine.
+ANSWER: beta-alanine</t>
+  </si>
+  <si>
+    <t>Nomenclature of these compounds usually involves the terms “syn” and “anti” that are preserved by rotation around a single bond. For 10 points each:
+[10m] Name these organic compounds that have multiple chiral centers, but unlike meso compounds, are not superimposable on their mirror images.</t>
+  </si>
+  <si>
+    <t>[10e] The diastereomer nomenclature terms “threo” and “erythro” come from examples of these compounds called threose and erythrose. Dextrose is an alternate name for right-handed glucose, which is one of these biomolecules.</t>
+  </si>
+  <si>
+    <t>[10h] Diastereoselective reactions are governed by this phenomenon, observed in chiral ketones by Donald Cram. Nguyễn Trọng Anh incorporated the Burgi–Dunitz angle to Hugh Felkin’s model of this phenomenon.</t>
+  </si>
+  <si>
+    <t>Nomenclature of these compounds usually involves the terms “syn” and “anti” that are preserved by rotation around a single bond. For 10 points each:
+[10m] Name these organic compounds that have multiple chiral centers, but unlike meso compounds, are not superimposable on their mirror images.
+ANSWER: diastereomers [or diastereoisomers; prompt on stereoisomers; reject “enantiomers”]
+[10e] The diastereomer nomenclature terms “threo” and “erythro” come from examples of these compounds called threose and erythrose. Dextrose is an alternate name for right-handed glucose, which is one of these biomolecules.
+ANSWER: sugars [or saccharides]
+[10h] Diastereoselective reactions are governed by this phenomenon, observed in chiral ketones by Donald Cram. Nguyễn Trọng Anh incorporated the Burgi–Dunitz angle to Hugh Felkin’s model of this phenomenon.
+ANSWER: asymmetric induction</t>
+  </si>
+  <si>
+    <t>The linear relationship between these two quantities for closely-related reactions, such as similar solvents or substituents, may be a statistical artifact. For 10 points each:
+[10h] Name both of these two quantities subject to a “compensation effect” that is a sufficient condition for LFERs (“L-F-E-R’s”).</t>
+  </si>
+  <si>
+    <t>[10e] LFERs model linear relationships for this quantity, which is defined as the enthalpy of a system minus the product of temperature and entropy.</t>
+  </si>
+  <si>
+    <t>[10m] This scientist’s namesake plot of “log K-sub-eq” against inverse temperature has enthalpy and entropy in the formulas for its intercept and slope, respectively. A quantity named for this scientist is less than one for compounds that dimerize in solution.</t>
+  </si>
+  <si>
+    <t>The linear relationship between these two quantities for closely-related reactions, such as similar solvents or substituents, may be a statistical artifact. For 10 points each:
+[10h] Name both of these two quantities subject to a “compensation effect” that is a sufficient condition for LFERs (“L-F-E-R’s”).
+ANSWER: entropy AND enthalpy [accept enthalpy–entropy compensation; accept S in place of “entropy”; accept H in place of “enthalpy”]
+[10e] LFERs model linear relationships for this quantity, which is defined as the enthalpy of a system minus the product of temperature and entropy.
+ANSWER: Gibbs free energy [or G; or Gibbs energy or reaction energy; prompt on free energy or potential energy]
+[10m] This scientist’s namesake plot of “log K-sub-eq” against inverse temperature has enthalpy and entropy in the formulas for its intercept and slope, respectively. A quantity named for this scientist is less than one for compounds that dimerize in solution.
+ANSWER: Jacobus Henricus van ’t Hoff</t>
+  </si>
+  <si>
+    <t>Description acceptable. Hoogsteen (“HOHG-stain”) base pairing allows B-form DNA to take on this characteristic by forming an alternative adenine–thymine bond. For 10 points each:
+[10m] Name or describe this characteristic sometimes observed in satellite DNA that may cause genetic instability by interfering with transcription. A disproven theory posited by Linus Pauling claimed that DNA has this structural characteristic.</t>
+  </si>
+  <si>
+    <t>[10e] Karst Hoogsteen reported his namesake base pairing by observing an alternative one of these interactions between adenine and thymine. These intermolecular interactions are named for the lightest element.</t>
+  </si>
+  <si>
+    <t>[10h] Hoogsteen base pairs also allow for the formation of G-quadruplex secondary structures, which are useful in the design of these artificial oligomers that target a specific ligand. These molecules are produced in a technique called SELEX.</t>
+  </si>
+  <si>
+    <t>Description acceptable. Hoogsteen (“HOHG-stain”) base pairing allows B-form DNA to take on this characteristic by forming an alternative adenine–thymine bond. For 10 points each:
+[10m] Name or describe this characteristic sometimes observed in satellite DNA that may cause genetic instability by interfering with transcription. A disproven theory posited by Linus Pauling claimed that DNA has this structural characteristic.
+ANSWER: triple helix [accept triple-stranded DNA or RNA; accept H-DNA or Triplex-DNA]
+[10e] Karst Hoogsteen reported his namesake base pairing by observing an alternative one of these interactions between adenine and thymine. These intermolecular interactions are named for the lightest element.
+ANSWER: hydrogen bonds [or H-bonds]
+[10h] Hoogsteen base pairs also allow for the formation of G-quadruplex secondary structures, which are useful in the design of these artificial oligomers that target a specific ligand. These molecules are produced in a technique called SELEX.
+ANSWER: aptamers</t>
+  </si>
+  <si>
+    <t>The molecular weight of a polymer is related to this quantity and its theoretical maximum according to the Flory–Fox equation. For 10 points each:
+[10m] Name this quantity that is indicated by a change in the rate of thermal expansion in dilatometry. This temperature is indicated by a point on a graph’s x-axis where a steep slope in heat capacity begins.</t>
+  </si>
+  <si>
+    <t>[10h] A paradox named for this scientist states that extrapolating the heat capacity of supercooled liquids below the glass-transition temperature results in a crystal–liquid entropy difference of zero. This scientist also discovered the hydrophobic effect.</t>
+  </si>
+  <si>
+    <t>[10e] Kauzmann’s solution to his own paradox is that liquids undergo this action before the Kauzmann temperature. This process is usually induced by adding a nucleation seed and results in materials with long-range order.</t>
+  </si>
+  <si>
+    <t>The molecular weight of a polymer is related to this quantity and its theoretical maximum according to the Flory–Fox equation. For 10 points each:
+[10m] Name this quantity that is indicated by a change in the rate of thermal expansion in dilatometry. This temperature is indicated by a point on a graph’s x-axis where a steep slope in heat capacity begins.
+ANSWER: glass-transition temperature [prompt on T-sub-g]
+[10h] A paradox named for this scientist states that extrapolating the heat capacity of supercooled liquids below the glass-transition temperature results in a crystal–liquid entropy difference of zero. This scientist also discovered the hydrophobic effect.
+ANSWER: Walter Kauzmann [or Walter J. Kauzmann; accept Kauzmann’s paradox]
+[10e] Kauzmann’s solution to his own paradox is that liquids undergo this action before the Kauzmann temperature. This process is usually induced by adding a nucleation seed and results in materials with long-range order.
+ANSWER: crystallization</t>
+  </si>
+  <si>
+    <t>The binding between these two kinds of compounds is the basis for artificial molecular machines such as molecular tweezers. For 10 points each:
+[10m] Name these two kinds of compounds whose non-covalent interactions are studied in a branch of supramolecular chemistry, exemplified by the binding of metal cations to crown ethers.</t>
+  </si>
+  <si>
+    <t>[10e] Host–guest chemistry is analogous to the binding of substrates to these catalytic proteins.</t>
+  </si>
+  <si>
+    <t>[10h] Among the many applications for host–guest chemistry is a room-temperature form of this phenomenon, which occurs when electrons are locked into a slower triplet state.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The binding between these two kinds of compounds is the basis for artificial molecular machines such as molecular tweezers. For 10 points each:
+[10m] Name these two kinds of compounds whose non-covalent interactions are studied in a branch of supramolecular chemistry, exemplified by the binding of metal cations to crown ethers.
+ANSWER: hosts AND guests [accept host–guest chemistry]
+[10e] Host–guest chemistry is analogous to the binding of substrates to these catalytic proteins.
+ANSWER: enzymes
+[10h] Among the many applications for host–guest chemistry is a room-temperature form of this phenomenon, which occurs when electrons are locked into a slower triplet state.
+ANSWER: phosphorescence </t>
+  </si>
+  <si>
+    <t>Tanabe–Sugano diagrams plot the quotient of a splitting energy symbolized Dq induced by these compounds and the Racah B parameter. For 10 points each:
+[10e] Name these compounds whose binding to metal cations to form coordination complexes is described by crystal field theory. The spectrochemical series sorts these compounds by increasing strength.</t>
+  </si>
+  <si>
+    <t>[10m] In crystal field theory, ligand binding causes the five d orbitals to split into two orbitals, one of which is triply degenerate and lower in energy and the other of which is doubly degenerate and higher in energy. Name either.</t>
+  </si>
+  <si>
+    <t>[10h] These diagrams qualitatively describe electronic energies in weak field transition metal complexes. These diagrams describe the symmetries of spin-allowed transitions and can be denoted D, F, or P.</t>
+  </si>
+  <si>
+    <t>Tanabe–Sugano diagrams plot the quotient of a splitting energy symbolized Dq induced by these compounds and the Racah B parameter. For 10 points each:
+[10e] Name these compounds whose binding to metal cations to form coordination complexes is described by crystal field theory. The spectrochemical series sorts these compounds by increasing strength.
+ANSWER: ligands
+[10m] In crystal field theory, ligand binding causes the five d orbitals to split into two orbitals, one of which is triply degenerate and lower in energy and the other of which is doubly degenerate and higher in energy. Name either.
+ANSWER: t-sub-2g OR e-sub-g
+[10h] These diagrams qualitatively describe electronic energies in weak field transition metal complexes. These diagrams describe the symmetries of spin-allowed transitions and can be denoted D, F, or P.
+ANSWER: Orgel diagrams</t>
+  </si>
+  <si>
+    <t>Pyridinium chlorochromate, or PCC, is a reagent that can perform a mild type of this reaction. For 10 points each:
+[10e] Name this type of reaction exemplified by the conversion of an alcohol to a carbonyl group, such as in one named for Jones. This type of reaction corresponds to a loss of electrons.</t>
+  </si>
+  <si>
+    <t>[10m] This oxidation converts an alcohol to a carbonyl using oxalyl chloride in an “activated DMSO” reaction. The notoriously odorous dimethyl sulfide is produced as a byproduct of this reaction.</t>
+  </si>
+  <si>
+    <t>[10h] The Corey–Kim oxidation uses dimethyl sulfide and a chlorine derivative of this compound. Bromine radicals used for allylic bromination come from a derivative of this compound in the Wohl–Ziegler reaction.</t>
+  </si>
+  <si>
+    <t>Pyridinium chlorochromate, or PCC, is a reagent that can perform a mild type of this reaction. For 10 points each:
+[10e] Name this type of reaction exemplified by the conversion of an alcohol to a carbonyl group, such as in one named for Jones. This type of reaction corresponds to a loss of electrons.
+ANSWER: oxidation [accept Jones oxidation]
+[10m] This oxidation converts an alcohol to a carbonyl using oxalyl chloride in an “activated DMSO” reaction. The notoriously odorous dimethyl sulfide is produced as a byproduct of this reaction.
+ANSWER: Swern oxidation
+[10h] The Corey–Kim oxidation uses dimethyl sulfide and a chlorine derivative of this compound. Bromine radicals used for allylic bromination come from a derivative of this compound in the Wohl–Ziegler reaction.
+ANSWER: succinimide</t>
+  </si>
+  <si>
+    <t>The design of these compounds may use dead-end elimination to minimize their conformational energy. For 10 points each:
+[10m] Name these compounds whose structure can be predicted with the aid of “knowledge-based” potentials from the PDB. Rotamer libraries for these compounds may tabulate allowed values for the angles omega, phi, and psi.</t>
+  </si>
+  <si>
+    <t>[10e] Protein design specifies a 3D tertiary structure and aims to find a sequence that will match it when it undergoes this process. Prions are formed when this process occurs incorrectly.</t>
+  </si>
+  <si>
+    <t>[10h] This two-word term refers to the design of proteins that do not occur in nature. David Baker’s lab’s production of Top7 using only algorithmic means exemplifies protein design described by this term.</t>
+  </si>
+  <si>
+    <t>The design of these compounds may use dead-end elimination to minimize their conformational energy. For 10 points each:
+[10m] Name these compounds whose structure can be predicted with the aid of “knowledge-based” potentials from the PDB. Rotamer libraries for these compounds may tabulate allowed values for the angles omega, phi, and psi.
+ANSWER: proteins [accept peptides]
+[10e] Protein design specifies a 3D tertiary structure and aims to find a sequence that will match it when it undergoes this process. Prions are formed when this process occurs incorrectly.
+ANSWER: folding [or protein folding]
+[10h] This two-word term refers to the design of proteins that do not occur in nature. David Baker’s lab’s production of Top7 using only algorithmic means exemplifies protein design described by this term.
+ANSWER: de novo</t>
+  </si>
+  <si>
+    <t>Because of extraneous processes such as “flip-flops,” one form of this process always occurs at a faster rate than another. For 10 points each:
+[10m] Name this process that describes how long it takes for the energy from an absorbed radiofrequency pulse to dissipate. This process comes in “T1” and “T2” types.</t>
+  </si>
+  <si>
+    <t>[10e] Relaxation time is a property commonly measured when using this technique that uses a B-field to align spins in a molecule. MRI is based on this technique that typically involves either protons or carbon-13.</t>
+  </si>
+  <si>
+    <t>[10h] T1 and T2 relaxations are sometimes given two names describing their energy interactions, one of which causes demagnetization in the longitudinal z-axis and the other of which causes demagnetization in the transverse xy-plane. Name either.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because of extraneous processes such as “flip-flops,” one form of this process always occurs at a faster rate than another. For 10 points each:
+[10m] Name this process that describes how long it takes for the energy from an absorbed radiofrequency pulse to dissipate. This process comes in “T1” and “T2” types.
+ANSWER: relaxation time [accept T1 relaxation or T2 relaxation]
+[10e] Relaxation time is a property commonly measured when using this technique that uses a B-field to align spins in a molecule. MRI is based on this technique that typically involves either protons or carbon-13.
+ANSWER: NMR spectroscopy [or nuclear magnetic resonance spectroscopy]
+[10h] T1 and T2 relaxations are sometimes given two names describing their energy interactions, one of which causes demagnetization in the longitudinal z-axis and the other of which causes demagnetization in the transverse xy-plane. Name either.
+ANSWER: spin–lattice relaxation OR spin–spin relaxation </t>
+  </si>
+  <si>
+    <t>A molecule with this structure was used by James Stoddart to create artificial “molecule muscles” that mimic the actions of myosin and actin. For 10 points each:
+[10h] Name this mechanically interlocked architecture that consists of a dumbbell-shaped molecule threaded through a macrocycle. Molecules with this structure can be synthesized through clipping, capping, slipping, and snapping.</t>
+  </si>
+  <si>
+    <t>[10m] This effect is why the inner thread of a rotaxane is stable. This effect is also why the bulkier tert-butyl bromide is more likely than methyl bromide to undergo an SN1 reaction.</t>
+  </si>
+  <si>
+    <t>[10e] Recent applications of rotaxanes have involved using them as nanovalves to deliver these compounds into the human body. These compounds may be classified by their mechanism of action or mode of action by the FDA.</t>
+  </si>
+  <si>
+    <t>A molecule with this structure was used by James Stoddart to create artificial “molecule muscles” that mimic the actions of myosin and actin. For 10 points each:
+[10h] Name this mechanically interlocked architecture that consists of a dumbbell-shaped molecule threaded through a macrocycle. Molecules with this structure can be synthesized through clipping, capping, slipping, and snapping.
+ANSWER: rotaxanes
+[10m] This effect is why the inner thread of a rotaxane is stable. This effect is also why the bulkier tert-butyl bromide is more likely than methyl bromide to undergo an SN1 reaction.
+ANSWER: steric hindrance [or steric effects]
+[10e] Recent applications of rotaxanes have involved using them as nanovalves to deliver these compounds into the human body. These compounds may be classified by their mechanism of action or mode of action by the FDA.
+ANSWER: drugs</t>
+  </si>
+  <si>
+    <t>Some zinc-containing batteries use an unusual tetroxide of this element containing cations in the plus-one and plus-three oxidation states. For 10 points each:
+[10m] Name this element whose plus-one cation is central in a diamine complex that precipitates out upon acting as an oxidizing agent. This element’s nitrate is used as a test for chloride ions.</t>
+  </si>
+  <si>
+    <t>[10e] The formation of a “silver mirror” is a positive result in Tollens’ test, which distinguishes types of this functional group defined by a C–O double bond.</t>
+  </si>
+  <si>
+    <t>[10h] Silver(I) (“silver one”) catalysts are a common choice for this reaction that starts with a diazoketone. This reaction’s ketene intermediate can undergo a two-plus-two cycloaddition to form a four-membered ring.</t>
+  </si>
+  <si>
+    <t>Some zinc-containing batteries use an unusual tetroxide of this element containing cations in the plus-one and plus-three oxidation states. For 10 points each:
+[10m] Name this element whose plus-one cation is central in a diamine complex that precipitates out upon acting as an oxidizing agent. This element’s nitrate is used as a test for chloride ions.
+ANSWER: silver [or Ag]
+[10e] The formation of a “silver mirror” is a positive result in Tollens’ test, which distinguishes types of this functional group defined by a C–O double bond.
+ANSWER: carbonyl [accept aldehyde or ketone]
+[10h] Silver(I) (“silver one”) catalysts are a common choice for this reaction that starts with a diazoketone. This reaction’s ketene intermediate can undergo a two-plus-two cycloaddition to form a four-membered ring.
+ANSWER: Wolff rearrangement</t>
+  </si>
+  <si>
+    <t>Pierre-Gilles de Gennes’s (“pee-air ZHEEL duh zhen’s”) 1991 Nobel Prize-winning work studied order phenomena in materials described by this adjective. For 10 points each:
+[10m] Give this adjective that describes entropy-dominated materials that readily deform, such as polymers and gels. Low-energy ionization in mass spectrometry, such as electrospray, is described by this adjective.</t>
+  </si>
+  <si>
+    <t>[10e] Soft matter includes these materials, with which de Genne worked. These materials consist of parallel-aligned rods and are used in namesake electronic displays.</t>
+  </si>
+  <si>
+    <t>[10h] A hallmark property of some soft matter is the ability to undergo this process, which underlies “4D printing” and can be “template-guided.” Gold nanoparticles undergo this process due to the formation of metallophilic bonds.</t>
+  </si>
+  <si>
+    <t>Pierre-Gilles de Gennes’s (“pee-air ZHEEL duh zhen’s”) 1991 Nobel Prize-winning work studied order phenomena in materials described by this adjective. For 10 points each:
+[10m] Give this adjective that describes entropy-dominated materials that readily deform, such as polymers and gels. Low-energy ionization in mass spectrometry, such as electrospray, is described by this adjective.
+ANSWER: soft [accept soft ionization or soft matter or soft condensed matter]
+[10e] Soft matter includes these materials, with which de Genne worked. These materials consist of parallel-aligned rods and are used in namesake electronic displays.
+ANSWER: liquid crystals [or LC; accept liquid crystal displays or LCDs]
+[10h] A hallmark property of some soft matter is the ability to undergo this process, which underlies “4D printing” and can be “template-guided.” Gold nanoparticles undergo this process due to the formation of metallophilic bonds.
+ANSWER: self-assembly</t>
+  </si>
+  <si>
+    <t>Liberty Blue and Liberty Prime are two instruments produced by CEM that enable the synthesis of molecules in this fashion, starting with reagents named Wang or Rank Amide. For 10 points each:
+[10h] Name this form of synthesis that underpins “split and pool” synthesis. Peptides synthesized in this manner are immediately treated afterwards with a cocktail of 95-percent TFA supplemented with TIS and DODT.</t>
+  </si>
+  <si>
+    <t>[10m] The aforementioned cocktail is used to remove the final products from the resin and to remove these modifications. The compounds Fmoc (“F-mock”) and Boc (“bock”) are used as these modifications.</t>
+  </si>
+  <si>
+    <t>[10e] Each round of solid-phase peptide synthesis begins with the removal of Fmoc by adding one of these compounds while leaving Boc and Trt untouched. These compounds form solutions with a high pH.</t>
+  </si>
+  <si>
+    <t>Liberty Blue and Liberty Prime are two instruments produced by CEM that enable the synthesis of molecules in this fashion, starting with reagents named Wang or Rank Amide. For 10 points each:
+[10h] Name this form of synthesis that underpins “split and pool” synthesis. Peptides synthesized in this manner are immediately treated afterwards with a cocktail of 95-percent TFA supplemented with TIS and DODT.
+ANSWER: solid-phase synthesis [accept on-resin synthesis; accept solid-phase peptide synthesis or on-resin peptide synthesis]
+[10m] The aforementioned cocktail is used to remove the final products from the resin and to remove these modifications. The compounds Fmoc (“F-mock”) and Boc (“bock”) are used as these modifications.
+ANSWER: protecting groups [or protective groups]
+[10e] Each round of solid-phase peptide synthesis begins with the removal of Fmoc by adding one of these compounds while leaving Boc and Trt untouched. These compounds form solutions with a high pH.
+ANSWER: bases</t>
+  </si>
+  <si>
+    <t>The movement of compounds with this property from groundwater into buildings is the most common form of vapor intrusion. For 10 points each:
+[10e] Name this property of compounds that readily vaporize. This property names a class of hazardous “organic compounds” found in paints and perfumes.</t>
+  </si>
+  <si>
+    <t>[10h] This naturally produced compound comprises the majority of VOCs emitted by plants. In biological systems, DMAPP is a precursor to derivatives of this compound.</t>
+  </si>
+  <si>
+    <t>[10m] Ozonolysis of VOCs can form this carcinogen, “releasers” of which have been controversial in the cosmetics industry. This chemically-simple preservative cross-links DNA and proteins in a classic example of chemical fixation.</t>
+  </si>
+  <si>
+    <t>The movement of compounds with this property from groundwater into buildings is the most common form of vapor intrusion. For 10 points each:
+[10e] Name this property of compounds that readily vaporize. This property names a class of hazardous “organic compounds” found in paints and perfumes.
+ANSWER: volatility [or volatile; accept volatile organic compounds]
+[10h] This naturally produced compound comprises the majority of VOCs emitted by plants. In biological systems, DMAPP is a precursor to derivatives of this compound.
+ANSWER: isoprene [accept terpenes; accept isoprenoids or terpenoids]
+[10m] Ozonolysis of VOCs can form this carcinogen, “releasers” of which have been controversial in the cosmetics industry. This chemically-simple preservative cross-links DNA and proteins in a classic example of chemical fixation.
+ANSWER: formaldehyde</t>
+  </si>
+  <si>
+    <t>Incomplete measurements from CCDs in this technique can lead to a loss of information called the “phase problem.” For 10 points each:
+[10e] Name this technique that uses low-wavelength light to probe lattice structures. Rosalind Franklin used this technique to determine the structure of DNA.</t>
+  </si>
+  <si>
+    <t>[10m] X-ray crystallography is limited in scale by the diffraction limit for this quantity usually measured in angstroms. A coefficient of 1.22 appears in the Rayleigh criterion for this quantity.</t>
+  </si>
+  <si>
+    <t>[10h] Molecular modelling using X-ray crystallography uses this quantity defined by summing differences in structure factors over all reflections. A “free” form of this quantity is usually one tenth the resolution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomplete measurements from CCDs in this technique can lead to a loss of information called the “phase problem.” For 10 points each:
+[10e] Name this technique that uses low-wavelength light to probe lattice structures. Rosalind Franklin used this technique to determine the structure of DNA.
+ANSWER: X-ray crystallography [or X-ray diffraction or XRD]
+[10m] X-ray crystallography is limited in scale by the diffraction limit for this quantity usually measured in angstroms. A coefficient of 1.22 appears in the Rayleigh criterion for this quantity.
+ANSWER: resolution [accept angular resolution; accept resolving power; prompt on angle]
+[10h] Molecular modelling using X-ray crystallography uses this quantity defined by summing differences in structure factors over all reflections. A “free” form of this quantity is usually one tenth the resolution.
+ANSWER: R-factor </t>
+  </si>
+  <si>
+    <t>Popular open-source firmware suites for this functionality include Paparazzi, PX4, and one prefixed “Ardu.” For 10 points each:
+[10h] Name this functionality provided by firmwares that use the MAVLink protocol to communicate with tools like Mission Planner on ground control stations. Firmware for this functionality must work in many configurations, such as VTOL (“V-toll”).</t>
+  </si>
+  <si>
+    <t>[10m] A PixHawk standard named for this word dictates how flight controllers should interface with base board hardware. This word follows “Universal Serial” in the name of devices often compatible with Thunderbolt ports.</t>
+  </si>
+  <si>
+    <t>[10e] Flight controllers often use measurement units described by this term that contain accelerometers and gyroscopes. This term refers to an object’s tendency to maintain its current motion in the absence of external forces.</t>
+  </si>
+  <si>
+    <t>Popular open-source firmware suites for this functionality include Paparazzi, PX4, and one prefixed “Ardu.” For 10 points each:
+[10h] Name this functionality provided by firmwares that use the MAVLink protocol to communicate with tools like Mission Planner on ground control stations. Firmware for this functionality must work in many configurations, such as VTOL (“V-toll”).
+ANSWER: autopilots [accept flight controllers or flight control software; accept flight management; accept UAV controllers; accept flying aircraft, planes, UAVs, drones, or autonomous vehicles; accept piloting aircraft, planes, UAVs, drones, or autonomous vehicles; prompt on ArduPilot; prompt on flying or piloting; prompt on actuation by asking “for what purpose?”]
+[10m] A PixHawk standard named for this word dictates how flight controllers should interface with base board hardware. This word follows “Universal Serial” in the name of devices often compatible with Thunderbolt ports.
+ANSWER: bus [accept Universal Serial Bus]
+[10e] Flight controllers often use measurement units described by this term that contain accelerometers and gyroscopes. This term refers to an object’s tendency to maintain its current motion in the absence of external forces.
+ANSWER: inertia</t>
+  </si>
+  <si>
+    <t>Enhanced color images from the Ralph MVIC instrument show a large red area thought to be an impact crater on this object. For 10 points each:
+[10h] Name this object that James Christy discovered from observing a time-varying bulge at the Naval Observatory Flagstaff Station. This astronomical object contains the Kubrick Mons.</t>
+  </si>
+  <si>
+    <t>[10m] Charon and the other moons of Pluto were first imaged by this probe that contains the Ralph instrument. This probe launched in 2006 is expected to exit the Kuiper Belt in 2029.</t>
+  </si>
+  <si>
+    <t>[10e] The LEISA instrument aboard New Horizons determined that Pluto’s value of this quantity was due to surface ice. Enceladus has the highest value of this quantity in the solar system since its surface reflects nearly all light.</t>
+  </si>
+  <si>
+    <t>Enhanced color images from the Ralph MVIC instrument show a large red area thought to be an impact crater on this object. For 10 points each:
+[10h] Name this object that James Christy discovered from observing a time-varying bulge at the Naval Observatory Flagstaff Station. This astronomical object contains the Kubrick Mons.
+ANSWER: Charon [or (134340) Pluto I; reject “Pluto”]
+[10m] Charon and the other moons of Pluto were first imaged by this probe that contains the Ralph instrument. This probe launched in 2006 is expected to exit the Kuiper Belt in 2029.
+ANSWER: New Horizons
+[10e] The LEISA instrument aboard New Horizons determined that Pluto’s value of this quantity was due to surface ice. Enceladus has the highest value of this quantity in the solar system since its surface reflects nearly all light.
+ANSWER: albedo</t>
+  </si>
+  <si>
+    <t>Answer the following about difficulties that arise when adding two random variables, for 10 points each.
+[10m] If they are independent and each has a density, the density of their sum equals this operation of their densities. For functions f and g, this operation is denoted “f star g” and defined via an integral of their shifted product.</t>
+  </si>
+  <si>
+    <t>[10e] Conveniently, this quantity is linear under any dependence between the random variables. This quantity, which is a distribution’s first moment, is typically denoted “mu” or “X-bar.”</t>
+  </si>
+  <si>
+    <t>[10h] To the bane of many intro probability students, variance is not linear in general. For arbitrary random variables X and Y, the variance of “X plus Y” equals the variance of X, plus the variance of Y, plus what expression?</t>
+  </si>
+  <si>
+    <t>Answer the following about difficulties that arise when adding two random variables, for 10 points each.
+[10m] If they are independent and each has a density, the density of their sum equals this operation of their densities. For functions f and g, this operation is denoted “f star g” and defined via an integral of their shifted product.
+ANSWER: convolution [or word forms like convolve]
+[10e] Conveniently, this quantity is linear under any dependence between the random variables. This quantity, which is a distribution’s first moment, is typically denoted “mu” or “X-bar.”
+ANSWER: expected value [or EV; accept expectation value; accept arithmetic mean or average]
+[10h] To the bane of many intro probability students, variance is not linear in general. For arbitrary random variables X and Y, the variance of “X plus Y” equals the variance of X, plus the variance of Y, plus what expression?
+ANSWER: two times the covariance of X and Y</t>
+  </si>
+  <si>
+    <t>This natural phenomenon causes an increase in earthquake frequency as a consequence of Mohr–Coulomb theory. For 10 points each:
+[10h] Name this phenomenon that creates forebulges due to elastic lateral stress on the lithosphere. The Arun River’s contribution to this phenomenon has been hypothesized to affect Mount Everest’s height.</t>
+  </si>
+  <si>
+    <t>[10m] The mechanism of isostatic rebound occurs due to pressure from this layer. This layer forms a low-velocity zone for seismic waves and causes seafloor spreading.</t>
+  </si>
+  <si>
+    <t>[10e] Measurements of this quantity account for gravitational variations from isostatic rebound. Global warming has caused a several-inch increase in this quantity over the past century, some of which is from melting glaciers.</t>
+  </si>
+  <si>
+    <t>This natural phenomenon causes an increase in earthquake frequency as a consequence of Mohr–Coulomb theory. For 10 points each:
+[10h] Name this phenomenon that creates forebulges due to elastic lateral stress on the lithosphere. The Arun River’s contribution to this phenomenon has been hypothesized to affect Mount Everest’s height.
+ANSWER: isostatic rebound [or post-glacial rebound; prompt on rebound; prompt on glacial isostasy or glacial isostatic adjustment]
+[10m] The mechanism of isostatic rebound occurs due to pressure from this layer. This layer forms a low-velocity zone for seismic waves and causes seafloor spreading.
+ANSWER: asthenosphere [prompt on mantle]
+[10e] Measurements of this quantity account for gravitational variations from isostatic rebound. Global warming has caused a several-inch increase in this quantity over the past century, some of which is from melting glaciers.
+ANSWER: mean sea level [or MSL]</t>
+  </si>
+  <si>
+    <t>The B2FH paper supported Fred Hoyle’s hypothesis that all elements heavier than this element were not formed through BBN. For 10 points each:
+[10h] Name this element that is proposed to sink beneath a star’s atmosphere over time, thus increasing the rate of turbulent mixing. This element is the heaviest whose distribution is depicted on the Schramm plot.</t>
+  </si>
+  <si>
+    <t>[10e] The brown type of these stars can be identified via the relative abundance of lithium. The white type of these low-mass stars forms after sun-like stars run out of fuel.</t>
+  </si>
+  <si>
+    <t>[10m] A major source of lithium is the “classical” type of these phenomena, which are about 1,000 times brighter than their “recurrent” type. The “dwarf” type of these phenomena necessarily occurs [emphasize] below the Chandrasekhar limit.</t>
+  </si>
+  <si>
+    <t>The B2FH paper supported Fred Hoyle’s hypothesis that all elements heavier than this element were not formed through BBN. For 10 points each:
+[10h] Name this element that is proposed to sink beneath a star’s atmosphere over time, thus increasing the rate of turbulent mixing. This element is the heaviest whose distribution is depicted on the Schramm plot.
+ANSWER: lithium [or Li; accept lithium-7 or Li-7]
+[10e] The brown type of these stars can be identified via the relative abundance of lithium. The white type of these low-mass stars forms after sun-like stars run out of fuel.
+ANSWER: dwarf stars [accept brown dwarfs or white dwarfs]
+[10m] A major source of lithium is the “classical” type of these phenomena, which are about 1,000 times brighter than their “recurrent” type. The “dwarf” type of these phenomena necessarily occurs [emphasize] below the Chandrasekhar limit.
+ANSWER: novae</t>
+  </si>
+  <si>
+    <t>When discussing this phenomenon, the textbook Model Selection and Model Averaging rhetorically asks “Is the monkey who typed Hamlet actually a good writer?” For 10 points each:
+[10m] Name this phenomenon in machine learning that can be prevented using k-fold cross-validation and regularization.</t>
+  </si>
+  <si>
+    <t>[10h] This technique can prevent overfitting in neural networks by introducing a layer that randomly “shuts off” some incoming units by setting their weights to zero.</t>
+  </si>
+  <si>
+    <t>[10e] The patent for dropout is owned by this company that maintains the TensorFlow library. In 2024, this company introduced “AI overview” to supplement its PageRank algorithm.</t>
+  </si>
+  <si>
+    <t>When discussing this phenomenon, the textbook Model Selection and Model Averaging rhetorically asks “Is the monkey who typed Hamlet actually a good writer?” For 10 points each:
+[10m] Name this phenomenon in machine learning that can be prevented using k-fold cross-validation and regularization.
+ANSWER: overfitting [or overtraining]
+[10h] This technique can prevent overfitting in neural networks by introducing a layer that randomly “shuts off” some incoming units by setting their weights to zero.
+ANSWER: dropout [prompt on dilution]
+[10e] The patent for dropout is owned by this company that maintains the TensorFlow library. In 2024, this company introduced “AI overview” to supplement its PageRank algorithm.
+ANSWER: Google [accept Alphabet]</t>
+  </si>
+  <si>
+    <t>A 2024 paper by Schleussner et al. contrasts a “peak and decline” pathway involving this phenomenon with one involving “enhanced protection” that eventually descends back below a desired limit. For 10 points each:
+[10h] Name this phenomenon in which temperatures will exceed the 1.5-degree global warming goal set in the 2015 Paris Agreement.</t>
+  </si>
+  <si>
+    <t>[10m] Failing to meet a peak and decline pathway will result in “continued long-term warming” due to one of these processes. These general processes include ones named for Jacob Bjerknes (“BYURK-niss”).</t>
+  </si>
+  <si>
+    <t>[10e] The paper models climate outcomes in the “long-term state” and a warming phase that is called “pre-” this goal. This goal involves removing one ton of greenhouse gases for every ton emitted.</t>
+  </si>
+  <si>
+    <t>A 2024 paper by Schleussner et al. contrasts a “peak and decline” pathway involving this phenomenon with one involving “enhanced protection” that eventually descends back below a desired limit. For 10 points each:
+[10h] Name this phenomenon in which temperatures will exceed the 1.5-degree global warming goal set in the 2015 Paris Agreement.
+ANSWER: overshoot [or climate overshoot]
+[10m] Failing to meet a peak and decline pathway will result in “continued long-term warming” due to one of these processes. These general processes include ones named for Jacob Bjerknes (“BYURK-niss”).
+ANSWER: feedbacks [or feedback mechanisms; or feedback loops; or Earth-system feedbacks; or positive feedback loops; accept climate change feedbacks or ice–albedo feedback or Bjerknes feedback]
+[10e] The paper models climate outcomes in the “long-term state” and a warming phase that is called “pre-” this goal. This goal involves removing one ton of greenhouse gases for every ton emitted.
+ANSWER: net-zero</t>
+  </si>
+  <si>
+    <t>Answer the following about the construction of the p-adic numbers, for 10 points each.
+[10e] The p-adic numbers can be formally defined as one of these constructs expressed using a rational times all powers of p. Taylor and Maclaurin name examples of these expansions used to represent smooth functions.</t>
+  </si>
+  <si>
+    <t>[10m] Under the p-adic norm, the p-adics are a completion of the rationals, meaning that each of these sequences converges to a limit in the set. In one of these sequences, all terms past a certain point become arbitrarily close.</t>
+  </si>
+  <si>
+    <t>[10h] To obtain other completions in the field of fractions, one can localize a type of integral domain named for this mathematician. A construction named for this mathematician partitions the rationals into “left” and “right” sets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer the following about the construction of the p-adic numbers, for 10 points each.
+[10e] The p-adic numbers can be formally defined as one of these constructs expressed using a rational times all powers of p. Taylor and Maclaurin name examples of these expansions used to represent smooth functions.
+ANSWER: power series [accept formal series; prompt on infinite summation]
+[10m] Under the p-adic norm, the p-adics are a completion of the rationals, meaning that each of these sequences converges to a limit in the set. In one of these sequences, all terms past a certain point become arbitrarily close.
+ANSWER: Cauchy (“KO-shee”) sequences
+[10h] To obtain other completions in the field of fractions, one can localize a type of integral domain named for this mathematician. A construction named for this mathematician partitions the rationals into “left” and “right” sets.
+ANSWER: Richard Dedekind </t>
+  </si>
+  <si>
+    <t>Alan Turing’s final publication concerns some numerical approximations for solving this problem, which he had earlier cited as a “number theoretic theorem” in his Ph.D. thesis. For 10 points each:
+[10e] Name this unsolved problem that asserts that the real part of every non-trivial zero of the zeta function is one-half.</t>
+  </si>
+  <si>
+    <t>[10m] The Riemann hypothesis is computationally equivalent to a Turing machine with 29 of these things halting. The input of the Busy Beaver function is the number of these things, which are denoted Q in the definition of a DFA.</t>
+  </si>
+  <si>
+    <t>[10h] The equivalence arises from the DPRM theorem, which asserts that functions with this property can be written as Diophantine equations. Languages with this property are type 0 in Chomsky’s hierarchy, opposite regular languages at type 3.</t>
+  </si>
+  <si>
+    <t>Alan Turing’s final publication concerns some numerical approximations for solving this problem, which he had earlier cited as a “number theoretic theorem” in his Ph.D. thesis. For 10 points each:
+[10e] Name this unsolved problem that asserts that the real part of every non-trivial zero of the zeta function is one-half.
+ANSWER: Riemann hypothesis [or RH]
+[10m] The Riemann hypothesis is computationally equivalent to a Turing machine with 29 of these things halting. The input of the Busy Beaver function is the number of these things, which are denoted Q in the definition of a DFA.
+ANSWER: states [or automaton states]
+[10h] The equivalence arises from the DPRM theorem, which asserts that functions with this property can be written as Diophantine equations. Languages with this property are type 0 in Chomsky’s hierarchy, opposite regular languages at type 3.
+ANSWER: recursively enumerable [reject “recursive”]</t>
+  </si>
+  <si>
+    <t>Early versions of Linux used the “round-robin” system for performing this task on processes before later versions switched to a constant-time system. For 10 points each:
+[10m] Name this task that dictates how CPU time is allocated among a computer’s processes. In general, this task aims to maximize throughput and minimize latency and resource starvation.</t>
+  </si>
+  <si>
+    <t>[10e] For system processes, scheduling is done by this component of the operating system that performs system calls. This component is so named because it is the “core” of the operating system.</t>
+  </si>
+  <si>
+    <t>[10h] Some scheduling algorithms use this quantity that lets users manually adjust the priority of a process. In Linux, a maximal value of 19 for this quantity means that a process will only run if no other process wishes to.</t>
+  </si>
+  <si>
+    <t>Early versions of Linux used the “round-robin” system for performing this task on processes before later versions switched to a constant-time system. For 10 points each:
+[10m] Name this task that dictates how CPU time is allocated among a computer’s processes. In general, this task aims to maximize throughput and minimize latency and resource starvation.
+ANSWER: scheduling [accept word forms such as schedule]
+[10e] For system processes, scheduling is done by this component of the operating system that performs system calls. This component is so named because it is the “core” of the operating system.
+ANSWER: kernel
+[10h] Some scheduling algorithms use this quantity that lets users manually adjust the priority of a process. In Linux, a maximal value of 19 for this quantity means that a process will only run if no other process wishes to.
+ANSWER: niceness</t>
+  </si>
+  <si>
+    <t>This process occurs in response to effective stress according to Terzaghi’s theory of it. For 10 points each:
+[10h] Give the general term for the process whereby soil changes in volume due to pressure. Soil undergoing this process via cycles of compaction and swelling is often modeled as an idealized spring.</t>
+  </si>
+  <si>
+    <t>[10e] Soil compaction undesirably decreases infiltration capacity and increases the frequency of this process in which excess water flows overground, possibly leading to soil erosion.</t>
+  </si>
+  <si>
+    <t>[10m] Since consolidation changes a soil’s volume without affecting its other properties, it also changes the soil’s value for this quantity, the percentage of its total volume that consists of “empty” space.</t>
+  </si>
+  <si>
+    <t>This process occurs in response to effective stress according to Terzaghi’s theory of it. For 10 points each:
+[10h] Give the general term for the process whereby soil changes in volume due to pressure. Soil undergoing this process via cycles of compaction and swelling is often modeled as an idealized spring.
+ANSWER: soil consolidation [accept word forms such as consolidate]
+[10e] Soil compaction undesirably decreases infiltration capacity and increases the frequency of this process in which excess water flows overground, possibly leading to soil erosion.
+ANSWER: surface runoff
+[10m] Since consolidation changes a soil’s volume without affecting its other properties, it also changes the soil’s value for this quantity, the percentage of its total volume that consists of “empty” space.
+ANSWER: porosity [or void fraction; prompt on phi]</t>
+  </si>
+  <si>
+    <t>The Box–Jenkins method can be used to select the parameters of an ARIMA (“uh-REE-muh”) model for data indexed by this variable. For 10 points each:
+[10e] Name this variable plotted on the x-axis of namesake “series” of data. Stochastic processes like Brownian motion and stock market returns are often indexed by this variable.</t>
+  </si>
+  <si>
+    <t>[10h] The Box–Jenkins method uses a variant of correlation denoted by this adjective, which first regresses off data at shorter lags. Similarly, this adjective denotes a regression diagnostics method that plots the response against the added variable, after regressing off all other variables.</t>
+  </si>
+  <si>
+    <t>[10m] An early step of the Box–Jenkins method is to transform or apply differencing to better attain this property. A time series with this property has the same joint probability at any point in time.</t>
+  </si>
+  <si>
+    <t>The Box–Jenkins method can be used to select the parameters of an ARIMA (“uh-REE-muh”) model for data indexed by this variable. For 10 points each:
+[10e] Name this variable plotted on the x-axis of namesake “series” of data. Stochastic processes like Brownian motion and stock market returns are often indexed by this variable.
+ANSWER: time [prompt on t]
+[10h] The Box–Jenkins method uses a variant of correlation denoted by this adjective, which first regresses off data at shorter lags. Similarly, this adjective denotes a regression diagnostics method that plots the response against the added variable, after regressing off all other variables.
+ANSWER: partial [accept partial correlation or partial autocorrelation function; accept partial regression]
+[10m] An early step of the Box–Jenkins method is to transform or apply differencing to better attain this property. A time series with this property has the same joint probability at any point in time.
+ANSWER: stationary [or stationarity]</t>
+  </si>
+  <si>
+    <t>Answer the following about the intersection between algebraic topology and breakfast foods, for 10 points each.
+[10e] A common joke holds that a coffee mug is the same as this surface since they are homeomorphic. Donuts and bagels are shaped like this surface.</t>
+  </si>
+  <si>
+    <t>[10h] This type of map is often visualized as flattening a stack of pancakes, the union of which is the preimage of a neighborhood in the base. Up to equivalence, a simply connected space has only one of these maps.</t>
+  </si>
+  <si>
+    <t>[10m] The Borsuk–Ulam theorem gives an algebraic topology proof of the ham sandwich theorem, which concerns one of these subspaces that “cuts” n objects in half. These affine subspaces have dimension one less than the full space and generalize a two-dimensional analog.</t>
+  </si>
+  <si>
+    <t>Answer the following about the intersection between algebraic topology and breakfast foods, for 10 points each.
+[10e] A common joke holds that a coffee mug is the same as this surface since they are homeomorphic. Donuts and bagels are shaped like this surface.
+ANSWER: torus [or tori; accept S-one cross S-one]
+[10h] This type of map is often visualized as flattening a stack of pancakes, the union of which is the preimage of a neighborhood in the base. Up to equivalence, a simply connected space has only one of these maps.
+ANSWER: covering maps [or covers; accept covering projections or covering spaces; accept universal covers]
+[10m] The Borsuk–Ulam theorem gives an algebraic topology proof of the ham sandwich theorem, which concerns one of these subspaces that “cuts” n objects in half. These affine subspaces have dimension one less than the full space and generalize a two-dimensional analog.
+ANSWER: hyperplanes</t>
+  </si>
+  <si>
+    <t>Quillen’s “small object” argument uses a variant of this procedure to construct a factorization of morphisms into two terms. For 10 points each:
+[10h] Name this procedure that requires a well-ordered set and the axiom of choice. This procedure involves verifying a “successor case” and a “limit case” to show that a property “P of alpha” is true for all alpha.</t>
+  </si>
+  <si>
+    <t>[10m] Gerhard Gentzen used transfinite induction up to a particular ordinal in his consistency proof for this set of statements. An Italian mathematician names these statements that define the natural numbers.</t>
+  </si>
+  <si>
+    <t>[10e] Transfinite recursion can be used to construct a “universe” of well-founded sets named for this polymath. This Hungarian-born “father of game theory” wrote Mathematical Foundations of Quantum Mechanics.</t>
+  </si>
+  <si>
+    <t>Quillen’s “small object” argument uses a variant of this procedure to construct a factorization of morphisms into two terms. For 10 points each:
+[10h] Name this procedure that requires a well-ordered set and the axiom of choice. This procedure involves verifying a “successor case” and a “limit case” to show that a property “P of alpha” is true for all alpha.
+ANSWER: transfinite induction [accept transfinite recursion; prompt on induction or recursion]
+[10m] Gerhard Gentzen used transfinite induction up to a particular ordinal in his consistency proof for this set of statements. An Italian mathematician names these statements that define the natural numbers.
+ANSWER: Peano axioms [or Peano postulates; or Dedekind–Peano axioms; or Dedekind–Peano postulates; accept “Peano’s” in place of “Peano”]
+[10e] Transfinite recursion can be used to construct a “universe” of well-founded sets named for this polymath. This Hungarian-born “father of game theory” wrote Mathematical Foundations of Quantum Mechanics.
+ANSWER: John von Neumann [or Neumann János]</t>
+  </si>
+  <si>
+    <t>Note to moderator: Review the pronunciation of the first answerline when judging. The burstsort algorithm uses dynamic arrays and these data structures to achieve cache-aware sorting. For 10 points each:
+[10h] Name these data structures whose memory-optimized form can be used to implement radix sort. Bitwise implementations of these data structures can be optimized into their “x-fast” and “y-fast” forms.</t>
+  </si>
+  <si>
+    <t>[10e] Tries (“try’s”) commonly use prefixes of these data types as keys, which can then be parsed in search engines. In C, these data types are defined as null-terminated arrays of characters.</t>
+  </si>
+  <si>
+    <t>[10m] A trie (“try”) is the output of this efficient greedy algorithm for lossless compression in which more frequently-accessed strings correspond to shorter prefix codes.</t>
+  </si>
+  <si>
+    <t>The burstsort algorithm uses dynamic arrays and these data structures to achieve cache-aware sorting. For 10 points each:
+[10h] Name these data structures whose memory-optimized form can be used to implement radix sort. Bitwise implementations of these data structures can be optimized into their “x-fast” and “y-fast” forms.
+ANSWER: trie (“try”) [or tries; or prefix trees; prompt on search trees]
+[10e] Tries (“try’s”) commonly use prefixes of these data types as keys, which can then be parsed in search engines. In C, these data types are defined as null-terminated arrays of characters.
+ANSWER: strings [prompt on words or text]
+[10m] A trie (“try”) is the output of this efficient greedy algorithm for lossless compression in which more frequently-accessed strings correspond to shorter prefix codes.
+ANSWER: Huffman coding</t>
+  </si>
+  <si>
+    <t>A 1998 paper by Kolb et al. proposed a high-energy form of these particles with the suffix “zilla” whose abstract ends with the claim that “size does matter.” For 10 points each:
+[10h] Name these particles that have interaction cross-sections of less than 10-to-the-negative-5 inverse-square GeV. Supersymmetric extensions readily predict the existence of these particles, called their namesake “miracle.”</t>
+  </si>
+  <si>
+    <t>[10m] WIMPs are thought to exist in these structures described in simulations by the NFW profile. Simulations of these structures that surround galaxies form “cuspy” density profiles instead of “cores.”</t>
+  </si>
+  <si>
+    <t>[10e] Attempts at indirect detection of WIMPs by the Alpha Magnetic Spectrometer search for these particles. These extrasolar particles propagate near the speed of light and consist primarily of protons and alpha nuclei.</t>
+  </si>
+  <si>
+    <t>A 1998 paper by Kolb et al. proposed a high-energy form of these particles with the suffix “zilla” whose abstract ends with the claim that “size does matter.” For 10 points each:
+[10h] Name these particles that have interaction cross-sections of less than 10-to-the-negative-5 inverse-square GeV. Supersymmetric extensions readily predict the existence of these particles, called their namesake “miracle.”
+ANSWER: WIMPs [or weakly interacting massive particles; accept WIMPzillas; prompt on dark matter]
+[10m] WIMPs are thought to exist in these structures described in simulations by the NFW profile. Simulations of these structures that surround galaxies form “cuspy” density profiles instead of “cores.”
+ANSWER: dark matter halos
+[10e] Attempts at indirect detection of WIMPs by the Alpha Magnetic Spectrometer search for these particles. These extrasolar particles propagate near the speed of light and consist primarily of protons and alpha nuclei.
+ANSWER: cosmic rays</t>
+  </si>
+  <si>
+    <t>Brian Cantor led a team that developed one of these materials consisting of an equal mixture of five first row transition metals. For 10 points each:
+[10e] Name these materials said to be “high-entropy” or “multi-component” when they contain at least five different metals. More common two-component examples of these materials include bronze.</t>
+  </si>
+  <si>
+    <t>[10h] The Cantor alloy undergoes a phase separation into metallic and intermetallic phases, an example of a decomposition described by this term. The zero set of the second derivative of Gibbs free energy with respect to composition percentage defines a curve described by this term.</t>
+  </si>
+  <si>
+    <t>[10m] The “sluggish diffusion” effect in high-entropy alloys results from unequal lattice potential energies around the “vacancy” type of these sites. Other types of these sites may be classified as “substitutional” or “interstitial.”</t>
+  </si>
+  <si>
+    <t>Brian Cantor led a team that developed one of these materials consisting of an equal mixture of five first row transition metals. For 10 points each:
+[10e] Name these materials said to be “high-entropy” or “multi-component” when they contain at least five different metals. More common two-component examples of these materials include bronze.
+ANSWER: alloys [accept high-entropy alloys or multi-component alloys]
+[10h] The Cantor alloy undergoes a phase separation into metallic and intermetallic phases, an example of a decomposition described by this term. The zero set of the second derivative of Gibbs free energy with respect to composition percentage defines a curve described by this term.
+ANSWER: spinodal [accept spinodal decomposition or spinodal curve]
+[10m] The “sluggish diffusion” effect in high-entropy alloys results from unequal lattice potential energies around the “vacancy” type of these sites. Other types of these sites may be classified as “substitutional” or “interstitial.”
+ANSWER: point defects</t>
+  </si>
+  <si>
+    <t>A consequence of this principle used in antenna engineering states that the product of input impedances of metal and slot pieces equals the square of intrinsic impedance over four. For 10 points each:
+[10h] Name this principle that states the pattern formed from an opaque body can be reformulated as a hole of the same size and shape, but with a different beam intensity.</t>
+  </si>
+  <si>
+    <t>[10e] Babinet’s principle concerns the patterns formed by this phenomenon in which light bends around an obstacle.</t>
+  </si>
+  <si>
+    <t>[10m] Babinet’s principle is formulated for scalar fields using this physicist’s diffraction formula, from which the Huygens–Fresnel (“HIGH-guns fren-EL”) principle is derived. This physicist described the spectra of gases in his three laws of spectroscopy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A consequence of this principle used in antenna engineering states that the product of input impedances of metal and slot pieces equals the square of intrinsic impedance over four. For 10 points each:
+[10h] Name this principle that states the pattern formed from an opaque body can be reformulated as a hole of the same size and shape, but with a different beam intensity.
+ANSWER: Babinet’s (“bab-in-AY’s”) principle
+[10e] Babinet’s principle concerns the patterns formed by this phenomenon in which light bends around an obstacle.
+ANSWER: diffraction [accept diffraction patterns]
+[10m] Babinet’s principle is formulated for scalar fields using this physicist’s diffraction formula, from which the Huygens–Fresnel (“HIGH-guns fren-EL”) principle is derived. This physicist described the spectra of gases in his three laws of spectroscopy.
+ANSWER: Gustav Kirchhoff </t>
+  </si>
+  <si>
+    <t>In a bipolar junction transistor, this process can be set using voltage dividers or emitter resistors. For 10 points each:
+[10m] Name this process that defines the operating point of an electrical device. Band bending in p–n junctions can induce the “forward” or “reverse” types of this process.</t>
+  </si>
+  <si>
+    <t>[10e] Ideal instances of these electrical components have zero resistance in the forward bias polarity and infinite resistance in the reverse bias polarity, forcing current to only flow in one direction.</t>
+  </si>
+  <si>
+    <t>[10h] Crystal defects in diodes caused by transition metals can cause these undesirable energy states in the band gap. SRH recombination occurs when bands pass through these states that come in “shallow” and “deep” variants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a bipolar junction transistor, this process can be set using voltage dividers or emitter resistors. For 10 points each:
+[10m] Name this process that defines the operating point of an electrical device. Band bending in p–n junctions can induce the “forward” or “reverse” types of this process.
+ANSWER: biasing [accept forward bias or reverse bias]
+[10e] Ideal instances of these electrical components have zero resistance in the forward bias polarity and infinite resistance in the reverse bias polarity, forcing current to only flow in one direction.
+ANSWER: diodes
+[10h] Crystal defects in diodes caused by transition metals can cause these undesirable energy states in the band gap. SRH recombination occurs when bands pass through these states that come in “shallow” and “deep” variants.
+ANSWER: traps </t>
+  </si>
+  <si>
+    <t>This quantity is minimized when particle speeds follow a chi-square distribution with parameter k equals three. For 10 points each:
+[10h] Name this quantity whose dynamics cannot necessarily obey time-reversal symmetry, according to Loschmidt’s paradox. A result named for this quantity assumes the Stosszahlansatz (“SHTOHSS-zahl-AHN-zotts”) in its derivation.</t>
+  </si>
+  <si>
+    <t>[10e] Because a decrease in the quantity H corresponds to an increase in a system’s entropy, the H-theorem can be used to prove this statement which asserts that the entropy of a closed system increases over time.</t>
+  </si>
+  <si>
+    <t>[10m] Boltzmann’s H may slightly increase in finite systems due to these phenomena, the deviation of a quantity from its average value. A theorem in statistical physics corresponds these phenomena to dissipations.</t>
+  </si>
+  <si>
+    <t>This quantity is minimized when particle speeds follow a chi-square distribution with parameter k equals three. For 10 points each:
+[10h] Name this quantity whose dynamics cannot necessarily obey time-reversal symmetry, according to Loschmidt’s paradox. A result named for this quantity assumes the Stosszahlansatz (“SHTOHSS-zahl-AHN-zotts”) in its derivation.
+ANSWER: Boltzmann’s H [or Boltzmann’s eta; accept H-theorem or eta-theorem; reject “enthalpy”]
+[10e] Because a decrease in the quantity H corresponds to an increase in a system’s entropy, the H-theorem can be used to prove this statement which asserts that the entropy of a closed system increases over time.
+ANSWER: second law of thermodynamics [prompt on second law]
+[10m] Boltzmann’s H may slightly increase in finite systems due to these phenomena, the deviation of a quantity from its average value. A theorem in statistical physics corresponds these phenomena to dissipations.
+ANSWER: thermal fluctuations</t>
+  </si>
+  <si>
+    <t>One type of these events whose name arises from charged particles interacting in their own electric field results in trajectories that follow a hyperbolic Keplerian orbit. For 10 points each:
+[10m] Name these events that are assumed to be absent in diffuse, high temperature plasmas. The average distance between these events is much smaller than the length scale in plasmas where these events dominate.</t>
+  </si>
+  <si>
+    <t>[10e] Collisions in plasmas that occur through field interactions are named for this scientist. The inverse-square law for the electrostatic force between charge carriers is named for this scientist.</t>
+  </si>
+  <si>
+    <t>[10h] Time-evolution of collisional plasmas can be modelled using the Vlasov equation, which describes collisional plasmas, combined with this other equation also named for a Russian physicist, which incorporates Coulomb collisions.</t>
+  </si>
+  <si>
+    <t>One type of these events whose name arises from charged particles interacting in their own electric field results in trajectories that follow a hyperbolic Keplerian orbit. For 10 points each:
+[10m] Name these events that are assumed to be absent in diffuse, high temperature plasmas. The average distance between these events is much smaller than the length scale in plasmas where these events dominate.
+ANSWER: collisions [accept, but DO NOT REVEAL, Coulomb collisions]
+[10e] Collisions in plasmas that occur through field interactions are named for this scientist. The inverse-square law for the electrostatic force between charge carriers is named for this scientist.
+ANSWER: Charles-Augustin de Coulomb [accept Coulomb’s law or Coulomb collisions]
+[10h] Time-evolution of collisional plasmas can be modelled using the Vlasov equation, which describes collisional plasmas, combined with this other equation also named for a Russian physicist, which incorporates Coulomb collisions.
+ANSWER: Landau kinetic equation</t>
+  </si>
+  <si>
+    <t>The contracted Bianchi identity states that the sum of three applications of this operation to the Riemann tensor yields zero. For 10 points each:
+[10h] Name this operation denoted in index notation by a semicolon. The Levi–Civita (“LAY-vee CHEE-vee-ta”) connection is chosen so that this operation is zero when applied to the metric.</t>
+  </si>
+  <si>
+    <t>[10e] The contracted Bianchi identities state that the covariant derivative of a tensor named for this physicist is zero. This physicist’s namesake “field equations” are central to general relativity.</t>
+  </si>
+  <si>
+    <t>[10m] The Einstein tensor is defined as this tensor minus one-half the scalar curvature times the metric tensor. Contracting the first and third indices of the Riemann tensor produces this tensor.</t>
+  </si>
+  <si>
+    <t>The contracted Bianchi identity states that the sum of three applications of this operation to the Riemann tensor yields zero. For 10 points each:
+[10h] Name this operation denoted in index notation by a semicolon. The Levi–Civita (“LAY-vee CHEE-vee-ta”) connection is chosen so that this operation is zero when applied to the metric.
+ANSWER: covariant derivative [prompt on derivative; reject “directional derivative”]
+[10e] The contracted Bianchi identities state that the covariant derivative of a tensor named for this physicist is zero. This physicist’s namesake “field equations” are central to general relativity.
+ANSWER: Albert Einstein [accept Einstein field equations or Einstein tensor]
+[10m] The Einstein tensor is defined as this tensor minus one-half the scalar curvature times the metric tensor. Contracting the first and third indices of the Riemann tensor produces this tensor.
+ANSWER: Ricci tensor [or Ricci curvature tensor]</t>
+  </si>
+  <si>
+    <t>The Wightman axioms give requirements for these things, which have infinitely many degrees of freedom. For 10 points each:
+[10m] Name these things that permeate space and are characterized by their Lagrangian density, such as in the Klein–Gordon equation. Particles arise from excitations in these things.</t>
+  </si>
+  <si>
+    <t>[10h] Haag’s theorem argues that quantum field theories are ill-formed because these representations cannot exist. In this representation, both states and operators are time-dependent.</t>
+  </si>
+  <si>
+    <t>[10e] This originator of quantum field theory names a relativistic generalization of the Schrödinger equation. This British physicist’s namesake delta function is infinite at the origin and vanishes everywhere else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wightman axioms give requirements for these things, which have infinitely many degrees of freedom. For 10 points each:
+[10m] Name these things that permeate space and are characterized by their Lagrangian density, such as in the Klein–Gordon equation. Particles arise from excitations in these things.
+ANSWER: fields [or quantum fields]
+[10h] Haag’s theorem argues that quantum field theories are ill-formed because these representations cannot exist. In this representation, both states and operators are time-dependent.
+ANSWER: interaction picture [accept, but DO NOT REVEAL, Dirac picture]
+[10e] This originator of quantum field theory names a relativistic generalization of the Schrödinger equation. This British physicist’s namesake delta function is infinite at the origin and vanishes everywhere else.
+ANSWER: Paul Dirac </t>
+  </si>
+  <si>
+    <t>This process is divided into “streaming” and “collision” terms in lattice Boltzmann methods, which may also account for thermodynamic effects. For 10 points each:
+[10e] Name this process described by the Navier–Stokes equations. Particles undergoing this process follow streamlines over time.</t>
+  </si>
+  <si>
+    <t>[10h] Two answers required. These two descriptions of fluid flow correspond to “mesh” and “meshfree” simulations. One of these descriptions is fixed in space while the other follows the movement of the fluid over time.</t>
+  </si>
+  <si>
+    <t>[10m] The Lagrangian and Eulerian descriptions are connected by the fluid’s material derivative, which is sometimes named for this phenomenon. Bénard cells exhibit this phenomenon that occurs when the Grashof number is much larger than the Reynolds number.</t>
+  </si>
+  <si>
+    <t>This process is divided into “streaming” and “collision” terms in lattice Boltzmann methods, which may also account for thermodynamic effects. For 10 points each:
+[10e] Name this process described by the Navier–Stokes equations. Particles undergoing this process follow streamlines over time.
+ANSWER: fluid flow [or equivalents such as fluid motion or fluid movement; accept fluid dynamics or fluid simulation]
+[10h] Two answers required. These two descriptions of fluid flow correspond to “mesh” and “meshfree” simulations. One of these descriptions is fixed in space while the other follows the movement of the fluid over time.
+ANSWER: Lagrangian AND Eulerian descriptions
+[10m] The Lagrangian and Eulerian descriptions are connected by the fluid’s material derivative, which is sometimes named for this phenomenon. Bénard cells exhibit this phenomenon that occurs when the Grashof number is much larger than the Reynolds number.
+ANSWER: convection [accept convective derivative]</t>
+  </si>
+  <si>
+    <t>A model named for this property assumes that electrostatic interactions are sufficiently screened and that the probability of collision is inversely proportional to relaxation time. For 10 points each:
+[10m] Name this property of electrons in the Drude–Sommerfeld model, an extension of which is named for electrons that “nearly” have this property. Electrons with this property are not bound to atoms.</t>
+  </si>
+  <si>
+    <t>[10e] The free electron model also assumes this result in which each quantum state contains at most one electron.</t>
+  </si>
+  <si>
+    <t>[10h] The nearly free electron model can be derived by adding a small perturbation to this other model that contains a vanishingly small periodic potential, which allows free electrons to travel unperturbed.</t>
+  </si>
+  <si>
+    <t>A model named for this property assumes that electrostatic interactions are sufficiently screened and that the probability of collision is inversely proportional to relaxation time. For 10 points each:
+[10m] Name this property of electrons in the Drude–Sommerfeld model, an extension of which is named for electrons that “nearly” have this property. Electrons with this property are not bound to atoms.
+ANSWER: free [accept (nearly) free electron model]
+[10e] The free electron model also assumes this result in which each quantum state contains at most one electron.
+ANSWER: Pauli exclusion principle
+[10h] The nearly free electron model can be derived by adding a small perturbation to this other model that contains a vanishingly small periodic potential, which allows free electrons to travel unperturbed.
+ANSWER: empty lattice model</t>
+  </si>
+  <si>
+    <t>In a paper about exchange effects in this isotope’s body-centered cubic solid phase, J. H. Hetherington added his cat as a coauthor under the pen name F. D. C. Willard. For 10 points each:
+[10m] Name this lighter of the two isotopes used in a standard dilution refrigerator. Tritium undergoes beta-minus decay to generate this isotope.</t>
+  </si>
+  <si>
+    <t>[10e] Because helium-3 atoms are fermions, they do not readily exhibit this low-temperature property in which a substance exhibits zero viscosity.</t>
+  </si>
+  <si>
+    <t>[10h] With Ginzburg and Leggett, this physicist won the 2003 Nobel Prize for theories on superfluid helium-3. This Russian physicist and Khalatnikov expanded Landau’s theory of Fermi liquids to model low-temperature helium-3.</t>
+  </si>
+  <si>
+    <t>In a paper about exchange effects in this isotope’s body-centered cubic solid phase, J. H. Hetherington added his cat as a coauthor under the pen name F. D. C. Willard. For 10 points each:
+[10m] Name this lighter of the two isotopes used in a standard dilution refrigerator. Tritium undergoes beta-minus decay to generate this isotope.
+ANSWER: helium-3 [or He-3; prompt on helium or He]
+[10e] Because helium-3 atoms are fermions, they do not readily exhibit this low-temperature property in which a substance exhibits zero viscosity.
+ANSWER: superfluidity [or word forms]
+[10h] With Ginzburg and Leggett, this physicist won the 2003 Nobel Prize for theories on superfluid helium-3. This Russian physicist and Khalatnikov expanded Landau’s theory of Fermi liquids to model low-temperature helium-3.
+ANSWER: Alexei Abrikosov</t>
+  </si>
+  <si>
+    <t>Lax pairs can be used to solve for the equations of motion in systems with this property. For 10 points each:
+[10m] Name this property of dynamical systems that have as many constants of motion as degrees of freedom, thus preventing chaotic orbits. Systems with this property, as their name implies, tend to be solvable analytically using quadratures.</t>
+  </si>
+  <si>
+    <t>[10h] Lax pairs were introduced to solve this standard integrable PDE. This equation is the continuum limit of the Fermi–Pasta–Ulam problem and can be solved analytically using a squared hyperbolic secant function.</t>
+  </si>
+  <si>
+    <t>[10e] The KdV equation is solved by applying an “inverse transform” named for this process, which is also the basis for solving the Lax equation. Classical examples of this process include ones named for Rayleigh and Compton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lax pairs can be used to solve for the equations of motion in systems with this property. For 10 points each:
+[10m] Name this property of dynamical systems that have as many constants of motion as degrees of freedom, thus preventing chaotic orbits. Systems with this property, as their name implies, tend to be solvable analytically using quadratures.
+ANSWER: integrability [or integrable; accept complete integrability]
+[10h] Lax pairs were introduced to solve this standard integrable PDE. This equation is the continuum limit of the Fermi–Pasta–Ulam problem and can be solved analytically using a squared hyperbolic secant function.
+ANSWER: KdV equation [or Korteweg–De Vries equation]
+[10e] The KdV equation is solved by applying an “inverse transform” named for this process, which is also the basis for solving the Lax equation. Classical examples of this process include ones named for Rayleigh and Compton.
+ANSWER: scattering </t>
+  </si>
+  <si>
+    <t>The partial derivatives of this quantity with respect to q and q-dot appear in a second-order PDE co-named for Euler. For 10 points each:
+[10e] Name this quantity defined as kinetic energy minus potential energy, which is used in a formulation of classical mechanics contrasted with Hamiltonian mechanics.</t>
+  </si>
+  <si>
+    <t>[10m] The variable q in the definition of the Lagrangian is a generalized one of these quantities. These quantities are called “cyclic” or “ignorable” if they correspond to a constant of motion.</t>
+  </si>
+  <si>
+    <t>[10h] In a system with cyclic coordinates, the equations of motion can be solved using a method named for this physicist, which defines a new quantity from the Lagrangian and Hamiltonian. With Hurwitz, this physicist names a stability criterion for control systems.</t>
+  </si>
+  <si>
+    <t>The partial derivatives of this quantity with respect to q and q-dot appear in a second-order PDE co-named for Euler. For 10 points each:
+[10e] Name this quantity defined as kinetic energy minus potential energy, which is used in a formulation of classical mechanics contrasted with Hamiltonian mechanics.
+ANSWER: Lagrangian [accept Lagrangian mechanics]
+[10m] The variable q in the definition of the Lagrangian is a generalized one of these quantities. These quantities are called “cyclic” or “ignorable” if they correspond to a constant of motion.
+ANSWER: coordinates [accept generalized coordinates or cyclic coordinates]
+[10h] In a system with cyclic coordinates, the equations of motion can be solved using a method named for this physicist, which defines a new quantity from the Lagrangian and Hamiltonian. With Hurwitz, this physicist names a stability criterion for control systems.
+ANSWER: Edward Routh</t>
+  </si>
+  <si>
+    <t>In one process, the time between these phenomena is bounded by an expression whose numerator contains the time–bandwidth product of a distribution, which for Gaussian profiles is 0.441. For 10 points each:
+[10h] Name these phenomena that were generated in a Kerr cell by Hellwarth and McClung in 1961 through a process that periodically adjusts the Q-factor of a resonator.</t>
+  </si>
+  <si>
+    <t>[10m] Pulse generation can occur through a process that is said to “lock” either these patterns or phase. Coupled systems produce the “normal” form of these patterns at resonant frequencies.</t>
+  </si>
+  <si>
+    <t>[10e] Another method for pulse generation is gain-switching, where the gain of a laser is the change in this quantity. In electronic amplifiers, gain is usually quantified as a ratio of this quantity measured in watts.</t>
+  </si>
+  <si>
+    <t>In one process, the time between these phenomena is bounded by an expression whose numerator contains the time–bandwidth product of a distribution, which for Gaussian profiles is 0.441. For 10 points each:
+[10h] Name these phenomena that were generated in a Kerr cell by Hellwarth and McClung in 1961 through a process that periodically adjusts the Q-factor of a resonator.
+ANSWER: laser pulses [accept pulsed lasers; prompt on lasers; prompt on laser peaks or laser intensity peaks by asking “what causes those?”]
+[10m] Pulse generation can occur through a process that is said to “lock” either these patterns or phase. Coupled systems produce the “normal” form of these patterns at resonant frequencies.
+ANSWER: modes [accept normal modes or mode-locking]
+[10e] Another method for pulse generation is gain-switching, where the gain of a laser is the change in this quantity. In electronic amplifiers, gain is usually quantified as a ratio of this quantity measured in watts.
+ANSWER: power [accept optical power]</t>
+  </si>
+  <si>
+    <t>A standard proof of this result uses the fact that a unitary transformation on an inner product of states must have norm one or zero. For 10 points each:
+[10m] Name this result that asserts that no unitary time-evolution operator can generate an arbitrary separable quantum state. This result implies that arbitrary quantum states cannot also be “teleported” or “broadcasted.”</t>
+  </si>
+  <si>
+    <t>[10e] The no-cloning theorem does not preclude states with this property, such as in teleportation that is [this property]-assisted. The EPR paradox concerns states with this property that are correlated despite being separated.</t>
+  </si>
+  <si>
+    <t>[10h] The extent to which entangled states can “bypass” the no-cloning theorem is limited by this property, which bounds the degree of entanglement between multiple states. The CKW inequality governs this property.</t>
+  </si>
+  <si>
+    <t>A standard proof of this result uses the fact that a unitary transformation on an inner product of states must have norm one or zero. For 10 points each:
+[10m] Name this result that asserts that no unitary time-evolution operator can generate an arbitrary separable quantum state. This result implies that arbitrary quantum states cannot also be “teleported” or “broadcasted.”
+ANSWER: no-cloning theorem [reject “no-clone theorem”]
+[10e] The no-cloning theorem does not preclude states with this property, such as in teleportation that is [this property]-assisted. The EPR paradox concerns states with this property that are correlated despite being separated.
+ANSWER: quantum entanglement [accept word forms like entangled]
+[10h] The extent to which entangled states can “bypass” the no-cloning theorem is limited by this property, which bounds the degree of entanglement between multiple states. The CKW inequality governs this property.
+ANSWER: monogamy [accept word forms like monogamous]</t>
+  </si>
+  <si>
+    <t>This quantity for a modulated signal differs by a fixed amount for the two streams in I/Q data, which is derived from the narrowband assumption. For 10 points each:
+[10h] Name this quantity whose “keying” is plotted on “constellation diagrams” in digital modulation. This quantity names a class of time-invariant vectors that are generalized by analytic signal representations.</t>
+  </si>
+  <si>
+    <t>[10e] Phasors are representations of functions with this shape, since they encode the amplitude and phase of a signal. Functions with this shape are the usual terms in a Fourier series.</t>
+  </si>
+  <si>
+    <t>[10m] In circuit analysis, the ratio of two phasors corresponds to this complex quantity. A generalization of Ohm’s law for inductors and capacitors in AC circuits states that voltage equals current times this quantity.</t>
+  </si>
+  <si>
+    <t>This quantity for a modulated signal differs by a fixed amount for the two streams in I/Q data, which is derived from the narrowband assumption. For 10 points each:
+[10h] Name this quantity whose “keying” is plotted on “constellation diagrams” in digital modulation. This quantity names a class of time-invariant vectors that are generalized by analytic signal representations.
+ANSWER: phase [accept phasors or phase-shift keying] (The I/Q data of a signal is its decomposition into in-phase and quadrature components.)
+[10e] Phasors are representations of functions with this shape, since they encode the amplitude and phase of a signal. Functions with this shape are the usual terms in a Fourier series.
+ANSWER: sinusoidal [accept sine or cosine; prompt on periodic]
+[10m] In circuit analysis, the ratio of two phasors corresponds to this complex quantity. A generalization of Ohm’s law for inductors and capacitors in AC circuits states that voltage equals current times this quantity.
+ANSWER: impedance [prompt on Z]</t>
+  </si>
+  <si>
+    <t>This law can be derived by using the equipartition theorem to determine the number of half-wave cycles that can fit within an arbitrary volume. For 10 points each:
+[10h] Name this law that predicts a radio spectral index of 2 in the long-wavelength regime. This law can be used to approximate the brightness temperature as inversely proportional to the square of frequency.</t>
+  </si>
+  <si>
+    <t>[10e] The “ultraviolet catastrophe” predicted by the Rayleigh–Jeans law was fixed by this law of blackbody radiation that also demonstrated that the energy emitted by a blackbody is quantized.</t>
+  </si>
+  <si>
+    <t>[10m] The Rayleigh–Jeans law holds when the energy quantum is smaller than this expression. The equipartition theorem states that each degree of freedom contributes one-half of this expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This law can be derived by using the equipartition theorem to determine the number of half-wave cycles that can fit within an arbitrary volume. For 10 points each:
+[10h] Name this law that predicts a radio spectral index of 2 in the long-wavelength regime. This law can be used to approximate the brightness temperature as inversely proportional to the square of frequency.
+ANSWER: Rayleigh–Jeans law
+[10e] The “ultraviolet catastrophe” predicted by the Rayleigh–Jeans law was fixed by this law of blackbody radiation that also demonstrated that the energy emitted by a blackbody is quantized.
+ANSWER: Planck’s law
+[10m] The Rayleigh–Jeans law holds when the energy quantum is smaller than this expression. The equipartition theorem states that each degree of freedom contributes one-half of this expression.
+ANSWER: kT </t>
+  </si>
+  <si>
+    <t>Margaret Lock and Nancy Scheper-Hughes created a doctoral program in a field of this discipline at UC Berkeley and developed it in papers including “The Mindful Body.” For 10 points each:
+[10e] Name this field whose “medical” subfield studies how people understand and experience various elements of health and illness. This field’s practitioners included Clifford Geertz (“gurts”).</t>
+  </si>
+  <si>
+    <t>[10h] This 2003 biographical work by Tracy Kidder centers on a medical anthropologist who wrote AIDS and Accusation and distributed antibiotics to countries like Haiti and Peru.</t>
+  </si>
+  <si>
+    <t>[10m] Medical anthropologists use this term to describe folk illnesses only found within specific settings, such as koro in Southeast Asian communities or dhat (“dawt”) syndrome in India.</t>
+  </si>
+  <si>
+    <t>Margaret Lock and Nancy Scheper-Hughes created a doctoral program in a field of this discipline at UC Berkeley and developed it in papers including “The Mindful Body.” For 10 points each:
+[10e] Name this field whose “medical” subfield studies how people understand and experience various elements of health and illness. This field’s practitioners included Clifford Geertz (“gurts”).
+ANSWER: anthropology [or critical medical anthropology]
+[10h] This 2003 biographical work by Tracy Kidder centers on a medical anthropologist who wrote AIDS and Accusation and distributed antibiotics to countries like Haiti and Peru.
+ANSWER: Mountains Beyond Mountains [or Mountains Beyond Mountains: The Quest of Dr. Paul Farmer, A Man Who Would Cure the World]
+[10m] Medical anthropologists use this term to describe folk illnesses only found within specific settings, such as koro in Southeast Asian communities or dhat (“dawt”) syndrome in India.
+ANSWER: culture-bound syndrome</t>
+  </si>
+  <si>
+    <t>Answer the following about Santali, a Munda language spoken around West Bengal unrelated to most Indian languages, for 10 points each.
+[10m] Santali is the westernmost major language in this family that includes many minority languages spoken in inland pockets of Indochina. Vietnamese, Mon, and Khmer are the major branches of this language family.</t>
+  </si>
+  <si>
+    <t>[10e] For Santali, Raghunath Murmu developed Ol Chiki, which is this type of writing system in which both vowels and consonants are independent letters. Vietnamese uses one of these scripts based on Latin.</t>
+  </si>
+  <si>
+    <t>[10h] Reconstructing Proto-Austroasiatic is difficult due to extensive language contact. Malcolm Ross coined this English term for a network of related languages that evolved from a dialect continuum, only share innovations with nearby neighbors, and poorly fit a tree model.</t>
+  </si>
+  <si>
+    <t>Answer the following about Santali, a Munda language spoken around West Bengal unrelated to most Indian languages, for 10 points each.
+[10m] Santali is the westernmost major language in this family that includes many minority languages spoken in inland pockets of Indochina. Vietnamese, Mon, and Khmer are the major branches of this language family.
+ANSWER: Austroasiatic [reject “Austronesian”]
+[10e] For Santali, Raghunath Murmu developed Ol Chiki, which is this type of writing system in which both vowels and consonants are independent letters. Vietnamese uses one of these scripts based on Latin.
+ANSWER: alphabets
+[10h] Reconstructing Proto-Austroasiatic is difficult due to extensive language contact. Malcolm Ross coined this English term for a network of related languages that evolved from a dialect continuum, only share innovations with nearby neighbors, and poorly fit a tree model.
+ANSWER: linkages</t>
+  </si>
+  <si>
+    <t>This quantity is predicted to improve after currency depreciation in the Marshall–Lerner condition. For 10 points each:
+[10m] Name this quantity often abbreviated as “X minus M.” This quantity is added to consumption, investment, and government spending to calculate a country’s GDP.</t>
+  </si>
+  <si>
+    <t>[10e] This nationalist economic policy, which was prevalent in 17th-century Europe, tries to maximize exports while minimizing imports.</t>
+  </si>
+  <si>
+    <t>[10h] This curve represents how the balance of trade changes over time following a currency devaluation, making its imports more expensive.</t>
+  </si>
+  <si>
+    <t>This quantity is predicted to improve after currency depreciation in the Marshall–Lerner condition. For 10 points each:
+[10m] Name this quantity often abbreviated as “X minus M.” This quantity is added to consumption, investment, and government spending to calculate a country’s GDP.
+ANSWER: balance of trade [or trade balance; or net trade or net exports or nx; accept exports minus imports; prompt on trade; reject “exports” or “imports”]
+[10e] This nationalist economic policy, which was prevalent in 17th-century Europe, tries to maximize exports while minimizing imports.
+ANSWER: mercantilism [or mercantilist policy]
+[10h] This curve represents how the balance of trade changes over time following a currency devaluation, making its imports more expensive.
+ANSWER: J curve</t>
+  </si>
+  <si>
+    <t>This anthropologist argued that the patriarchal “exchange of women” via exogamy was as vital to developing symbolic thought as exchanging signs via communication. For 10 points each:
+[10e] Name this anthropologist who distinguished between primitive and civilized cultures in The Savage Mind. This French anthropologist wrote Tristes Tropiques (“treest tro-PEEK”) and Mythologiques.</t>
+  </si>
+  <si>
+    <t>[10m] Lévi-Strauss outlined the “exchange of women” as part of his alliance theory, which he developed in a book on this concept. David Schneider outlined real and fictive forms of this concept in a book on its “American” form.</t>
+  </si>
+  <si>
+    <t>[10h] This anthropologist pulled from Lévi-Strauss’s kinship theories, including the “exchange of women,” in “The Traffic in Women,” which outlines the political economy of sex. This anthropologist also wrote “Thinking Sex.”</t>
+  </si>
+  <si>
+    <t>This anthropologist argued that the patriarchal “exchange of women” via exogamy was as vital to developing symbolic thought as exchanging signs via communication. For 10 points each:
+[10e] Name this anthropologist who distinguished between primitive and civilized cultures in The Savage Mind. This French anthropologist wrote Tristes Tropiques (“treest tro-PEEK”) and Mythologiques.
+ANSWER: Claude Lévi-Strauss
+[10m] Lévi-Strauss outlined the “exchange of women” as part of his alliance theory, which he developed in a book on this concept. David Schneider outlined real and fictive forms of this concept in a book on its “American” form.
+ANSWER: kinship
+[10h] This anthropologist pulled from Lévi-Strauss’s kinship theories, including the “exchange of women,” in “The Traffic in Women,” which outlines the political economy of sex. This anthropologist also wrote “Thinking Sex.”
+ANSWER: Gayle Rubin [or Gayle S. Rubin]</t>
+  </si>
+  <si>
+    <t>Yale professor Joel Waldfogel authored a paper on this quantity during the Christmas season, comparing the efficiency of gifts to significant others to the inefficiency of gifts from extended family. For 10 points each:
+[10e] Name this so-called economic “loss” in which market inefficiencies cause a decline in total surplus. This quantity is represented by a triangle formed on two sides by supply and demand.</t>
+  </si>
+  <si>
+    <t>[10h] Some economists argue that micro-efficiencies denoted by triangles named for this economist pale in comparison to macroeconomic harms on Christmas. This economist wrote The Incidence of Taxation.</t>
+  </si>
+  <si>
+    <t>[10m] In “The Business Cycle Effects of Christmas,” Yi Wen analyzed seasonal business cycles with this property. Variables with this property are uncorrelated with the error term.</t>
+  </si>
+  <si>
+    <t>Yale professor Joel Waldfogel authored a paper on this quantity during the Christmas season, comparing the efficiency of gifts to significant others to the inefficiency of gifts from extended family. For 10 points each:
+[10e] Name this so-called economic “loss” in which market inefficiencies cause a decline in total surplus. This quantity is represented by a triangle formed on two sides by supply and demand.
+ANSWER: deadweight loss
+[10h] Some economists argue that micro-efficiencies denoted by triangles named for this economist pale in comparison to macroeconomic harms on Christmas. This economist wrote The Incidence of Taxation.
+ANSWER: Arnold Harberger [or Arnold Carl Harberger]
+[10m] In “The Business Cycle Effects of Christmas,” Yi Wen analyzed seasonal business cycles with this property. Variables with this property are uncorrelated with the error term.
+ANSWER: exogenous [or exogeneity]</t>
+  </si>
+  <si>
+    <t>Per a model named for this statistician, the fundamental problem of causal inference states that it is impossible to observe the effect of more than one treatment on a subject and to directly observe causal effects. For 10 points each:
+[10h] Name this Harvard statistician whose causal model uses Jerzy Neyman’s (“YAIR-zhih NAY-min’s”) potential outcomes framework and a probabilistic assignment mechanism to estimate missing counterfactuals.</t>
+  </si>
+  <si>
+    <t>[10m] When non-compliers exist, these variables can be used to estimate causal relationships. These variables must be correlated with endogenous explanatory variables and are subject to the exclusion restriction.</t>
+  </si>
+  <si>
+    <t>[10e] Non-compliance can necessitate adjusting for post-treatment covariates by using the stratified form of this technique. This technique involves selecting individuals at random from a population.</t>
+  </si>
+  <si>
+    <t>Per a model named for this statistician, the fundamental problem of causal inference states that it is impossible to observe the effect of more than one treatment on a subject and to directly observe causal effects. For 10 points each:
+[10h] Name this Harvard statistician whose causal model uses Jerzy Neyman’s (“YAIR-zhih NAY-min’s”) potential outcomes framework and a probabilistic assignment mechanism to estimate missing counterfactuals.
+ANSWER: Donald Rubin [or Donald Bruce Rubin]
+[10m] When non-compliers exist, these variables can be used to estimate causal relationships. These variables must be correlated with endogenous explanatory variables and are subject to the exclusion restriction.
+ANSWER: instrumental variables [or IV]
+[10e] Non-compliance can necessitate adjusting for post-treatment covariates by using the stratified form of this technique. This technique involves selecting individuals at random from a population.
+ANSWER: sampling [accept stratified sampling]</t>
+  </si>
+  <si>
+    <t>This concept’s development involves moving away from the pleasure principle and towards the reality principle in governing its actions. For 10 points each:
+[10e] Name this concept in Freudian psychology that mediates conflict between reality, the id, and a concept with the prefix “super-.”</t>
+  </si>
+  <si>
+    <t>[10m] In The Ego and the Id, Freud used one of these animals to introduce the ego-id relationship. Wilhelm von Osten did not actually teach a “Clever” one of these animals to spell, instead prompting it with body language.</t>
+  </si>
+  <si>
+    <t>[10h] A Freud essay titled for this trait introduced the “ego ideal,” a person’s image of what they want to become. A test for this trait was devised by Raskin and Hall.</t>
+  </si>
+  <si>
+    <t>This concept’s development involves moving away from the pleasure principle and towards the reality principle in governing its actions. For 10 points each:
+[10e] Name this concept in Freudian psychology that mediates conflict between reality, the id, and a concept with the prefix “super-.”
+ANSWER: ego [or ich]
+[10m] In The Ego and the Id, Freud used one of these animals to introduce the ego-id relationship. Wilhelm von Osten did not actually teach a “Clever” one of these animals to spell, instead prompting it with body language.
+ANSWER: horses [or stallions]
+[10h] A Freud essay titled for this trait introduced the “ego ideal,” a person’s image of what they want to become. A test for this trait was devised by Raskin and Hall.
+ANSWER: narcissism [or On Narcissism]</t>
+  </si>
+  <si>
+    <t>Answer the following about sociological interpretations of the role of music in society, for 10 points each.
+[10e] Sociomusicology deviates from a related field with this prefix since it puts less emphasis on national identity. This prefix partly names a method of describing cultural practices while submerged in a group.</t>
+  </si>
+  <si>
+    <t>[10m] This sociologist outlined the social meanings of music in his Psychological and Ethnological Studies on Music. This sociologist discussed a “blasé outlook” on urban life in his essay “The Metropolis and Mental Life.”</t>
+  </si>
+  <si>
+    <t>[10h] In his essay “Philosophy of Modern Music,” this thinker remarked that popular music is “regarded as the absolute criterion of social truth.” This thinker outlined “structural listening” in “On the Fetish-Character in Music and Regression in Listening.”</t>
+  </si>
+  <si>
+    <t>Answer the following about sociological interpretations of the role of music in society, for 10 points each.
+[10e] Sociomusicology deviates from a related field with this prefix since it puts less emphasis on national identity. This prefix partly names a method of describing cultural practices while submerged in a group.
+ANSWER: ethno- [or ethnography; or ethnomusicology]
+[10m] This sociologist outlined the social meanings of music in his Psychological and Ethnological Studies on Music. This sociologist discussed a “blasé outlook” on urban life in his essay “The Metropolis and Mental Life.”
+ANSWER: Georg Simmel (“GAY-org ZIM-ull”)
+[10h] In his essay “Philosophy of Modern Music,” this thinker remarked that popular music is “regarded as the absolute criterion of social truth.” This thinker outlined “structural listening” in “On the Fetish-Character in Music and Regression in Listening.”
+ANSWER: Theodor Adorno [or Theodor W. Adorno; or Theodor Ludwig Wiesengrund]</t>
+  </si>
+  <si>
+    <t>This economist and his student Richard Brumberg outlined a “hump-shaped” pattern of wealth accumulation that peaks in the middle of adulthood, called the “life-cycle hypothesis.” For 10 points each:
+[10m] Name this economist who co-names a theorem often called “capital structure irrelevance.” That theorem, co-named for this economist and an American-born colleague, posits that how a firm is structured should not affect its value.</t>
+  </si>
+  <si>
+    <t>[10e] The Modigliani–Miller theorem implies that equity rises with a ratio named for equity and this quantity. This quantity is the amount owed by one party to a creditor.</t>
+  </si>
+  <si>
+    <t>[10h] The Modigliani risk-adjusted performance, which measures the risk-adjusted returns of some portfolios, is derived from this measurement. This measurement is the slope of a capital allocation line.</t>
+  </si>
+  <si>
+    <t>This economist and his student Richard Brumberg outlined a “hump-shaped” pattern of wealth accumulation that peaks in the middle of adulthood, called the “life-cycle hypothesis.” For 10 points each:
+[10m] Name this economist who co-names a theorem often called “capital structure irrelevance.” That theorem, co-named for this economist and an American-born colleague, posits that how a firm is structured should not affect its value.
+ANSWER: Franco Modigliani [prompt on Modigliani–Miller theorem]
+[10e] The Modigliani–Miller theorem implies that equity rises with a ratio named for equity and this quantity. This quantity is the amount owed by one party to a creditor.
+ANSWER: debt [or national debt]
+[10h] The Modigliani risk-adjusted performance, which measures the risk-adjusted returns of some portfolios, is derived from this measurement. This measurement is the slope of a capital allocation line.
+ANSWER: Sharpe ratio [or Sharpe index; or reward-to-variability ratio]</t>
+  </si>
+  <si>
+    <t>A psychologist from this country outlined a four-stage therapy process including absolute bed rest, light and heavy occupational therapy, and reintroduction into society. For 10 points each:
+[10e] Morita therapy, a branch of clinical psychology heavily influenced by Zen Buddhism, was developed in what country?</t>
+  </si>
+  <si>
+    <t>[10h] Morita therapy is often grouped with this active-directive psychotherapy developed by Albert Ellis. This form of cognitive behavioral therapy holds that people’s false beliefs cause fixable disturbances in people’s lives.</t>
+  </si>
+  <si>
+    <t>[10m] Morita therapy was designed to address and diagnose a condition called shinkeishitsu, sometimes equated to this condition. Typical and atypical forms of this condition can be treated with haloperidol and clozapine.</t>
+  </si>
+  <si>
+    <t>A psychologist from this country outlined a four-stage therapy process including absolute bed rest, light and heavy occupational therapy, and reintroduction into society. For 10 points each:
+[10e] Morita therapy, a branch of clinical psychology heavily influenced by Zen Buddhism, was developed in what country?
+ANSWER: Japan [or Nippon; or Nihon]
+[10h] Morita therapy is often grouped with this active-directive psychotherapy developed by Albert Ellis. This form of cognitive behavioral therapy holds that people’s false beliefs cause fixable disturbances in people’s lives.
+ANSWER: rational emotive behavior therapy [or rational therapy; or REBT]
+[10m] Morita therapy was designed to address and diagnose a condition called shinkeishitsu, sometimes equated to this condition. Typical and atypical forms of this condition can be treated with haloperidol and clozapine.
+ANSWER: schizophrenia [prompt on psychosis]</t>
+  </si>
+  <si>
+    <t>Two answers required. A set of meetings called “controversial discussions” pitted followers of one of these psychologists against the other in debates surrounding the ethics of child psychology. For 10 points each:
+[10h] Name these two psychologists. One pioneered child analysis and wrote the book Envy and Gratitude, while the other analyzed “signal anxiety” in The Ego and the Mechanisms of Defense.</t>
+  </si>
+  <si>
+    <t>[10e] Kleinians and Anna Freudians clashed over their interpretations of this therapeutic practice. Dreams are often studied in the original form of this practice developed by Sigmund Freud.</t>
+  </si>
+  <si>
+    <t>[10m] The British Independent Group, a buffer zone between the Kleinians and Anna Freudians, believed in a “relations theory” of ego development named for these things, which was pioneered by Donald Winnicott.</t>
+  </si>
+  <si>
+    <t>Two answers required. A set of meetings called “controversial discussions” pitted followers of one of these psychologists against the other in debates surrounding the ethics of child psychology. For 10 points each:
+[10h] Name these two psychologists. One pioneered child analysis and wrote the book Envy and Gratitude, while the other analyzed “signal anxiety” in The Ego and the Mechanisms of Defense.
+ANSWER: Melanie Klein AND Anna Freud [accept Melanie Reizes in place of “Melanie Klein”; prompt on Freud in place of “Anna Freud”]
+[10e] Kleinians and Anna Freudians clashed over their interpretations of this therapeutic practice. Dreams are often studied in the original form of this practice developed by Sigmund Freud.
+ANSWER: psychoanalysis
+[10m] The British Independent Group, a buffer zone between the Kleinians and Anna Freudians, believed in a “relations theory” of ego development named for these things, which was pioneered by Donald Winnicott.
+ANSWER: objects [or object relations theory]</t>
+  </si>
+  <si>
+    <t>This thinker’s application of autopoiesis, or self-creation, to his systems theory was controversial for its alleged abuse of scientific terminology. For 10 points each:
+[10h] Name this author of Theory of Society. This German author developed a sociologically oriented systems theory that analyzes the role of, and disturbances in, communication in social organizations.</t>
+  </si>
+  <si>
+    <t>[10m] Luhmann’s systems theory was influenced by this transdisciplinary field led by Norbert Wiener and Gregory Bateson. This field studies feedback systems where outputs also serve as inputs.</t>
+  </si>
+  <si>
+    <t>[10e] Luhmann wrote a “sociological theory” of this concept in an analysis of unexpected situations. In economics, people fearful of uncertain outcomes have an “aversion” to this concept.</t>
+  </si>
+  <si>
+    <t>This thinker’s application of autopoiesis, or self-creation, to his systems theory was controversial for its alleged abuse of scientific terminology. For 10 points each:
+[10h] Name this author of Theory of Society. This German author developed a sociologically oriented systems theory that analyzes the role of, and disturbances in, communication in social organizations.
+ANSWER: Niklas Luhmann (“LOO-mahn”)
+[10m] Luhmann’s systems theory was influenced by this transdisciplinary field led by Norbert Wiener and Gregory Bateson. This field studies feedback systems where outputs also serve as inputs.
+ANSWER: cybernetics
+[10e] Luhmann wrote a “sociological theory” of this concept in an analysis of unexpected situations. In economics, people fearful of uncertain outcomes have an “aversion” to this concept.
+ANSWER: risk [prompt on volatility or beta]</t>
+  </si>
+  <si>
+    <t>Juan Linz argued that this institution could result in two separate bodies claiming to represent the people’s will. For 10 points each:
+[10m] Name this institution that titles Linz’s essay on their “Perils.” Arthur Schlesinger discussed the “Imperial” form of this institution to describe its holders’ excesses of power.</t>
+  </si>
+  <si>
+    <t>[10e] Linz argues that presidentialism is weak when there exists a “dual” form of legitimacy with a democratic system known by this term. In England, this term refers to a body consisting of the Houses of Lords and Commons.</t>
+  </si>
+  <si>
+    <t>[10h] This political scientist argued that the role of the presidency is “merely the power to persuade” in his book Presidential Power and the Modern Presidents.</t>
+  </si>
+  <si>
+    <t>Juan Linz argued that this institution could result in two separate bodies claiming to represent the people’s will. For 10 points each:
+[10m] Name this institution that titles Linz’s essay on their “Perils.” Arthur Schlesinger discussed the “Imperial” form of this institution to describe its holders’ excesses of power.
+ANSWER: presidency [or presidentialism; or POTUS; accept descriptions like having a president]
+[10e] Linz argues that presidentialism is weak when there exists a “dual” form of legitimacy with a democratic system known by this term. In England, this term refers to a body consisting of the Houses of Lords and Commons.
+ANSWER: Parliament [or parliamentary]
+[10h] This political scientist argued that the role of the presidency is “merely the power to persuade” in his book Presidential Power and the Modern Presidents.
+ANSWER: Richard Neustadt [or Richard Elliott Neustadt]</t>
+  </si>
+  <si>
+    <t>Though not a tax dodge, high-income earners who exceed the income limit use so-called “backdoor” examples of these accounts. For 10 points each:
+[10m] Name these retirement accounts whose qualified withdrawals are tax-free compared to traditional types. People eligible for these accounts must earn below 146,000 dollars a year.</t>
+  </si>
+  <si>
+    <t>[10h] Starting in 2006, 401(k) plans and these tax-advantaged retirement savings plans could hold Roth IRA contributions. These plans are available for employees of public schools and some nonprofits and charities.</t>
+  </si>
+  <si>
+    <t>[10e] These general funds, into which amounts are set aside for retirement, are often rolled over into Roth IRAs if their lump sum is small. French residents protested a reform bill for these funds that increased the retirement age.</t>
+  </si>
+  <si>
+    <t>Though not a tax dodge, high-income earners who exceed the income limit use so-called “backdoor” examples of these accounts. For 10 points each:
+[10m] Name these retirement accounts whose qualified withdrawals are tax-free compared to traditional types. People eligible for these accounts must earn below 146,000 dollars a year.
+ANSWER: Roth IRAs [or Roth Individual Retirement Accounts; prompt on IRAs or Roths or individual retirement accounts]
+[10h] Starting in 2006, 401(k) plans and these tax-advantaged retirement savings plans could hold Roth IRA contributions. These plans are available for employees of public schools and some nonprofits and charities.
+ANSWER: 403(b) plans
+[10e] These general funds, into which amounts are set aside for retirement, are often rolled over into Roth IRAs if their lump sum is small. French residents protested a reform bill for these funds that increased the retirement age.
+ANSWER: pensions</t>
+  </si>
+  <si>
+    <t>A book about this submovement argues for a middle ground between essentialist and pure social constructivist views of gender and observes that aspects of homophobia arise from “oppositional sexism.” For 10 points each:
+[10h] Name this submovement of Julia Serano’s 2007 essay collection Whipping Girl. The activist group The Menace inspired Emi Koyama’s manifesto of this submovement within queer theory.</t>
+  </si>
+  <si>
+    <t>[10e] Serano’s concept of transmisogyny applies this sociological framework described by Kimberlé Crenshaw. This framework analyzes how people’s identities overlap to produce unique forms of oppression and privilege.</t>
+  </si>
+  <si>
+    <t>[10m] Serano cites this thinker’s essay “How to Bring Your Kids Up Gay” to describe forms of pathologization accompanying femininity. This queer theorist coined the term “homosocial” and wrote Epistemology of the Closet.</t>
+  </si>
+  <si>
+    <t>A book about this submovement argues for a middle ground between essentialist and pure social constructivist views of gender and observes that aspects of homophobia arise from “oppositional sexism.” For 10 points each:
+[10h] Name this submovement of Julia Serano’s 2007 essay collection Whipping Girl. The activist group The Menace inspired Emi Koyama’s manifesto of this submovement within queer theory.
+ANSWER: transfeminism [accept transfeminist studies; prompt on feminism or radical feminism; prompt on transgender studies]
+[10e] Serano’s concept of transmisogyny applies this sociological framework described by Kimberlé Crenshaw. This framework analyzes how people’s identities overlap to produce unique forms of oppression and privilege.
+ANSWER: intersectionality
+[10m] Serano cites this thinker’s essay “How to Bring Your Kids Up Gay” to describe forms of pathologization accompanying femininity. This queer theorist coined the term “homosocial” and wrote Epistemology of the Closet.
+ANSWER: Eve Sedgwick [or Eve Kosofsky Sedgwick]</t>
+  </si>
+  <si>
+    <t>In Turkish, the front version of this phenomenon leads to the inclusion of “de” suffixes, while its back form requires “da” suffixes. For 10 points each:
+[10m] Name this “long-distance” assimilation phenomenon. The Hungarian dative suffixes “nak” and “nek,” which match the class of earlier vowels, result from this phenomenon.</t>
+  </si>
+  <si>
+    <t>[10e] Vowel harmony is a rule in many Uralic languages studied in this subfield of linguistics that, in contrast to morphology, examines the organization of sound patterns.</t>
+  </si>
+  <si>
+    <t>[10h] In Finnish, seven of these morphemes change according to vowel harmony, such as “-kO” and “-kA.” These morphemes resemble a word but depend phonologically on an adjoining word.</t>
+  </si>
+  <si>
+    <t>In Turkish, the front version of this phenomenon leads to the inclusion of “de” suffixes, while its back form requires “da” suffixes. For 10 points each:
+[10m] Name this “long-distance” assimilation phenomenon. The Hungarian dative suffixes “nak” and “nek,” which match the class of earlier vowels, result from this phenomenon.
+ANSWER: vowel harmony
+[10e] Vowel harmony is a rule in many Uralic languages studied in this subfield of linguistics that, in contrast to morphology, examines the organization of sound patterns.
+ANSWER: phonology
+[10h] In Finnish, seven of these morphemes change according to vowel harmony, such as “-kO” and “-kA.” These morphemes resemble a word but depend phonologically on an adjoining word.
+ANSWER: clitics [or enclitics]</t>
   </si>
 </sst>
 </file>
@@ -32742,8 +36169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101A4914-C1A4-4A20-A84F-D56F66CBC29A}">
   <dimension ref="A1:W321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32890,7 +36317,7 @@
         <v>1640</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>1649</v>
@@ -32961,7 +36388,7 @@
         <v>1646</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>318</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>1648</v>
@@ -33032,7 +36459,7 @@
         <v>1650</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>1653</v>
@@ -33103,7 +36530,7 @@
         <v>1654</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="W5" s="5" t="s">
         <v>1657</v>
@@ -33174,7 +36601,7 @@
         <v>1659</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="W6" s="5" t="s">
         <v>1661</v>
@@ -33245,7 +36672,7 @@
         <v>1662</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>1665</v>
@@ -33316,7 +36743,7 @@
         <v>1666</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>312</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>1669</v>
@@ -33387,7 +36814,7 @@
         <v>1671</v>
       </c>
       <c r="V9">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>1673</v>
@@ -33458,7 +36885,7 @@
         <v>1676</v>
       </c>
       <c r="V10">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>1677</v>
@@ -33529,7 +36956,7 @@
         <v>1678</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>1681</v>
@@ -33600,7 +37027,7 @@
         <v>1684</v>
       </c>
       <c r="V12">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>1685</v>
@@ -33671,7 +37098,7 @@
         <v>1688</v>
       </c>
       <c r="V13">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="W13" s="5" t="s">
         <v>1689</v>
@@ -33742,7 +37169,7 @@
         <v>1690</v>
       </c>
       <c r="V14">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>1693</v>
@@ -33813,7 +37240,7 @@
         <v>1696</v>
       </c>
       <c r="V15">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>1697</v>
@@ -33884,7 +37311,7 @@
         <v>1698</v>
       </c>
       <c r="V16">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="W16" s="5" t="s">
         <v>1701</v>
@@ -33955,7 +37382,7 @@
         <v>1702</v>
       </c>
       <c r="V17">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>1705</v>
@@ -34026,7 +37453,7 @@
         <v>1706</v>
       </c>
       <c r="V18">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>1709</v>
@@ -34097,7 +37524,7 @@
         <v>1712</v>
       </c>
       <c r="V19">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>1713</v>
@@ -34168,7 +37595,7 @@
         <v>1715</v>
       </c>
       <c r="V20">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>1717</v>
@@ -34239,7 +37666,7 @@
         <v>1720</v>
       </c>
       <c r="V21">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="W21" s="5" t="s">
         <v>1721</v>
@@ -34310,7 +37737,7 @@
         <v>1724</v>
       </c>
       <c r="V22">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>1725</v>
@@ -34381,7 +37808,7 @@
         <v>1727</v>
       </c>
       <c r="V23">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="W23" s="5" t="s">
         <v>1729</v>
@@ -34452,7 +37879,7 @@
         <v>1731</v>
       </c>
       <c r="V24">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="W24" s="5" t="s">
         <v>1733</v>
@@ -34523,7 +37950,7 @@
         <v>1736</v>
       </c>
       <c r="V25">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>1737</v>
@@ -34594,7 +38021,7 @@
         <v>1740</v>
       </c>
       <c r="V26">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>1741</v>
@@ -34665,7 +38092,7 @@
         <v>1744</v>
       </c>
       <c r="V27">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="W27" s="5" t="s">
         <v>1745</v>
@@ -34736,7 +38163,7 @@
         <v>1747</v>
       </c>
       <c r="V28">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>1749</v>
@@ -34807,7 +38234,7 @@
         <v>1750</v>
       </c>
       <c r="V29">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="W29" s="5" t="s">
         <v>1753</v>
@@ -34878,7 +38305,7 @@
         <v>1754</v>
       </c>
       <c r="V30">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>1757</v>
@@ -34949,7 +38376,7 @@
         <v>1758</v>
       </c>
       <c r="V31">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="W31" s="5" t="s">
         <v>1761</v>
@@ -35020,7 +38447,7 @@
         <v>1764</v>
       </c>
       <c r="V32">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>1765</v>
@@ -35091,7 +38518,7 @@
         <v>1766</v>
       </c>
       <c r="V33">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="W33" s="5" t="s">
         <v>1769</v>
@@ -35162,7 +38589,7 @@
         <v>1772</v>
       </c>
       <c r="V34">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>1773</v>
@@ -35233,7 +38660,7 @@
         <v>1776</v>
       </c>
       <c r="V35">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="W35" s="5" t="s">
         <v>1777</v>
@@ -35304,7 +38731,7 @@
         <v>1779</v>
       </c>
       <c r="V36">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>1781</v>
@@ -35375,7 +38802,7 @@
         <v>1783</v>
       </c>
       <c r="V37">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="W37" s="5" t="s">
         <v>1785</v>
@@ -35517,7 +38944,7 @@
         <v>1790</v>
       </c>
       <c r="V39">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>1793</v>
@@ -35588,7 +39015,7 @@
         <v>1795</v>
       </c>
       <c r="V40">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>1797</v>
@@ -35659,7 +39086,7 @@
         <v>1798</v>
       </c>
       <c r="V41">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>1801</v>
@@ -35730,7 +39157,7 @@
         <v>1803</v>
       </c>
       <c r="V42">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="W42" s="5" t="s">
         <v>1805</v>
@@ -35801,7 +39228,7 @@
         <v>1808</v>
       </c>
       <c r="V43">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="W43" s="5" t="s">
         <v>1809</v>
@@ -35872,7 +39299,7 @@
         <v>1811</v>
       </c>
       <c r="V44">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>1813</v>
@@ -35943,7 +39370,7 @@
         <v>1815</v>
       </c>
       <c r="V45">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="W45" s="5" t="s">
         <v>1817</v>
@@ -36014,7 +39441,7 @@
         <v>1820</v>
       </c>
       <c r="V46">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>1821</v>
@@ -36085,7 +39512,7 @@
         <v>1824</v>
       </c>
       <c r="V47">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W47" s="5" t="s">
         <v>1825</v>
@@ -36156,7 +39583,7 @@
         <v>1827</v>
       </c>
       <c r="V48">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>1829</v>
@@ -36227,7 +39654,7 @@
         <v>1830</v>
       </c>
       <c r="V49">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="W49" s="5" t="s">
         <v>1833</v>
@@ -36298,7 +39725,7 @@
         <v>1834</v>
       </c>
       <c r="V50">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>1837</v>
@@ -36369,7 +39796,7 @@
         <v>1838</v>
       </c>
       <c r="V51">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="W51" s="5" t="s">
         <v>1841</v>
@@ -36440,7 +39867,7 @@
         <v>1843</v>
       </c>
       <c r="V52">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="W52" s="5" t="s">
         <v>1845</v>
@@ -36511,7 +39938,7 @@
         <v>1846</v>
       </c>
       <c r="V53">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="W53" s="5" t="s">
         <v>1849</v>
@@ -36582,7 +40009,7 @@
         <v>1850</v>
       </c>
       <c r="V54">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="W54" s="5" t="s">
         <v>1853</v>
@@ -36653,7 +40080,7 @@
         <v>1854</v>
       </c>
       <c r="V55">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="W55" s="5" t="s">
         <v>1857</v>
@@ -36724,7 +40151,7 @@
         <v>1858</v>
       </c>
       <c r="V56">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>1861</v>
@@ -36795,7 +40222,7 @@
         <v>1864</v>
       </c>
       <c r="V57">
-        <v>56</v>
+        <v>290</v>
       </c>
       <c r="W57" s="5" t="s">
         <v>1865</v>
@@ -36866,7 +40293,7 @@
         <v>1868</v>
       </c>
       <c r="V58">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="W58" s="5" t="s">
         <v>1869</v>
@@ -36937,7 +40364,7 @@
         <v>1871</v>
       </c>
       <c r="V59">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="W59" s="5" t="s">
         <v>1873</v>
@@ -37008,7 +40435,7 @@
         <v>1876</v>
       </c>
       <c r="V60">
-        <v>59</v>
+        <v>272</v>
       </c>
       <c r="W60" s="5" t="s">
         <v>1877</v>
@@ -37079,7 +40506,7 @@
         <v>1878</v>
       </c>
       <c r="V61">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="W61" s="5" t="s">
         <v>1881</v>
@@ -37150,7 +40577,7 @@
         <v>1882</v>
       </c>
       <c r="V62">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="W62" s="5" t="s">
         <v>1885</v>
@@ -37221,7 +40648,7 @@
         <v>1888</v>
       </c>
       <c r="V63">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="W63" s="5" t="s">
         <v>1889</v>
@@ -37292,7 +40719,7 @@
         <v>1890</v>
       </c>
       <c r="V64">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="W64" s="5" t="s">
         <v>1893</v>
@@ -37363,7 +40790,7 @@
         <v>1894</v>
       </c>
       <c r="V65">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="W65" s="5" t="s">
         <v>1897</v>
@@ -37434,7 +40861,7 @@
         <v>1898</v>
       </c>
       <c r="V66">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="W66" s="5" t="s">
         <v>1901</v>
@@ -37505,7 +40932,7 @@
         <v>1904</v>
       </c>
       <c r="V67">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="W67" s="5" t="s">
         <v>1905</v>
@@ -37576,7 +41003,7 @@
         <v>1907</v>
       </c>
       <c r="V68">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="W68" s="5" t="s">
         <v>1909</v>
@@ -37647,7 +41074,7 @@
         <v>1912</v>
       </c>
       <c r="V69">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="W69" s="5" t="s">
         <v>1913</v>
@@ -37718,7 +41145,7 @@
         <v>1916</v>
       </c>
       <c r="V70">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="W70" s="5" t="s">
         <v>1917</v>
@@ -37789,7 +41216,7 @@
         <v>1919</v>
       </c>
       <c r="V71">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="W71" s="5" t="s">
         <v>1921</v>
@@ -37860,7 +41287,7 @@
         <v>1922</v>
       </c>
       <c r="V72">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="W72" s="5" t="s">
         <v>1925</v>
@@ -37931,7 +41358,7 @@
         <v>1926</v>
       </c>
       <c r="V73">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="W73" s="5" t="s">
         <v>1929</v>
@@ -38002,7 +41429,7 @@
         <v>1932</v>
       </c>
       <c r="V74">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="W74" s="5" t="s">
         <v>1933</v>
@@ -38073,7 +41500,7 @@
         <v>1934</v>
       </c>
       <c r="V75">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="W75" s="5" t="s">
         <v>1937</v>
@@ -38144,7 +41571,7 @@
         <v>1939</v>
       </c>
       <c r="V76">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="W76" s="5" t="s">
         <v>1941</v>
@@ -38215,7 +41642,7 @@
         <v>1942</v>
       </c>
       <c r="V77">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="W77" s="5" t="s">
         <v>1945</v>
@@ -38286,7 +41713,7 @@
         <v>1947</v>
       </c>
       <c r="V78">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W78" s="5" t="s">
         <v>1949</v>
@@ -38357,7 +41784,7 @@
         <v>1950</v>
       </c>
       <c r="V79">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="W79" s="5" t="s">
         <v>1953</v>
@@ -38428,7 +41855,7 @@
         <v>1956</v>
       </c>
       <c r="V80">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>1957</v>
@@ -38499,7 +41926,7 @@
         <v>1958</v>
       </c>
       <c r="V81">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="W81" s="5" t="s">
         <v>1961</v>
@@ -38570,7 +41997,7 @@
         <v>1963</v>
       </c>
       <c r="V82">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>1965</v>
@@ -38641,7 +42068,7 @@
         <v>1968</v>
       </c>
       <c r="V83">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="W83" s="5" t="s">
         <v>1969</v>
@@ -38712,7 +42139,7 @@
         <v>1972</v>
       </c>
       <c r="V84">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="W84" s="5" t="s">
         <v>1973</v>
@@ -38783,7 +42210,7 @@
         <v>1974</v>
       </c>
       <c r="V85">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>1977</v>
@@ -38854,7 +42281,7 @@
         <v>1978</v>
       </c>
       <c r="V86">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="W86" s="5" t="s">
         <v>1981</v>
@@ -38925,7 +42352,7 @@
         <v>1984</v>
       </c>
       <c r="V87">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>1985</v>
@@ -38996,7 +42423,7 @@
         <v>1986</v>
       </c>
       <c r="V88">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="W88" s="5" t="s">
         <v>1989</v>
@@ -39067,7 +42494,7 @@
         <v>1991</v>
       </c>
       <c r="V89">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="W89" s="5" t="s">
         <v>1993</v>
@@ -39138,7 +42565,7 @@
         <v>1996</v>
       </c>
       <c r="V90">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="W90" s="5" t="s">
         <v>1997</v>
@@ -39209,7 +42636,7 @@
         <v>2001</v>
       </c>
       <c r="V91">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="W91" s="5" t="s">
         <v>1999</v>
@@ -39280,7 +42707,7 @@
         <v>2002</v>
       </c>
       <c r="V92">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="W92" s="5" t="s">
         <v>2005</v>
@@ -39351,7 +42778,7 @@
         <v>2008</v>
       </c>
       <c r="V93">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="W93" s="5" t="s">
         <v>2009</v>
@@ -39422,7 +42849,7 @@
         <v>2010</v>
       </c>
       <c r="V94">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="W94" s="5" t="s">
         <v>2013</v>
@@ -39493,7 +42920,7 @@
         <v>2014</v>
       </c>
       <c r="V95">
-        <v>94</v>
+        <v>316</v>
       </c>
       <c r="W95" s="5" t="s">
         <v>2017</v>
@@ -39564,7 +42991,7 @@
         <v>2019</v>
       </c>
       <c r="V96">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="W96" s="5" t="s">
         <v>2021</v>
@@ -39635,7 +43062,7 @@
         <v>2023</v>
       </c>
       <c r="V97">
-        <v>96</v>
+        <v>311</v>
       </c>
       <c r="W97" s="5" t="s">
         <v>2025</v>
@@ -39706,7 +43133,7 @@
         <v>2026</v>
       </c>
       <c r="V98">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="W98" s="5" t="s">
         <v>2029</v>
@@ -39777,7 +43204,7 @@
         <v>2032</v>
       </c>
       <c r="V99">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="W99" s="5" t="s">
         <v>2033</v>
@@ -39848,7 +43275,7 @@
         <v>2034</v>
       </c>
       <c r="V100">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="W100" s="5" t="s">
         <v>2037</v>
@@ -39919,7 +43346,7 @@
         <v>2040</v>
       </c>
       <c r="V101">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="W101" s="5" t="s">
         <v>2041</v>
@@ -39990,7 +43417,7 @@
         <v>2043</v>
       </c>
       <c r="V102">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="W102" s="5" t="s">
         <v>2045</v>
@@ -40061,7 +43488,7 @@
         <v>2047</v>
       </c>
       <c r="V103">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="W103" s="5" t="s">
         <v>2049</v>
@@ -40132,7 +43559,7 @@
         <v>2052</v>
       </c>
       <c r="V104">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="W104" s="5" t="s">
         <v>2053</v>
@@ -40203,7 +43630,7 @@
         <v>2055</v>
       </c>
       <c r="V105">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="W105" s="5" t="s">
         <v>2057</v>
@@ -40274,7 +43701,7 @@
         <v>2058</v>
       </c>
       <c r="V106">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="W106" s="5" t="s">
         <v>2061</v>
@@ -40345,7 +43772,7 @@
         <v>2064</v>
       </c>
       <c r="V107">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="W107" s="5" t="s">
         <v>2065</v>
@@ -40416,7 +43843,7 @@
         <v>2068</v>
       </c>
       <c r="V108">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="W108" s="5" t="s">
         <v>2069</v>
@@ -40487,7 +43914,7 @@
         <v>2070</v>
       </c>
       <c r="V109">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="W109" s="5" t="s">
         <v>2073</v>
@@ -40558,7 +43985,7 @@
         <v>2076</v>
       </c>
       <c r="V110">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="W110" s="5" t="s">
         <v>2077</v>
@@ -40628,6 +44055,9 @@
       <c r="U111" s="5" t="s">
         <v>2082</v>
       </c>
+      <c r="V111">
+        <v>218</v>
+      </c>
       <c r="W111" s="5" t="s">
         <v>2079</v>
       </c>
@@ -40696,6 +44126,9 @@
       <c r="U112" t="s">
         <v>2084</v>
       </c>
+      <c r="V112">
+        <v>294</v>
+      </c>
       <c r="W112" s="5" t="s">
         <v>2086</v>
       </c>
@@ -40764,6 +44197,9 @@
       <c r="U113" s="5" t="s">
         <v>2087</v>
       </c>
+      <c r="V113">
+        <v>79</v>
+      </c>
       <c r="W113" s="5" t="s">
         <v>2090</v>
       </c>
@@ -40832,6 +44268,9 @@
       <c r="U114" s="5" t="s">
         <v>2092</v>
       </c>
+      <c r="V114">
+        <v>243</v>
+      </c>
       <c r="W114" s="5" t="s">
         <v>2094</v>
       </c>
@@ -40900,6 +44339,9 @@
       <c r="U115" s="5" t="s">
         <v>2097</v>
       </c>
+      <c r="V115">
+        <v>217</v>
+      </c>
       <c r="W115" s="5" t="s">
         <v>2098</v>
       </c>
@@ -40968,6 +44410,9 @@
       <c r="U116" s="5" t="s">
         <v>2100</v>
       </c>
+      <c r="V116">
+        <v>228</v>
+      </c>
       <c r="W116" s="5" t="s">
         <v>2102</v>
       </c>
@@ -41036,6 +44481,9 @@
       <c r="U117" s="5" t="s">
         <v>2103</v>
       </c>
+      <c r="V117">
+        <v>165</v>
+      </c>
       <c r="W117" s="5" t="s">
         <v>2106</v>
       </c>
@@ -41104,6 +44552,9 @@
       <c r="U118" s="5" t="s">
         <v>2107</v>
       </c>
+      <c r="V118">
+        <v>35</v>
+      </c>
       <c r="W118" s="5" t="s">
         <v>2110</v>
       </c>
@@ -41172,6 +44623,9 @@
       <c r="U119" s="5" t="s">
         <v>2113</v>
       </c>
+      <c r="V119">
+        <v>143</v>
+      </c>
       <c r="W119" s="5" t="s">
         <v>2114</v>
       </c>
@@ -41240,6 +44694,9 @@
       <c r="U120" s="5" t="s">
         <v>2116</v>
       </c>
+      <c r="V120">
+        <v>208</v>
+      </c>
       <c r="W120" s="5" t="s">
         <v>2118</v>
       </c>
@@ -41308,6 +44765,9 @@
       <c r="U121" s="5" t="s">
         <v>2119</v>
       </c>
+      <c r="V121">
+        <v>65</v>
+      </c>
       <c r="W121" s="5" t="s">
         <v>2122</v>
       </c>
@@ -41376,6 +44836,9 @@
       <c r="U122" s="5" t="s">
         <v>2123</v>
       </c>
+      <c r="V122">
+        <v>64</v>
+      </c>
       <c r="W122" s="5" t="s">
         <v>2126</v>
       </c>
@@ -41444,6 +44907,9 @@
       <c r="U123" s="5" t="s">
         <v>2129</v>
       </c>
+      <c r="V123">
+        <v>299</v>
+      </c>
       <c r="W123" s="5" t="s">
         <v>2130</v>
       </c>
@@ -41512,6 +44978,9 @@
       <c r="U124" s="5" t="s">
         <v>2131</v>
       </c>
+      <c r="V124">
+        <v>142</v>
+      </c>
       <c r="W124" s="5" t="s">
         <v>2134</v>
       </c>
@@ -41580,6 +45049,9 @@
       <c r="U125" s="5" t="s">
         <v>2137</v>
       </c>
+      <c r="V125">
+        <v>280</v>
+      </c>
       <c r="W125" s="5" t="s">
         <v>2138</v>
       </c>
@@ -41648,6 +45120,9 @@
       <c r="U126" s="5" t="s">
         <v>2140</v>
       </c>
+      <c r="V126">
+        <v>288</v>
+      </c>
       <c r="W126" s="5" t="s">
         <v>2142</v>
       </c>
@@ -41716,6 +45191,9 @@
       <c r="U127" s="5" t="s">
         <v>2143</v>
       </c>
+      <c r="V127">
+        <v>264</v>
+      </c>
       <c r="W127" s="5" t="s">
         <v>2146</v>
       </c>
@@ -41784,6 +45262,9 @@
       <c r="U128" s="5" t="s">
         <v>2149</v>
       </c>
+      <c r="V128">
+        <v>5</v>
+      </c>
       <c r="W128" s="5" t="s">
         <v>2150</v>
       </c>
@@ -41852,6 +45333,9 @@
       <c r="U129" s="5" t="s">
         <v>2151</v>
       </c>
+      <c r="V129">
+        <v>134</v>
+      </c>
       <c r="W129" s="5" t="s">
         <v>2154</v>
       </c>
@@ -41920,6 +45404,9 @@
       <c r="U130" s="5" t="s">
         <v>2157</v>
       </c>
+      <c r="V130">
+        <v>138</v>
+      </c>
       <c r="W130" s="5" t="s">
         <v>2158</v>
       </c>
@@ -41988,6 +45475,9 @@
       <c r="U131" s="5" t="s">
         <v>2159</v>
       </c>
+      <c r="V131">
+        <v>16</v>
+      </c>
       <c r="W131" s="5" t="s">
         <v>2162</v>
       </c>
@@ -42056,6 +45546,9 @@
       <c r="U132" s="5" t="s">
         <v>2165</v>
       </c>
+      <c r="V132">
+        <v>210</v>
+      </c>
       <c r="W132" s="5" t="s">
         <v>2166</v>
       </c>
@@ -42124,6 +45617,9 @@
       <c r="U133" s="5" t="s">
         <v>2167</v>
       </c>
+      <c r="V133">
+        <v>18</v>
+      </c>
       <c r="W133" s="5" t="s">
         <v>2170</v>
       </c>
@@ -42192,6 +45688,9 @@
       <c r="U134" s="5" t="s">
         <v>2173</v>
       </c>
+      <c r="V134">
+        <v>232</v>
+      </c>
       <c r="W134" s="5" t="s">
         <v>2174</v>
       </c>
@@ -42260,6 +45759,9 @@
       <c r="U135" s="5" t="s">
         <v>2177</v>
       </c>
+      <c r="V135">
+        <v>155</v>
+      </c>
       <c r="W135" s="5" t="s">
         <v>2178</v>
       </c>
@@ -42328,6 +45830,9 @@
       <c r="U136" t="s">
         <v>2181</v>
       </c>
+      <c r="V136">
+        <v>285</v>
+      </c>
       <c r="W136" s="5" t="s">
         <v>2182</v>
       </c>
@@ -42396,6 +45901,9 @@
       <c r="U137" s="5" t="s">
         <v>2183</v>
       </c>
+      <c r="V137">
+        <v>262</v>
+      </c>
       <c r="W137" s="5" t="s">
         <v>2186</v>
       </c>
@@ -42464,6 +45972,9 @@
       <c r="U138" s="5" t="s">
         <v>2189</v>
       </c>
+      <c r="V138">
+        <v>47</v>
+      </c>
       <c r="W138" s="5" t="s">
         <v>2190</v>
       </c>
@@ -42532,6 +46043,9 @@
       <c r="U139" s="5" t="s">
         <v>2193</v>
       </c>
+      <c r="V139">
+        <v>305</v>
+      </c>
       <c r="W139" s="5" t="s">
         <v>2194</v>
       </c>
@@ -42600,6 +46114,9 @@
       <c r="U140" s="5" t="s">
         <v>2197</v>
       </c>
+      <c r="V140">
+        <v>265</v>
+      </c>
       <c r="W140" s="5" t="s">
         <v>2198</v>
       </c>
@@ -42668,6 +46185,9 @@
       <c r="U141" s="5" t="s">
         <v>2200</v>
       </c>
+      <c r="V141">
+        <v>129</v>
+      </c>
       <c r="W141" s="5" t="s">
         <v>2202</v>
       </c>
@@ -42736,6 +46256,9 @@
       <c r="U142" s="5" t="s">
         <v>2204</v>
       </c>
+      <c r="V142">
+        <v>300</v>
+      </c>
       <c r="W142" s="5" t="s">
         <v>2206</v>
       </c>
@@ -42795,6 +46318,21 @@
       <c r="R143" s="7">
         <v>0.33</v>
       </c>
+      <c r="S143" t="s">
+        <v>2209</v>
+      </c>
+      <c r="T143" s="11" t="s">
+        <v>2210</v>
+      </c>
+      <c r="U143" s="5" t="s">
+        <v>2208</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143" s="5" t="s">
+        <v>2211</v>
+      </c>
     </row>
     <row r="144" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
@@ -42851,8 +46389,23 @@
       <c r="R144" s="7">
         <v>0.08</v>
       </c>
+      <c r="S144" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="T144" s="10" t="s">
+        <v>2212</v>
+      </c>
+      <c r="U144" s="5" t="s">
+        <v>2214</v>
+      </c>
+      <c r="V144">
+        <v>38</v>
+      </c>
+      <c r="W144" s="5" t="s">
+        <v>2215</v>
+      </c>
     </row>
-    <row r="145" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
@@ -42907,8 +46460,23 @@
       <c r="R145" s="7">
         <v>0.03</v>
       </c>
+      <c r="S145" t="s">
+        <v>2218</v>
+      </c>
+      <c r="T145" s="11" t="s">
+        <v>2217</v>
+      </c>
+      <c r="U145" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="V145">
+        <v>191</v>
+      </c>
+      <c r="W145" s="5" t="s">
+        <v>2219</v>
+      </c>
     </row>
-    <row r="146" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -42963,8 +46531,23 @@
       <c r="R146" s="7">
         <v>0.24</v>
       </c>
+      <c r="S146" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="T146" s="10" t="s">
+        <v>2220</v>
+      </c>
+      <c r="U146" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="V146">
+        <v>50</v>
+      </c>
+      <c r="W146" s="5" t="s">
+        <v>2223</v>
+      </c>
     </row>
-    <row r="147" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>5</v>
       </c>
@@ -43019,8 +46602,23 @@
       <c r="R147" s="7">
         <v>0.21</v>
       </c>
+      <c r="S147" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="T147" s="11" t="s">
+        <v>2226</v>
+      </c>
+      <c r="U147" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="V147">
+        <v>56</v>
+      </c>
+      <c r="W147" s="5" t="s">
+        <v>2227</v>
+      </c>
     </row>
-    <row r="148" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>5</v>
       </c>
@@ -43075,8 +46673,23 @@
       <c r="R148" s="7">
         <v>0</v>
       </c>
+      <c r="S148" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="T148" s="11" t="s">
+        <v>2230</v>
+      </c>
+      <c r="U148" s="5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="V148">
+        <v>289</v>
+      </c>
+      <c r="W148" s="5" t="s">
+        <v>2231</v>
+      </c>
     </row>
-    <row r="149" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
@@ -43131,8 +46744,23 @@
       <c r="R149" s="7">
         <v>0.1</v>
       </c>
+      <c r="S149" s="5" t="s">
+        <v>2232</v>
+      </c>
+      <c r="T149" s="11" t="s">
+        <v>2234</v>
+      </c>
+      <c r="U149" s="5" t="s">
+        <v>2233</v>
+      </c>
+      <c r="V149">
+        <v>162</v>
+      </c>
+      <c r="W149" s="5" t="s">
+        <v>2235</v>
+      </c>
     </row>
-    <row r="150" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>5</v>
       </c>
@@ -43187,8 +46815,23 @@
       <c r="R150" s="7">
         <v>0.18</v>
       </c>
+      <c r="S150" s="5" t="s">
+        <v>2237</v>
+      </c>
+      <c r="T150" s="11" t="s">
+        <v>2238</v>
+      </c>
+      <c r="U150" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="V150">
+        <v>167</v>
+      </c>
+      <c r="W150" s="5" t="s">
+        <v>2239</v>
+      </c>
     </row>
-    <row r="151" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -43243,8 +46886,23 @@
       <c r="R151" s="7">
         <v>0.04</v>
       </c>
+      <c r="S151" s="5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="T151" s="10" t="s">
+        <v>2240</v>
+      </c>
+      <c r="U151" s="5" t="s">
+        <v>2242</v>
+      </c>
+      <c r="V151">
+        <v>14</v>
+      </c>
+      <c r="W151" s="5" t="s">
+        <v>2243</v>
+      </c>
     </row>
-    <row r="152" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>5</v>
       </c>
@@ -43299,8 +46957,23 @@
       <c r="R152" s="7">
         <v>0.05</v>
       </c>
+      <c r="S152" s="5" t="s">
+        <v>2245</v>
+      </c>
+      <c r="T152" s="11" t="s">
+        <v>2246</v>
+      </c>
+      <c r="U152" s="5" t="s">
+        <v>2244</v>
+      </c>
+      <c r="V152">
+        <v>20</v>
+      </c>
+      <c r="W152" s="5" t="s">
+        <v>2247</v>
+      </c>
     </row>
-    <row r="153" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>5</v>
       </c>
@@ -43355,8 +47028,23 @@
       <c r="R153" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S153" s="5" t="s">
+        <v>2250</v>
+      </c>
+      <c r="T153" s="10" t="s">
+        <v>2248</v>
+      </c>
+      <c r="U153" s="5" t="s">
+        <v>2249</v>
+      </c>
+      <c r="V153">
+        <v>46</v>
+      </c>
+      <c r="W153" s="5" t="s">
+        <v>2251</v>
+      </c>
     </row>
-    <row r="154" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>31</v>
       </c>
@@ -43411,8 +47099,23 @@
       <c r="R154" s="7">
         <v>0.1</v>
       </c>
+      <c r="S154" s="5" t="s">
+        <v>2254</v>
+      </c>
+      <c r="T154" s="10" t="s">
+        <v>2252</v>
+      </c>
+      <c r="U154" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="V154">
+        <v>81</v>
+      </c>
+      <c r="W154" s="5" t="s">
+        <v>2255</v>
+      </c>
     </row>
-    <row r="155" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>31</v>
       </c>
@@ -43467,8 +47170,23 @@
       <c r="R155" s="7">
         <v>0.03</v>
       </c>
+      <c r="S155" s="5" t="s">
+        <v>2257</v>
+      </c>
+      <c r="T155" s="11" t="s">
+        <v>2258</v>
+      </c>
+      <c r="U155" s="5" t="s">
+        <v>2256</v>
+      </c>
+      <c r="V155">
+        <v>273</v>
+      </c>
+      <c r="W155" s="5" t="s">
+        <v>2259</v>
+      </c>
     </row>
-    <row r="156" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>31</v>
       </c>
@@ -43523,8 +47241,23 @@
       <c r="R156" s="7">
         <v>0.13</v>
       </c>
+      <c r="S156" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="T156" s="10" t="s">
+        <v>2260</v>
+      </c>
+      <c r="U156" s="5" t="s">
+        <v>2261</v>
+      </c>
+      <c r="V156">
+        <v>253</v>
+      </c>
+      <c r="W156" s="5" t="s">
+        <v>2263</v>
+      </c>
     </row>
-    <row r="157" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>31</v>
       </c>
@@ -43579,8 +47312,23 @@
       <c r="R157" s="7">
         <v>0.14000000000000001</v>
       </c>
+      <c r="S157" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="T157" s="10" t="s">
+        <v>2264</v>
+      </c>
+      <c r="U157" t="s">
+        <v>2266</v>
+      </c>
+      <c r="V157">
+        <v>148</v>
+      </c>
+      <c r="W157" s="5" t="s">
+        <v>2267</v>
+      </c>
     </row>
-    <row r="158" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>31</v>
       </c>
@@ -43635,8 +47383,23 @@
       <c r="R158" s="7">
         <v>0.05</v>
       </c>
+      <c r="S158" s="5" t="s">
+        <v>2269</v>
+      </c>
+      <c r="T158" s="10" t="s">
+        <v>2268</v>
+      </c>
+      <c r="U158" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="V158">
+        <v>170</v>
+      </c>
+      <c r="W158" s="5" t="s">
+        <v>2271</v>
+      </c>
     </row>
-    <row r="159" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>31</v>
       </c>
@@ -43691,8 +47454,23 @@
       <c r="R159" s="7">
         <v>0.1</v>
       </c>
+      <c r="S159" s="5" t="s">
+        <v>2274</v>
+      </c>
+      <c r="T159" s="10" t="s">
+        <v>2272</v>
+      </c>
+      <c r="U159" s="5" t="s">
+        <v>2273</v>
+      </c>
+      <c r="V159">
+        <v>12</v>
+      </c>
+      <c r="W159" s="5" t="s">
+        <v>2275</v>
+      </c>
     </row>
-    <row r="160" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>31</v>
       </c>
@@ -43747,8 +47525,23 @@
       <c r="R160" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S160" s="5" t="s">
+        <v>2276</v>
+      </c>
+      <c r="T160" s="11" t="s">
+        <v>2278</v>
+      </c>
+      <c r="U160" s="5" t="s">
+        <v>2277</v>
+      </c>
+      <c r="V160">
+        <v>222</v>
+      </c>
+      <c r="W160" s="5" t="s">
+        <v>2279</v>
+      </c>
     </row>
-    <row r="161" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>31</v>
       </c>
@@ -43803,8 +47596,23 @@
       <c r="R161" s="7">
         <v>0.34</v>
       </c>
+      <c r="S161" s="5" t="s">
+        <v>2281</v>
+      </c>
+      <c r="T161" s="11" t="s">
+        <v>2282</v>
+      </c>
+      <c r="U161" s="5" t="s">
+        <v>2280</v>
+      </c>
+      <c r="V161">
+        <v>126</v>
+      </c>
+      <c r="W161" s="5" t="s">
+        <v>2283</v>
+      </c>
     </row>
-    <row r="162" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>31</v>
       </c>
@@ -43859,8 +47667,23 @@
       <c r="R162" s="7">
         <v>0.27</v>
       </c>
+      <c r="S162" s="5" t="s">
+        <v>2286</v>
+      </c>
+      <c r="T162" s="10" t="s">
+        <v>2284</v>
+      </c>
+      <c r="U162" s="5" t="s">
+        <v>2285</v>
+      </c>
+      <c r="V162">
+        <v>223</v>
+      </c>
+      <c r="W162" s="5" t="s">
+        <v>2287</v>
+      </c>
     </row>
-    <row r="163" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>31</v>
       </c>
@@ -43915,8 +47738,23 @@
       <c r="R163" s="7">
         <v>0.16</v>
       </c>
+      <c r="S163" s="5" t="s">
+        <v>2289</v>
+      </c>
+      <c r="T163" s="10" t="s">
+        <v>2288</v>
+      </c>
+      <c r="U163" s="5" t="s">
+        <v>2290</v>
+      </c>
+      <c r="V163">
+        <v>278</v>
+      </c>
+      <c r="W163" s="5" t="s">
+        <v>2291</v>
+      </c>
     </row>
-    <row r="164" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>31</v>
       </c>
@@ -43971,8 +47809,23 @@
       <c r="R164" s="7">
         <v>0.17</v>
       </c>
+      <c r="S164" s="5" t="s">
+        <v>2292</v>
+      </c>
+      <c r="T164" s="11" t="s">
+        <v>2294</v>
+      </c>
+      <c r="U164" s="5" t="s">
+        <v>2293</v>
+      </c>
+      <c r="V164">
+        <v>24</v>
+      </c>
+      <c r="W164" s="5" t="s">
+        <v>2295</v>
+      </c>
     </row>
-    <row r="165" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>31</v>
       </c>
@@ -44027,8 +47880,23 @@
       <c r="R165" s="7">
         <v>0.21</v>
       </c>
+      <c r="S165" s="5" t="s">
+        <v>2297</v>
+      </c>
+      <c r="T165" s="11" t="s">
+        <v>2298</v>
+      </c>
+      <c r="U165" s="5" t="s">
+        <v>2296</v>
+      </c>
+      <c r="V165">
+        <v>157</v>
+      </c>
+      <c r="W165" s="5" t="s">
+        <v>2299</v>
+      </c>
     </row>
-    <row r="166" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>31</v>
       </c>
@@ -44083,8 +47951,23 @@
       <c r="R166" s="7">
         <v>0</v>
       </c>
+      <c r="S166" s="5" t="s">
+        <v>2301</v>
+      </c>
+      <c r="T166" s="10" t="s">
+        <v>2300</v>
+      </c>
+      <c r="U166" s="5" t="s">
+        <v>2302</v>
+      </c>
+      <c r="V166">
+        <v>195</v>
+      </c>
+      <c r="W166" s="5" t="s">
+        <v>2303</v>
+      </c>
     </row>
-    <row r="167" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>31</v>
       </c>
@@ -44139,8 +48022,23 @@
       <c r="R167" s="7">
         <v>0.02</v>
       </c>
+      <c r="S167" s="5" t="s">
+        <v>2305</v>
+      </c>
+      <c r="T167" s="10" t="s">
+        <v>2304</v>
+      </c>
+      <c r="U167" s="5" t="s">
+        <v>2306</v>
+      </c>
+      <c r="V167">
+        <v>160</v>
+      </c>
+      <c r="W167" s="5" t="s">
+        <v>2307</v>
+      </c>
     </row>
-    <row r="168" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>31</v>
       </c>
@@ -44195,8 +48093,23 @@
       <c r="R168" s="7">
         <v>0</v>
       </c>
+      <c r="S168" s="5" t="s">
+        <v>2308</v>
+      </c>
+      <c r="T168" s="11" t="s">
+        <v>2309</v>
+      </c>
+      <c r="U168" s="5" t="s">
+        <v>2310</v>
+      </c>
+      <c r="V168">
+        <v>151</v>
+      </c>
+      <c r="W168" s="5" t="s">
+        <v>2311</v>
+      </c>
     </row>
-    <row r="169" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>31</v>
       </c>
@@ -44251,8 +48164,23 @@
       <c r="R169" s="7">
         <v>0.06</v>
       </c>
+      <c r="S169" s="5" t="s">
+        <v>2313</v>
+      </c>
+      <c r="T169" s="11" t="s">
+        <v>2314</v>
+      </c>
+      <c r="U169" s="5" t="s">
+        <v>2312</v>
+      </c>
+      <c r="V169">
+        <v>179</v>
+      </c>
+      <c r="W169" s="5" t="s">
+        <v>2315</v>
+      </c>
     </row>
-    <row r="170" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>17</v>
       </c>
@@ -44307,8 +48235,23 @@
       <c r="R170" s="7">
         <v>0.13</v>
       </c>
+      <c r="S170" s="5" t="s">
+        <v>2318</v>
+      </c>
+      <c r="T170" s="11" t="s">
+        <v>2317</v>
+      </c>
+      <c r="U170" s="5" t="s">
+        <v>2316</v>
+      </c>
+      <c r="V170">
+        <v>4</v>
+      </c>
+      <c r="W170" s="5" t="s">
+        <v>2319</v>
+      </c>
     </row>
-    <row r="171" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>17</v>
       </c>
@@ -44363,8 +48306,23 @@
       <c r="R171" s="7">
         <v>0.34</v>
       </c>
+      <c r="S171" s="5" t="s">
+        <v>2320</v>
+      </c>
+      <c r="T171" s="11" t="s">
+        <v>2321</v>
+      </c>
+      <c r="U171" s="5" t="s">
+        <v>2322</v>
+      </c>
+      <c r="V171">
+        <v>287</v>
+      </c>
+      <c r="W171" s="5" t="s">
+        <v>2323</v>
+      </c>
     </row>
-    <row r="172" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>17</v>
       </c>
@@ -44419,8 +48377,23 @@
       <c r="R172" s="7">
         <v>0.18</v>
       </c>
+      <c r="S172" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="T172" s="11" t="s">
+        <v>2325</v>
+      </c>
+      <c r="U172" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="V172">
+        <v>240</v>
+      </c>
+      <c r="W172" s="5" t="s">
+        <v>2327</v>
+      </c>
     </row>
-    <row r="173" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>17</v>
       </c>
@@ -44475,8 +48448,23 @@
       <c r="R173" s="7">
         <v>0.17</v>
       </c>
+      <c r="S173" s="5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="T173" s="11" t="s">
+        <v>2329</v>
+      </c>
+      <c r="U173" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="V173">
+        <v>197</v>
+      </c>
+      <c r="W173" s="5" t="s">
+        <v>2331</v>
+      </c>
     </row>
-    <row r="174" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>17</v>
       </c>
@@ -44531,8 +48519,23 @@
       <c r="R174" s="7">
         <v>0.35</v>
       </c>
+      <c r="S174" s="5" t="s">
+        <v>2333</v>
+      </c>
+      <c r="T174" s="10" t="s">
+        <v>2332</v>
+      </c>
+      <c r="U174" s="5" t="s">
+        <v>2334</v>
+      </c>
+      <c r="V174">
+        <v>23</v>
+      </c>
+      <c r="W174" s="5" t="s">
+        <v>2335</v>
+      </c>
     </row>
-    <row r="175" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>17</v>
       </c>
@@ -44587,8 +48590,23 @@
       <c r="R175" s="7">
         <v>0</v>
       </c>
+      <c r="S175" s="5" t="s">
+        <v>2337</v>
+      </c>
+      <c r="T175" s="10" t="s">
+        <v>2336</v>
+      </c>
+      <c r="U175" s="5" t="s">
+        <v>2338</v>
+      </c>
+      <c r="V175">
+        <v>94</v>
+      </c>
+      <c r="W175" s="5" t="s">
+        <v>2339</v>
+      </c>
     </row>
-    <row r="176" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>17</v>
       </c>
@@ -44643,8 +48661,23 @@
       <c r="R176" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S176" s="5" t="s">
+        <v>2341</v>
+      </c>
+      <c r="T176" s="10" t="s">
+        <v>2340</v>
+      </c>
+      <c r="U176" s="5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="V176">
+        <v>115</v>
+      </c>
+      <c r="W176" s="5" t="s">
+        <v>2343</v>
+      </c>
     </row>
-    <row r="177" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>17</v>
       </c>
@@ -44699,8 +48732,23 @@
       <c r="R177" s="7">
         <v>0.15</v>
       </c>
+      <c r="S177" s="5" t="s">
+        <v>2344</v>
+      </c>
+      <c r="T177" s="11" t="s">
+        <v>2346</v>
+      </c>
+      <c r="U177" s="5" t="s">
+        <v>2345</v>
+      </c>
+      <c r="V177">
+        <v>112</v>
+      </c>
+      <c r="W177" s="5" t="s">
+        <v>2347</v>
+      </c>
     </row>
-    <row r="178" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>17</v>
       </c>
@@ -44755,8 +48803,23 @@
       <c r="R178" s="7">
         <v>0.09</v>
       </c>
+      <c r="S178" s="5" t="s">
+        <v>2349</v>
+      </c>
+      <c r="T178" s="11" t="s">
+        <v>2350</v>
+      </c>
+      <c r="U178" s="5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="V178">
+        <v>252</v>
+      </c>
+      <c r="W178" s="5" t="s">
+        <v>2351</v>
+      </c>
     </row>
-    <row r="179" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>17</v>
       </c>
@@ -44811,8 +48874,23 @@
       <c r="R179" s="7">
         <v>0.22</v>
       </c>
+      <c r="S179" s="5" t="s">
+        <v>2352</v>
+      </c>
+      <c r="T179" s="11" t="s">
+        <v>2354</v>
+      </c>
+      <c r="U179" s="5" t="s">
+        <v>2353</v>
+      </c>
+      <c r="V179">
+        <v>49</v>
+      </c>
+      <c r="W179" s="5" t="s">
+        <v>2355</v>
+      </c>
     </row>
-    <row r="180" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>17</v>
       </c>
@@ -44867,8 +48945,23 @@
       <c r="R180" s="7">
         <v>0.09</v>
       </c>
+      <c r="S180" s="5" t="s">
+        <v>2358</v>
+      </c>
+      <c r="T180" s="11" t="s">
+        <v>2357</v>
+      </c>
+      <c r="U180" s="5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="V180">
+        <v>139</v>
+      </c>
+      <c r="W180" s="5" t="s">
+        <v>2359</v>
+      </c>
     </row>
-    <row r="181" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>17</v>
       </c>
@@ -44923,8 +49016,23 @@
       <c r="R181" s="7">
         <v>0.12</v>
       </c>
+      <c r="S181" s="5" t="s">
+        <v>2362</v>
+      </c>
+      <c r="T181" s="11" t="s">
+        <v>2361</v>
+      </c>
+      <c r="U181" s="5" t="s">
+        <v>2360</v>
+      </c>
+      <c r="V181">
+        <v>6</v>
+      </c>
+      <c r="W181" s="5" t="s">
+        <v>2363</v>
+      </c>
     </row>
-    <row r="182" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>17</v>
       </c>
@@ -44979,8 +49087,23 @@
       <c r="R182" s="7">
         <v>0.27</v>
       </c>
+      <c r="S182" s="5" t="s">
+        <v>2365</v>
+      </c>
+      <c r="T182" s="11" t="s">
+        <v>2366</v>
+      </c>
+      <c r="U182" s="5" t="s">
+        <v>2364</v>
+      </c>
+      <c r="V182">
+        <v>193</v>
+      </c>
+      <c r="W182" s="5" t="s">
+        <v>2367</v>
+      </c>
     </row>
-    <row r="183" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>17</v>
       </c>
@@ -45035,8 +49158,23 @@
       <c r="R183" s="7">
         <v>0.17</v>
       </c>
+      <c r="S183" s="5" t="s">
+        <v>2370</v>
+      </c>
+      <c r="T183" s="11" t="s">
+        <v>2369</v>
+      </c>
+      <c r="U183" s="5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="V183">
+        <v>304</v>
+      </c>
+      <c r="W183" s="5" t="s">
+        <v>2371</v>
+      </c>
     </row>
-    <row r="184" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>17</v>
       </c>
@@ -45091,8 +49229,23 @@
       <c r="R184" s="7">
         <v>0.24</v>
       </c>
+      <c r="S184" s="5" t="s">
+        <v>2374</v>
+      </c>
+      <c r="T184" s="11" t="s">
+        <v>2373</v>
+      </c>
+      <c r="U184" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="V184">
+        <v>61</v>
+      </c>
+      <c r="W184" s="5" t="s">
+        <v>2375</v>
+      </c>
     </row>
-    <row r="185" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>17</v>
       </c>
@@ -45147,8 +49300,23 @@
       <c r="R185" s="7">
         <v>0.14000000000000001</v>
       </c>
+      <c r="S185" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="T185" s="11" t="s">
+        <v>2378</v>
+      </c>
+      <c r="U185" t="s">
+        <v>2377</v>
+      </c>
+      <c r="V185">
+        <v>108</v>
+      </c>
+      <c r="W185" s="5" t="s">
+        <v>2379</v>
+      </c>
     </row>
-    <row r="186" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>37</v>
       </c>
@@ -45203,8 +49371,23 @@
       <c r="R186" s="7">
         <v>0</v>
       </c>
+      <c r="S186" s="5" t="s">
+        <v>2381</v>
+      </c>
+      <c r="T186" s="11" t="s">
+        <v>2382</v>
+      </c>
+      <c r="U186" s="5" t="s">
+        <v>2380</v>
+      </c>
+      <c r="V186">
+        <v>137</v>
+      </c>
+      <c r="W186" s="5" t="s">
+        <v>2383</v>
+      </c>
     </row>
-    <row r="187" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>37</v>
       </c>
@@ -45259,8 +49442,23 @@
       <c r="R187" s="7">
         <v>0.05</v>
       </c>
+      <c r="S187" s="5" t="s">
+        <v>2384</v>
+      </c>
+      <c r="T187" s="11" t="s">
+        <v>2385</v>
+      </c>
+      <c r="U187" s="5" t="s">
+        <v>2386</v>
+      </c>
+      <c r="V187">
+        <v>185</v>
+      </c>
+      <c r="W187" s="5" t="s">
+        <v>2387</v>
+      </c>
     </row>
-    <row r="188" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>37</v>
       </c>
@@ -45315,8 +49513,23 @@
       <c r="R188" s="7">
         <v>0.05</v>
       </c>
+      <c r="S188" s="5" t="s">
+        <v>2390</v>
+      </c>
+      <c r="T188" s="11" t="s">
+        <v>2389</v>
+      </c>
+      <c r="U188" s="5" t="s">
+        <v>2388</v>
+      </c>
+      <c r="V188">
+        <v>69</v>
+      </c>
+      <c r="W188" s="5" t="s">
+        <v>2391</v>
+      </c>
     </row>
-    <row r="189" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>37</v>
       </c>
@@ -45371,8 +49584,23 @@
       <c r="R189" s="7">
         <v>0.09</v>
       </c>
+      <c r="S189" s="5" t="s">
+        <v>2393</v>
+      </c>
+      <c r="T189" s="11" t="s">
+        <v>2394</v>
+      </c>
+      <c r="U189" s="5" t="s">
+        <v>2392</v>
+      </c>
+      <c r="V189">
+        <v>201</v>
+      </c>
+      <c r="W189" s="5" t="s">
+        <v>2395</v>
+      </c>
     </row>
-    <row r="190" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>37</v>
       </c>
@@ -45427,8 +49655,23 @@
       <c r="R190" s="7">
         <v>0.18</v>
       </c>
+      <c r="S190" s="5" t="s">
+        <v>2398</v>
+      </c>
+      <c r="T190" s="11" t="s">
+        <v>2397</v>
+      </c>
+      <c r="U190" s="5" t="s">
+        <v>2396</v>
+      </c>
+      <c r="V190">
+        <v>111</v>
+      </c>
+      <c r="W190" s="5" t="s">
+        <v>2399</v>
+      </c>
     </row>
-    <row r="191" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>37</v>
       </c>
@@ -45483,8 +49726,23 @@
       <c r="R191" s="7">
         <v>0.14000000000000001</v>
       </c>
+      <c r="S191" s="5" t="s">
+        <v>2400</v>
+      </c>
+      <c r="T191" s="11" t="s">
+        <v>2402</v>
+      </c>
+      <c r="U191" s="5" t="s">
+        <v>2401</v>
+      </c>
+      <c r="V191">
+        <v>127</v>
+      </c>
+      <c r="W191" s="5" t="s">
+        <v>2403</v>
+      </c>
     </row>
-    <row r="192" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>37</v>
       </c>
@@ -45539,8 +49797,23 @@
       <c r="R192" s="7">
         <v>0.2</v>
       </c>
+      <c r="S192" s="5" t="s">
+        <v>2404</v>
+      </c>
+      <c r="T192" s="11" t="s">
+        <v>2405</v>
+      </c>
+      <c r="U192" s="5" t="s">
+        <v>2406</v>
+      </c>
+      <c r="V192">
+        <v>242</v>
+      </c>
+      <c r="W192" s="5" t="s">
+        <v>2407</v>
+      </c>
     </row>
-    <row r="193" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>37</v>
       </c>
@@ -45595,8 +49868,23 @@
       <c r="R193" s="7">
         <v>0.24</v>
       </c>
+      <c r="S193" s="5" t="s">
+        <v>2408</v>
+      </c>
+      <c r="T193" s="11" t="s">
+        <v>2409</v>
+      </c>
+      <c r="U193" s="5" t="s">
+        <v>2410</v>
+      </c>
+      <c r="V193">
+        <v>27</v>
+      </c>
+      <c r="W193" s="5" t="s">
+        <v>2411</v>
+      </c>
     </row>
-    <row r="194" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>37</v>
       </c>
@@ -45651,8 +49939,23 @@
       <c r="R194" s="7">
         <v>0.06</v>
       </c>
+      <c r="S194" s="5" t="s">
+        <v>2413</v>
+      </c>
+      <c r="T194" s="10" t="s">
+        <v>2412</v>
+      </c>
+      <c r="U194" s="5" t="s">
+        <v>2414</v>
+      </c>
+      <c r="V194">
+        <v>11</v>
+      </c>
+      <c r="W194" s="5" t="s">
+        <v>2415</v>
+      </c>
     </row>
-    <row r="195" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>37</v>
       </c>
@@ -45707,8 +50010,23 @@
       <c r="R195" s="7">
         <v>0.13</v>
       </c>
+      <c r="S195" s="5" t="s">
+        <v>2416</v>
+      </c>
+      <c r="T195" s="11" t="s">
+        <v>2417</v>
+      </c>
+      <c r="U195" s="5" t="s">
+        <v>2418</v>
+      </c>
+      <c r="V195">
+        <v>306</v>
+      </c>
+      <c r="W195" s="5" t="s">
+        <v>2419</v>
+      </c>
     </row>
-    <row r="196" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>37</v>
       </c>
@@ -45763,8 +50081,23 @@
       <c r="R196" s="7">
         <v>0.27</v>
       </c>
+      <c r="S196" s="5" t="s">
+        <v>2421</v>
+      </c>
+      <c r="T196" s="11" t="s">
+        <v>2422</v>
+      </c>
+      <c r="U196" s="5" t="s">
+        <v>2420</v>
+      </c>
+      <c r="V196">
+        <v>117</v>
+      </c>
+      <c r="W196" s="5" t="s">
+        <v>2427</v>
+      </c>
     </row>
-    <row r="197" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>37</v>
       </c>
@@ -45819,8 +50152,23 @@
       <c r="R197" s="7">
         <v>0</v>
       </c>
+      <c r="S197" s="5" t="s">
+        <v>2424</v>
+      </c>
+      <c r="T197" s="11" t="s">
+        <v>2425</v>
+      </c>
+      <c r="U197" s="5" t="s">
+        <v>2423</v>
+      </c>
+      <c r="V197">
+        <v>282</v>
+      </c>
+      <c r="W197" s="5" t="s">
+        <v>2426</v>
+      </c>
     </row>
-    <row r="198" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>37</v>
       </c>
@@ -45875,8 +50223,23 @@
       <c r="R198" s="7">
         <v>0.1</v>
       </c>
+      <c r="S198" s="5" t="s">
+        <v>2428</v>
+      </c>
+      <c r="T198" s="11" t="s">
+        <v>2429</v>
+      </c>
+      <c r="U198" s="5" t="s">
+        <v>2430</v>
+      </c>
+      <c r="V198">
+        <v>297</v>
+      </c>
+      <c r="W198" s="5" t="s">
+        <v>2431</v>
+      </c>
     </row>
-    <row r="199" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>37</v>
       </c>
@@ -45931,8 +50294,23 @@
       <c r="R199" s="7">
         <v>0.11</v>
       </c>
+      <c r="S199" s="5" t="s">
+        <v>2433</v>
+      </c>
+      <c r="T199" s="10" t="s">
+        <v>2432</v>
+      </c>
+      <c r="U199" s="5" t="s">
+        <v>2434</v>
+      </c>
+      <c r="V199">
+        <v>152</v>
+      </c>
+      <c r="W199" s="5" t="s">
+        <v>2435</v>
+      </c>
     </row>
-    <row r="200" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>37</v>
       </c>
@@ -45987,8 +50365,23 @@
       <c r="R200" s="7">
         <v>0.03</v>
       </c>
+      <c r="S200" s="5" t="s">
+        <v>2437</v>
+      </c>
+      <c r="T200" s="10" t="s">
+        <v>2436</v>
+      </c>
+      <c r="U200" s="5" t="s">
+        <v>2438</v>
+      </c>
+      <c r="V200">
+        <v>141</v>
+      </c>
+      <c r="W200" s="5" t="s">
+        <v>2439</v>
+      </c>
     </row>
-    <row r="201" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>37</v>
       </c>
@@ -46043,8 +50436,23 @@
       <c r="R201" s="7">
         <v>0.04</v>
       </c>
+      <c r="S201" s="5" t="s">
+        <v>2441</v>
+      </c>
+      <c r="T201" s="11" t="s">
+        <v>2442</v>
+      </c>
+      <c r="U201" s="5" t="s">
+        <v>2440</v>
+      </c>
+      <c r="V201">
+        <v>99</v>
+      </c>
+      <c r="W201" s="5" t="s">
+        <v>2443</v>
+      </c>
     </row>
-    <row r="202" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>11</v>
       </c>
@@ -46099,8 +50507,23 @@
       <c r="R202" s="7">
         <v>0.05</v>
       </c>
+      <c r="S202" s="5" t="s">
+        <v>2445</v>
+      </c>
+      <c r="T202" s="10" t="s">
+        <v>2444</v>
+      </c>
+      <c r="U202" s="5" t="s">
+        <v>2446</v>
+      </c>
+      <c r="V202">
+        <v>227</v>
+      </c>
+      <c r="W202" s="5" t="s">
+        <v>2447</v>
+      </c>
     </row>
-    <row r="203" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>11</v>
       </c>
@@ -46155,8 +50578,23 @@
       <c r="R203" s="7">
         <v>0.25</v>
       </c>
+      <c r="S203" s="5" t="s">
+        <v>2449</v>
+      </c>
+      <c r="T203" s="10" t="s">
+        <v>2448</v>
+      </c>
+      <c r="U203" s="5" t="s">
+        <v>2450</v>
+      </c>
+      <c r="V203">
+        <v>89</v>
+      </c>
+      <c r="W203" s="5" t="s">
+        <v>2451</v>
+      </c>
     </row>
-    <row r="204" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>11</v>
       </c>
@@ -46211,8 +50649,23 @@
       <c r="R204" s="7">
         <v>0.25</v>
       </c>
+      <c r="S204" s="5" t="s">
+        <v>2454</v>
+      </c>
+      <c r="T204" s="10" t="s">
+        <v>2452</v>
+      </c>
+      <c r="U204" s="5" t="s">
+        <v>2453</v>
+      </c>
+      <c r="V204">
+        <v>206</v>
+      </c>
+      <c r="W204" s="5" t="s">
+        <v>2455</v>
+      </c>
     </row>
-    <row r="205" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>11</v>
       </c>
@@ -46267,8 +50720,23 @@
       <c r="R205" s="7">
         <v>0.2</v>
       </c>
+      <c r="S205" s="5" t="s">
+        <v>2456</v>
+      </c>
+      <c r="T205" s="11" t="s">
+        <v>2457</v>
+      </c>
+      <c r="U205" s="5" t="s">
+        <v>2458</v>
+      </c>
+      <c r="V205">
+        <v>67</v>
+      </c>
+      <c r="W205" s="5" t="s">
+        <v>2459</v>
+      </c>
     </row>
-    <row r="206" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>35</v>
       </c>
@@ -46323,8 +50791,23 @@
       <c r="R206" s="7">
         <v>0.05</v>
       </c>
+      <c r="S206" s="5" t="s">
+        <v>2461</v>
+      </c>
+      <c r="T206" t="s">
+        <v>2462</v>
+      </c>
+      <c r="U206" s="5" t="s">
+        <v>2460</v>
+      </c>
+      <c r="V206">
+        <v>132</v>
+      </c>
+      <c r="W206" s="5" t="s">
+        <v>2463</v>
+      </c>
     </row>
-    <row r="207" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>35</v>
       </c>
@@ -46379,8 +50862,23 @@
       <c r="R207" s="7">
         <v>0.17</v>
       </c>
+      <c r="S207" s="5" t="s">
+        <v>2466</v>
+      </c>
+      <c r="T207" s="11" t="s">
+        <v>2465</v>
+      </c>
+      <c r="U207" s="5" t="s">
+        <v>2464</v>
+      </c>
+      <c r="V207">
+        <v>104</v>
+      </c>
+      <c r="W207" s="5" t="s">
+        <v>2467</v>
+      </c>
     </row>
-    <row r="208" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>35</v>
       </c>
@@ -46435,8 +50933,23 @@
       <c r="R208" s="7">
         <v>0.25</v>
       </c>
+      <c r="S208" s="5" t="s">
+        <v>2469</v>
+      </c>
+      <c r="T208" s="11" t="s">
+        <v>2470</v>
+      </c>
+      <c r="U208" s="5" t="s">
+        <v>2468</v>
+      </c>
+      <c r="V208">
+        <v>57</v>
+      </c>
+      <c r="W208" s="5" t="s">
+        <v>2471</v>
+      </c>
     </row>
-    <row r="209" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>35</v>
       </c>
@@ -46491,8 +51004,23 @@
       <c r="R209" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S209" s="5" t="s">
+        <v>2474</v>
+      </c>
+      <c r="T209" s="10" t="s">
+        <v>2472</v>
+      </c>
+      <c r="U209" s="5" t="s">
+        <v>2473</v>
+      </c>
+      <c r="V209">
+        <v>249</v>
+      </c>
+      <c r="W209" s="5" t="s">
+        <v>2475</v>
+      </c>
     </row>
-    <row r="210" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>35</v>
       </c>
@@ -46547,8 +51075,23 @@
       <c r="R210" s="7">
         <v>0.12</v>
       </c>
+      <c r="S210" s="5" t="s">
+        <v>2476</v>
+      </c>
+      <c r="T210" s="11" t="s">
+        <v>2478</v>
+      </c>
+      <c r="U210" s="5" t="s">
+        <v>2477</v>
+      </c>
+      <c r="V210">
+        <v>51</v>
+      </c>
+      <c r="W210" s="5" t="s">
+        <v>2479</v>
+      </c>
     </row>
-    <row r="211" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>35</v>
       </c>
@@ -46603,8 +51146,23 @@
       <c r="R211" s="7">
         <v>0</v>
       </c>
+      <c r="S211" s="5" t="s">
+        <v>2481</v>
+      </c>
+      <c r="T211" s="11" t="s">
+        <v>2482</v>
+      </c>
+      <c r="U211" s="5" t="s">
+        <v>2480</v>
+      </c>
+      <c r="V211">
+        <v>128</v>
+      </c>
+      <c r="W211" s="5" t="s">
+        <v>2483</v>
+      </c>
     </row>
-    <row r="212" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>35</v>
       </c>
@@ -46659,8 +51217,23 @@
       <c r="R212" s="7">
         <v>0.03</v>
       </c>
+      <c r="S212" s="5" t="s">
+        <v>2486</v>
+      </c>
+      <c r="T212" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="U212" s="5" t="s">
+        <v>2485</v>
+      </c>
+      <c r="V212">
+        <v>270</v>
+      </c>
+      <c r="W212" s="5" t="s">
+        <v>2487</v>
+      </c>
     </row>
-    <row r="213" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>35</v>
       </c>
@@ -46715,8 +51288,23 @@
       <c r="R213" s="7">
         <v>0.06</v>
       </c>
+      <c r="S213" s="5" t="s">
+        <v>2490</v>
+      </c>
+      <c r="T213" s="10" t="s">
+        <v>2488</v>
+      </c>
+      <c r="U213" s="5" t="s">
+        <v>2489</v>
+      </c>
+      <c r="V213">
+        <v>42</v>
+      </c>
+      <c r="W213" s="5" t="s">
+        <v>2491</v>
+      </c>
     </row>
-    <row r="214" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>35</v>
       </c>
@@ -46771,8 +51359,23 @@
       <c r="R214" s="7">
         <v>0.03</v>
       </c>
+      <c r="S214" s="5" t="s">
+        <v>2492</v>
+      </c>
+      <c r="T214" s="11" t="s">
+        <v>2493</v>
+      </c>
+      <c r="U214" s="5" t="s">
+        <v>2494</v>
+      </c>
+      <c r="V214">
+        <v>156</v>
+      </c>
+      <c r="W214" s="5" t="s">
+        <v>2495</v>
+      </c>
     </row>
-    <row r="215" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>35</v>
       </c>
@@ -46827,8 +51430,23 @@
       <c r="R215" s="7">
         <v>0.26</v>
       </c>
+      <c r="S215" s="5" t="s">
+        <v>2498</v>
+      </c>
+      <c r="T215" s="10" t="s">
+        <v>2496</v>
+      </c>
+      <c r="U215" s="5" t="s">
+        <v>2497</v>
+      </c>
+      <c r="V215">
+        <v>267</v>
+      </c>
+      <c r="W215" s="5" t="s">
+        <v>2499</v>
+      </c>
     </row>
-    <row r="216" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>35</v>
       </c>
@@ -46883,8 +51501,23 @@
       <c r="R216" s="7">
         <v>0.02</v>
       </c>
+      <c r="S216" s="5" t="s">
+        <v>2501</v>
+      </c>
+      <c r="T216" s="10" t="s">
+        <v>2500</v>
+      </c>
+      <c r="U216" s="5" t="s">
+        <v>2502</v>
+      </c>
+      <c r="V216">
+        <v>295</v>
+      </c>
+      <c r="W216" s="5" t="s">
+        <v>2503</v>
+      </c>
     </row>
-    <row r="217" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>35</v>
       </c>
@@ -46939,8 +51572,23 @@
       <c r="R217" s="7">
         <v>0.1</v>
       </c>
+      <c r="S217" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="T217" s="11" t="s">
+        <v>2505</v>
+      </c>
+      <c r="U217" s="5" t="s">
+        <v>2504</v>
+      </c>
+      <c r="V217">
+        <v>76</v>
+      </c>
+      <c r="W217" s="5" t="s">
+        <v>2507</v>
+      </c>
     </row>
-    <row r="218" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>35</v>
       </c>
@@ -46995,8 +51643,23 @@
       <c r="R218" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S218" s="5" t="s">
+        <v>2508</v>
+      </c>
+      <c r="T218" s="11" t="s">
+        <v>2509</v>
+      </c>
+      <c r="U218" s="5" t="s">
+        <v>2510</v>
+      </c>
+      <c r="V218">
+        <v>310</v>
+      </c>
+      <c r="W218" s="5" t="s">
+        <v>2511</v>
+      </c>
     </row>
-    <row r="219" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>35</v>
       </c>
@@ -47051,8 +51714,23 @@
       <c r="R219" s="7">
         <v>0.05</v>
       </c>
+      <c r="S219" s="5" t="s">
+        <v>2513</v>
+      </c>
+      <c r="T219" s="10" t="s">
+        <v>2512</v>
+      </c>
+      <c r="U219" s="5" t="s">
+        <v>2514</v>
+      </c>
+      <c r="V219">
+        <v>140</v>
+      </c>
+      <c r="W219" s="5" t="s">
+        <v>2515</v>
+      </c>
     </row>
-    <row r="220" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>35</v>
       </c>
@@ -47107,8 +51785,23 @@
       <c r="R220" s="7">
         <v>0.09</v>
       </c>
+      <c r="S220" s="5" t="s">
+        <v>2518</v>
+      </c>
+      <c r="T220" s="10" t="s">
+        <v>2516</v>
+      </c>
+      <c r="U220" s="5" t="s">
+        <v>2517</v>
+      </c>
+      <c r="V220">
+        <v>73</v>
+      </c>
+      <c r="W220" s="5" t="s">
+        <v>2519</v>
+      </c>
     </row>
-    <row r="221" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>35</v>
       </c>
@@ -47163,8 +51856,23 @@
       <c r="R221" s="7">
         <v>0.13</v>
       </c>
+      <c r="S221" s="5" t="s">
+        <v>2521</v>
+      </c>
+      <c r="T221" s="10" t="s">
+        <v>2520</v>
+      </c>
+      <c r="U221" s="5" t="s">
+        <v>2522</v>
+      </c>
+      <c r="V221">
+        <v>60</v>
+      </c>
+      <c r="W221" s="5" t="s">
+        <v>2523</v>
+      </c>
     </row>
-    <row r="222" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>61</v>
       </c>
@@ -47219,8 +51927,23 @@
       <c r="R222" s="7">
         <v>0.23</v>
       </c>
+      <c r="S222" s="5" t="s">
+        <v>2526</v>
+      </c>
+      <c r="T222" s="11" t="s">
+        <v>2525</v>
+      </c>
+      <c r="U222" s="5" t="s">
+        <v>2524</v>
+      </c>
+      <c r="V222">
+        <v>125</v>
+      </c>
+      <c r="W222" s="5" t="s">
+        <v>2527</v>
+      </c>
     </row>
-    <row r="223" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>61</v>
       </c>
@@ -47275,8 +51998,23 @@
       <c r="R223" s="7">
         <v>0.24</v>
       </c>
+      <c r="S223" s="5" t="s">
+        <v>2529</v>
+      </c>
+      <c r="T223" s="10" t="s">
+        <v>2528</v>
+      </c>
+      <c r="U223" s="5" t="s">
+        <v>2530</v>
+      </c>
+      <c r="V223">
+        <v>229</v>
+      </c>
+      <c r="W223" s="5" t="s">
+        <v>2531</v>
+      </c>
     </row>
-    <row r="224" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>61</v>
       </c>
@@ -47331,8 +52069,23 @@
       <c r="R224" s="7">
         <v>0.15</v>
       </c>
+      <c r="S224" t="s">
+        <v>2533</v>
+      </c>
+      <c r="T224" s="11" t="s">
+        <v>2534</v>
+      </c>
+      <c r="U224" s="5" t="s">
+        <v>2532</v>
+      </c>
+      <c r="V224">
+        <v>182</v>
+      </c>
+      <c r="W224" s="5" t="s">
+        <v>2535</v>
+      </c>
     </row>
-    <row r="225" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>61</v>
       </c>
@@ -47387,8 +52140,23 @@
       <c r="R225" s="7">
         <v>0.1</v>
       </c>
+      <c r="S225" s="5" t="s">
+        <v>2538</v>
+      </c>
+      <c r="T225" s="11" t="s">
+        <v>2537</v>
+      </c>
+      <c r="U225" s="5" t="s">
+        <v>2536</v>
+      </c>
+      <c r="V225">
+        <v>123</v>
+      </c>
+      <c r="W225" s="5" t="s">
+        <v>2539</v>
+      </c>
     </row>
-    <row r="226" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>15</v>
       </c>
@@ -47443,8 +52211,23 @@
       <c r="R226" s="7">
         <v>0.04</v>
       </c>
+      <c r="S226" s="5" t="s">
+        <v>2541</v>
+      </c>
+      <c r="T226" s="11" t="s">
+        <v>2542</v>
+      </c>
+      <c r="U226" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="V226">
+        <v>34</v>
+      </c>
+      <c r="W226" s="5" t="s">
+        <v>2543</v>
+      </c>
     </row>
-    <row r="227" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>15</v>
       </c>
@@ -47499,8 +52282,23 @@
       <c r="R227" s="7">
         <v>0.17</v>
       </c>
+      <c r="S227" s="5" t="s">
+        <v>2545</v>
+      </c>
+      <c r="T227" s="11" t="s">
+        <v>2546</v>
+      </c>
+      <c r="U227" s="5" t="s">
+        <v>2544</v>
+      </c>
+      <c r="V227">
+        <v>118</v>
+      </c>
+      <c r="W227" s="5" t="s">
+        <v>2547</v>
+      </c>
     </row>
-    <row r="228" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>15</v>
       </c>
@@ -47555,8 +52353,23 @@
       <c r="R228" s="7">
         <v>0</v>
       </c>
+      <c r="S228" s="5" t="s">
+        <v>2550</v>
+      </c>
+      <c r="T228" s="10" t="s">
+        <v>2548</v>
+      </c>
+      <c r="U228" s="5" t="s">
+        <v>2549</v>
+      </c>
+      <c r="V228">
+        <v>291</v>
+      </c>
+      <c r="W228" s="5" t="s">
+        <v>2551</v>
+      </c>
     </row>
-    <row r="229" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>15</v>
       </c>
@@ -47611,8 +52424,23 @@
       <c r="R229" s="7">
         <v>0</v>
       </c>
+      <c r="S229" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="T229" s="11" t="s">
+        <v>2554</v>
+      </c>
+      <c r="U229" s="5" t="s">
+        <v>2552</v>
+      </c>
+      <c r="V229">
+        <v>7</v>
+      </c>
+      <c r="W229" s="5" t="s">
+        <v>2555</v>
+      </c>
     </row>
-    <row r="230" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>15</v>
       </c>
@@ -47667,8 +52495,23 @@
       <c r="R230" s="7">
         <v>0.24</v>
       </c>
+      <c r="S230" s="5" t="s">
+        <v>2556</v>
+      </c>
+      <c r="T230" s="11" t="s">
+        <v>2557</v>
+      </c>
+      <c r="U230" s="5" t="s">
+        <v>2558</v>
+      </c>
+      <c r="V230">
+        <v>315</v>
+      </c>
+      <c r="W230" s="5" t="s">
+        <v>2559</v>
+      </c>
     </row>
-    <row r="231" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>15</v>
       </c>
@@ -47723,8 +52566,23 @@
       <c r="R231" s="7">
         <v>0.03</v>
       </c>
+      <c r="S231" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="T231" s="11" t="s">
+        <v>2561</v>
+      </c>
+      <c r="U231" s="5" t="s">
+        <v>2562</v>
+      </c>
+      <c r="V231">
+        <v>158</v>
+      </c>
+      <c r="W231" s="5" t="s">
+        <v>2563</v>
+      </c>
     </row>
-    <row r="232" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>15</v>
       </c>
@@ -47779,8 +52637,23 @@
       <c r="R232" s="7">
         <v>0</v>
       </c>
+      <c r="S232" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="T232" s="11" t="s">
+        <v>2565</v>
+      </c>
+      <c r="U232" s="5" t="s">
+        <v>2566</v>
+      </c>
+      <c r="V232">
+        <v>314</v>
+      </c>
+      <c r="W232" s="5" t="s">
+        <v>2567</v>
+      </c>
     </row>
-    <row r="233" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>15</v>
       </c>
@@ -47835,8 +52708,23 @@
       <c r="R233" s="7">
         <v>0</v>
       </c>
+      <c r="S233" s="5" t="s">
+        <v>2569</v>
+      </c>
+      <c r="T233" s="10" t="s">
+        <v>2568</v>
+      </c>
+      <c r="U233" s="5" t="s">
+        <v>2570</v>
+      </c>
+      <c r="V233">
+        <v>10</v>
+      </c>
+      <c r="W233" s="5" t="s">
+        <v>2571</v>
+      </c>
     </row>
-    <row r="234" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>15</v>
       </c>
@@ -47891,8 +52779,23 @@
       <c r="R234" s="7">
         <v>0.16</v>
       </c>
+      <c r="S234" s="5" t="s">
+        <v>2572</v>
+      </c>
+      <c r="T234" s="11" t="s">
+        <v>2573</v>
+      </c>
+      <c r="U234" s="5" t="s">
+        <v>2574</v>
+      </c>
+      <c r="V234">
+        <v>263</v>
+      </c>
+      <c r="W234" s="5" t="s">
+        <v>2575</v>
+      </c>
     </row>
-    <row r="235" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>15</v>
       </c>
@@ -47947,8 +52850,23 @@
       <c r="R235" s="7">
         <v>0.45</v>
       </c>
+      <c r="S235" s="5" t="s">
+        <v>2576</v>
+      </c>
+      <c r="T235" s="11" t="s">
+        <v>2577</v>
+      </c>
+      <c r="U235" s="5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="V235">
+        <v>284</v>
+      </c>
+      <c r="W235" s="5" t="s">
+        <v>2579</v>
+      </c>
     </row>
-    <row r="236" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>15</v>
       </c>
@@ -48003,8 +52921,23 @@
       <c r="R236" s="7">
         <v>0.08</v>
       </c>
+      <c r="S236" s="5" t="s">
+        <v>2581</v>
+      </c>
+      <c r="T236" s="11" t="s">
+        <v>2582</v>
+      </c>
+      <c r="U236" s="5" t="s">
+        <v>2580</v>
+      </c>
+      <c r="V236">
+        <v>313</v>
+      </c>
+      <c r="W236" s="5" t="s">
+        <v>2583</v>
+      </c>
     </row>
-    <row r="237" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>15</v>
       </c>
@@ -48059,8 +52992,23 @@
       <c r="R237" s="7">
         <v>0</v>
       </c>
+      <c r="S237" s="5" t="s">
+        <v>2584</v>
+      </c>
+      <c r="T237" s="11" t="s">
+        <v>2586</v>
+      </c>
+      <c r="U237" s="5" t="s">
+        <v>2585</v>
+      </c>
+      <c r="V237">
+        <v>204</v>
+      </c>
+      <c r="W237" s="5" t="s">
+        <v>2587</v>
+      </c>
     </row>
-    <row r="238" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>15</v>
       </c>
@@ -48115,8 +53063,23 @@
       <c r="R238" s="7">
         <v>0.32</v>
       </c>
+      <c r="S238" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="T238" s="11" t="s">
+        <v>2590</v>
+      </c>
+      <c r="U238" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="V238">
+        <v>55</v>
+      </c>
+      <c r="W238" s="5" t="s">
+        <v>2591</v>
+      </c>
     </row>
-    <row r="239" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>15</v>
       </c>
@@ -48171,8 +53134,23 @@
       <c r="R239" s="7">
         <v>0.13</v>
       </c>
+      <c r="S239" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="T239" s="11" t="s">
+        <v>2594</v>
+      </c>
+      <c r="U239" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="V239">
+        <v>121</v>
+      </c>
+      <c r="W239" s="5" t="s">
+        <v>2595</v>
+      </c>
     </row>
-    <row r="240" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>15</v>
       </c>
@@ -48227,8 +53205,23 @@
       <c r="R240" s="7">
         <v>0.14000000000000001</v>
       </c>
+      <c r="S240" s="5" t="s">
+        <v>2597</v>
+      </c>
+      <c r="T240" s="10" t="s">
+        <v>2596</v>
+      </c>
+      <c r="U240" s="5" t="s">
+        <v>2598</v>
+      </c>
+      <c r="V240">
+        <v>303</v>
+      </c>
+      <c r="W240" s="5" t="s">
+        <v>2599</v>
+      </c>
     </row>
-    <row r="241" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>15</v>
       </c>
@@ -48283,8 +53276,23 @@
       <c r="R241" s="7">
         <v>0.05</v>
       </c>
+      <c r="S241" s="5" t="s">
+        <v>2600</v>
+      </c>
+      <c r="T241" s="11" t="s">
+        <v>2602</v>
+      </c>
+      <c r="U241" s="5" t="s">
+        <v>2601</v>
+      </c>
+      <c r="V241">
+        <v>78</v>
+      </c>
+      <c r="W241" s="5" t="s">
+        <v>2603</v>
+      </c>
     </row>
-    <row r="242" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>27</v>
       </c>
@@ -48339,8 +53347,23 @@
       <c r="R242" s="7">
         <v>0.13</v>
       </c>
+      <c r="S242" s="5" t="s">
+        <v>2605</v>
+      </c>
+      <c r="T242" s="10" t="s">
+        <v>2604</v>
+      </c>
+      <c r="U242" s="5" t="s">
+        <v>2606</v>
+      </c>
+      <c r="V242">
+        <v>85</v>
+      </c>
+      <c r="W242" s="5" t="s">
+        <v>2607</v>
+      </c>
     </row>
-    <row r="243" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>27</v>
       </c>
@@ -48395,8 +53418,23 @@
       <c r="R243" s="7">
         <v>0.04</v>
       </c>
+      <c r="S243" s="5" t="s">
+        <v>2610</v>
+      </c>
+      <c r="T243" s="10" t="s">
+        <v>2608</v>
+      </c>
+      <c r="U243" s="5" t="s">
+        <v>2609</v>
+      </c>
+      <c r="V243">
+        <v>41</v>
+      </c>
+      <c r="W243" s="5" t="s">
+        <v>2611</v>
+      </c>
     </row>
-    <row r="244" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>27</v>
       </c>
@@ -48451,8 +53489,23 @@
       <c r="R244" s="7">
         <v>0.03</v>
       </c>
+      <c r="S244" s="5" t="s">
+        <v>2613</v>
+      </c>
+      <c r="T244" s="10" t="s">
+        <v>2612</v>
+      </c>
+      <c r="U244" s="5" t="s">
+        <v>2614</v>
+      </c>
+      <c r="V244">
+        <v>248</v>
+      </c>
+      <c r="W244" s="5" t="s">
+        <v>2615</v>
+      </c>
     </row>
-    <row r="245" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>27</v>
       </c>
@@ -48507,8 +53560,23 @@
       <c r="R245" s="7">
         <v>0.12</v>
       </c>
+      <c r="S245" s="5" t="s">
+        <v>2617</v>
+      </c>
+      <c r="T245" s="11" t="s">
+        <v>2618</v>
+      </c>
+      <c r="U245" s="5" t="s">
+        <v>2616</v>
+      </c>
+      <c r="V245">
+        <v>244</v>
+      </c>
+      <c r="W245" s="5" t="s">
+        <v>2619</v>
+      </c>
     </row>
-    <row r="246" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>27</v>
       </c>
@@ -48563,8 +53631,23 @@
       <c r="R246" s="7">
         <v>0.03</v>
       </c>
+      <c r="S246" s="5" t="s">
+        <v>2620</v>
+      </c>
+      <c r="T246" s="11" t="s">
+        <v>2621</v>
+      </c>
+      <c r="U246" s="5" t="s">
+        <v>2622</v>
+      </c>
+      <c r="V246">
+        <v>292</v>
+      </c>
+      <c r="W246" s="5" t="s">
+        <v>2627</v>
+      </c>
     </row>
-    <row r="247" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>27</v>
       </c>
@@ -48619,8 +53702,23 @@
       <c r="R247" s="7">
         <v>0.08</v>
       </c>
+      <c r="S247" s="5" t="s">
+        <v>2624</v>
+      </c>
+      <c r="T247" s="11" t="s">
+        <v>2625</v>
+      </c>
+      <c r="U247" s="5" t="s">
+        <v>2623</v>
+      </c>
+      <c r="V247">
+        <v>97</v>
+      </c>
+      <c r="W247" s="5" t="s">
+        <v>2626</v>
+      </c>
     </row>
-    <row r="248" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>27</v>
       </c>
@@ -48675,8 +53773,23 @@
       <c r="R248" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S248" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="T248" s="10" t="s">
+        <v>2628</v>
+      </c>
+      <c r="U248" s="5" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V248">
+        <v>173</v>
+      </c>
+      <c r="W248" s="5" t="s">
+        <v>2631</v>
+      </c>
     </row>
-    <row r="249" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>27</v>
       </c>
@@ -48731,8 +53844,23 @@
       <c r="R249" s="7">
         <v>0.28999999999999998</v>
       </c>
+      <c r="S249" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="T249" s="11" t="s">
+        <v>2633</v>
+      </c>
+      <c r="U249" s="5" t="s">
+        <v>2632</v>
+      </c>
+      <c r="V249">
+        <v>9</v>
+      </c>
+      <c r="W249" s="5" t="s">
+        <v>2635</v>
+      </c>
     </row>
-    <row r="250" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>27</v>
       </c>
@@ -48787,8 +53915,23 @@
       <c r="R250" s="7">
         <v>0.23</v>
       </c>
+      <c r="S250" s="5" t="s">
+        <v>2637</v>
+      </c>
+      <c r="T250" s="11" t="s">
+        <v>2638</v>
+      </c>
+      <c r="U250" s="5" t="s">
+        <v>2636</v>
+      </c>
+      <c r="V250">
+        <v>30</v>
+      </c>
+      <c r="W250" s="5" t="s">
+        <v>2639</v>
+      </c>
     </row>
-    <row r="251" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>27</v>
       </c>
@@ -48843,8 +53986,23 @@
       <c r="R251" s="7">
         <v>0</v>
       </c>
+      <c r="S251" s="5" t="s">
+        <v>2642</v>
+      </c>
+      <c r="T251" s="11" t="s">
+        <v>2641</v>
+      </c>
+      <c r="U251" s="5" t="s">
+        <v>2640</v>
+      </c>
+      <c r="V251">
+        <v>74</v>
+      </c>
+      <c r="W251" s="5" t="s">
+        <v>2643</v>
+      </c>
     </row>
-    <row r="252" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>27</v>
       </c>
@@ -48899,8 +54057,23 @@
       <c r="R252" s="7">
         <v>0</v>
       </c>
+      <c r="S252" s="5" t="s">
+        <v>2644</v>
+      </c>
+      <c r="T252" s="11" t="s">
+        <v>2645</v>
+      </c>
+      <c r="U252" s="5" t="s">
+        <v>2646</v>
+      </c>
+      <c r="V252">
+        <v>180</v>
+      </c>
+      <c r="W252" s="5" t="s">
+        <v>2647</v>
+      </c>
     </row>
-    <row r="253" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>27</v>
       </c>
@@ -48955,8 +54128,23 @@
       <c r="R253" s="7">
         <v>0.1</v>
       </c>
+      <c r="S253" s="5" t="s">
+        <v>2649</v>
+      </c>
+      <c r="T253" s="10" t="s">
+        <v>2648</v>
+      </c>
+      <c r="U253" s="5" t="s">
+        <v>2650</v>
+      </c>
+      <c r="V253">
+        <v>145</v>
+      </c>
+      <c r="W253" s="5" t="s">
+        <v>2651</v>
+      </c>
     </row>
-    <row r="254" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>27</v>
       </c>
@@ -49011,8 +54199,23 @@
       <c r="R254" s="7">
         <v>0.2</v>
       </c>
+      <c r="S254" s="5" t="s">
+        <v>2652</v>
+      </c>
+      <c r="T254" s="11" t="s">
+        <v>2654</v>
+      </c>
+      <c r="U254" s="5" t="s">
+        <v>2653</v>
+      </c>
+      <c r="V254">
+        <v>275</v>
+      </c>
+      <c r="W254" s="5" t="s">
+        <v>2655</v>
+      </c>
     </row>
-    <row r="255" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>27</v>
       </c>
@@ -49067,8 +54270,23 @@
       <c r="R255" s="7">
         <v>0.04</v>
       </c>
+      <c r="S255" s="5" t="s">
+        <v>2657</v>
+      </c>
+      <c r="T255" s="11" t="s">
+        <v>2658</v>
+      </c>
+      <c r="U255" s="5" t="s">
+        <v>2656</v>
+      </c>
+      <c r="V255">
+        <v>213</v>
+      </c>
+      <c r="W255" s="5" t="s">
+        <v>2659</v>
+      </c>
     </row>
-    <row r="256" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>27</v>
       </c>
@@ -49123,8 +54341,23 @@
       <c r="R256" s="7">
         <v>0.19</v>
       </c>
+      <c r="S256" s="5" t="s">
+        <v>2660</v>
+      </c>
+      <c r="T256" s="11" t="s">
+        <v>2662</v>
+      </c>
+      <c r="U256" s="5" t="s">
+        <v>2661</v>
+      </c>
+      <c r="V256">
+        <v>163</v>
+      </c>
+      <c r="W256" s="5" t="s">
+        <v>2663</v>
+      </c>
     </row>
-    <row r="257" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>27</v>
       </c>
@@ -49179,8 +54412,23 @@
       <c r="R257" s="7">
         <v>0.27</v>
       </c>
+      <c r="S257" s="5" t="s">
+        <v>2681</v>
+      </c>
+      <c r="T257" s="10" t="s">
+        <v>2680</v>
+      </c>
+      <c r="U257" s="5" t="s">
+        <v>2682</v>
+      </c>
+      <c r="V257">
+        <v>251</v>
+      </c>
+      <c r="W257" s="5" t="s">
+        <v>2683</v>
+      </c>
     </row>
-    <row r="258" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>23</v>
       </c>
@@ -49235,8 +54483,23 @@
       <c r="R258" s="7">
         <v>0</v>
       </c>
+      <c r="S258" s="5" t="s">
+        <v>2665</v>
+      </c>
+      <c r="T258" s="10" t="s">
+        <v>2664</v>
+      </c>
+      <c r="U258" t="s">
+        <v>2666</v>
+      </c>
+      <c r="V258">
+        <v>286</v>
+      </c>
+      <c r="W258" s="5" t="s">
+        <v>2667</v>
+      </c>
     </row>
-    <row r="259" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>23</v>
       </c>
@@ -49291,8 +54554,23 @@
       <c r="R259" s="7">
         <v>0</v>
       </c>
+      <c r="S259" s="5" t="s">
+        <v>2669</v>
+      </c>
+      <c r="T259" s="10" t="s">
+        <v>2668</v>
+      </c>
+      <c r="U259" s="5" t="s">
+        <v>2670</v>
+      </c>
+      <c r="V259">
+        <v>184</v>
+      </c>
+      <c r="W259" s="5" t="s">
+        <v>2671</v>
+      </c>
     </row>
-    <row r="260" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>23</v>
       </c>
@@ -49347,8 +54625,23 @@
       <c r="R260" s="7">
         <v>0.02</v>
       </c>
+      <c r="S260" s="5" t="s">
+        <v>2673</v>
+      </c>
+      <c r="T260" s="10" t="s">
+        <v>2672</v>
+      </c>
+      <c r="U260" s="5" t="s">
+        <v>2674</v>
+      </c>
+      <c r="V260">
+        <v>241</v>
+      </c>
+      <c r="W260" s="5" t="s">
+        <v>2675</v>
+      </c>
     </row>
-    <row r="261" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>23</v>
       </c>
@@ -49403,8 +54696,23 @@
       <c r="R261" s="7">
         <v>0</v>
       </c>
+      <c r="S261" s="5" t="s">
+        <v>2677</v>
+      </c>
+      <c r="T261" s="11" t="s">
+        <v>2678</v>
+      </c>
+      <c r="U261" s="5" t="s">
+        <v>2676</v>
+      </c>
+      <c r="V261">
+        <v>45</v>
+      </c>
+      <c r="W261" s="5" t="s">
+        <v>2679</v>
+      </c>
     </row>
-    <row r="262" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>23</v>
       </c>
@@ -49459,8 +54767,23 @@
       <c r="R262" s="7">
         <v>0.03</v>
       </c>
+      <c r="S262" s="5" t="s">
+        <v>2686</v>
+      </c>
+      <c r="T262" s="10" t="s">
+        <v>2684</v>
+      </c>
+      <c r="U262" t="s">
+        <v>2685</v>
+      </c>
+      <c r="V262">
+        <v>256</v>
+      </c>
+      <c r="W262" s="5" t="s">
+        <v>2687</v>
+      </c>
     </row>
-    <row r="263" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>23</v>
       </c>
@@ -49515,8 +54838,23 @@
       <c r="R263" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S263" s="5" t="s">
+        <v>2689</v>
+      </c>
+      <c r="T263" s="10" t="s">
+        <v>2688</v>
+      </c>
+      <c r="U263" s="5" t="s">
+        <v>2690</v>
+      </c>
+      <c r="V263">
+        <v>296</v>
+      </c>
+      <c r="W263" s="5" t="s">
+        <v>2691</v>
+      </c>
     </row>
-    <row r="264" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>23</v>
       </c>
@@ -49571,8 +54909,23 @@
       <c r="R264" s="7">
         <v>0.09</v>
       </c>
+      <c r="S264" s="5" t="s">
+        <v>2692</v>
+      </c>
+      <c r="T264" s="11" t="s">
+        <v>2693</v>
+      </c>
+      <c r="U264" s="5" t="s">
+        <v>2694</v>
+      </c>
+      <c r="V264">
+        <v>75</v>
+      </c>
+      <c r="W264" s="5" t="s">
+        <v>2695</v>
+      </c>
     </row>
-    <row r="265" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>23</v>
       </c>
@@ -49627,8 +54980,23 @@
       <c r="R265" s="7">
         <v>0.11</v>
       </c>
+      <c r="S265" s="5" t="s">
+        <v>2696</v>
+      </c>
+      <c r="T265" s="11" t="s">
+        <v>2697</v>
+      </c>
+      <c r="U265" s="5" t="s">
+        <v>2698</v>
+      </c>
+      <c r="V265">
+        <v>301</v>
+      </c>
+      <c r="W265" s="5" t="s">
+        <v>2699</v>
+      </c>
     </row>
-    <row r="266" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>23</v>
       </c>
@@ -49683,8 +55051,23 @@
       <c r="R266" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S266" s="5" t="s">
+        <v>2701</v>
+      </c>
+      <c r="T266" s="10" t="s">
+        <v>2700</v>
+      </c>
+      <c r="U266" s="5" t="s">
+        <v>2702</v>
+      </c>
+      <c r="V266">
+        <v>247</v>
+      </c>
+      <c r="W266" s="5" t="s">
+        <v>2703</v>
+      </c>
     </row>
-    <row r="267" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>23</v>
       </c>
@@ -49739,8 +55122,23 @@
       <c r="R267" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S267" s="5" t="s">
+        <v>2705</v>
+      </c>
+      <c r="T267" s="10" t="s">
+        <v>2704</v>
+      </c>
+      <c r="U267" s="5" t="s">
+        <v>2706</v>
+      </c>
+      <c r="V267">
+        <v>269</v>
+      </c>
+      <c r="W267" s="5" t="s">
+        <v>2707</v>
+      </c>
     </row>
-    <row r="268" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>23</v>
       </c>
@@ -49795,8 +55193,23 @@
       <c r="R268" s="7">
         <v>0.28000000000000003</v>
       </c>
+      <c r="S268" s="5" t="s">
+        <v>2710</v>
+      </c>
+      <c r="T268" s="11" t="s">
+        <v>2709</v>
+      </c>
+      <c r="U268" s="5" t="s">
+        <v>2708</v>
+      </c>
+      <c r="V268">
+        <v>92</v>
+      </c>
+      <c r="W268" s="5" t="s">
+        <v>2711</v>
+      </c>
     </row>
-    <row r="269" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>23</v>
       </c>
@@ -49851,8 +55264,23 @@
       <c r="R269" s="7">
         <v>0</v>
       </c>
+      <c r="S269" s="5" t="s">
+        <v>2713</v>
+      </c>
+      <c r="T269" s="10" t="s">
+        <v>2712</v>
+      </c>
+      <c r="U269" s="5" t="s">
+        <v>2714</v>
+      </c>
+      <c r="V269">
+        <v>174</v>
+      </c>
+      <c r="W269" s="5" t="s">
+        <v>2715</v>
+      </c>
     </row>
-    <row r="270" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>23</v>
       </c>
@@ -49907,8 +55335,23 @@
       <c r="R270" s="7">
         <v>0.12</v>
       </c>
+      <c r="S270" s="5" t="s">
+        <v>2717</v>
+      </c>
+      <c r="T270" s="10" t="s">
+        <v>2716</v>
+      </c>
+      <c r="U270" s="5" t="s">
+        <v>2718</v>
+      </c>
+      <c r="V270">
+        <v>226</v>
+      </c>
+      <c r="W270" s="5" t="s">
+        <v>2719</v>
+      </c>
     </row>
-    <row r="271" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>23</v>
       </c>
@@ -49963,8 +55406,23 @@
       <c r="R271" s="7">
         <v>0.08</v>
       </c>
+      <c r="S271" s="5" t="s">
+        <v>2722</v>
+      </c>
+      <c r="T271" s="11" t="s">
+        <v>2721</v>
+      </c>
+      <c r="U271" s="5" t="s">
+        <v>2720</v>
+      </c>
+      <c r="V271">
+        <v>190</v>
+      </c>
+      <c r="W271" s="5" t="s">
+        <v>2723</v>
+      </c>
     </row>
-    <row r="272" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>23</v>
       </c>
@@ -50019,8 +55477,23 @@
       <c r="R272" s="7">
         <v>0.11</v>
       </c>
+      <c r="S272" s="5" t="s">
+        <v>2724</v>
+      </c>
+      <c r="T272" s="11" t="s">
+        <v>2726</v>
+      </c>
+      <c r="U272" s="5" t="s">
+        <v>2725</v>
+      </c>
+      <c r="V272">
+        <v>293</v>
+      </c>
+      <c r="W272" s="5" t="s">
+        <v>2727</v>
+      </c>
     </row>
-    <row r="273" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>23</v>
       </c>
@@ -50075,8 +55548,23 @@
       <c r="R273" s="7">
         <v>0.16</v>
       </c>
+      <c r="S273" s="5" t="s">
+        <v>2728</v>
+      </c>
+      <c r="T273" s="11" t="s">
+        <v>2729</v>
+      </c>
+      <c r="U273" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="V273">
+        <v>200</v>
+      </c>
+      <c r="W273" s="5" t="s">
+        <v>2731</v>
+      </c>
     </row>
-    <row r="274" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>7</v>
       </c>
@@ -50131,8 +55619,23 @@
       <c r="R274" s="7">
         <v>0.2</v>
       </c>
+      <c r="S274" s="5" t="s">
+        <v>2734</v>
+      </c>
+      <c r="T274" s="11" t="s">
+        <v>2733</v>
+      </c>
+      <c r="U274" s="5" t="s">
+        <v>2732</v>
+      </c>
+      <c r="V274">
+        <v>207</v>
+      </c>
+      <c r="W274" s="5" t="s">
+        <v>2735</v>
+      </c>
     </row>
-    <row r="275" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>7</v>
       </c>
@@ -50187,8 +55690,23 @@
       <c r="R275" s="7">
         <v>0.08</v>
       </c>
+      <c r="S275" s="5" t="s">
+        <v>2738</v>
+      </c>
+      <c r="T275" s="11" t="s">
+        <v>2737</v>
+      </c>
+      <c r="U275" s="5" t="s">
+        <v>2736</v>
+      </c>
+      <c r="V275">
+        <v>136</v>
+      </c>
+      <c r="W275" s="5" t="s">
+        <v>2739</v>
+      </c>
     </row>
-    <row r="276" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>7</v>
       </c>
@@ -50243,8 +55761,23 @@
       <c r="R276" s="7">
         <v>0.13</v>
       </c>
+      <c r="S276" s="5" t="s">
+        <v>2741</v>
+      </c>
+      <c r="T276" s="10" t="s">
+        <v>2740</v>
+      </c>
+      <c r="U276" s="5" t="s">
+        <v>2742</v>
+      </c>
+      <c r="V276">
+        <v>181</v>
+      </c>
+      <c r="W276" s="5" t="s">
+        <v>2743</v>
+      </c>
     </row>
-    <row r="277" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>7</v>
       </c>
@@ -50299,8 +55832,23 @@
       <c r="R277" s="7">
         <v>0</v>
       </c>
+      <c r="S277" s="5" t="s">
+        <v>2746</v>
+      </c>
+      <c r="T277" s="11" t="s">
+        <v>2745</v>
+      </c>
+      <c r="U277" s="5" t="s">
+        <v>2744</v>
+      </c>
+      <c r="V277">
+        <v>58</v>
+      </c>
+      <c r="W277" s="5" t="s">
+        <v>2747</v>
+      </c>
     </row>
-    <row r="278" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>7</v>
       </c>
@@ -50355,8 +55903,23 @@
       <c r="R278" s="7">
         <v>0.11</v>
       </c>
+      <c r="S278" s="5" t="s">
+        <v>2749</v>
+      </c>
+      <c r="T278" s="11" t="s">
+        <v>2750</v>
+      </c>
+      <c r="U278" s="5" t="s">
+        <v>2748</v>
+      </c>
+      <c r="V278">
+        <v>113</v>
+      </c>
+      <c r="W278" s="5" t="s">
+        <v>2751</v>
+      </c>
     </row>
-    <row r="279" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>7</v>
       </c>
@@ -50411,8 +55974,23 @@
       <c r="R279" s="7">
         <v>0.28999999999999998</v>
       </c>
+      <c r="S279" s="5" t="s">
+        <v>2754</v>
+      </c>
+      <c r="T279" s="10" t="s">
+        <v>2752</v>
+      </c>
+      <c r="U279" s="5" t="s">
+        <v>2753</v>
+      </c>
+      <c r="V279">
+        <v>194</v>
+      </c>
+      <c r="W279" s="5" t="s">
+        <v>2755</v>
+      </c>
     </row>
-    <row r="280" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>7</v>
       </c>
@@ -50467,8 +56045,23 @@
       <c r="R280" s="7">
         <v>0.05</v>
       </c>
+      <c r="S280" s="5" t="s">
+        <v>2758</v>
+      </c>
+      <c r="T280" s="11" t="s">
+        <v>2757</v>
+      </c>
+      <c r="U280" s="5" t="s">
+        <v>2756</v>
+      </c>
+      <c r="V280">
+        <v>77</v>
+      </c>
+      <c r="W280" s="5" t="s">
+        <v>2759</v>
+      </c>
     </row>
-    <row r="281" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>7</v>
       </c>
@@ -50523,8 +56116,23 @@
       <c r="R281" s="7">
         <v>0.45</v>
       </c>
+      <c r="S281" s="5" t="s">
+        <v>2760</v>
+      </c>
+      <c r="T281" s="11" t="s">
+        <v>2761</v>
+      </c>
+      <c r="U281" s="5" t="s">
+        <v>2762</v>
+      </c>
+      <c r="V281">
+        <v>109</v>
+      </c>
+      <c r="W281" s="5" t="s">
+        <v>2763</v>
+      </c>
     </row>
-    <row r="282" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>7</v>
       </c>
@@ -50579,8 +56187,23 @@
       <c r="R282" s="7">
         <v>0</v>
       </c>
+      <c r="S282" s="5" t="s">
+        <v>2764</v>
+      </c>
+      <c r="T282" s="11" t="s">
+        <v>2765</v>
+      </c>
+      <c r="U282" s="5" t="s">
+        <v>2766</v>
+      </c>
+      <c r="V282">
+        <v>28</v>
+      </c>
+      <c r="W282" s="5" t="s">
+        <v>2767</v>
+      </c>
     </row>
-    <row r="283" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>7</v>
       </c>
@@ -50635,8 +56258,23 @@
       <c r="R283" s="7">
         <v>0.02</v>
       </c>
+      <c r="S283" s="5" t="s">
+        <v>2769</v>
+      </c>
+      <c r="T283" s="10" t="s">
+        <v>2768</v>
+      </c>
+      <c r="U283" s="5" t="s">
+        <v>2770</v>
+      </c>
+      <c r="V283">
+        <v>205</v>
+      </c>
+      <c r="W283" s="5" t="s">
+        <v>2771</v>
+      </c>
     </row>
-    <row r="284" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>7</v>
       </c>
@@ -50691,8 +56329,23 @@
       <c r="R284" s="7">
         <v>0</v>
       </c>
+      <c r="S284" s="5" t="s">
+        <v>2773</v>
+      </c>
+      <c r="T284" s="11" t="s">
+        <v>2774</v>
+      </c>
+      <c r="U284" s="5" t="s">
+        <v>2772</v>
+      </c>
+      <c r="V284">
+        <v>171</v>
+      </c>
+      <c r="W284" s="5" t="s">
+        <v>2775</v>
+      </c>
     </row>
-    <row r="285" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>7</v>
       </c>
@@ -50747,8 +56400,23 @@
       <c r="R285" s="7">
         <v>0.02</v>
       </c>
+      <c r="S285" s="5" t="s">
+        <v>2776</v>
+      </c>
+      <c r="T285" s="11" t="s">
+        <v>2778</v>
+      </c>
+      <c r="U285" s="11" t="s">
+        <v>2777</v>
+      </c>
+      <c r="V285">
+        <v>33</v>
+      </c>
+      <c r="W285" s="5" t="s">
+        <v>2779</v>
+      </c>
     </row>
-    <row r="286" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>7</v>
       </c>
@@ -50803,8 +56471,23 @@
       <c r="R286" s="7">
         <v>0.18</v>
       </c>
+      <c r="S286" s="5" t="s">
+        <v>2780</v>
+      </c>
+      <c r="T286" s="11" t="s">
+        <v>2782</v>
+      </c>
+      <c r="U286" s="5" t="s">
+        <v>2781</v>
+      </c>
+      <c r="V286">
+        <v>17</v>
+      </c>
+      <c r="W286" s="5" t="s">
+        <v>2783</v>
+      </c>
     </row>
-    <row r="287" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>7</v>
       </c>
@@ -50859,8 +56542,23 @@
       <c r="R287" s="7">
         <v>0.1</v>
       </c>
+      <c r="S287" s="5" t="s">
+        <v>2786</v>
+      </c>
+      <c r="T287" s="11" t="s">
+        <v>2785</v>
+      </c>
+      <c r="U287" s="5" t="s">
+        <v>2784</v>
+      </c>
+      <c r="V287">
+        <v>1</v>
+      </c>
+      <c r="W287" s="5" t="s">
+        <v>2787</v>
+      </c>
     </row>
-    <row r="288" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>7</v>
       </c>
@@ -50915,8 +56613,23 @@
       <c r="R288" s="7">
         <v>0</v>
       </c>
+      <c r="S288" s="5" t="s">
+        <v>2789</v>
+      </c>
+      <c r="T288" s="11" t="s">
+        <v>2790</v>
+      </c>
+      <c r="U288" s="5" t="s">
+        <v>2788</v>
+      </c>
+      <c r="V288">
+        <v>188</v>
+      </c>
+      <c r="W288" s="5" t="s">
+        <v>2791</v>
+      </c>
     </row>
-    <row r="289" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>7</v>
       </c>
@@ -50971,8 +56684,23 @@
       <c r="R289" s="7">
         <v>0.17</v>
       </c>
+      <c r="S289" s="5" t="s">
+        <v>2794</v>
+      </c>
+      <c r="T289" s="11" t="s">
+        <v>2793</v>
+      </c>
+      <c r="U289" s="5" t="s">
+        <v>2792</v>
+      </c>
+      <c r="V289">
+        <v>96</v>
+      </c>
+      <c r="W289" s="5" t="s">
+        <v>2795</v>
+      </c>
     </row>
-    <row r="290" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>314</v>
       </c>
@@ -51027,8 +56755,23 @@
       <c r="R290" s="7">
         <v>0.11</v>
       </c>
+      <c r="S290" s="5" t="s">
+        <v>2796</v>
+      </c>
+      <c r="T290" s="11" t="s">
+        <v>2798</v>
+      </c>
+      <c r="U290" s="5" t="s">
+        <v>2797</v>
+      </c>
+      <c r="V290">
+        <v>130</v>
+      </c>
+      <c r="W290" s="5" t="s">
+        <v>2799</v>
+      </c>
     </row>
-    <row r="291" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>314</v>
       </c>
@@ -51083,8 +56826,23 @@
       <c r="R291" s="7">
         <v>0.1</v>
       </c>
+      <c r="S291" s="5" t="s">
+        <v>2801</v>
+      </c>
+      <c r="T291" s="11" t="s">
+        <v>2802</v>
+      </c>
+      <c r="U291" s="5" t="s">
+        <v>2800</v>
+      </c>
+      <c r="V291">
+        <v>63</v>
+      </c>
+      <c r="W291" s="5" t="s">
+        <v>2803</v>
+      </c>
     </row>
-    <row r="292" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>314</v>
       </c>
@@ -51139,8 +56897,23 @@
       <c r="R292" s="7">
         <v>0.03</v>
       </c>
+      <c r="S292" s="5" t="s">
+        <v>2805</v>
+      </c>
+      <c r="T292" s="10" t="s">
+        <v>2804</v>
+      </c>
+      <c r="U292" s="5" t="s">
+        <v>2806</v>
+      </c>
+      <c r="V292">
+        <v>176</v>
+      </c>
+      <c r="W292" s="5" t="s">
+        <v>2807</v>
+      </c>
     </row>
-    <row r="293" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>314</v>
       </c>
@@ -51195,8 +56968,23 @@
       <c r="R293" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="S293" s="5" t="s">
+        <v>2809</v>
+      </c>
+      <c r="T293" s="11" t="s">
+        <v>2810</v>
+      </c>
+      <c r="U293" s="5" t="s">
+        <v>2808</v>
+      </c>
+      <c r="V293">
+        <v>266</v>
+      </c>
+      <c r="W293" s="5" t="s">
+        <v>2811</v>
+      </c>
     </row>
-    <row r="294" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>314</v>
       </c>
@@ -51251,8 +57039,23 @@
       <c r="R294" s="7">
         <v>0.08</v>
       </c>
+      <c r="S294" s="5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="T294" s="10" t="s">
+        <v>2812</v>
+      </c>
+      <c r="U294" s="5" t="s">
+        <v>2814</v>
+      </c>
+      <c r="V294">
+        <v>19</v>
+      </c>
+      <c r="W294" s="5" t="s">
+        <v>2815</v>
+      </c>
     </row>
-    <row r="295" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>314</v>
       </c>
@@ -51307,8 +57110,23 @@
       <c r="R295" s="7">
         <v>0.13</v>
       </c>
+      <c r="S295" s="5" t="s">
+        <v>2817</v>
+      </c>
+      <c r="T295" s="11" t="s">
+        <v>2818</v>
+      </c>
+      <c r="U295" s="5" t="s">
+        <v>2816</v>
+      </c>
+      <c r="V295">
+        <v>220</v>
+      </c>
+      <c r="W295" s="5" t="s">
+        <v>2819</v>
+      </c>
     </row>
-    <row r="296" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>314</v>
       </c>
@@ -51363,8 +57181,23 @@
       <c r="R296" s="7">
         <v>0.13</v>
       </c>
+      <c r="S296" s="5" t="s">
+        <v>2822</v>
+      </c>
+      <c r="T296" s="10" t="s">
+        <v>2820</v>
+      </c>
+      <c r="U296" s="5" t="s">
+        <v>2821</v>
+      </c>
+      <c r="V296">
+        <v>317</v>
+      </c>
+      <c r="W296" s="5" t="s">
+        <v>2823</v>
+      </c>
     </row>
-    <row r="297" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>314</v>
       </c>
@@ -51419,8 +57252,23 @@
       <c r="R297" s="7">
         <v>0.2</v>
       </c>
+      <c r="S297" s="5" t="s">
+        <v>2824</v>
+      </c>
+      <c r="T297" s="11" t="s">
+        <v>2826</v>
+      </c>
+      <c r="U297" s="5" t="s">
+        <v>2825</v>
+      </c>
+      <c r="V297">
+        <v>70</v>
+      </c>
+      <c r="W297" s="5" t="s">
+        <v>2827</v>
+      </c>
     </row>
-    <row r="298" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>314</v>
       </c>
@@ -51475,8 +57323,23 @@
       <c r="R298" s="7">
         <v>0</v>
       </c>
+      <c r="S298" s="5" t="s">
+        <v>2829</v>
+      </c>
+      <c r="T298" s="10" t="s">
+        <v>2828</v>
+      </c>
+      <c r="U298" s="5" t="s">
+        <v>2830</v>
+      </c>
+      <c r="V298">
+        <v>231</v>
+      </c>
+      <c r="W298" s="5" t="s">
+        <v>2831</v>
+      </c>
     </row>
-    <row r="299" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>314</v>
       </c>
@@ -51531,8 +57394,23 @@
       <c r="R299" s="7">
         <v>0.05</v>
       </c>
+      <c r="S299" s="5" t="s">
+        <v>2833</v>
+      </c>
+      <c r="T299" s="10" t="s">
+        <v>2832</v>
+      </c>
+      <c r="U299" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="V299">
+        <v>168</v>
+      </c>
+      <c r="W299" s="5" t="s">
+        <v>2835</v>
+      </c>
     </row>
-    <row r="300" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>314</v>
       </c>
@@ -51587,8 +57465,23 @@
       <c r="R300" s="7">
         <v>0.12</v>
       </c>
+      <c r="S300" s="5" t="s">
+        <v>2838</v>
+      </c>
+      <c r="T300" s="10" t="s">
+        <v>2836</v>
+      </c>
+      <c r="U300" s="5" t="s">
+        <v>2837</v>
+      </c>
+      <c r="V300">
+        <v>119</v>
+      </c>
+      <c r="W300" s="5" t="s">
+        <v>2839</v>
+      </c>
     </row>
-    <row r="301" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>314</v>
       </c>
@@ -51643,8 +57536,23 @@
       <c r="R301" s="7">
         <v>0.06</v>
       </c>
+      <c r="S301" s="5" t="s">
+        <v>2840</v>
+      </c>
+      <c r="T301" s="11" t="s">
+        <v>2841</v>
+      </c>
+      <c r="U301" s="5" t="s">
+        <v>2842</v>
+      </c>
+      <c r="V301">
+        <v>54</v>
+      </c>
+      <c r="W301" s="5" t="s">
+        <v>2843</v>
+      </c>
     </row>
-    <row r="302" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>314</v>
       </c>
@@ -51699,8 +57607,23 @@
       <c r="R302" s="7">
         <v>0.03</v>
       </c>
+      <c r="S302" s="5" t="s">
+        <v>2846</v>
+      </c>
+      <c r="T302" s="11" t="s">
+        <v>2845</v>
+      </c>
+      <c r="U302" s="5" t="s">
+        <v>2844</v>
+      </c>
+      <c r="V302">
+        <v>271</v>
+      </c>
+      <c r="W302" s="5" t="s">
+        <v>2847</v>
+      </c>
     </row>
-    <row r="303" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>314</v>
       </c>
@@ -51755,8 +57678,23 @@
       <c r="R303" s="7">
         <v>0</v>
       </c>
+      <c r="S303" s="5" t="s">
+        <v>2849</v>
+      </c>
+      <c r="T303" s="10" t="s">
+        <v>2848</v>
+      </c>
+      <c r="U303" s="5" t="s">
+        <v>2850</v>
+      </c>
+      <c r="V303">
+        <v>259</v>
+      </c>
+      <c r="W303" s="5" t="s">
+        <v>2851</v>
+      </c>
     </row>
-    <row r="304" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>314</v>
       </c>
@@ -51811,8 +57749,23 @@
       <c r="R304" s="7">
         <v>0.16</v>
       </c>
+      <c r="S304" s="5" t="s">
+        <v>2853</v>
+      </c>
+      <c r="T304" s="11" t="s">
+        <v>2854</v>
+      </c>
+      <c r="U304" s="5" t="s">
+        <v>2852</v>
+      </c>
+      <c r="V304">
+        <v>172</v>
+      </c>
+      <c r="W304" s="5" t="s">
+        <v>2855</v>
+      </c>
     </row>
-    <row r="305" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>314</v>
       </c>
@@ -51867,8 +57820,23 @@
       <c r="R305" s="7">
         <v>0.17</v>
       </c>
+      <c r="S305" s="5" t="s">
+        <v>2857</v>
+      </c>
+      <c r="T305" s="11" t="s">
+        <v>2858</v>
+      </c>
+      <c r="U305" s="5" t="s">
+        <v>2856</v>
+      </c>
+      <c r="V305">
+        <v>39</v>
+      </c>
+      <c r="W305" s="5" t="s">
+        <v>2859</v>
+      </c>
     </row>
-    <row r="306" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>331</v>
       </c>
@@ -51923,8 +57891,23 @@
       <c r="R306" s="7">
         <v>0.25</v>
       </c>
+      <c r="S306" s="5" t="s">
+        <v>2860</v>
+      </c>
+      <c r="T306" s="11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="U306" s="5" t="s">
+        <v>2861</v>
+      </c>
+      <c r="V306">
+        <v>21</v>
+      </c>
+      <c r="W306" s="5" t="s">
+        <v>2863</v>
+      </c>
     </row>
-    <row r="307" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>331</v>
       </c>
@@ -51979,8 +57962,23 @@
       <c r="R307" s="7">
         <v>0</v>
       </c>
+      <c r="S307" s="5" t="s">
+        <v>2865</v>
+      </c>
+      <c r="T307" s="10" t="s">
+        <v>2864</v>
+      </c>
+      <c r="U307" s="5" t="s">
+        <v>2866</v>
+      </c>
+      <c r="V307">
+        <v>239</v>
+      </c>
+      <c r="W307" s="5" t="s">
+        <v>2867</v>
+      </c>
     </row>
-    <row r="308" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>331</v>
       </c>
@@ -52035,8 +58033,23 @@
       <c r="R308" s="7">
         <v>0.03</v>
       </c>
+      <c r="S308" s="5" t="s">
+        <v>2869</v>
+      </c>
+      <c r="T308" s="10" t="s">
+        <v>2868</v>
+      </c>
+      <c r="U308" s="5" t="s">
+        <v>2870</v>
+      </c>
+      <c r="V308">
+        <v>261</v>
+      </c>
+      <c r="W308" s="5" t="s">
+        <v>2871</v>
+      </c>
     </row>
-    <row r="309" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>331</v>
       </c>
@@ -52091,8 +58104,23 @@
       <c r="R309" s="7">
         <v>0.02</v>
       </c>
+      <c r="S309" s="5" t="s">
+        <v>2872</v>
+      </c>
+      <c r="T309" s="11" t="s">
+        <v>2873</v>
+      </c>
+      <c r="U309" s="5" t="s">
+        <v>2874</v>
+      </c>
+      <c r="V309">
+        <v>164</v>
+      </c>
+      <c r="W309" s="5" t="s">
+        <v>2875</v>
+      </c>
     </row>
-    <row r="310" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>331</v>
       </c>
@@ -52147,8 +58175,23 @@
       <c r="R310" s="7">
         <v>0.05</v>
       </c>
+      <c r="S310" s="5" t="s">
+        <v>2876</v>
+      </c>
+      <c r="T310" s="11" t="s">
+        <v>2878</v>
+      </c>
+      <c r="U310" s="5" t="s">
+        <v>2877</v>
+      </c>
+      <c r="V310">
+        <v>189</v>
+      </c>
+      <c r="W310" s="5" t="s">
+        <v>2879</v>
+      </c>
     </row>
-    <row r="311" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>331</v>
       </c>
@@ -52203,8 +58246,23 @@
       <c r="R311" s="7">
         <v>0.02</v>
       </c>
+      <c r="S311" s="5" t="s">
+        <v>2882</v>
+      </c>
+      <c r="T311" s="11" t="s">
+        <v>2881</v>
+      </c>
+      <c r="U311" s="5" t="s">
+        <v>2880</v>
+      </c>
+      <c r="V311">
+        <v>211</v>
+      </c>
+      <c r="W311" s="5" t="s">
+        <v>2883</v>
+      </c>
     </row>
-    <row r="312" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>331</v>
       </c>
@@ -52259,8 +58317,23 @@
       <c r="R312" s="7">
         <v>0.33</v>
       </c>
+      <c r="S312" s="5" t="s">
+        <v>2884</v>
+      </c>
+      <c r="T312" s="11" t="s">
+        <v>2885</v>
+      </c>
+      <c r="U312" s="5" t="s">
+        <v>2886</v>
+      </c>
+      <c r="V312">
+        <v>32</v>
+      </c>
+      <c r="W312" s="5" t="s">
+        <v>2887</v>
+      </c>
     </row>
-    <row r="313" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>331</v>
       </c>
@@ -52315,8 +58388,23 @@
       <c r="R313" s="7">
         <v>0.14000000000000001</v>
       </c>
+      <c r="S313" s="5" t="s">
+        <v>2888</v>
+      </c>
+      <c r="T313" s="11" t="s">
+        <v>2889</v>
+      </c>
+      <c r="U313" s="5" t="s">
+        <v>2890</v>
+      </c>
+      <c r="V313">
+        <v>25</v>
+      </c>
+      <c r="W313" s="5" t="s">
+        <v>2891</v>
+      </c>
     </row>
-    <row r="314" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>331</v>
       </c>
@@ -52371,8 +58459,23 @@
       <c r="R314" s="7">
         <v>0</v>
       </c>
+      <c r="S314" s="5" t="s">
+        <v>2893</v>
+      </c>
+      <c r="T314" s="10" t="s">
+        <v>2892</v>
+      </c>
+      <c r="U314" s="5" t="s">
+        <v>2894</v>
+      </c>
+      <c r="V314">
+        <v>177</v>
+      </c>
+      <c r="W314" s="5" t="s">
+        <v>2895</v>
+      </c>
     </row>
-    <row r="315" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>331</v>
       </c>
@@ -52427,8 +58530,23 @@
       <c r="R315" s="7">
         <v>0.1</v>
       </c>
+      <c r="S315" s="5" t="s">
+        <v>2896</v>
+      </c>
+      <c r="T315" s="11" t="s">
+        <v>2898</v>
+      </c>
+      <c r="U315" s="5" t="s">
+        <v>2897</v>
+      </c>
+      <c r="V315">
+        <v>212</v>
+      </c>
+      <c r="W315" s="5" t="s">
+        <v>2899</v>
+      </c>
     </row>
-    <row r="316" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>331</v>
       </c>
@@ -52483,8 +58601,23 @@
       <c r="R316" s="7">
         <v>0.05</v>
       </c>
+      <c r="S316" s="5" t="s">
+        <v>2901</v>
+      </c>
+      <c r="T316" s="11" t="s">
+        <v>2902</v>
+      </c>
+      <c r="U316" s="5" t="s">
+        <v>2900</v>
+      </c>
+      <c r="V316">
+        <v>308</v>
+      </c>
+      <c r="W316" s="5" t="s">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="317" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>331</v>
       </c>
@@ -52539,8 +58672,23 @@
       <c r="R317" s="7">
         <v>0</v>
       </c>
+      <c r="S317" s="5" t="s">
+        <v>2906</v>
+      </c>
+      <c r="T317" s="11" t="s">
+        <v>2905</v>
+      </c>
+      <c r="U317" s="5" t="s">
+        <v>2904</v>
+      </c>
+      <c r="V317">
+        <v>202</v>
+      </c>
+      <c r="W317" s="5" t="s">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="318" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>331</v>
       </c>
@@ -52595,8 +58743,23 @@
       <c r="R318" s="7">
         <v>0.03</v>
       </c>
+      <c r="S318" s="5" t="s">
+        <v>2909</v>
+      </c>
+      <c r="T318" s="10" t="s">
+        <v>2908</v>
+      </c>
+      <c r="U318" s="5" t="s">
+        <v>2910</v>
+      </c>
+      <c r="V318">
+        <v>209</v>
+      </c>
+      <c r="W318" s="5" t="s">
+        <v>2911</v>
+      </c>
     </row>
-    <row r="319" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>331</v>
       </c>
@@ -52651,8 +58814,23 @@
       <c r="R319" s="7">
         <v>0.06</v>
       </c>
+      <c r="S319" s="5" t="s">
+        <v>2914</v>
+      </c>
+      <c r="T319" s="10" t="s">
+        <v>2912</v>
+      </c>
+      <c r="U319" s="5" t="s">
+        <v>2913</v>
+      </c>
+      <c r="V319">
+        <v>82</v>
+      </c>
+      <c r="W319" s="5" t="s">
+        <v>2915</v>
+      </c>
     </row>
-    <row r="320" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>331</v>
       </c>
@@ -52707,8 +58885,23 @@
       <c r="R320" s="7">
         <v>0.2</v>
       </c>
+      <c r="S320" s="5" t="s">
+        <v>2917</v>
+      </c>
+      <c r="T320" s="11" t="s">
+        <v>2918</v>
+      </c>
+      <c r="U320" s="5" t="s">
+        <v>2916</v>
+      </c>
+      <c r="V320">
+        <v>15</v>
+      </c>
+      <c r="W320" s="5" t="s">
+        <v>2919</v>
+      </c>
     </row>
-    <row r="321" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>331</v>
       </c>
@@ -52762,6 +58955,21 @@
       </c>
       <c r="R321" s="7">
         <v>0.16</v>
+      </c>
+      <c r="S321" s="5" t="s">
+        <v>2921</v>
+      </c>
+      <c r="T321" s="10" t="s">
+        <v>2920</v>
+      </c>
+      <c r="U321" s="5" t="s">
+        <v>2922</v>
+      </c>
+      <c r="V321">
+        <v>178</v>
+      </c>
+      <c r="W321" s="5" t="s">
+        <v>2923</v>
       </c>
     </row>
   </sheetData>
